--- a/Results/Baseline/Lifetime/Results_region_base_life_Max.xlsx
+++ b/Results/Baseline/Lifetime/Results_region_base_life_Max.xlsx
@@ -688,46 +688,46 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1059.139284590803</v>
+        <v>1059.139284590804</v>
       </c>
       <c r="E2">
-        <v>1384.276209611373</v>
+        <v>1384.276209611374</v>
       </c>
       <c r="F2">
-        <v>1382.787794722674</v>
+        <v>1382.787794722675</v>
       </c>
       <c r="G2">
         <v>1313.179362447009</v>
       </c>
       <c r="H2">
-        <v>1766.537561064481</v>
+        <v>1766.537561064482</v>
       </c>
       <c r="I2">
-        <v>1270.647655139912</v>
+        <v>1270.647655139913</v>
       </c>
       <c r="J2">
-        <v>2309.603474493233</v>
+        <v>2309.603474493234</v>
       </c>
       <c r="K2">
-        <v>2294.377037905997</v>
+        <v>2294.377037905998</v>
       </c>
       <c r="L2">
-        <v>2039.384192047096</v>
+        <v>2039.384192047097</v>
       </c>
       <c r="M2">
         <v>1876.933999134606</v>
       </c>
       <c r="N2">
-        <v>4033.300294713329</v>
+        <v>4033.300294713328</v>
       </c>
       <c r="O2">
         <v>2439.199525544052</v>
       </c>
       <c r="P2">
-        <v>4901.858208131989</v>
+        <v>4901.858208131991</v>
       </c>
       <c r="Q2">
-        <v>5278.222883132838</v>
+        <v>5278.222883132839</v>
       </c>
       <c r="R2">
         <v>5658.570659810671</v>
@@ -736,7 +736,7 @@
         <v>12445.17860548158</v>
       </c>
       <c r="T2">
-        <v>13353.77250883445</v>
+        <v>13353.77250883446</v>
       </c>
       <c r="U2">
         <v>14256.15277045471</v>
@@ -745,217 +745,217 @@
         <v>15141.75325973631</v>
       </c>
       <c r="W2">
-        <v>16030.4437291712</v>
+        <v>16030.44372917121</v>
       </c>
       <c r="X2">
         <v>16066.68245695719</v>
       </c>
       <c r="Y2">
-        <v>16902.5449397702</v>
+        <v>16902.54493977021</v>
       </c>
       <c r="Z2">
         <v>17760.64828669644</v>
       </c>
       <c r="AA2">
-        <v>18645.64742054413</v>
+        <v>18645.64742054414</v>
       </c>
       <c r="AB2">
         <v>19541.02351897701</v>
       </c>
       <c r="AC2">
-        <v>8973.989414252261</v>
+        <v>8973.989414252264</v>
       </c>
       <c r="AD2">
-        <v>9233.306886032115</v>
+        <v>9233.306886032116</v>
       </c>
       <c r="AE2">
-        <v>9478.112976225753</v>
+        <v>9478.112976225759</v>
       </c>
       <c r="AF2">
-        <v>9718.318300237139</v>
+        <v>9718.318300237142</v>
       </c>
       <c r="AG2">
-        <v>10037.06936138817</v>
+        <v>10037.06936138818</v>
       </c>
       <c r="AH2">
-        <v>6319.432470442773</v>
+        <v>6319.432470442775</v>
       </c>
       <c r="AI2">
-        <v>6448.970128798092</v>
+        <v>6448.970128798094</v>
       </c>
       <c r="AJ2">
-        <v>6554.738406250903</v>
+        <v>6554.738406250906</v>
       </c>
       <c r="AK2">
-        <v>6585.605447848434</v>
+        <v>6585.605447848437</v>
       </c>
       <c r="AL2">
-        <v>6832.734206177518</v>
+        <v>6832.734206177521</v>
       </c>
       <c r="AM2">
-        <v>9165.627947882418</v>
+        <v>9165.627947882422</v>
       </c>
       <c r="AN2">
-        <v>9813.128621724803</v>
+        <v>9813.128621724807</v>
       </c>
       <c r="AO2">
-        <v>10657.57020087724</v>
+        <v>10657.57020087725</v>
       </c>
       <c r="AP2">
-        <v>11965.82713243133</v>
+        <v>11965.82713243134</v>
       </c>
       <c r="AQ2">
         <v>13703.50693473008</v>
       </c>
       <c r="AR2">
-        <v>19452.32488040477</v>
+        <v>19452.32488040478</v>
       </c>
       <c r="AS2">
-        <v>21665.55192562092</v>
+        <v>21665.55192562093</v>
       </c>
       <c r="AT2">
-        <v>22912.18141060969</v>
+        <v>22912.1814106097</v>
       </c>
       <c r="AU2">
-        <v>23920.60328559381</v>
+        <v>23920.60328559382</v>
       </c>
       <c r="AV2">
-        <v>24772.82185224843</v>
+        <v>24772.82185224844</v>
       </c>
       <c r="AW2">
-        <v>26189.177833561</v>
+        <v>26189.17783356101</v>
       </c>
       <c r="AX2">
         <v>26860.40233220047</v>
       </c>
       <c r="AY2">
-        <v>27447.92155511523</v>
+        <v>27447.92155511525</v>
       </c>
       <c r="AZ2">
-        <v>27409.25014315113</v>
+        <v>27409.25014315115</v>
       </c>
       <c r="BA2">
-        <v>26044.6070501835</v>
+        <v>26044.60705018351</v>
       </c>
       <c r="BB2">
-        <v>22350.05777030308</v>
+        <v>22350.05777030309</v>
       </c>
       <c r="BC2">
-        <v>20313.69621257432</v>
+        <v>20313.69621257433</v>
       </c>
       <c r="BD2">
         <v>20107.66358120283</v>
       </c>
       <c r="BE2">
-        <v>19998.86694645849</v>
+        <v>19998.8669464585</v>
       </c>
       <c r="BF2">
         <v>19455.68535066057</v>
       </c>
       <c r="BG2">
-        <v>17797.12876923272</v>
+        <v>17797.12876923273</v>
       </c>
       <c r="BH2">
-        <v>17117.87352527365</v>
+        <v>17117.87352527366</v>
       </c>
       <c r="BI2">
         <v>17204.73403592114</v>
       </c>
       <c r="BJ2">
-        <v>17572.96400684381</v>
+        <v>17572.96400684382</v>
       </c>
       <c r="BK2">
-        <v>18295.95653887424</v>
+        <v>18295.95653887426</v>
       </c>
       <c r="BL2">
         <v>19082.36933846078</v>
       </c>
       <c r="BM2">
-        <v>20311.41568740165</v>
+        <v>20311.41568740166</v>
       </c>
       <c r="BN2">
-        <v>21552.00448313029</v>
+        <v>21552.0044831303</v>
       </c>
       <c r="BO2">
-        <v>23285.79636461264</v>
+        <v>23285.79636461265</v>
       </c>
       <c r="BP2">
-        <v>25763.93070488901</v>
+        <v>25763.93070488902</v>
       </c>
       <c r="BQ2">
-        <v>28645.65001116626</v>
+        <v>28645.65001116627</v>
       </c>
       <c r="BR2">
-        <v>31276.7994856144</v>
+        <v>31276.79948561441</v>
       </c>
       <c r="BS2">
-        <v>32875.73858927376</v>
+        <v>32875.73858927378</v>
       </c>
       <c r="BT2">
-        <v>34051.4382018271</v>
+        <v>34051.43820182711</v>
       </c>
       <c r="BU2">
-        <v>35123.5479235418</v>
+        <v>35123.54792354182</v>
       </c>
       <c r="BV2">
-        <v>35900.77023425626</v>
+        <v>35900.77023425628</v>
       </c>
       <c r="BW2">
-        <v>36643.08713344323</v>
+        <v>36643.08713344325</v>
       </c>
       <c r="BX2">
-        <v>36895.69968541876</v>
+        <v>36895.69968541878</v>
       </c>
       <c r="BY2">
-        <v>36457.36367216155</v>
+        <v>36457.36367216157</v>
       </c>
       <c r="BZ2">
-        <v>35121.09469093413</v>
+        <v>35121.09469093414</v>
       </c>
       <c r="CA2">
-        <v>32971.13046790855</v>
+        <v>32971.13046790857</v>
       </c>
       <c r="CB2">
-        <v>31370.23950474444</v>
+        <v>31370.23950474446</v>
       </c>
       <c r="CC2">
-        <v>30664.54830329422</v>
+        <v>30664.54830329424</v>
       </c>
       <c r="CD2">
-        <v>30323.21038680665</v>
+        <v>30323.21038680667</v>
       </c>
       <c r="CE2">
-        <v>29788.28684182467</v>
+        <v>29788.28684182469</v>
       </c>
       <c r="CF2">
         <v>28800.50407667994</v>
       </c>
       <c r="CG2">
-        <v>28318.16625866944</v>
+        <v>28318.16625866946</v>
       </c>
       <c r="CH2">
-        <v>28386.84270842087</v>
+        <v>28386.84270842088</v>
       </c>
       <c r="CI2">
-        <v>28861.49349569807</v>
+        <v>28861.49349569808</v>
       </c>
       <c r="CJ2">
-        <v>29608.6647944553</v>
+        <v>29608.66479445533</v>
       </c>
       <c r="CK2">
-        <v>30188.18904538008</v>
+        <v>30188.18904538011</v>
       </c>
       <c r="CL2">
-        <v>31412.56938453147</v>
+        <v>31412.5693845315</v>
       </c>
       <c r="CM2">
-        <v>32929.06868510272</v>
+        <v>32929.06868510274</v>
       </c>
       <c r="CN2">
-        <v>34813.84635463219</v>
+        <v>34813.84635463222</v>
       </c>
       <c r="CO2">
-        <v>37100.88656408404</v>
+        <v>37100.88656408407</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -965,22 +965,22 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24524384338169</v>
+        <v>70.24524384338173</v>
       </c>
       <c r="E3">
-        <v>92.03601098475775</v>
+        <v>92.03601098475779</v>
       </c>
       <c r="F3">
-        <v>91.84143428465812</v>
+        <v>91.84143428465816</v>
       </c>
       <c r="G3">
-        <v>87.16539023912887</v>
+        <v>87.16539023912891</v>
       </c>
       <c r="H3">
-        <v>117.6930680454459</v>
+        <v>117.693068045446</v>
       </c>
       <c r="I3">
-        <v>84.37773627641435</v>
+        <v>84.37773627641438</v>
       </c>
       <c r="J3">
         <v>154.0680758694731</v>
@@ -989,7 +989,7 @@
         <v>152.9236336901394</v>
       </c>
       <c r="L3">
-        <v>135.8335986499016</v>
+        <v>135.8335986499017</v>
       </c>
       <c r="M3">
         <v>124.8609374262848</v>
@@ -998,7 +998,7 @@
         <v>269.619865987091</v>
       </c>
       <c r="O3">
-        <v>162.6635173425316</v>
+        <v>162.6635173425317</v>
       </c>
       <c r="P3">
         <v>327.9658970634368</v>
@@ -1007,16 +1007,16 @@
         <v>353.2167005796579</v>
       </c>
       <c r="R3">
-        <v>378.7366872243851</v>
+        <v>378.7366872243852</v>
       </c>
       <c r="S3">
         <v>834.4092707858294</v>
       </c>
       <c r="T3">
-        <v>895.4024199357093</v>
+        <v>895.4024199357095</v>
       </c>
       <c r="U3">
-        <v>955.975592728141</v>
+        <v>955.9755927281412</v>
       </c>
       <c r="V3">
         <v>1015.422011646545</v>
@@ -1028,7 +1028,7 @@
         <v>1077.479785461946</v>
       </c>
       <c r="Y3">
-        <v>1133.59344593091</v>
+        <v>1133.593445930911</v>
       </c>
       <c r="Z3">
         <v>1191.203799062939</v>
@@ -1040,7 +1040,7 @@
         <v>1310.729094705314</v>
       </c>
       <c r="AC3">
-        <v>601.109233841963</v>
+        <v>601.1092338419631</v>
       </c>
       <c r="AD3">
         <v>618.5240841948755</v>
@@ -1049,46 +1049,46 @@
         <v>634.9813937750359</v>
       </c>
       <c r="AF3">
-        <v>651.1469151842629</v>
+        <v>651.1469151842632</v>
       </c>
       <c r="AG3">
-        <v>672.595481714156</v>
+        <v>672.5954817141561</v>
       </c>
       <c r="AH3">
-        <v>422.9607895154962</v>
+        <v>422.9607895154963</v>
       </c>
       <c r="AI3">
-        <v>431.66996422867</v>
+        <v>431.6699642286702</v>
       </c>
       <c r="AJ3">
-        <v>438.7631201354153</v>
+        <v>438.7631201354154</v>
       </c>
       <c r="AK3">
         <v>440.8191087783214</v>
       </c>
       <c r="AL3">
-        <v>457.472645677176</v>
+        <v>457.4726456771761</v>
       </c>
       <c r="AM3">
         <v>614.3361749821966</v>
       </c>
       <c r="AN3">
-        <v>658.2531669654541</v>
+        <v>658.2531669654542</v>
       </c>
       <c r="AO3">
-        <v>715.6939534714461</v>
+        <v>715.6939534714462</v>
       </c>
       <c r="AP3">
         <v>804.325089031368</v>
       </c>
       <c r="AQ3">
-        <v>921.9009156940796</v>
+        <v>921.9009156940798</v>
       </c>
       <c r="AR3">
         <v>1309.284006199682</v>
       </c>
       <c r="AS3">
-        <v>1458.862836103451</v>
+        <v>1458.862836103452</v>
       </c>
       <c r="AT3">
         <v>1542.569636339157</v>
@@ -1097,7 +1097,7 @@
         <v>1610.192938297439</v>
       </c>
       <c r="AV3">
-        <v>1667.447656494129</v>
+        <v>1667.44765649413</v>
       </c>
       <c r="AW3">
         <v>1762.557937612402</v>
@@ -1106,10 +1106,10 @@
         <v>1807.69813324213</v>
       </c>
       <c r="AY3">
-        <v>1847.332435117106</v>
+        <v>1847.332435117107</v>
       </c>
       <c r="AZ3">
-        <v>1844.674001272598</v>
+        <v>1844.674001272599</v>
       </c>
       <c r="BA3">
         <v>1752.203219190876</v>
@@ -1118,7 +1118,7 @@
         <v>1502.343683218842</v>
       </c>
       <c r="BC3">
-        <v>1364.279905476117</v>
+        <v>1364.279905476118</v>
       </c>
       <c r="BD3">
         <v>1350.356279126074</v>
@@ -1148,10 +1148,10 @@
         <v>1283.574047512591</v>
       </c>
       <c r="BM3">
-        <v>1368.101613476849</v>
+        <v>1368.10161347685</v>
       </c>
       <c r="BN3">
-        <v>1453.842853700747</v>
+        <v>1453.842853700748</v>
       </c>
       <c r="BO3">
         <v>1572.981668789663</v>
@@ -1169,31 +1169,31 @@
         <v>2225.234167809399</v>
       </c>
       <c r="BT3">
-        <v>2302.981686257624</v>
+        <v>2302.981686257625</v>
       </c>
       <c r="BU3">
-        <v>2373.252697898979</v>
+        <v>2373.25269789898</v>
       </c>
       <c r="BV3">
         <v>2423.710179054638</v>
       </c>
       <c r="BW3">
-        <v>2472.002118631699</v>
+        <v>2472.0021186317</v>
       </c>
       <c r="BX3">
         <v>2487.416734665819</v>
       </c>
       <c r="BY3">
-        <v>2456.194551122032</v>
+        <v>2456.194551122033</v>
       </c>
       <c r="BZ3">
-        <v>2364.361448791634</v>
+        <v>2364.361448791635</v>
       </c>
       <c r="CA3">
-        <v>2217.852452064762</v>
+        <v>2217.852452064763</v>
       </c>
       <c r="CB3">
-        <v>2108.798016623195</v>
+        <v>2108.798016623196</v>
       </c>
       <c r="CC3">
         <v>2060.733680814539</v>
@@ -1214,25 +1214,25 @@
         <v>1907.137304684239</v>
       </c>
       <c r="CI3">
-        <v>1939.459004042445</v>
+        <v>1939.459004042446</v>
       </c>
       <c r="CJ3">
         <v>1990.444345331788</v>
       </c>
       <c r="CK3">
-        <v>2030.743108961026</v>
+        <v>2030.743108961027</v>
       </c>
       <c r="CL3">
-        <v>2115.211929864674</v>
+        <v>2115.211929864675</v>
       </c>
       <c r="CM3">
-        <v>2220.15664275789</v>
+        <v>2220.156642757891</v>
       </c>
       <c r="CN3">
-        <v>2350.20006518132</v>
+        <v>2350.200065181321</v>
       </c>
       <c r="CO3">
-        <v>2507.304897454235</v>
+        <v>2507.304897454236</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379415.812189866</v>
+        <v>379415.8121898659</v>
       </c>
       <c r="E4">
         <v>375655.2010293379</v>
@@ -1251,31 +1251,31 @@
         <v>462127.7498927054</v>
       </c>
       <c r="G4">
-        <v>519174.8210109955</v>
+        <v>519174.8210109954</v>
       </c>
       <c r="H4">
-        <v>686320.4725532032</v>
+        <v>686320.4725532031</v>
       </c>
       <c r="I4">
-        <v>644621.5954070183</v>
+        <v>644621.5954070184</v>
       </c>
       <c r="J4">
-        <v>751936.7804672482</v>
+        <v>751936.7804672484</v>
       </c>
       <c r="K4">
-        <v>672383.4511423396</v>
+        <v>672383.4511423397</v>
       </c>
       <c r="L4">
         <v>563594.4294049976</v>
       </c>
       <c r="M4">
-        <v>1105745.277898108</v>
+        <v>1105745.277898107</v>
       </c>
       <c r="N4">
         <v>928421.7141606536</v>
       </c>
       <c r="O4">
-        <v>883010.1044453866</v>
+        <v>883010.1044453863</v>
       </c>
       <c r="P4">
         <v>3253641.389166298</v>
@@ -1290,28 +1290,28 @@
         <v>9524920.903365742</v>
       </c>
       <c r="T4">
-        <v>9550615.532623772</v>
+        <v>9550615.532623775</v>
       </c>
       <c r="U4">
-        <v>9575374.620219244</v>
+        <v>9575374.620219247</v>
       </c>
       <c r="V4">
-        <v>9601692.565233413</v>
+        <v>9601692.565233415</v>
       </c>
       <c r="W4">
         <v>9631106.054661579</v>
       </c>
       <c r="X4">
-        <v>9242634.59954037</v>
+        <v>9242634.599540371</v>
       </c>
       <c r="Y4">
-        <v>9279960.689823873</v>
+        <v>9279960.689823875</v>
       </c>
       <c r="Z4">
-        <v>9325100.091155769</v>
+        <v>9325100.091155773</v>
       </c>
       <c r="AA4">
-        <v>9378265.292980239</v>
+        <v>9378265.292980241</v>
       </c>
       <c r="AB4">
         <v>9432738.860950688</v>
@@ -1320,196 +1320,196 @@
         <v>1776656.45855646</v>
       </c>
       <c r="AD4">
-        <v>1809994.662542747</v>
+        <v>1809994.662542748</v>
       </c>
       <c r="AE4">
         <v>1849890.745773318</v>
       </c>
       <c r="AF4">
-        <v>1909412.148544513</v>
+        <v>1909412.148544514</v>
       </c>
       <c r="AG4">
-        <v>1977560.072473577</v>
+        <v>1977560.072473578</v>
       </c>
       <c r="AH4">
-        <v>-24946.58176957047</v>
+        <v>-24946.58176957037</v>
       </c>
       <c r="AI4">
-        <v>-74940.23239839343</v>
+        <v>-74940.23239839337</v>
       </c>
       <c r="AJ4">
-        <v>-169470.0458366636</v>
+        <v>-169470.0458366634</v>
       </c>
       <c r="AK4">
-        <v>-119842.6870025559</v>
+        <v>-119842.6870025557</v>
       </c>
       <c r="AL4">
-        <v>42750.79740389565</v>
+        <v>42750.79740389599</v>
       </c>
       <c r="AM4">
-        <v>420887.9763359905</v>
+        <v>420887.976335991</v>
       </c>
       <c r="AN4">
-        <v>644534.8671447204</v>
+        <v>644534.867144721</v>
       </c>
       <c r="AO4">
-        <v>991682.2046006096</v>
+        <v>991682.2046006097</v>
       </c>
       <c r="AP4">
-        <v>1373894.970668201</v>
+        <v>1373894.970668202</v>
       </c>
       <c r="AQ4">
-        <v>1769535.587008961</v>
+        <v>1769535.587008962</v>
       </c>
       <c r="AR4">
-        <v>3366062.832688084</v>
+        <v>3366062.832688086</v>
       </c>
       <c r="AS4">
-        <v>3769988.742905196</v>
+        <v>3769988.742905199</v>
       </c>
       <c r="AT4">
-        <v>4004422.821859085</v>
+        <v>4004422.821859087</v>
       </c>
       <c r="AU4">
-        <v>4178129.074764093</v>
+        <v>4178129.074764094</v>
       </c>
       <c r="AV4">
-        <v>4293600.599889134</v>
+        <v>4293600.599889135</v>
       </c>
       <c r="AW4">
-        <v>4478536.965707052</v>
+        <v>4478536.965707054</v>
       </c>
       <c r="AX4">
-        <v>4480491.002377436</v>
+        <v>4480491.002377438</v>
       </c>
       <c r="AY4">
-        <v>4434882.353440779</v>
+        <v>4434882.353440782</v>
       </c>
       <c r="AZ4">
-        <v>4267560.3453387</v>
+        <v>4267560.345338702</v>
       </c>
       <c r="BA4">
-        <v>3901325.572316343</v>
+        <v>3901325.572316344</v>
       </c>
       <c r="BB4">
-        <v>3125150.50126861</v>
+        <v>3125150.501268613</v>
       </c>
       <c r="BC4">
-        <v>2650007.920462155</v>
+        <v>2650007.920462157</v>
       </c>
       <c r="BD4">
-        <v>2395795.310578498</v>
+        <v>2395795.3105785</v>
       </c>
       <c r="BE4">
-        <v>2164845.295306458</v>
+        <v>2164845.29530646</v>
       </c>
       <c r="BF4">
-        <v>1911777.973424782</v>
+        <v>1911777.973424783</v>
       </c>
       <c r="BG4">
-        <v>1579272.585391205</v>
+        <v>1579272.585391206</v>
       </c>
       <c r="BH4">
-        <v>1426664.812879042</v>
+        <v>1426664.812879043</v>
       </c>
       <c r="BI4">
-        <v>1318935.057713227</v>
+        <v>1318935.057713228</v>
       </c>
       <c r="BJ4">
-        <v>1256065.726650145</v>
+        <v>1256065.726650146</v>
       </c>
       <c r="BK4">
-        <v>1237668.509123557</v>
+        <v>1237668.509123558</v>
       </c>
       <c r="BL4">
-        <v>1164655.183807271</v>
+        <v>1164655.183807272</v>
       </c>
       <c r="BM4">
         <v>1343898.236572648</v>
       </c>
       <c r="BN4">
-        <v>1599405.908329839</v>
+        <v>1599405.90832984</v>
       </c>
       <c r="BO4">
-        <v>1927710.823063603</v>
+        <v>1927710.823063604</v>
       </c>
       <c r="BP4">
         <v>2315311.810549064</v>
       </c>
       <c r="BQ4">
-        <v>2679422.207431022</v>
+        <v>2679422.207431023</v>
       </c>
       <c r="BR4">
         <v>3034073.949479068</v>
       </c>
       <c r="BS4">
-        <v>3254625.103837163</v>
+        <v>3254625.103837165</v>
       </c>
       <c r="BT4">
-        <v>3398376.333973767</v>
+        <v>3398376.333973769</v>
       </c>
       <c r="BU4">
-        <v>3502754.919728168</v>
+        <v>3502754.919728169</v>
       </c>
       <c r="BV4">
-        <v>3503173.474681264</v>
+        <v>3503173.474681265</v>
       </c>
       <c r="BW4">
-        <v>3531988.657728177</v>
+        <v>3531988.657728178</v>
       </c>
       <c r="BX4">
-        <v>3497821.456168291</v>
+        <v>3497821.456168293</v>
       </c>
       <c r="BY4">
-        <v>3368535.692003679</v>
+        <v>3368535.69200368</v>
       </c>
       <c r="BZ4">
-        <v>3122191.94638282</v>
+        <v>3122191.946382822</v>
       </c>
       <c r="CA4">
-        <v>2766480.257688881</v>
+        <v>2766480.257688883</v>
       </c>
       <c r="CB4">
-        <v>2515560.809209662</v>
+        <v>2515560.809209663</v>
       </c>
       <c r="CC4">
-        <v>2425245.321872714</v>
+        <v>2425245.321872715</v>
       </c>
       <c r="CD4">
-        <v>2306795.590696629</v>
+        <v>2306795.590696631</v>
       </c>
       <c r="CE4">
-        <v>2170612.469508876</v>
+        <v>2170612.469508877</v>
       </c>
       <c r="CF4">
-        <v>2010119.130113508</v>
+        <v>2010119.130113509</v>
       </c>
       <c r="CG4">
-        <v>1876243.926967863</v>
+        <v>1876243.926967864</v>
       </c>
       <c r="CH4">
-        <v>1771653.186172089</v>
+        <v>1771653.186172091</v>
       </c>
       <c r="CI4">
-        <v>1694986.369049204</v>
+        <v>1694986.369049205</v>
       </c>
       <c r="CJ4">
-        <v>1640442.109926271</v>
+        <v>1640442.109926273</v>
       </c>
       <c r="CK4">
-        <v>1587386.453511806</v>
+        <v>1587386.453511807</v>
       </c>
       <c r="CL4">
-        <v>1603973.564472884</v>
+        <v>1603973.564472886</v>
       </c>
       <c r="CM4">
-        <v>1770604.620502297</v>
+        <v>1770604.620502298</v>
       </c>
       <c r="CN4">
         <v>2000059.439957388</v>
       </c>
       <c r="CO4">
-        <v>2266870.434948119</v>
+        <v>2266870.43494812</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724032.564966474</v>
+        <v>1724032.564966476</v>
       </c>
       <c r="E5">
-        <v>1167870.21673599</v>
+        <v>1167870.216735991</v>
       </c>
       <c r="F5">
-        <v>1138582.35113465</v>
+        <v>1138582.351134651</v>
       </c>
       <c r="G5">
         <v>1090559.827325282</v>
@@ -1546,7 +1546,7 @@
         <v>1159107.101924699</v>
       </c>
       <c r="M5">
-        <v>1318428.379945172</v>
+        <v>1318428.379945173</v>
       </c>
       <c r="N5">
         <v>1377474.737964632</v>
@@ -1567,19 +1567,19 @@
         <v>45867176.15755987</v>
       </c>
       <c r="T5">
-        <v>45891459.27645922</v>
+        <v>45891459.27645923</v>
       </c>
       <c r="U5">
-        <v>45922057.17726884</v>
+        <v>45922057.17726885</v>
       </c>
       <c r="V5">
         <v>45960183.79527504</v>
       </c>
       <c r="W5">
-        <v>46007326.31081543</v>
+        <v>46007326.31081544</v>
       </c>
       <c r="X5">
-        <v>48223423.74293376</v>
+        <v>48223423.74293375</v>
       </c>
       <c r="Y5">
         <v>48295010.52424984</v>
@@ -1588,10 +1588,10 @@
         <v>48383588.73983262</v>
       </c>
       <c r="AA5">
-        <v>48493936.34295233</v>
+        <v>48493936.34295234</v>
       </c>
       <c r="AB5">
-        <v>48632565.72809169</v>
+        <v>48632565.7280917</v>
       </c>
       <c r="AC5">
         <v>13322040.60559872</v>
@@ -1609,22 +1609,22 @@
         <v>14690527.41116675</v>
       </c>
       <c r="AH5">
-        <v>4595714.895696984</v>
+        <v>4595714.895696983</v>
       </c>
       <c r="AI5">
-        <v>4900359.352141103</v>
+        <v>4900359.352141101</v>
       </c>
       <c r="AJ5">
-        <v>5304383.130221159</v>
+        <v>5304383.130221157</v>
       </c>
       <c r="AK5">
-        <v>6391007.299997725</v>
+        <v>6391007.299997724</v>
       </c>
       <c r="AL5">
-        <v>7755457.069149658</v>
+        <v>7755457.069149657</v>
       </c>
       <c r="AM5">
-        <v>14220743.28085577</v>
+        <v>14220743.28085576</v>
       </c>
       <c r="AN5">
         <v>16383235.35581584</v>
@@ -1657,7 +1657,7 @@
         <v>48540714.5449511</v>
       </c>
       <c r="AX5">
-        <v>49277803.0694144</v>
+        <v>49277803.06941441</v>
       </c>
       <c r="AY5">
         <v>49244986.6336152</v>
@@ -1690,10 +1690,10 @@
         <v>28985002.40552568</v>
       </c>
       <c r="BI5">
-        <v>27846106.22937472</v>
+        <v>27846106.22937471</v>
       </c>
       <c r="BJ5">
-        <v>27343512.58051786</v>
+        <v>27343512.58051785</v>
       </c>
       <c r="BK5">
         <v>27487514.43303758</v>
@@ -1705,13 +1705,13 @@
         <v>29438915.63752145</v>
       </c>
       <c r="BN5">
-        <v>31221568.50494811</v>
+        <v>31221568.5049481</v>
       </c>
       <c r="BO5">
-        <v>33380365.26179885</v>
+        <v>33380365.26179884</v>
       </c>
       <c r="BP5">
-        <v>35812981.327316</v>
+        <v>35812981.32731599</v>
       </c>
       <c r="BQ5">
         <v>38413103.76917962</v>
@@ -1729,7 +1729,7 @@
         <v>48297686.20823826</v>
       </c>
       <c r="BV5">
-        <v>49964974.75594865</v>
+        <v>49964974.75594864</v>
       </c>
       <c r="BW5">
         <v>51438144.56317781</v>
@@ -1741,22 +1741,22 @@
         <v>53080639.62173788</v>
       </c>
       <c r="BZ5">
-        <v>53239741.39695467</v>
+        <v>53239741.39695466</v>
       </c>
       <c r="CA5">
-        <v>52672031.93333853</v>
+        <v>52672031.93333852</v>
       </c>
       <c r="CB5">
         <v>52066994.39787915</v>
       </c>
       <c r="CC5">
-        <v>51176721.35110089</v>
+        <v>51176721.35110088</v>
       </c>
       <c r="CD5">
         <v>50085252.49824399</v>
       </c>
       <c r="CE5">
-        <v>48885000.83732402</v>
+        <v>48885000.83732401</v>
       </c>
       <c r="CF5">
         <v>47137164.67275425</v>
@@ -1765,22 +1765,22 @@
         <v>46002273.57417694</v>
       </c>
       <c r="CH5">
-        <v>45030119.58602881</v>
+        <v>45030119.5860288</v>
       </c>
       <c r="CI5">
-        <v>44291207.07264365</v>
+        <v>44291207.07264364</v>
       </c>
       <c r="CJ5">
-        <v>43838989.60225462</v>
+        <v>43838989.60225461</v>
       </c>
       <c r="CK5">
-        <v>42873256.45606732</v>
+        <v>42873256.45606731</v>
       </c>
       <c r="CL5">
-        <v>43077240.57027947</v>
+        <v>43077240.57027946</v>
       </c>
       <c r="CM5">
-        <v>43611387.44985104</v>
+        <v>43611387.44985103</v>
       </c>
       <c r="CN5">
         <v>44452785.40707497</v>
@@ -1800,13 +1800,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465595600423422</v>
+        <v>0.8465595600423425</v>
       </c>
       <c r="E6">
-        <v>0.8595197651541706</v>
+        <v>0.8595197651541708</v>
       </c>
       <c r="F6">
-        <v>0.9079228934853469</v>
+        <v>0.9079228934853474</v>
       </c>
       <c r="G6">
         <v>0.9150867442220518</v>
@@ -1851,7 +1851,7 @@
         <v>1.348558525759459</v>
       </c>
       <c r="U6">
-        <v>1.382227167008883</v>
+        <v>1.382227167008884</v>
       </c>
       <c r="V6">
         <v>1.41594547572122</v>
@@ -1860,7 +1860,7 @@
         <v>1.449777358432138</v>
       </c>
       <c r="X6">
-        <v>1.481949353417498</v>
+        <v>1.481949353417499</v>
       </c>
       <c r="Y6">
         <v>1.514524065004068</v>
@@ -1872,7 +1872,7 @@
         <v>1.579899270867789</v>
       </c>
       <c r="AB6">
-        <v>1.612543805337133</v>
+        <v>1.612543805337134</v>
       </c>
       <c r="AC6">
         <v>1.558049130040222</v>
@@ -1911,13 +1911,13 @@
         <v>1.928225660812672</v>
       </c>
       <c r="AO6">
-        <v>1.96928416956529</v>
+        <v>1.969284169565291</v>
       </c>
       <c r="AP6">
         <v>2.011663671699302</v>
       </c>
       <c r="AQ6">
-        <v>2.055761065258545</v>
+        <v>2.055761065258546</v>
       </c>
       <c r="AR6">
         <v>2.12128975095429</v>
@@ -1947,7 +1947,7 @@
         <v>2.434375966692778</v>
       </c>
       <c r="BA6">
-        <v>2.463404810291924</v>
+        <v>2.463404810291925</v>
       </c>
       <c r="BB6">
         <v>2.487596392448098</v>
@@ -1959,7 +1959,7 @@
         <v>2.552606625874561</v>
       </c>
       <c r="BE6">
-        <v>2.588320118189145</v>
+        <v>2.588320118189146</v>
       </c>
       <c r="BF6">
         <v>2.623546534012025</v>
@@ -1977,10 +1977,10 @@
         <v>2.782865531599062</v>
       </c>
       <c r="BK6">
-        <v>2.827068227188551</v>
+        <v>2.827068227188552</v>
       </c>
       <c r="BL6">
-        <v>2.874448039645782</v>
+        <v>2.874448039645784</v>
       </c>
       <c r="BM6">
         <v>2.92457674970652</v>
@@ -2001,7 +2001,7 @@
         <v>3.206515643873682</v>
       </c>
       <c r="BS6">
-        <v>3.261605606764555</v>
+        <v>3.261605606764556</v>
       </c>
       <c r="BT6">
         <v>3.314534854248498</v>
@@ -2016,10 +2016,10 @@
         <v>3.472837191152023</v>
       </c>
       <c r="BX6">
-        <v>3.523974432120715</v>
+        <v>3.523974432120716</v>
       </c>
       <c r="BY6">
-        <v>3.572707279362287</v>
+        <v>3.572707279362288</v>
       </c>
       <c r="BZ6">
         <v>3.618562050998833</v>
@@ -2034,13 +2034,13 @@
         <v>3.763882634154156</v>
       </c>
       <c r="CD6">
-        <v>3.815546738350111</v>
+        <v>3.815546738350112</v>
       </c>
       <c r="CE6">
-        <v>3.866887212975915</v>
+        <v>3.866887212975916</v>
       </c>
       <c r="CF6">
-        <v>3.920191046686215</v>
+        <v>3.920191046686214</v>
       </c>
       <c r="CG6">
         <v>3.975049337479129</v>
@@ -2058,7 +2058,7 @@
         <v>4.205600865686969</v>
       </c>
       <c r="CL6">
-        <v>4.268823030231853</v>
+        <v>4.268823030231854</v>
       </c>
       <c r="CM6">
         <v>4.334341486380333</v>
@@ -2067,7 +2067,7 @@
         <v>4.40182482783023</v>
       </c>
       <c r="CO6">
-        <v>4.47059796929146</v>
+        <v>4.470597969291462</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -2080,19 +2080,19 @@
         <v>0.04257156378650376</v>
       </c>
       <c r="E7">
-        <v>0.04268935089960362</v>
+        <v>0.0426893508996036</v>
       </c>
       <c r="F7">
-        <v>0.04442424586688841</v>
+        <v>0.0444242458668884</v>
       </c>
       <c r="G7">
         <v>0.04489239275255666</v>
       </c>
       <c r="H7">
-        <v>0.04438162539431267</v>
+        <v>0.04438162539431266</v>
       </c>
       <c r="I7">
-        <v>0.04369931100974852</v>
+        <v>0.04369931100974851</v>
       </c>
       <c r="J7">
         <v>0.04501407986295272</v>
@@ -2107,91 +2107,91 @@
         <v>0.05433788080029255</v>
       </c>
       <c r="N7">
-        <v>0.05775329933001947</v>
+        <v>0.05775329933001946</v>
       </c>
       <c r="O7">
-        <v>0.05280635497867932</v>
+        <v>0.05280635497867931</v>
       </c>
       <c r="P7">
-        <v>0.0568196219214837</v>
+        <v>0.05681962192148369</v>
       </c>
       <c r="Q7">
-        <v>0.05823911108233024</v>
+        <v>0.05823911108233022</v>
       </c>
       <c r="R7">
-        <v>0.05966366575391522</v>
+        <v>0.05966366575391521</v>
       </c>
       <c r="S7">
-        <v>0.06461829272994805</v>
+        <v>0.06461829272994804</v>
       </c>
       <c r="T7">
-        <v>0.06630445664266006</v>
+        <v>0.06630445664266005</v>
       </c>
       <c r="U7">
-        <v>0.0679839277719244</v>
+        <v>0.06798392777192439</v>
       </c>
       <c r="V7">
-        <v>0.06966569927047218</v>
+        <v>0.06966569927047217</v>
       </c>
       <c r="W7">
-        <v>0.07135283937093399</v>
+        <v>0.07135283937093398</v>
       </c>
       <c r="X7">
-        <v>0.07291288459310567</v>
+        <v>0.07291288459310566</v>
       </c>
       <c r="Y7">
-        <v>0.07453423706345484</v>
+        <v>0.07453423706345483</v>
       </c>
       <c r="Z7">
-        <v>0.07615957751292385</v>
+        <v>0.07615957751292383</v>
       </c>
       <c r="AA7">
-        <v>0.07778715840277048</v>
+        <v>0.07778715840277045</v>
       </c>
       <c r="AB7">
-        <v>0.07941098906631026</v>
+        <v>0.07941098906631024</v>
       </c>
       <c r="AC7">
-        <v>0.07728764971888302</v>
+        <v>0.07728764971888301</v>
       </c>
       <c r="AD7">
-        <v>0.07893908166724677</v>
+        <v>0.07893908166724674</v>
       </c>
       <c r="AE7">
-        <v>0.08058752060649738</v>
+        <v>0.08058752060649735</v>
       </c>
       <c r="AF7">
-        <v>0.08225086639335281</v>
+        <v>0.0822508663933528</v>
       </c>
       <c r="AG7">
-        <v>0.0839329092923497</v>
+        <v>0.08393290929234966</v>
       </c>
       <c r="AH7">
-        <v>0.0846233845937167</v>
+        <v>0.08462338459371667</v>
       </c>
       <c r="AI7">
-        <v>0.08630565449462999</v>
+        <v>0.08630565449462992</v>
       </c>
       <c r="AJ7">
-        <v>0.08799272006822328</v>
+        <v>0.08799272006822326</v>
       </c>
       <c r="AK7">
         <v>0.08972528377544846</v>
       </c>
       <c r="AL7">
-        <v>0.09150253494050445</v>
+        <v>0.09150253494050442</v>
       </c>
       <c r="AM7">
-        <v>0.09373747940457719</v>
+        <v>0.09373747940457716</v>
       </c>
       <c r="AN7">
-        <v>0.09562101792769236</v>
+        <v>0.09562101792769234</v>
       </c>
       <c r="AO7">
-        <v>0.09761050253183547</v>
+        <v>0.09761050253183544</v>
       </c>
       <c r="AP7">
-        <v>0.09965972555706051</v>
+        <v>0.09965972555706049</v>
       </c>
       <c r="AQ7">
         <v>0.101787892872479</v>
@@ -2224,10 +2224,10 @@
         <v>0.1200570547612874</v>
       </c>
       <c r="BA7">
-        <v>0.121515532647299</v>
+        <v>0.1215155326472989</v>
       </c>
       <c r="BB7">
-        <v>0.1227667359341306</v>
+        <v>0.1227667359341305</v>
       </c>
       <c r="BC7">
         <v>0.1242776861014075</v>
@@ -2242,7 +2242,7 @@
         <v>0.129611056396164</v>
       </c>
       <c r="BG7">
-        <v>0.131427361809492</v>
+        <v>0.1314273618094919</v>
       </c>
       <c r="BH7">
         <v>0.1333839757057342</v>
@@ -2254,13 +2254,13 @@
         <v>0.1375257001821836</v>
       </c>
       <c r="BK7">
-        <v>0.1396917846108579</v>
+        <v>0.1396917846108578</v>
       </c>
       <c r="BL7">
-        <v>0.141999971139182</v>
+        <v>0.1419999711391819</v>
       </c>
       <c r="BM7">
-        <v>0.1444328805664907</v>
+        <v>0.1444328805664906</v>
       </c>
       <c r="BN7">
         <v>0.1469485598975707</v>
@@ -2272,10 +2272,10 @@
         <v>0.152272816834261</v>
       </c>
       <c r="BQ7">
-        <v>0.1551916469497782</v>
+        <v>0.1551916469497781</v>
       </c>
       <c r="BR7">
-        <v>0.1580304558758045</v>
+        <v>0.1580304558758044</v>
       </c>
       <c r="BS7">
         <v>0.1606852151682839</v>
@@ -2302,10 +2302,10 @@
         <v>0.1779960668298724</v>
       </c>
       <c r="CA7">
-        <v>0.1802632373459555</v>
+        <v>0.1802632373459554</v>
       </c>
       <c r="CB7">
-        <v>0.1826168967794158</v>
+        <v>0.1826168967794157</v>
       </c>
       <c r="CC7">
         <v>0.1851253463889717</v>
@@ -2326,7 +2326,7 @@
         <v>0.1982273540902579</v>
       </c>
       <c r="CI7">
-        <v>0.2010034123718232</v>
+        <v>0.2010034123718231</v>
       </c>
       <c r="CJ7">
         <v>0.2038196260314357</v>
@@ -2341,7 +2341,7 @@
         <v>0.2130074871013762</v>
       </c>
       <c r="CN7">
-        <v>0.2162746702829924</v>
+        <v>0.2162746702829923</v>
       </c>
       <c r="CO7">
         <v>0.2195999769240498</v>
@@ -2354,274 +2354,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804740.9677305474</v>
+        <v>804740.9677305479</v>
       </c>
       <c r="E8">
-        <v>568037.7697088734</v>
+        <v>568037.7697088737</v>
       </c>
       <c r="F8">
-        <v>362791.2321568377</v>
+        <v>362791.2321568378</v>
       </c>
       <c r="G8">
         <v>301166.958270872</v>
       </c>
       <c r="H8">
-        <v>323074.4777282401</v>
+        <v>323074.4777282403</v>
       </c>
       <c r="I8">
-        <v>254680.7269388544</v>
+        <v>254680.7269388545</v>
       </c>
       <c r="J8">
-        <v>287536.8533744942</v>
+        <v>287536.8533744944</v>
       </c>
       <c r="K8">
-        <v>249654.9143406733</v>
+        <v>249654.9143406734</v>
       </c>
       <c r="L8">
-        <v>298541.858746265</v>
+        <v>298541.8587462652</v>
       </c>
       <c r="M8">
-        <v>261440.223701056</v>
+        <v>261440.2237010561</v>
       </c>
       <c r="N8">
-        <v>299683.0665057348</v>
+        <v>299683.0665057349</v>
       </c>
       <c r="O8">
-        <v>403426.0539266484</v>
+        <v>403426.0539266486</v>
       </c>
       <c r="P8">
-        <v>1730577.548936773</v>
+        <v>1730577.548936774</v>
       </c>
       <c r="Q8">
-        <v>1740532.243259604</v>
+        <v>1740532.243259605</v>
       </c>
       <c r="R8">
-        <v>1756812.933970502</v>
+        <v>1756812.933970503</v>
       </c>
       <c r="S8">
-        <v>5713461.608075344</v>
+        <v>5713461.608075348</v>
       </c>
       <c r="T8">
-        <v>5741795.275338978</v>
+        <v>5741795.27533898</v>
       </c>
       <c r="U8">
-        <v>5759785.389981045</v>
+        <v>5759785.389981049</v>
       </c>
       <c r="V8">
-        <v>5778092.258635239</v>
+        <v>5778092.258635242</v>
       </c>
       <c r="W8">
-        <v>5801008.173470936</v>
+        <v>5801008.173470938</v>
       </c>
       <c r="X8">
-        <v>5505999.103910497</v>
+        <v>5505999.1039105</v>
       </c>
       <c r="Y8">
-        <v>5530424.521999756</v>
+        <v>5530424.521999759</v>
       </c>
       <c r="Z8">
-        <v>5556081.478035104</v>
+        <v>5556081.478035109</v>
       </c>
       <c r="AA8">
-        <v>5584963.693900904</v>
+        <v>5584963.693900907</v>
       </c>
       <c r="AB8">
-        <v>5612676.01097183</v>
+        <v>5612676.010971833</v>
       </c>
       <c r="AC8">
-        <v>1102408.410836619</v>
+        <v>1102408.41083662</v>
       </c>
       <c r="AD8">
         <v>1124577.598904702</v>
       </c>
       <c r="AE8">
-        <v>1147775.293128663</v>
+        <v>1147775.293128664</v>
       </c>
       <c r="AF8">
-        <v>1173438.460182814</v>
+        <v>1173438.460182815</v>
       </c>
       <c r="AG8">
         <v>1206081.187123298</v>
       </c>
       <c r="AH8">
-        <v>6058.403325266582</v>
+        <v>6058.403325266721</v>
       </c>
       <c r="AI8">
-        <v>-20571.63928605946</v>
+        <v>-20571.63928605934</v>
       </c>
       <c r="AJ8">
-        <v>-43576.78945430991</v>
+        <v>-43576.78945430986</v>
       </c>
       <c r="AK8">
-        <v>16870.87301062372</v>
+        <v>16870.87301062388</v>
       </c>
       <c r="AL8">
-        <v>88468.05461797271</v>
+        <v>88468.05461797294</v>
       </c>
       <c r="AM8">
-        <v>901132.0428885778</v>
+        <v>901132.0428885786</v>
       </c>
       <c r="AN8">
-        <v>1058273.887631906</v>
+        <v>1058273.887631907</v>
       </c>
       <c r="AO8">
-        <v>1253073.804424353</v>
+        <v>1253073.804424354</v>
       </c>
       <c r="AP8">
-        <v>1484515.38594749</v>
+        <v>1484515.385947491</v>
       </c>
       <c r="AQ8">
-        <v>1782510.815857243</v>
+        <v>1782510.815857244</v>
       </c>
       <c r="AR8">
-        <v>2612410.560703062</v>
+        <v>2612410.560703064</v>
       </c>
       <c r="AS8">
-        <v>2922477.483580223</v>
+        <v>2922477.483580226</v>
       </c>
       <c r="AT8">
-        <v>3103766.997064434</v>
+        <v>3103766.997064438</v>
       </c>
       <c r="AU8">
-        <v>3238523.975459087</v>
+        <v>3238523.97545909</v>
       </c>
       <c r="AV8">
-        <v>3333768.012110037</v>
+        <v>3333768.012110041</v>
       </c>
       <c r="AW8">
-        <v>3553356.669519506</v>
+        <v>3553356.66951951</v>
       </c>
       <c r="AX8">
-        <v>3561491.355221198</v>
+        <v>3561491.355221201</v>
       </c>
       <c r="AY8">
-        <v>3526800.658303995</v>
+        <v>3526800.658303998</v>
       </c>
       <c r="AZ8">
-        <v>3416774.27880977</v>
+        <v>3416774.278809774</v>
       </c>
       <c r="BA8">
-        <v>3197655.701709101</v>
+        <v>3197655.701709103</v>
       </c>
       <c r="BB8">
-        <v>2786816.270486472</v>
+        <v>2786816.270486475</v>
       </c>
       <c r="BC8">
-        <v>2501576.936416636</v>
+        <v>2501576.936416639</v>
       </c>
       <c r="BD8">
-        <v>2320666.317542678</v>
+        <v>2320666.317542681</v>
       </c>
       <c r="BE8">
-        <v>2151957.527435285</v>
+        <v>2151957.527435287</v>
       </c>
       <c r="BF8">
-        <v>1979201.935429504</v>
+        <v>1979201.935429506</v>
       </c>
       <c r="BG8">
-        <v>1755375.702390946</v>
+        <v>1755375.702390947</v>
       </c>
       <c r="BH8">
-        <v>1647993.87448393</v>
+        <v>1647993.874483932</v>
       </c>
       <c r="BI8">
-        <v>1579100.160090916</v>
+        <v>1579100.160090918</v>
       </c>
       <c r="BJ8">
-        <v>1548509.012489439</v>
+        <v>1548509.012489441</v>
       </c>
       <c r="BK8">
-        <v>1557832.550575937</v>
+        <v>1557832.550575938</v>
       </c>
       <c r="BL8">
-        <v>1545755.33072816</v>
+        <v>1545755.330728162</v>
       </c>
       <c r="BM8">
-        <v>1650719.096912753</v>
+        <v>1650719.096912754</v>
       </c>
       <c r="BN8">
-        <v>1817871.253283036</v>
+        <v>1817871.253283038</v>
       </c>
       <c r="BO8">
-        <v>2035338.862392679</v>
+        <v>2035338.86239268</v>
       </c>
       <c r="BP8">
-        <v>2304356.919408831</v>
+        <v>2304356.919408833</v>
       </c>
       <c r="BQ8">
-        <v>2555604.662232644</v>
+        <v>2555604.662232647</v>
       </c>
       <c r="BR8">
-        <v>2814458.004078785</v>
+        <v>2814458.004078787</v>
       </c>
       <c r="BS8">
-        <v>2994128.327215279</v>
+        <v>2994128.327215282</v>
       </c>
       <c r="BT8">
-        <v>3119647.475462745</v>
+        <v>3119647.475462748</v>
       </c>
       <c r="BU8">
-        <v>3216778.560431169</v>
+        <v>3216778.560431173</v>
       </c>
       <c r="BV8">
-        <v>3244909.332179727</v>
+        <v>3244909.33217973</v>
       </c>
       <c r="BW8">
-        <v>3286487.240276631</v>
+        <v>3286487.240276634</v>
       </c>
       <c r="BX8">
-        <v>3285208.963461955</v>
+        <v>3285208.963461958</v>
       </c>
       <c r="BY8">
-        <v>3228583.517437398</v>
+        <v>3228583.517437401</v>
       </c>
       <c r="BZ8">
-        <v>3108548.839320022</v>
+        <v>3108548.839320024</v>
       </c>
       <c r="CA8">
-        <v>2898428.389054423</v>
+        <v>2898428.389054426</v>
       </c>
       <c r="CB8">
-        <v>2744856.922490619</v>
+        <v>2744856.922490622</v>
       </c>
       <c r="CC8">
-        <v>2692998.636215804</v>
+        <v>2692998.636215806</v>
       </c>
       <c r="CD8">
-        <v>2623123.069192936</v>
+        <v>2623123.069192939</v>
       </c>
       <c r="CE8">
-        <v>2540775.016174919</v>
+        <v>2540775.016174922</v>
       </c>
       <c r="CF8">
-        <v>2401275.573015664</v>
+        <v>2401275.573015666</v>
       </c>
       <c r="CG8">
-        <v>2318394.975635013</v>
+        <v>2318394.975635015</v>
       </c>
       <c r="CH8">
-        <v>2251942.920390313</v>
+        <v>2251942.920390316</v>
       </c>
       <c r="CI8">
-        <v>2204872.463987486</v>
+        <v>2204872.463987488</v>
       </c>
       <c r="CJ8">
-        <v>2177129.402366412</v>
+        <v>2177129.402366415</v>
       </c>
       <c r="CK8">
-        <v>2095366.446771007</v>
+        <v>2095366.446771009</v>
       </c>
       <c r="CL8">
-        <v>2096803.631973898</v>
+        <v>2096803.6319739</v>
       </c>
       <c r="CM8">
-        <v>2158328.364451442</v>
+        <v>2158328.364451444</v>
       </c>
       <c r="CN8">
-        <v>2300212.671844395</v>
+        <v>2300212.671844397</v>
       </c>
       <c r="CO8">
-        <v>2475242.453986479</v>
+        <v>2475242.45398648</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2637,268 +2637,268 @@
         <v>104407.5498637445</v>
       </c>
       <c r="F9">
-        <v>79462.85854079796</v>
+        <v>79462.85854079791</v>
       </c>
       <c r="G9">
-        <v>79074.67844559331</v>
+        <v>79074.67844559321</v>
       </c>
       <c r="H9">
-        <v>72858.47414670895</v>
+        <v>72858.47414670886</v>
       </c>
       <c r="I9">
-        <v>69876.18148805301</v>
+        <v>69876.18148805291</v>
       </c>
       <c r="J9">
-        <v>63965.83577985098</v>
+        <v>63965.83577985089</v>
       </c>
       <c r="K9">
-        <v>66781.59729629572</v>
+        <v>66781.59729629563</v>
       </c>
       <c r="L9">
-        <v>80729.90275875732</v>
+        <v>80729.90275875722</v>
       </c>
       <c r="M9">
-        <v>80746.7480928508</v>
+        <v>80746.74809285071</v>
       </c>
       <c r="N9">
-        <v>85910.00633481833</v>
+        <v>85910.00633481827</v>
       </c>
       <c r="O9">
-        <v>98698.95227836966</v>
+        <v>98698.95227836959</v>
       </c>
       <c r="P9">
-        <v>974341.70437277</v>
+        <v>974341.7043727693</v>
       </c>
       <c r="Q9">
-        <v>975346.6557875004</v>
+        <v>975346.6557874992</v>
       </c>
       <c r="R9">
-        <v>976657.7574295826</v>
+        <v>976657.7574295816</v>
       </c>
       <c r="S9">
-        <v>3177122.648097944</v>
+        <v>3177122.64809794</v>
       </c>
       <c r="T9">
-        <v>3179237.274423785</v>
+        <v>3179237.274423781</v>
       </c>
       <c r="U9">
-        <v>3181853.454584067</v>
+        <v>3181853.454584063</v>
       </c>
       <c r="V9">
-        <v>3185046.076518701</v>
+        <v>3185046.076518698</v>
       </c>
       <c r="W9">
-        <v>3188900.700046042</v>
+        <v>3188900.700046039</v>
       </c>
       <c r="X9">
-        <v>3439561.59717542</v>
+        <v>3439561.597175415</v>
       </c>
       <c r="Y9">
-        <v>3445091.110500227</v>
+        <v>3445091.110500223</v>
       </c>
       <c r="Z9">
-        <v>3451719.329103447</v>
+        <v>3451719.329103443</v>
       </c>
       <c r="AA9">
-        <v>3459717.807060222</v>
+        <v>3459717.807060217</v>
       </c>
       <c r="AB9">
-        <v>3469472.853998221</v>
+        <v>3469472.853998217</v>
       </c>
       <c r="AC9">
-        <v>1084931.914490105</v>
+        <v>1084931.914490103</v>
       </c>
       <c r="AD9">
-        <v>1100060.963564002</v>
+        <v>1100060.963564001</v>
       </c>
       <c r="AE9">
-        <v>1119305.586404092</v>
+        <v>1119305.58640409</v>
       </c>
       <c r="AF9">
-        <v>1144056.631180671</v>
+        <v>1144056.631180669</v>
       </c>
       <c r="AG9">
-        <v>1176095.82266265</v>
+        <v>1176095.822662649</v>
       </c>
       <c r="AH9">
-        <v>464393.4465012374</v>
+        <v>464393.4465012364</v>
       </c>
       <c r="AI9">
-        <v>495479.3699785924</v>
+        <v>495479.3699785912</v>
       </c>
       <c r="AJ9">
-        <v>536678.3774141342</v>
+        <v>536678.3774141329</v>
       </c>
       <c r="AK9">
-        <v>608643.0550905031</v>
+        <v>608643.0550905016</v>
       </c>
       <c r="AL9">
-        <v>697865.8212831242</v>
+        <v>697865.8212831225</v>
       </c>
       <c r="AM9">
-        <v>1270781.26955329</v>
+        <v>1270781.269553287</v>
       </c>
       <c r="AN9">
-        <v>1422408.401401789</v>
+        <v>1422408.401401787</v>
       </c>
       <c r="AO9">
-        <v>1596705.21190917</v>
+        <v>1596705.211909167</v>
       </c>
       <c r="AP9">
-        <v>1791308.035165221</v>
+        <v>1791308.035165218</v>
       </c>
       <c r="AQ9">
-        <v>2001691.243750246</v>
+        <v>2001691.243750243</v>
       </c>
       <c r="AR9">
-        <v>2762836.422791663</v>
+        <v>2762836.422791659</v>
       </c>
       <c r="AS9">
-        <v>2982187.752201344</v>
+        <v>2982187.752201339</v>
       </c>
       <c r="AT9">
-        <v>3190912.109521755</v>
+        <v>3190912.109521749</v>
       </c>
       <c r="AU9">
-        <v>3377561.959454701</v>
+        <v>3377561.959454696</v>
       </c>
       <c r="AV9">
-        <v>3531001.646038163</v>
+        <v>3531001.646038157</v>
       </c>
       <c r="AW9">
-        <v>3819787.524049074</v>
+        <v>3819787.524049068</v>
       </c>
       <c r="AX9">
-        <v>3880967.921492304</v>
+        <v>3880967.921492298</v>
       </c>
       <c r="AY9">
-        <v>3889551.959987115</v>
+        <v>3889551.959987108</v>
       </c>
       <c r="AZ9">
-        <v>3846508.43597228</v>
+        <v>3846508.435972274</v>
       </c>
       <c r="BA9">
-        <v>3756717.670503202</v>
+        <v>3756717.670503196</v>
       </c>
       <c r="BB9">
-        <v>3539204.94451218</v>
+        <v>3539204.944512174</v>
       </c>
       <c r="BC9">
-        <v>3383032.166204085</v>
+        <v>3383032.166204079</v>
       </c>
       <c r="BD9">
-        <v>3211310.299357655</v>
+        <v>3211310.299357649</v>
       </c>
       <c r="BE9">
-        <v>3037092.477230384</v>
+        <v>3037092.477230378</v>
       </c>
       <c r="BF9">
-        <v>2873393.166747582</v>
+        <v>2873393.166747578</v>
       </c>
       <c r="BG9">
-        <v>2687976.211818453</v>
+        <v>2687976.211818448</v>
       </c>
       <c r="BH9">
-        <v>2579866.117239765</v>
+        <v>2579866.11723976</v>
       </c>
       <c r="BI9">
-        <v>2512323.500180942</v>
+        <v>2512323.500180938</v>
       </c>
       <c r="BJ9">
-        <v>2489699.182739061</v>
+        <v>2489699.182739056</v>
       </c>
       <c r="BK9">
-        <v>2512971.191994693</v>
+        <v>2512971.191994689</v>
       </c>
       <c r="BL9">
-        <v>2585728.746361804</v>
+        <v>2585728.746361799</v>
       </c>
       <c r="BM9">
-        <v>2692543.202980914</v>
+        <v>2692543.202980909</v>
       </c>
       <c r="BN9">
-        <v>2833220.145872351</v>
+        <v>2833220.145872347</v>
       </c>
       <c r="BO9">
-        <v>3001008.790949101</v>
+        <v>3001008.790949096</v>
       </c>
       <c r="BP9">
-        <v>3188507.416567072</v>
+        <v>3188507.416567066</v>
       </c>
       <c r="BQ9">
-        <v>3396552.054094768</v>
+        <v>3396552.054094763</v>
       </c>
       <c r="BR9">
-        <v>3599750.865026153</v>
+        <v>3599750.865026146</v>
       </c>
       <c r="BS9">
-        <v>3798884.944162033</v>
+        <v>3798884.944162026</v>
       </c>
       <c r="BT9">
-        <v>3986572.877179369</v>
+        <v>3986572.877179362</v>
       </c>
       <c r="BU9">
-        <v>4156270.429991143</v>
+        <v>4156270.429991136</v>
       </c>
       <c r="BV9">
-        <v>4292995.192060472</v>
+        <v>4292995.192060464</v>
       </c>
       <c r="BW9">
-        <v>4411594.608974096</v>
+        <v>4411594.60897409</v>
       </c>
       <c r="BX9">
-        <v>4499791.307344235</v>
+        <v>4499791.307344227</v>
       </c>
       <c r="BY9">
-        <v>4556416.681787277</v>
+        <v>4556416.681787266</v>
       </c>
       <c r="BZ9">
-        <v>4581983.108858416</v>
+        <v>4581983.108858408</v>
       </c>
       <c r="CA9">
-        <v>4550817.894525793</v>
+        <v>4550817.894525786</v>
       </c>
       <c r="CB9">
-        <v>4522347.798407615</v>
+        <v>4522347.798407606</v>
       </c>
       <c r="CC9">
-        <v>4473714.092115983</v>
+        <v>4473714.092115973</v>
       </c>
       <c r="CD9">
-        <v>4410877.071461688</v>
+        <v>4410877.07146168</v>
       </c>
       <c r="CE9">
-        <v>4340402.909383084</v>
+        <v>4340402.909383075</v>
       </c>
       <c r="CF9">
-        <v>4216610.153100678</v>
+        <v>4216610.15310067</v>
       </c>
       <c r="CG9">
-        <v>4151000.281670129</v>
+        <v>4151000.281670121</v>
       </c>
       <c r="CH9">
-        <v>4097083.630341186</v>
+        <v>4097083.630341178</v>
       </c>
       <c r="CI9">
-        <v>4059873.737847596</v>
+        <v>4059873.737847588</v>
       </c>
       <c r="CJ9">
-        <v>4043162.2779415</v>
+        <v>4043162.277941492</v>
       </c>
       <c r="CK9">
-        <v>3965563.761067606</v>
+        <v>3965563.761067598</v>
       </c>
       <c r="CL9">
-        <v>3995684.428625719</v>
+        <v>3995684.428625711</v>
       </c>
       <c r="CM9">
-        <v>4049335.180366298</v>
+        <v>4049335.18036629</v>
       </c>
       <c r="CN9">
-        <v>4124862.121903601</v>
+        <v>4124862.121903594</v>
       </c>
       <c r="CO9">
-        <v>4219507.671219083</v>
+        <v>4219507.671219076</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2918,7 +2918,7 @@
         <v>10.83048540273047</v>
       </c>
       <c r="F10">
-        <v>11.44039502446356</v>
+        <v>11.44039502446357</v>
       </c>
       <c r="G10">
         <v>11.53066401416772</v>
@@ -2927,7 +2927,7 @@
         <v>11.20036024439167</v>
       </c>
       <c r="I10">
-        <v>11.09945931520136</v>
+        <v>11.09945931520137</v>
       </c>
       <c r="J10">
         <v>11.61927049194317</v>
@@ -2936,7 +2936,7 @@
         <v>12.81505730558932</v>
       </c>
       <c r="L10">
-        <v>12.96692266297506</v>
+        <v>12.96692266297507</v>
       </c>
       <c r="M10">
         <v>13.81049950892853</v>
@@ -2945,13 +2945,13 @@
         <v>14.67041469893191</v>
       </c>
       <c r="O10">
-        <v>13.40898830984657</v>
+        <v>13.40898830984658</v>
       </c>
       <c r="P10">
-        <v>14.46828652075571</v>
+        <v>14.46828652075572</v>
       </c>
       <c r="Q10">
-        <v>14.82156729941843</v>
+        <v>14.82156729941844</v>
       </c>
       <c r="R10">
         <v>15.17620798416812</v>
@@ -2963,7 +2963,7 @@
         <v>16.99267895875062</v>
       </c>
       <c r="U10">
-        <v>17.41692484856591</v>
+        <v>17.41692484856592</v>
       </c>
       <c r="V10">
         <v>17.84179657940764</v>
@@ -2972,10 +2972,10 @@
         <v>18.26809941350448</v>
       </c>
       <c r="X10">
-        <v>18.67348662644794</v>
+        <v>18.67348662644795</v>
       </c>
       <c r="Y10">
-        <v>19.08394831987185</v>
+        <v>19.08394831987186</v>
       </c>
       <c r="Z10">
         <v>19.49549770037632</v>
@@ -2990,10 +2990,10 @@
         <v>19.63239130005439</v>
       </c>
       <c r="AD10">
-        <v>20.0517986354745</v>
+        <v>20.05179863547451</v>
       </c>
       <c r="AE10">
-        <v>20.47064570728047</v>
+        <v>20.47064570728048</v>
       </c>
       <c r="AF10">
         <v>20.89366500628354</v>
@@ -3002,10 +3002,10 @@
         <v>21.32194436356258</v>
       </c>
       <c r="AH10">
-        <v>21.45477291517065</v>
+        <v>21.45477291517066</v>
       </c>
       <c r="AI10">
-        <v>21.88320556867837</v>
+        <v>21.88320556867838</v>
       </c>
       <c r="AJ10">
         <v>22.31323499810514</v>
@@ -3014,16 +3014,16 @@
         <v>22.75738208117708</v>
       </c>
       <c r="AL10">
-        <v>23.21408668419667</v>
+        <v>23.21408668419668</v>
       </c>
       <c r="AM10">
-        <v>23.80824137072219</v>
+        <v>23.8082413707222</v>
       </c>
       <c r="AN10">
         <v>24.29684658718243</v>
       </c>
       <c r="AO10">
-        <v>24.81420941899976</v>
+        <v>24.81420941899977</v>
       </c>
       <c r="AP10">
         <v>25.34821759175548</v>
@@ -3035,19 +3035,19 @@
         <v>26.72957459977816</v>
       </c>
       <c r="AS10">
-        <v>27.30115483168728</v>
+        <v>27.3011548316873</v>
       </c>
       <c r="AT10">
         <v>27.80772139533896</v>
       </c>
       <c r="AU10">
-        <v>28.2947602476764</v>
+        <v>28.29476024767641</v>
       </c>
       <c r="AV10">
-        <v>28.76635192702348</v>
+        <v>28.76635192702349</v>
       </c>
       <c r="AW10">
-        <v>29.31109035006926</v>
+        <v>29.31109035006927</v>
       </c>
       <c r="AX10">
         <v>29.78816575325272</v>
@@ -3056,25 +3056,25 @@
         <v>30.24968704218711</v>
       </c>
       <c r="AZ10">
-        <v>30.67465629169665</v>
+        <v>30.67465629169666</v>
       </c>
       <c r="BA10">
         <v>31.04043783576889</v>
       </c>
       <c r="BB10">
-        <v>31.3452668670878</v>
+        <v>31.34526686708782</v>
       </c>
       <c r="BC10">
-        <v>31.72137133424118</v>
+        <v>31.72137133424119</v>
       </c>
       <c r="BD10">
-        <v>32.16443637626959</v>
+        <v>32.1644363762696</v>
       </c>
       <c r="BE10">
         <v>32.61444866554402</v>
       </c>
       <c r="BF10">
-        <v>33.05832348707505</v>
+        <v>33.05832348707506</v>
       </c>
       <c r="BG10">
         <v>33.51310671796696</v>
@@ -3083,25 +3083,25 @@
         <v>34.00858700839128</v>
       </c>
       <c r="BI10">
-        <v>34.52827532087655</v>
+        <v>34.52827532087657</v>
       </c>
       <c r="BJ10">
         <v>35.06584227570298</v>
       </c>
       <c r="BK10">
-        <v>35.62282382371594</v>
+        <v>35.62282382371595</v>
       </c>
       <c r="BL10">
         <v>36.21983902686269</v>
       </c>
       <c r="BM10">
-        <v>36.8514920551943</v>
+        <v>36.85149205519431</v>
       </c>
       <c r="BN10">
         <v>37.50641101959815</v>
       </c>
       <c r="BO10">
-        <v>38.18805631565765</v>
+        <v>38.18805631565766</v>
       </c>
       <c r="BP10">
         <v>38.89696769842063</v>
@@ -3110,25 +3110,25 @@
         <v>39.66113014663831</v>
       </c>
       <c r="BR10">
-        <v>40.404098058608</v>
+        <v>40.40409805860801</v>
       </c>
       <c r="BS10">
         <v>41.09826596854496</v>
       </c>
       <c r="BT10">
-        <v>41.7652075160142</v>
+        <v>41.76520751601421</v>
       </c>
       <c r="BU10">
-        <v>42.4203241583033</v>
+        <v>42.42032415830331</v>
       </c>
       <c r="BV10">
-        <v>43.09364094120336</v>
+        <v>43.09364094120337</v>
       </c>
       <c r="BW10">
         <v>43.75991574560823</v>
       </c>
       <c r="BX10">
-        <v>44.40427689272853</v>
+        <v>44.40427689272854</v>
       </c>
       <c r="BY10">
         <v>45.01834117848546</v>
@@ -3137,7 +3137,7 @@
         <v>45.59613991562802</v>
       </c>
       <c r="CA10">
-        <v>46.17817496108535</v>
+        <v>46.17817496108538</v>
       </c>
       <c r="CB10">
         <v>46.78279142900475</v>
@@ -3149,37 +3149,37 @@
         <v>48.07826989961595</v>
       </c>
       <c r="CE10">
-        <v>48.72519191763875</v>
+        <v>48.72519191763877</v>
       </c>
       <c r="CF10">
         <v>49.39685348531129</v>
       </c>
       <c r="CG10">
-        <v>50.08810218224479</v>
+        <v>50.08810218224481</v>
       </c>
       <c r="CH10">
-        <v>50.79192986194148</v>
+        <v>50.79192986194149</v>
       </c>
       <c r="CI10">
-        <v>51.50773999010584</v>
+        <v>51.50773999010585</v>
       </c>
       <c r="CJ10">
-        <v>52.23515808056184</v>
+        <v>52.23515808056185</v>
       </c>
       <c r="CK10">
-        <v>52.99319530757197</v>
+        <v>52.99319530757199</v>
       </c>
       <c r="CL10">
-        <v>53.78983403304627</v>
+        <v>53.78983403304628</v>
       </c>
       <c r="CM10">
-        <v>54.61540746566917</v>
+        <v>54.61540746566918</v>
       </c>
       <c r="CN10">
-        <v>55.46573967922737</v>
+        <v>55.46573967922738</v>
       </c>
       <c r="CO10">
-        <v>56.33232417779584</v>
+        <v>56.33232417779585</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364282694283791</v>
+        <v>0.5364282694283792</v>
       </c>
       <c r="E11">
-        <v>0.5379124605555354</v>
+        <v>0.5379124605555353</v>
       </c>
       <c r="F11">
         <v>0.559773219761088</v>
@@ -3201,10 +3201,10 @@
         <v>0.56567216265585</v>
       </c>
       <c r="H11">
-        <v>0.5592361752103951</v>
+        <v>0.559236175210395</v>
       </c>
       <c r="I11">
-        <v>0.5506385881836796</v>
+        <v>0.5506385881836795</v>
       </c>
       <c r="J11">
         <v>0.5672054961826349</v>
@@ -3228,7 +3228,7 @@
         <v>0.7159626930730479</v>
       </c>
       <c r="Q11">
-        <v>0.7338491422963825</v>
+        <v>0.7338491422963824</v>
       </c>
       <c r="R11">
         <v>0.7517994201160264</v>
@@ -3249,7 +3249,7 @@
         <v>0.8990903020265739</v>
       </c>
       <c r="X11">
-        <v>0.9187478453330954</v>
+        <v>0.9187478453330957</v>
       </c>
       <c r="Y11">
         <v>0.9391778982239065</v>
@@ -3258,7 +3258,7 @@
         <v>0.9596582021402273</v>
       </c>
       <c r="AA11">
-        <v>0.980166737003396</v>
+        <v>0.9801667370033963</v>
       </c>
       <c r="AB11">
         <v>1.000628016674864</v>
@@ -3303,7 +3303,7 @@
         <v>1.229953243291162</v>
       </c>
       <c r="AP11">
-        <v>1.255774732175315</v>
+        <v>1.255774732175316</v>
       </c>
       <c r="AQ11">
         <v>1.282590968379114</v>
@@ -3330,7 +3330,7 @@
         <v>1.468953558082166</v>
       </c>
       <c r="AY11">
-        <v>1.491689465556653</v>
+        <v>1.491689465556654</v>
       </c>
       <c r="AZ11">
         <v>1.512793808591135</v>
@@ -3342,7 +3342,7 @@
         <v>1.546937482277647</v>
       </c>
       <c r="BC11">
-        <v>1.565976397255956</v>
+        <v>1.565976397255955</v>
       </c>
       <c r="BD11">
         <v>1.588255024978531</v>
@@ -3387,13 +3387,13 @@
         <v>1.955511595028638</v>
       </c>
       <c r="BR11">
-        <v>1.991282358984199</v>
+        <v>1.9912823589842</v>
       </c>
       <c r="BS11">
         <v>2.024733982705504</v>
       </c>
       <c r="BT11">
-        <v>2.056907128760162</v>
+        <v>2.056907128760161</v>
       </c>
       <c r="BU11">
         <v>2.088549494692791</v>
@@ -3411,7 +3411,7 @@
         <v>2.214606769580509</v>
       </c>
       <c r="BZ11">
-        <v>2.242861516045052</v>
+        <v>2.242861516045053</v>
       </c>
       <c r="CA11">
         <v>2.271429279318693</v>
@@ -3423,7 +3423,7 @@
         <v>2.332694887338104</v>
       </c>
       <c r="CD11">
-        <v>2.364643096354551</v>
+        <v>2.364643096354552</v>
       </c>
       <c r="CE11">
         <v>2.396416800247187</v>
@@ -3450,7 +3450,7 @@
         <v>2.643991488692453</v>
       </c>
       <c r="CM11">
-        <v>2.68402725946617</v>
+        <v>2.684027259466171</v>
       </c>
       <c r="CN11">
         <v>2.725195806358391</v>
@@ -3469,7 +3469,7 @@
         <v>250266.6060144358</v>
       </c>
       <c r="E12">
-        <v>245201.4719967381</v>
+        <v>245201.4719967383</v>
       </c>
       <c r="F12">
         <v>330275.3573162382</v>
@@ -3484,10 +3484,10 @@
         <v>391970.7382737871</v>
       </c>
       <c r="J12">
-        <v>449443.8566676478</v>
+        <v>449443.856667648</v>
       </c>
       <c r="K12">
-        <v>429719.0282019498</v>
+        <v>429719.02820195</v>
       </c>
       <c r="L12">
         <v>463791.6206287135</v>
@@ -3502,13 +3502,13 @@
         <v>407077.5566994909</v>
       </c>
       <c r="P12">
-        <v>3558613.027506165</v>
+        <v>3558613.027506164</v>
       </c>
       <c r="Q12">
         <v>3562838.437003264</v>
       </c>
       <c r="R12">
-        <v>3568282.21218637</v>
+        <v>3568282.212186369</v>
       </c>
       <c r="S12">
         <v>11727134.12238092</v>
@@ -3520,7 +3520,7 @@
         <v>11748515.81130306</v>
       </c>
       <c r="V12">
-        <v>11761424.81416852</v>
+        <v>11761424.81416851</v>
       </c>
       <c r="W12">
         <v>11774130.86888866</v>
@@ -3529,61 +3529,61 @@
         <v>13781635.62555437</v>
       </c>
       <c r="Y12">
-        <v>13795093.50903869</v>
+        <v>13795093.50903868</v>
       </c>
       <c r="Z12">
-        <v>13810944.64116428</v>
+        <v>13810944.64116427</v>
       </c>
       <c r="AA12">
-        <v>13831722.09643338</v>
+        <v>13831722.09643337</v>
       </c>
       <c r="AB12">
-        <v>13856827.87323581</v>
+        <v>13856827.8732358</v>
       </c>
       <c r="AC12">
-        <v>5452387.743672124</v>
+        <v>5452387.743672122</v>
       </c>
       <c r="AD12">
-        <v>5486283.178401772</v>
+        <v>5486283.17840177</v>
       </c>
       <c r="AE12">
-        <v>5529257.382107055</v>
+        <v>5529257.382107054</v>
       </c>
       <c r="AF12">
-        <v>5584887.453929925</v>
+        <v>5584887.453929924</v>
       </c>
       <c r="AG12">
-        <v>5649587.157920714</v>
+        <v>5649587.157920713</v>
       </c>
       <c r="AH12">
-        <v>2652524.067465145</v>
+        <v>2652524.067465144</v>
       </c>
       <c r="AI12">
-        <v>2745066.262232064</v>
+        <v>2745066.262232063</v>
       </c>
       <c r="AJ12">
-        <v>2858399.47409829</v>
+        <v>2858399.474098289</v>
       </c>
       <c r="AK12">
-        <v>3001794.51543353</v>
+        <v>3001794.515433529</v>
       </c>
       <c r="AL12">
-        <v>3185784.705206643</v>
+        <v>3185784.705206641</v>
       </c>
       <c r="AM12">
-        <v>5185047.9612494</v>
+        <v>5185047.961249398</v>
       </c>
       <c r="AN12">
-        <v>5490405.929594078</v>
+        <v>5490405.929594075</v>
       </c>
       <c r="AO12">
-        <v>5867266.946671331</v>
+        <v>5867266.946671329</v>
       </c>
       <c r="AP12">
-        <v>6284025.603928383</v>
+        <v>6284025.60392838</v>
       </c>
       <c r="AQ12">
-        <v>6733109.21968494</v>
+        <v>6733109.219684937</v>
       </c>
       <c r="AR12">
         <v>9852119.870566459</v>
@@ -3595,10 +3595,10 @@
         <v>10722936.06698128</v>
       </c>
       <c r="AU12">
-        <v>11074372.53827738</v>
+        <v>11074372.53827737</v>
       </c>
       <c r="AV12">
-        <v>11377782.44676409</v>
+        <v>11377782.44676408</v>
       </c>
       <c r="AW12">
         <v>12520862.91591701</v>
@@ -3607,13 +3607,13 @@
         <v>12677659.6068816</v>
       </c>
       <c r="AY12">
-        <v>12738602.82405479</v>
+        <v>12738602.82405478</v>
       </c>
       <c r="AZ12">
         <v>12686604.37980495</v>
       </c>
       <c r="BA12">
-        <v>12497035.64759904</v>
+        <v>12497035.64759903</v>
       </c>
       <c r="BB12">
         <v>11718916.8028456</v>
@@ -3622,10 +3622,10 @@
         <v>11401801.32938991</v>
       </c>
       <c r="BD12">
-        <v>11152133.02475236</v>
+        <v>11152133.02475235</v>
       </c>
       <c r="BE12">
-        <v>10899072.20526811</v>
+        <v>10899072.2052681</v>
       </c>
       <c r="BF12">
         <v>10636194.96128728</v>
@@ -3634,19 +3634,19 @@
         <v>10206442.57235032</v>
       </c>
       <c r="BH12">
-        <v>10018845.97101931</v>
+        <v>10018845.9710193</v>
       </c>
       <c r="BI12">
-        <v>9931083.142470768</v>
+        <v>9931083.142470762</v>
       </c>
       <c r="BJ12">
-        <v>9932403.271646062</v>
+        <v>9932403.271646058</v>
       </c>
       <c r="BK12">
-        <v>10033624.60118982</v>
+        <v>10033624.60118981</v>
       </c>
       <c r="BL12">
-        <v>10345924.99676949</v>
+        <v>10345924.99676948</v>
       </c>
       <c r="BM12">
         <v>10633914.89640509</v>
@@ -3661,46 +3661,46 @@
         <v>11896221.00193009</v>
       </c>
       <c r="BQ12">
-        <v>12534947.9739445</v>
+        <v>12534947.97394449</v>
       </c>
       <c r="BR12">
-        <v>13040253.9467768</v>
+        <v>13040253.94677679</v>
       </c>
       <c r="BS12">
         <v>13464731.80559036</v>
       </c>
       <c r="BT12">
-        <v>13845263.76328987</v>
+        <v>13845263.76328986</v>
       </c>
       <c r="BU12">
-        <v>14197206.21793481</v>
+        <v>14197206.2179348</v>
       </c>
       <c r="BV12">
         <v>14511305.06669379</v>
       </c>
       <c r="BW12">
-        <v>14766650.43646447</v>
+        <v>14766650.43646446</v>
       </c>
       <c r="BX12">
-        <v>14940998.55486491</v>
+        <v>14940998.5548649</v>
       </c>
       <c r="BY12">
-        <v>15026708.46910292</v>
+        <v>15026708.46910291</v>
       </c>
       <c r="BZ12">
         <v>15016974.61925506</v>
       </c>
       <c r="CA12">
-        <v>14817639.72673695</v>
+        <v>14817639.72673694</v>
       </c>
       <c r="CB12">
-        <v>14719232.64884677</v>
+        <v>14719232.64884676</v>
       </c>
       <c r="CC12">
-        <v>14643583.03627913</v>
+        <v>14643583.03627912</v>
       </c>
       <c r="CD12">
-        <v>14564177.23988215</v>
+        <v>14564177.23988214</v>
       </c>
       <c r="CE12">
         <v>14460178.81011323</v>
@@ -3712,13 +3712,13 @@
         <v>13980327.01451672</v>
       </c>
       <c r="CH12">
-        <v>13932682.55227673</v>
+        <v>13932682.55227672</v>
       </c>
       <c r="CI12">
         <v>13936041.48105351</v>
       </c>
       <c r="CJ12">
-        <v>13993625.91316428</v>
+        <v>13993625.91316427</v>
       </c>
       <c r="CK12">
         <v>13663855.92506397</v>
@@ -3727,13 +3727,13 @@
         <v>13837776.97446607</v>
       </c>
       <c r="CM12">
-        <v>14067033.41823372</v>
+        <v>14067033.41823371</v>
       </c>
       <c r="CN12">
         <v>14349591.60359165</v>
       </c>
       <c r="CO12">
-        <v>14679385.10013098</v>
+        <v>14679385.10013097</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3743,52 +3743,52 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147294.4457995695</v>
+        <v>147294.4457995696</v>
       </c>
       <c r="E13">
-        <v>93973.6561551363</v>
+        <v>93973.65615513637</v>
       </c>
       <c r="F13">
-        <v>71527.62358784673</v>
+        <v>71527.62358784676</v>
       </c>
       <c r="G13">
-        <v>71181.84940552359</v>
+        <v>71181.84940552361</v>
       </c>
       <c r="H13">
-        <v>65585.91480380102</v>
+        <v>65585.91480380103</v>
       </c>
       <c r="I13">
         <v>62902.86279443131</v>
       </c>
       <c r="J13">
-        <v>57582.78600068604</v>
+        <v>57582.78600068605</v>
       </c>
       <c r="K13">
-        <v>60116.94221729481</v>
+        <v>60116.94221729482</v>
       </c>
       <c r="L13">
-        <v>72671.50620574012</v>
+        <v>72671.50620574014</v>
       </c>
       <c r="M13">
         <v>72686.69287112958</v>
       </c>
       <c r="N13">
-        <v>77332.89465660082</v>
+        <v>77332.89465660084</v>
       </c>
       <c r="O13">
-        <v>88843.85080233775</v>
+        <v>88843.85080233778</v>
       </c>
       <c r="P13">
-        <v>877087.0769086799</v>
+        <v>877087.0769086801</v>
       </c>
       <c r="Q13">
-        <v>877991.5996375035</v>
+        <v>877991.5996375037</v>
       </c>
       <c r="R13">
-        <v>879171.6798685795</v>
+        <v>879171.6798685797</v>
       </c>
       <c r="S13">
-        <v>2860005.825454411</v>
+        <v>2860005.825454412</v>
       </c>
       <c r="T13">
         <v>2861909.14310618</v>
@@ -3797,16 +3797,16 @@
         <v>2864263.905457986</v>
       </c>
       <c r="V13">
-        <v>2867137.525340911</v>
+        <v>2867137.525340912</v>
       </c>
       <c r="W13">
-        <v>2870607.025928442</v>
+        <v>2870607.025928443</v>
       </c>
       <c r="X13">
-        <v>3096277.425958924</v>
+        <v>3096277.425958925</v>
       </c>
       <c r="Y13">
-        <v>3101254.581641561</v>
+        <v>3101254.581641562</v>
       </c>
       <c r="Z13">
         <v>3107220.775269264</v>
@@ -3815,7 +3815,7 @@
         <v>3114420.482695951</v>
       </c>
       <c r="AB13">
-        <v>3123201.486160107</v>
+        <v>3123201.486160108</v>
       </c>
       <c r="AC13">
         <v>976677.7447802848</v>
@@ -3845,7 +3845,7 @@
         <v>547931.7341829188</v>
       </c>
       <c r="AL13">
-        <v>628248.1370932981</v>
+        <v>628248.1370932983</v>
       </c>
       <c r="AM13">
         <v>1143979.936545729</v>
@@ -3863,25 +3863,25 @@
         <v>1801937.674743751</v>
       </c>
       <c r="AR13">
-        <v>2487135.010026528</v>
+        <v>2487135.010026529</v>
       </c>
       <c r="AS13">
         <v>2684593.399483988</v>
       </c>
       <c r="AT13">
-        <v>2872485.83457474</v>
+        <v>2872485.834574741</v>
       </c>
       <c r="AU13">
-        <v>3040507.405902714</v>
+        <v>3040507.405902715</v>
       </c>
       <c r="AV13">
         <v>3178633.931144406</v>
       </c>
       <c r="AW13">
-        <v>3438604.16786309</v>
+        <v>3438604.167863091</v>
       </c>
       <c r="AX13">
-        <v>3493680.58374929</v>
+        <v>3493680.583749291</v>
       </c>
       <c r="AY13">
         <v>3501410.59276478</v>
@@ -3932,13 +3932,13 @@
         <v>2550544.03767465</v>
       </c>
       <c r="BO13">
-        <v>2701587.515949386</v>
+        <v>2701587.515949387</v>
       </c>
       <c r="BP13">
         <v>2870373.958666989</v>
       </c>
       <c r="BQ13">
-        <v>3057658.415878399</v>
+        <v>3057658.415878398</v>
       </c>
       <c r="BR13">
         <v>3240578.530185664</v>
@@ -3953,7 +3953,7 @@
         <v>3741560.860756528</v>
       </c>
       <c r="BV13">
-        <v>3864643.424808864</v>
+        <v>3864643.424808865</v>
       </c>
       <c r="BW13">
         <v>3971408.644777637</v>
@@ -3971,7 +3971,7 @@
         <v>4096747.804508081</v>
       </c>
       <c r="CB13">
-        <v>4071121.979937307</v>
+        <v>4071121.979937308</v>
       </c>
       <c r="CC13">
         <v>4027344.967711282</v>
@@ -3983,10 +3983,10 @@
         <v>3907344.437920514</v>
       </c>
       <c r="CF13">
-        <v>3795908.078098237</v>
+        <v>3795908.078098238</v>
       </c>
       <c r="CG13">
-        <v>3736849.012567718</v>
+        <v>3736849.012567719</v>
       </c>
       <c r="CH13">
         <v>3688316.038471887</v>
@@ -4030,7 +4030,7 @@
         <v>1.719039530308342</v>
       </c>
       <c r="F14">
-        <v>1.815845786970695</v>
+        <v>1.815845786970694</v>
       </c>
       <c r="G14">
         <v>1.830173488444104</v>
@@ -4039,7 +4039,7 @@
         <v>1.777746915105872</v>
       </c>
       <c r="I14">
-        <v>1.76173168776627</v>
+        <v>1.761731687766269</v>
       </c>
       <c r="J14">
         <v>1.844237312203932</v>
@@ -4060,7 +4060,7 @@
         <v>2.128305436823489</v>
       </c>
       <c r="P14">
-        <v>2.296439683002208</v>
+        <v>2.296439683002207</v>
       </c>
       <c r="Q14">
         <v>2.352513219989409</v>
@@ -4069,7 +4069,7 @@
         <v>2.408802604395635</v>
       </c>
       <c r="S14">
-        <v>2.629498781900261</v>
+        <v>2.62949878190026</v>
       </c>
       <c r="T14">
         <v>2.697117051518919</v>
@@ -4093,10 +4093,10 @@
         <v>3.09437019337408</v>
       </c>
       <c r="AA14">
-        <v>3.159798541735579</v>
+        <v>3.159798541735578</v>
       </c>
       <c r="AB14">
-        <v>3.225087610674268</v>
+        <v>3.225087610674267</v>
       </c>
       <c r="AC14">
         <v>3.116098260080445</v>
@@ -4114,58 +4114,58 @@
         <v>3.384268004715518</v>
       </c>
       <c r="AH14">
-        <v>3.405350857651208</v>
+        <v>3.405350857651207</v>
       </c>
       <c r="AI14">
         <v>3.473352672904013</v>
       </c>
       <c r="AJ14">
-        <v>3.54160793209989</v>
+        <v>3.541607932099889</v>
       </c>
       <c r="AK14">
         <v>3.612103977723045</v>
       </c>
       <c r="AL14">
-        <v>3.684593181768006</v>
+        <v>3.684593181768005</v>
       </c>
       <c r="AM14">
         <v>3.778898778911213</v>
       </c>
       <c r="AN14">
-        <v>3.856451321625346</v>
+        <v>3.856451321625345</v>
       </c>
       <c r="AO14">
-        <v>3.938568339130582</v>
+        <v>3.938568339130581</v>
       </c>
       <c r="AP14">
         <v>4.023327343398607</v>
       </c>
       <c r="AQ14">
-        <v>4.111522130517092</v>
+        <v>4.111522130517091</v>
       </c>
       <c r="AR14">
         <v>4.242579501908581</v>
       </c>
       <c r="AS14">
-        <v>4.333302029741628</v>
+        <v>4.333302029741627</v>
       </c>
       <c r="AT14">
         <v>4.413705438755055</v>
       </c>
       <c r="AU14">
-        <v>4.491009364556295</v>
+        <v>4.491009364556294</v>
       </c>
       <c r="AV14">
         <v>4.565861479564703</v>
       </c>
       <c r="AW14">
-        <v>4.652323613815629</v>
+        <v>4.652323613815628</v>
       </c>
       <c r="AX14">
         <v>4.728046118072305</v>
       </c>
       <c r="AY14">
-        <v>4.80129983757384</v>
+        <v>4.801299837573839</v>
       </c>
       <c r="AZ14">
         <v>4.868751933385558</v>
@@ -4177,85 +4177,85 @@
         <v>4.975192784896198</v>
       </c>
       <c r="BC14">
-        <v>5.034888950166796</v>
+        <v>5.034888950166795</v>
       </c>
       <c r="BD14">
-        <v>5.105213251749123</v>
+        <v>5.105213251749122</v>
       </c>
       <c r="BE14">
-        <v>5.176640236378293</v>
+        <v>5.17664023637829</v>
       </c>
       <c r="BF14">
-        <v>5.247093068024052</v>
+        <v>5.24709306802405</v>
       </c>
       <c r="BG14">
-        <v>5.319277307469814</v>
+        <v>5.319277307469813</v>
       </c>
       <c r="BH14">
-        <v>5.397921077721639</v>
+        <v>5.397921077721636</v>
       </c>
       <c r="BI14">
         <v>5.480407200862174</v>
       </c>
       <c r="BJ14">
-        <v>5.565731063198126</v>
+        <v>5.565731063198125</v>
       </c>
       <c r="BK14">
-        <v>5.654136454377104</v>
+        <v>5.654136454377103</v>
       </c>
       <c r="BL14">
         <v>5.748896079291567</v>
       </c>
       <c r="BM14">
-        <v>5.849153499413042</v>
+        <v>5.849153499413041</v>
       </c>
       <c r="BN14">
         <v>5.953103742370293</v>
       </c>
       <c r="BO14">
-        <v>6.061296050101914</v>
+        <v>6.061296050101912</v>
       </c>
       <c r="BP14">
-        <v>6.17381609376938</v>
+        <v>6.173816093769378</v>
       </c>
       <c r="BQ14">
-        <v>6.295105713506298</v>
+        <v>6.295105713506294</v>
       </c>
       <c r="BR14">
-        <v>6.413031287747367</v>
+        <v>6.413031287747365</v>
       </c>
       <c r="BS14">
-        <v>6.523211213529112</v>
+        <v>6.523211213529111</v>
       </c>
       <c r="BT14">
-        <v>6.629069708496998</v>
+        <v>6.629069708496997</v>
       </c>
       <c r="BU14">
-        <v>6.733051327342441</v>
+        <v>6.733051327342439</v>
       </c>
       <c r="BV14">
-        <v>6.839921714327444</v>
+        <v>6.839921714327442</v>
       </c>
       <c r="BW14">
-        <v>6.945674382304049</v>
+        <v>6.945674382304047</v>
       </c>
       <c r="BX14">
         <v>7.047948864241431</v>
       </c>
       <c r="BY14">
-        <v>7.145414558724578</v>
+        <v>7.145414558724577</v>
       </c>
       <c r="BZ14">
-        <v>7.23712410199767</v>
+        <v>7.237124101997668</v>
       </c>
       <c r="CA14">
-        <v>7.329506041861024</v>
+        <v>7.329506041861021</v>
       </c>
       <c r="CB14">
-        <v>7.425472156987014</v>
+        <v>7.425472156987013</v>
       </c>
       <c r="CC14">
-        <v>7.527765268308315</v>
+        <v>7.527765268308313</v>
       </c>
       <c r="CD14">
         <v>7.631093476700225</v>
@@ -4264,34 +4264,34 @@
         <v>7.733774425951832</v>
       </c>
       <c r="CF14">
-        <v>7.840382093372432</v>
+        <v>7.840382093372431</v>
       </c>
       <c r="CG14">
-        <v>7.950098674958261</v>
+        <v>7.950098674958259</v>
       </c>
       <c r="CH14">
         <v>8.061811821593292</v>
       </c>
       <c r="CI14">
-        <v>8.175426849983374</v>
+        <v>8.175426849983372</v>
       </c>
       <c r="CJ14">
         <v>8.29088432082213</v>
       </c>
       <c r="CK14">
-        <v>8.411201731373939</v>
+        <v>8.411201731373938</v>
       </c>
       <c r="CL14">
-        <v>8.537646060463709</v>
+        <v>8.537646060463707</v>
       </c>
       <c r="CM14">
-        <v>8.668682972760669</v>
+        <v>8.668682972760665</v>
       </c>
       <c r="CN14">
         <v>8.803649655660459</v>
       </c>
       <c r="CO14">
-        <v>8.941195938582926</v>
+        <v>8.941195938582922</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -4301,40 +4301,40 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514312757300757</v>
+        <v>0.08514312757300753</v>
       </c>
       <c r="E15">
-        <v>0.08537870179920726</v>
+        <v>0.0853787017992072</v>
       </c>
       <c r="F15">
-        <v>0.08884849173377687</v>
+        <v>0.08884849173377679</v>
       </c>
       <c r="G15">
-        <v>0.08978478550511337</v>
+        <v>0.08978478550511333</v>
       </c>
       <c r="H15">
-        <v>0.08876325078862538</v>
+        <v>0.08876325078862532</v>
       </c>
       <c r="I15">
-        <v>0.08739862201949709</v>
+        <v>0.08739862201949702</v>
       </c>
       <c r="J15">
-        <v>0.0900281597259055</v>
+        <v>0.09002815972590546</v>
       </c>
       <c r="K15">
-        <v>0.09887337976260932</v>
+        <v>0.09887337976260926</v>
       </c>
       <c r="L15">
         <v>0.1016618368124435</v>
       </c>
       <c r="M15">
-        <v>0.1086757616005852</v>
+        <v>0.1086757616005851</v>
       </c>
       <c r="N15">
-        <v>0.115506598660039</v>
+        <v>0.1155065986600389</v>
       </c>
       <c r="O15">
-        <v>0.1056127099573587</v>
+        <v>0.1056127099573586</v>
       </c>
       <c r="P15">
         <v>0.1136392438429674</v>
@@ -4343,232 +4343,232 @@
         <v>0.1164782221646605</v>
       </c>
       <c r="R15">
-        <v>0.1193273315078305</v>
+        <v>0.1193273315078304</v>
       </c>
       <c r="S15">
-        <v>0.1292365854598962</v>
+        <v>0.1292365854598961</v>
       </c>
       <c r="T15">
-        <v>0.1326089132853202</v>
+        <v>0.1326089132853201</v>
       </c>
       <c r="U15">
-        <v>0.1359678555438489</v>
+        <v>0.1359678555438488</v>
       </c>
       <c r="V15">
-        <v>0.1393313985409444</v>
+        <v>0.1393313985409443</v>
       </c>
       <c r="W15">
-        <v>0.1427056787418681</v>
+        <v>0.142705678741868</v>
       </c>
       <c r="X15">
-        <v>0.1458257691862114</v>
+        <v>0.1458257691862113</v>
       </c>
       <c r="Y15">
         <v>0.1490684741269097</v>
       </c>
       <c r="Z15">
-        <v>0.1523191550258478</v>
+        <v>0.1523191550258477</v>
       </c>
       <c r="AA15">
         <v>0.155574316805541</v>
       </c>
       <c r="AB15">
-        <v>0.1588219781326206</v>
+        <v>0.1588219781326205</v>
       </c>
       <c r="AC15">
-        <v>0.1545752994377661</v>
+        <v>0.154575299437766</v>
       </c>
       <c r="AD15">
-        <v>0.1578781633344936</v>
+        <v>0.1578781633344935</v>
       </c>
       <c r="AE15">
-        <v>0.1611750412129948</v>
+        <v>0.1611750412129947</v>
       </c>
       <c r="AF15">
-        <v>0.1645017327867057</v>
+        <v>0.1645017327867056</v>
       </c>
       <c r="AG15">
-        <v>0.1678658185846995</v>
+        <v>0.1678658185846994</v>
       </c>
       <c r="AH15">
-        <v>0.1692467691874334</v>
+        <v>0.1692467691874333</v>
       </c>
       <c r="AI15">
-        <v>0.17261130898926</v>
+        <v>0.1726113089892599</v>
       </c>
       <c r="AJ15">
-        <v>0.1759854401364466</v>
+        <v>0.1759854401364465</v>
       </c>
       <c r="AK15">
-        <v>0.179450567550897</v>
+        <v>0.1794505675508969</v>
       </c>
       <c r="AL15">
-        <v>0.183005069881009</v>
+        <v>0.1830050698810089</v>
       </c>
       <c r="AM15">
-        <v>0.1874749588091545</v>
+        <v>0.1874749588091544</v>
       </c>
       <c r="AN15">
-        <v>0.1912420358553848</v>
+        <v>0.1912420358553847</v>
       </c>
       <c r="AO15">
-        <v>0.195221005063671</v>
+        <v>0.1952210050636709</v>
       </c>
       <c r="AP15">
-        <v>0.1993194511141211</v>
+        <v>0.199319451114121</v>
       </c>
       <c r="AQ15">
-        <v>0.203575785744958</v>
+        <v>0.2035757857449579</v>
       </c>
       <c r="AR15">
-        <v>0.2096919291352389</v>
+        <v>0.2096919291352388</v>
       </c>
       <c r="AS15">
-        <v>0.2140569828793211</v>
+        <v>0.214056982879321</v>
       </c>
       <c r="AT15">
-        <v>0.2179330528641099</v>
+        <v>0.2179330528641098</v>
       </c>
       <c r="AU15">
-        <v>0.2216685534037666</v>
+        <v>0.2216685534037665</v>
       </c>
       <c r="AV15">
-        <v>0.2252980051903646</v>
+        <v>0.2252980051903644</v>
       </c>
       <c r="AW15">
-        <v>0.2294486071529495</v>
+        <v>0.2294486071529494</v>
       </c>
       <c r="AX15">
-        <v>0.2331556842220306</v>
+        <v>0.2331556842220305</v>
       </c>
       <c r="AY15">
-        <v>0.2367643797008336</v>
+        <v>0.2367643797008335</v>
       </c>
       <c r="AZ15">
-        <v>0.2401141095225749</v>
+        <v>0.2401141095225748</v>
       </c>
       <c r="BA15">
-        <v>0.243031065294598</v>
+        <v>0.2430310652945979</v>
       </c>
       <c r="BB15">
-        <v>0.2455334718682612</v>
+        <v>0.2455334718682611</v>
       </c>
       <c r="BC15">
-        <v>0.2485553722028152</v>
+        <v>0.248555372202815</v>
       </c>
       <c r="BD15">
-        <v>0.2520914871886194</v>
+        <v>0.2520914871886193</v>
       </c>
       <c r="BE15">
-        <v>0.2556816770761929</v>
+        <v>0.2556816770761928</v>
       </c>
       <c r="BF15">
-        <v>0.2592221127923282</v>
+        <v>0.259222112792328</v>
       </c>
       <c r="BG15">
-        <v>0.262854723618984</v>
+        <v>0.2628547236189839</v>
       </c>
       <c r="BH15">
-        <v>0.2667679514114685</v>
+        <v>0.2667679514114683</v>
       </c>
       <c r="BI15">
-        <v>0.2708498267505945</v>
+        <v>0.2708498267505944</v>
       </c>
       <c r="BJ15">
-        <v>0.2750514003643674</v>
+        <v>0.2750514003643672</v>
       </c>
       <c r="BK15">
-        <v>0.2793835692217159</v>
+        <v>0.2793835692217157</v>
       </c>
       <c r="BL15">
-        <v>0.2839999422783641</v>
+        <v>0.2839999422783639</v>
       </c>
       <c r="BM15">
-        <v>0.2888657611329814</v>
+        <v>0.2888657611329812</v>
       </c>
       <c r="BN15">
-        <v>0.2938971197951415</v>
+        <v>0.2938971197951414</v>
       </c>
       <c r="BO15">
-        <v>0.2991218381151091</v>
+        <v>0.2991218381151089</v>
       </c>
       <c r="BP15">
-        <v>0.3045456336685222</v>
+        <v>0.3045456336685219</v>
       </c>
       <c r="BQ15">
-        <v>0.3103832938995564</v>
+        <v>0.3103832938995563</v>
       </c>
       <c r="BR15">
-        <v>0.3160609117516091</v>
+        <v>0.316060911751609</v>
       </c>
       <c r="BS15">
-        <v>0.3213704303365679</v>
+        <v>0.3213704303365678</v>
       </c>
       <c r="BT15">
-        <v>0.3264770260084845</v>
+        <v>0.3264770260084844</v>
       </c>
       <c r="BU15">
-        <v>0.3314993750397622</v>
+        <v>0.3314993750397621</v>
       </c>
       <c r="BV15">
-        <v>0.3366689578783257</v>
+        <v>0.3366689578783255</v>
       </c>
       <c r="BW15">
-        <v>0.3417912660714977</v>
+        <v>0.3417912660714975</v>
       </c>
       <c r="BX15">
-        <v>0.3467586565351422</v>
+        <v>0.346758656535142</v>
       </c>
       <c r="BY15">
-        <v>0.3515074753747946</v>
+        <v>0.3515074753747945</v>
       </c>
       <c r="BZ15">
-        <v>0.355992133659745</v>
+        <v>0.3559921336597448</v>
       </c>
       <c r="CA15">
-        <v>0.3605264746919111</v>
+        <v>0.3605264746919109</v>
       </c>
       <c r="CB15">
-        <v>0.3652337935588318</v>
+        <v>0.3652337935588316</v>
       </c>
       <c r="CC15">
-        <v>0.3702506927779436</v>
+        <v>0.3702506927779434</v>
       </c>
       <c r="CD15">
-        <v>0.3753215859262768</v>
+        <v>0.3753215859262766</v>
       </c>
       <c r="CE15">
-        <v>0.3803647812203661</v>
+        <v>0.3803647812203659</v>
       </c>
       <c r="CF15">
-        <v>0.3856098520822639</v>
+        <v>0.3856098520822638</v>
       </c>
       <c r="CG15">
-        <v>0.3909870332862764</v>
+        <v>0.3909870332862763</v>
       </c>
       <c r="CH15">
-        <v>0.3964547081805159</v>
+        <v>0.3964547081805157</v>
       </c>
       <c r="CI15">
-        <v>0.4020068247436467</v>
+        <v>0.4020068247436464</v>
       </c>
       <c r="CJ15">
-        <v>0.4076392520628717</v>
+        <v>0.4076392520628715</v>
       </c>
       <c r="CK15">
-        <v>0.4135187836912755</v>
+        <v>0.4135187836912753</v>
       </c>
       <c r="CL15">
-        <v>0.4196604046680363</v>
+        <v>0.419660404668036</v>
       </c>
       <c r="CM15">
-        <v>0.4260149742027525</v>
+        <v>0.4260149742027524</v>
       </c>
       <c r="CN15">
-        <v>0.4325493405659849</v>
+        <v>0.4325493405659847</v>
       </c>
       <c r="CO15">
-        <v>0.4391999538480998</v>
+        <v>0.4391999538480997</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4608,7 +4608,7 @@
         <v>262411.4015625655</v>
       </c>
       <c r="N16">
-        <v>270512.1806219716</v>
+        <v>270512.1806219717</v>
       </c>
       <c r="O16">
         <v>203876.3371479548</v>
@@ -4620,151 +4620,151 @@
         <v>1352871.224261163</v>
       </c>
       <c r="R16">
-        <v>1356607.30679621</v>
+        <v>1356607.306796209</v>
       </c>
       <c r="S16">
-        <v>4271388.829088224</v>
+        <v>4271388.829088223</v>
       </c>
       <c r="T16">
-        <v>4274811.505919176</v>
+        <v>4274811.505919175</v>
       </c>
       <c r="U16">
-        <v>4277151.646244117</v>
+        <v>4277151.646244115</v>
       </c>
       <c r="V16">
-        <v>4281457.568431904</v>
+        <v>4281457.568431903</v>
       </c>
       <c r="W16">
-        <v>4288921.602131302</v>
+        <v>4288921.6021313</v>
       </c>
       <c r="X16">
-        <v>3892294.932430418</v>
+        <v>3892294.932430416</v>
       </c>
       <c r="Y16">
         <v>3905311.219816505</v>
       </c>
       <c r="Z16">
-        <v>3918534.269816365</v>
+        <v>3918534.269816363</v>
       </c>
       <c r="AA16">
-        <v>3926988.949825974</v>
+        <v>3926988.949825972</v>
       </c>
       <c r="AB16">
-        <v>3930303.234262537</v>
+        <v>3930303.234262535</v>
       </c>
       <c r="AC16">
-        <v>532507.3891377448</v>
+        <v>532507.3891377447</v>
       </c>
       <c r="AD16">
-        <v>543169.4951458503</v>
+        <v>543169.4951458502</v>
       </c>
       <c r="AE16">
-        <v>545426.8605777738</v>
+        <v>545426.8605777737</v>
       </c>
       <c r="AF16">
-        <v>555526.547745524</v>
+        <v>555526.5477455237</v>
       </c>
       <c r="AG16">
         <v>585781.4954498776</v>
       </c>
       <c r="AH16">
-        <v>-36624.46088505651</v>
+        <v>-36624.46088505648</v>
       </c>
       <c r="AI16">
-        <v>-60820.39304324207</v>
+        <v>-60820.39304324203</v>
       </c>
       <c r="AJ16">
         <v>-93908.48441312497</v>
       </c>
       <c r="AK16">
-        <v>-137663.003838907</v>
+        <v>-137663.0038389069</v>
       </c>
       <c r="AL16">
         <v>-190905.0352313943</v>
       </c>
       <c r="AM16">
-        <v>256357.57035464</v>
+        <v>256357.5703546398</v>
       </c>
       <c r="AN16">
-        <v>348801.6358199965</v>
+        <v>348801.6358199963</v>
       </c>
       <c r="AO16">
-        <v>479308.1158918838</v>
+        <v>479308.1158918836</v>
       </c>
       <c r="AP16">
-        <v>647973.5703053421</v>
+        <v>647973.5703053416</v>
       </c>
       <c r="AQ16">
-        <v>871322.8816732175</v>
+        <v>871322.8816732171</v>
       </c>
       <c r="AR16">
-        <v>1991804.871891092</v>
+        <v>1991804.871891091</v>
       </c>
       <c r="AS16">
-        <v>2221595.190282032</v>
+        <v>2221595.190282031</v>
       </c>
       <c r="AT16">
-        <v>2330302.841811232</v>
+        <v>2330302.841811231</v>
       </c>
       <c r="AU16">
-        <v>2403089.62334404</v>
+        <v>2403089.623344039</v>
       </c>
       <c r="AV16">
         <v>2448172.640327412</v>
       </c>
       <c r="AW16">
-        <v>2583881.112873729</v>
+        <v>2583881.112873728</v>
       </c>
       <c r="AX16">
         <v>2573852.855256045</v>
       </c>
       <c r="AY16">
-        <v>2538982.48789219</v>
+        <v>2538982.487892189</v>
       </c>
       <c r="AZ16">
-        <v>2444894.202530474</v>
+        <v>2444894.202530473</v>
       </c>
       <c r="BA16">
-        <v>2258736.99526964</v>
+        <v>2258736.995269639</v>
       </c>
       <c r="BB16">
-        <v>1808535.460596148</v>
+        <v>1808535.460596147</v>
       </c>
       <c r="BC16">
-        <v>1580116.057623414</v>
+        <v>1580116.057623413</v>
       </c>
       <c r="BD16">
         <v>1455283.306310224</v>
       </c>
       <c r="BE16">
-        <v>1346235.605691596</v>
+        <v>1346235.605691595</v>
       </c>
       <c r="BF16">
-        <v>1237503.557576742</v>
+        <v>1237503.557576741</v>
       </c>
       <c r="BG16">
-        <v>1012798.30208272</v>
+        <v>1012798.302082719</v>
       </c>
       <c r="BH16">
-        <v>932083.5443918232</v>
+        <v>932083.5443918229</v>
       </c>
       <c r="BI16">
-        <v>892838.5399230676</v>
+        <v>892838.5399230672</v>
       </c>
       <c r="BJ16">
-        <v>882579.9482313276</v>
+        <v>882579.9482313271</v>
       </c>
       <c r="BK16">
-        <v>902227.0596009047</v>
+        <v>902227.0596009042</v>
       </c>
       <c r="BL16">
-        <v>911587.4644233634</v>
+        <v>911587.4644233629</v>
       </c>
       <c r="BM16">
-        <v>998018.973854094</v>
+        <v>998018.9738540936</v>
       </c>
       <c r="BN16">
-        <v>1122579.146517639</v>
+        <v>1122579.146517638</v>
       </c>
       <c r="BO16">
         <v>1298009.150528686</v>
@@ -4773,49 +4773,49 @@
         <v>1528691.787514145</v>
       </c>
       <c r="BQ16">
-        <v>1776144.275810415</v>
+        <v>1776144.275810414</v>
       </c>
       <c r="BR16">
         <v>1996404.865632417</v>
       </c>
       <c r="BS16">
-        <v>2128834.566609178</v>
+        <v>2128834.566609177</v>
       </c>
       <c r="BT16">
-        <v>2211435.269161829</v>
+        <v>2211435.269161828</v>
       </c>
       <c r="BU16">
         <v>2271982.137916792</v>
       </c>
       <c r="BV16">
-        <v>2289806.334109679</v>
+        <v>2289806.334109678</v>
       </c>
       <c r="BW16">
-        <v>2308495.512738929</v>
+        <v>2308495.512738928</v>
       </c>
       <c r="BX16">
-        <v>2291843.498223457</v>
+        <v>2291843.498223456</v>
       </c>
       <c r="BY16">
-        <v>2226031.819987338</v>
+        <v>2226031.819987337</v>
       </c>
       <c r="BZ16">
-        <v>2102172.945876084</v>
+        <v>2102172.945876083</v>
       </c>
       <c r="CA16">
-        <v>1917139.649370158</v>
+        <v>1917139.649370157</v>
       </c>
       <c r="CB16">
-        <v>1771919.782202725</v>
+        <v>1771919.782202724</v>
       </c>
       <c r="CC16">
-        <v>1673708.480441692</v>
+        <v>1673708.480441691</v>
       </c>
       <c r="CD16">
-        <v>1599940.944088414</v>
+        <v>1599940.944088413</v>
       </c>
       <c r="CE16">
-        <v>1524585.935846735</v>
+        <v>1524585.935846734</v>
       </c>
       <c r="CF16">
         <v>1421113.91536378</v>
@@ -4824,28 +4824,28 @@
         <v>1354347.35957671</v>
       </c>
       <c r="CH16">
-        <v>1309966.715584802</v>
+        <v>1309966.715584801</v>
       </c>
       <c r="CI16">
         <v>1286492.600414862</v>
       </c>
       <c r="CJ16">
-        <v>1283735.942314304</v>
+        <v>1283735.942314303</v>
       </c>
       <c r="CK16">
-        <v>1273884.563452546</v>
+        <v>1273884.563452545</v>
       </c>
       <c r="CL16">
         <v>1328256.259017741</v>
       </c>
       <c r="CM16">
-        <v>1421058.710479245</v>
+        <v>1421058.710479244</v>
       </c>
       <c r="CN16">
         <v>1554469.384062222</v>
       </c>
       <c r="CO16">
-        <v>1721303.040799276</v>
+        <v>1721303.040799275</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4858,271 +4858,271 @@
         <v>114553.8396509568</v>
       </c>
       <c r="E17">
-        <v>73082.99781203282</v>
+        <v>73082.99781203285</v>
       </c>
       <c r="F17">
         <v>55620.31734484869</v>
       </c>
       <c r="G17">
-        <v>55347.39531041803</v>
+        <v>55347.395310418</v>
       </c>
       <c r="H17">
-        <v>50996.50254544131</v>
+        <v>50996.50254544129</v>
       </c>
       <c r="I17">
-        <v>48908.5605565751</v>
+        <v>48908.56055657509</v>
       </c>
       <c r="J17">
-        <v>44771.57377962155</v>
+        <v>44771.57377962153</v>
       </c>
       <c r="K17">
-        <v>46742.61655719672</v>
+        <v>46742.61655719669</v>
       </c>
       <c r="L17">
-        <v>56506.06735684321</v>
+        <v>56506.0673568432</v>
       </c>
       <c r="M17">
-        <v>56517.85046914022</v>
+        <v>56517.8504691402</v>
       </c>
       <c r="N17">
         <v>60132.37478261743</v>
       </c>
       <c r="O17">
-        <v>69084.33534425654</v>
+        <v>69084.33534425653</v>
       </c>
       <c r="P17">
-        <v>681979.3454032021</v>
+        <v>681979.3454032018</v>
       </c>
       <c r="Q17">
-        <v>682682.7892416575</v>
+        <v>682682.7892416572</v>
       </c>
       <c r="R17">
-        <v>683600.5308067141</v>
+        <v>683600.5308067139</v>
       </c>
       <c r="S17">
-        <v>2223787.372946443</v>
+        <v>2223787.372946442</v>
       </c>
       <c r="T17">
-        <v>2225267.560055029</v>
+        <v>2225267.560055028</v>
       </c>
       <c r="U17">
-        <v>2227098.819431377</v>
+        <v>2227098.819431376</v>
       </c>
       <c r="V17">
-        <v>2229333.568071701</v>
+        <v>2229333.5680717</v>
       </c>
       <c r="W17">
-        <v>2232031.691403198</v>
+        <v>2232031.691403197</v>
       </c>
       <c r="X17">
-        <v>2407469.12185574</v>
+        <v>2407469.121855739</v>
       </c>
       <c r="Y17">
-        <v>2411339.583286337</v>
+        <v>2411339.583286335</v>
       </c>
       <c r="Z17">
         <v>2415979.070680324</v>
       </c>
       <c r="AA17">
-        <v>2421577.646161536</v>
+        <v>2421577.646161534</v>
       </c>
       <c r="AB17">
-        <v>2428405.691944815</v>
+        <v>2428405.691944813</v>
       </c>
       <c r="AC17">
-        <v>759372.6662299961</v>
+        <v>759372.6662299957</v>
       </c>
       <c r="AD17">
-        <v>769962.1085458619</v>
+        <v>769962.1085458612</v>
       </c>
       <c r="AE17">
-        <v>783432.1474219047</v>
+        <v>783432.1474219043</v>
       </c>
       <c r="AF17">
-        <v>800756.2858684579</v>
+        <v>800756.2858684572</v>
       </c>
       <c r="AG17">
-        <v>823181.6218865088</v>
+        <v>823181.6218865081</v>
       </c>
       <c r="AH17">
-        <v>325034.8977650744</v>
+        <v>325034.897765074</v>
       </c>
       <c r="AI17">
-        <v>346792.3293304995</v>
+        <v>346792.3293304992</v>
       </c>
       <c r="AJ17">
-        <v>375628.1868372505</v>
+        <v>375628.18683725</v>
       </c>
       <c r="AK17">
-        <v>425999.1436961862</v>
+        <v>425999.1436961858</v>
       </c>
       <c r="AL17">
-        <v>488449.7755853469</v>
+        <v>488449.7755853464</v>
       </c>
       <c r="AM17">
-        <v>889454.6240380302</v>
+        <v>889454.6240380295</v>
       </c>
       <c r="AN17">
-        <v>995584.0225368458</v>
+        <v>995584.0225368451</v>
       </c>
       <c r="AO17">
-        <v>1117580.777039801</v>
+        <v>1117580.7770398</v>
       </c>
       <c r="AP17">
-        <v>1253790.447166551</v>
+        <v>1253790.44716655</v>
       </c>
       <c r="AQ17">
-        <v>1401045.352168972</v>
+        <v>1401045.352168971</v>
       </c>
       <c r="AR17">
-        <v>1933791.419449453</v>
+        <v>1933791.419449452</v>
       </c>
       <c r="AS17">
-        <v>2087323.285706645</v>
+        <v>2087323.285706643</v>
       </c>
       <c r="AT17">
-        <v>2233416.831330137</v>
+        <v>2233416.831330135</v>
       </c>
       <c r="AU17">
-        <v>2364059.490820423</v>
+        <v>2364059.490820421</v>
       </c>
       <c r="AV17">
-        <v>2471457.00232332</v>
+        <v>2471457.002323319</v>
       </c>
       <c r="AW17">
-        <v>2673586.134761332</v>
+        <v>2673586.13476133</v>
       </c>
       <c r="AX17">
-        <v>2716407.726909161</v>
+        <v>2716407.72690916</v>
       </c>
       <c r="AY17">
-        <v>2722415.095732142</v>
+        <v>2722415.095732139</v>
       </c>
       <c r="AZ17">
-        <v>2692286.367218562</v>
+        <v>2692286.367218561</v>
       </c>
       <c r="BA17">
-        <v>2629437.492725833</v>
+        <v>2629437.492725832</v>
       </c>
       <c r="BB17">
-        <v>2477192.30828697</v>
+        <v>2477192.308286969</v>
       </c>
       <c r="BC17">
-        <v>2367880.264029116</v>
+        <v>2367880.264029114</v>
       </c>
       <c r="BD17">
-        <v>2247684.905623081</v>
+        <v>2247684.90562308</v>
       </c>
       <c r="BE17">
-        <v>2125742.617903204</v>
+        <v>2125742.617903202</v>
       </c>
       <c r="BF17">
-        <v>2011162.711098287</v>
+        <v>2011162.711098285</v>
       </c>
       <c r="BG17">
-        <v>1881381.827987073</v>
+        <v>1881381.827987072</v>
       </c>
       <c r="BH17">
-        <v>1805711.015773681</v>
+        <v>1805711.01577368</v>
       </c>
       <c r="BI17">
-        <v>1758434.930570561</v>
+        <v>1758434.93057056</v>
       </c>
       <c r="BJ17">
-        <v>1742598.853293187</v>
+        <v>1742598.853293186</v>
       </c>
       <c r="BK17">
-        <v>1758887.31929879</v>
+        <v>1758887.319298788</v>
       </c>
       <c r="BL17">
-        <v>1809811.528965527</v>
+        <v>1809811.528965525</v>
       </c>
       <c r="BM17">
-        <v>1884574.390066701</v>
+        <v>1884574.3900667</v>
       </c>
       <c r="BN17">
-        <v>1983038.799980762</v>
+        <v>1983038.799980761</v>
       </c>
       <c r="BO17">
-        <v>2100479.618965932</v>
+        <v>2100479.61896593</v>
       </c>
       <c r="BP17">
-        <v>2231716.097011365</v>
+        <v>2231716.097011363</v>
       </c>
       <c r="BQ17">
-        <v>2377332.582135255</v>
+        <v>2377332.582135253</v>
       </c>
       <c r="BR17">
-        <v>2519558.021630885</v>
+        <v>2519558.021630883</v>
       </c>
       <c r="BS17">
-        <v>2658938.326022619</v>
+        <v>2658938.326022617</v>
       </c>
       <c r="BT17">
-        <v>2790306.987256267</v>
+        <v>2790306.987256265</v>
       </c>
       <c r="BU17">
-        <v>2909083.476405576</v>
+        <v>2909083.476405574</v>
       </c>
       <c r="BV17">
-        <v>3004780.717124125</v>
+        <v>3004780.717124124</v>
       </c>
       <c r="BW17">
-        <v>3087791.727381488</v>
+        <v>3087791.727381486</v>
       </c>
       <c r="BX17">
-        <v>3149522.781347968</v>
+        <v>3149522.781347966</v>
       </c>
       <c r="BY17">
-        <v>3189155.942713613</v>
+        <v>3189155.942713611</v>
       </c>
       <c r="BZ17">
-        <v>3207049.849393368</v>
+        <v>3207049.849393366</v>
       </c>
       <c r="CA17">
-        <v>3185235.293023037</v>
+        <v>3185235.293023034</v>
       </c>
       <c r="CB17">
-        <v>3165307.13842845</v>
+        <v>3165307.138428448</v>
       </c>
       <c r="CC17">
-        <v>3131265.769545492</v>
+        <v>3131265.76954549</v>
       </c>
       <c r="CD17">
-        <v>3087283.01112683</v>
+        <v>3087283.011126827</v>
       </c>
       <c r="CE17">
-        <v>3037954.763409519</v>
+        <v>3037954.763409516</v>
       </c>
       <c r="CF17">
-        <v>2951307.460401206</v>
+        <v>2951307.460401203</v>
       </c>
       <c r="CG17">
-        <v>2905383.944147496</v>
+        <v>2905383.944147495</v>
       </c>
       <c r="CH17">
-        <v>2867644.950850498</v>
+        <v>2867644.950850496</v>
       </c>
       <c r="CI17">
-        <v>2841599.634334658</v>
+        <v>2841599.634334655</v>
       </c>
       <c r="CJ17">
-        <v>2829901.92052176</v>
+        <v>2829901.920521758</v>
       </c>
       <c r="CK17">
-        <v>2775588.176308598</v>
+        <v>2775588.176308596</v>
       </c>
       <c r="CL17">
-        <v>2796669.966111691</v>
+        <v>2796669.966111688</v>
       </c>
       <c r="CM17">
-        <v>2834221.307284903</v>
+        <v>2834221.307284901</v>
       </c>
       <c r="CN17">
-        <v>2887084.574057978</v>
+        <v>2887084.574057975</v>
       </c>
       <c r="CO17">
-        <v>2953329.630089898</v>
+        <v>2953329.630089895</v>
       </c>
     </row>
   </sheetData>
@@ -5431,37 +5431,37 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1059.139284590803</v>
+        <v>1059.139284590804</v>
       </c>
       <c r="E2">
-        <v>2443.415494202176</v>
+        <v>2443.415494202177</v>
       </c>
       <c r="F2">
-        <v>3826.20328892485</v>
+        <v>3826.203288924852</v>
       </c>
       <c r="G2">
-        <v>5139.382651371859</v>
+        <v>5139.382651371861</v>
       </c>
       <c r="H2">
-        <v>6905.92021243634</v>
+        <v>6905.920212436344</v>
       </c>
       <c r="I2">
-        <v>8176.567867576252</v>
+        <v>8176.567867576257</v>
       </c>
       <c r="J2">
         <v>10486.17134206949</v>
       </c>
       <c r="K2">
-        <v>12780.54837997548</v>
+        <v>12780.54837997549</v>
       </c>
       <c r="L2">
         <v>14819.93257202258</v>
       </c>
       <c r="M2">
-        <v>16696.86657115718</v>
+        <v>16696.86657115719</v>
       </c>
       <c r="N2">
-        <v>20730.16686587051</v>
+        <v>20730.16686587052</v>
       </c>
       <c r="O2">
         <v>23169.36639141457</v>
@@ -5476,163 +5476,163 @@
         <v>39008.01814249007</v>
       </c>
       <c r="S2">
-        <v>51453.19674797164</v>
+        <v>51453.19674797165</v>
       </c>
       <c r="T2">
-        <v>64806.96925680609</v>
+        <v>64806.96925680611</v>
       </c>
       <c r="U2">
-        <v>79063.1220272608</v>
+        <v>79063.12202726083</v>
       </c>
       <c r="V2">
-        <v>94204.87528699711</v>
+        <v>94204.87528699715</v>
       </c>
       <c r="W2">
-        <v>110235.3190161683</v>
+        <v>110235.3190161684</v>
       </c>
       <c r="X2">
-        <v>126302.0014731255</v>
+        <v>126302.0014731256</v>
       </c>
       <c r="Y2">
-        <v>143204.5464128957</v>
+        <v>143204.5464128958</v>
       </c>
       <c r="Z2">
-        <v>160965.1946995921</v>
+        <v>160965.1946995922</v>
       </c>
       <c r="AA2">
         <v>179610.8421201363</v>
       </c>
       <c r="AB2">
-        <v>199151.8656391133</v>
+        <v>199151.8656391134</v>
       </c>
       <c r="AC2">
-        <v>208125.8550533655</v>
+        <v>208125.8550533656</v>
       </c>
       <c r="AD2">
-        <v>217359.1619393976</v>
+        <v>217359.1619393977</v>
       </c>
       <c r="AE2">
-        <v>226837.2749156234</v>
+        <v>226837.2749156235</v>
       </c>
       <c r="AF2">
-        <v>236555.5932158605</v>
+        <v>236555.5932158606</v>
       </c>
       <c r="AG2">
-        <v>246592.6625772487</v>
+        <v>246592.6625772488</v>
       </c>
       <c r="AH2">
-        <v>252912.0950476915</v>
+        <v>252912.0950476916</v>
       </c>
       <c r="AI2">
-        <v>259361.0651764896</v>
+        <v>259361.0651764897</v>
       </c>
       <c r="AJ2">
-        <v>265915.8035827405</v>
+        <v>265915.8035827406</v>
       </c>
       <c r="AK2">
-        <v>272501.4090305889</v>
+        <v>272501.409030589</v>
       </c>
       <c r="AL2">
-        <v>279334.1432367665</v>
+        <v>279334.1432367666</v>
       </c>
       <c r="AM2">
-        <v>288499.7711846489</v>
+        <v>288499.771184649</v>
       </c>
       <c r="AN2">
-        <v>298312.8998063736</v>
+        <v>298312.8998063738</v>
       </c>
       <c r="AO2">
-        <v>308970.4700072509</v>
+        <v>308970.470007251</v>
       </c>
       <c r="AP2">
-        <v>320936.2971396822</v>
+        <v>320936.2971396823</v>
       </c>
       <c r="AQ2">
-        <v>334639.8040744123</v>
+        <v>334639.8040744124</v>
       </c>
       <c r="AR2">
-        <v>354092.1289548171</v>
+        <v>354092.1289548172</v>
       </c>
       <c r="AS2">
-        <v>375757.680880438</v>
+        <v>375757.6808804382</v>
       </c>
       <c r="AT2">
-        <v>398669.8622910477</v>
+        <v>398669.8622910479</v>
       </c>
       <c r="AU2">
-        <v>422590.4655766415</v>
+        <v>422590.4655766417</v>
       </c>
       <c r="AV2">
-        <v>447363.2874288899</v>
+        <v>447363.2874288902</v>
       </c>
       <c r="AW2">
-        <v>473552.4652624509</v>
+        <v>473552.4652624512</v>
       </c>
       <c r="AX2">
-        <v>500412.8675946514</v>
+        <v>500412.8675946517</v>
       </c>
       <c r="AY2">
-        <v>527860.7891497667</v>
+        <v>527860.7891497669</v>
       </c>
       <c r="AZ2">
-        <v>555270.0392929178</v>
+        <v>555270.0392929181</v>
       </c>
       <c r="BA2">
-        <v>581314.6463431013</v>
+        <v>581314.6463431015</v>
       </c>
       <c r="BB2">
-        <v>603664.7041134044</v>
+        <v>603664.7041134046</v>
       </c>
       <c r="BC2">
-        <v>623978.4003259786</v>
+        <v>623978.400325979</v>
       </c>
       <c r="BD2">
-        <v>644086.0639071815</v>
+        <v>644086.0639071818</v>
       </c>
       <c r="BE2">
-        <v>664084.93085364</v>
+        <v>664084.9308536403</v>
       </c>
       <c r="BF2">
-        <v>683540.6162043005</v>
+        <v>683540.6162043009</v>
       </c>
       <c r="BG2">
-        <v>701337.7449735333</v>
+        <v>701337.7449735337</v>
       </c>
       <c r="BH2">
-        <v>718455.618498807</v>
+        <v>718455.6184988073</v>
       </c>
       <c r="BI2">
-        <v>735660.3525347281</v>
+        <v>735660.3525347285</v>
       </c>
       <c r="BJ2">
-        <v>753233.316541572</v>
+        <v>753233.3165415723</v>
       </c>
       <c r="BK2">
-        <v>771529.2730804462</v>
+        <v>771529.2730804466</v>
       </c>
       <c r="BL2">
-        <v>790611.6424189069</v>
+        <v>790611.6424189074</v>
       </c>
       <c r="BM2">
-        <v>810923.0581063086</v>
+        <v>810923.058106309</v>
       </c>
       <c r="BN2">
-        <v>832475.0625894389</v>
+        <v>832475.0625894393</v>
       </c>
       <c r="BO2">
-        <v>855760.8589540515</v>
+        <v>855760.858954052</v>
       </c>
       <c r="BP2">
-        <v>881524.7896589405</v>
+        <v>881524.789658941</v>
       </c>
       <c r="BQ2">
-        <v>910170.4396701067</v>
+        <v>910170.4396701072</v>
       </c>
       <c r="BR2">
-        <v>941447.2391557212</v>
+        <v>941447.2391557216</v>
       </c>
       <c r="BS2">
-        <v>974322.9777449949</v>
+        <v>974322.9777449954</v>
       </c>
       <c r="BT2">
         <v>1008374.415946822</v>
@@ -5641,16 +5641,16 @@
         <v>1043497.963870364</v>
       </c>
       <c r="BV2">
-        <v>1079398.73410462</v>
+        <v>1079398.734104621</v>
       </c>
       <c r="BW2">
-        <v>1116041.821238063</v>
+        <v>1116041.821238064</v>
       </c>
       <c r="BX2">
         <v>1152937.520923482</v>
       </c>
       <c r="BY2">
-        <v>1189394.884595643</v>
+        <v>1189394.884595644</v>
       </c>
       <c r="BZ2">
         <v>1224515.979286578</v>
@@ -5665,22 +5665,22 @@
         <v>1319521.897562525</v>
       </c>
       <c r="CD2">
-        <v>1349845.107949331</v>
+        <v>1349845.107949332</v>
       </c>
       <c r="CE2">
-        <v>1379633.394791156</v>
+        <v>1379633.394791157</v>
       </c>
       <c r="CF2">
         <v>1408433.898867836</v>
       </c>
       <c r="CG2">
-        <v>1436752.065126505</v>
+        <v>1436752.065126506</v>
       </c>
       <c r="CH2">
-        <v>1465138.907834926</v>
+        <v>1465138.907834927</v>
       </c>
       <c r="CI2">
-        <v>1494000.401330624</v>
+        <v>1494000.401330625</v>
       </c>
       <c r="CJ2">
         <v>1523609.06612508</v>
@@ -5689,16 +5689,16 @@
         <v>1553797.25517046</v>
       </c>
       <c r="CL2">
-        <v>1585209.824554991</v>
+        <v>1585209.824554992</v>
       </c>
       <c r="CM2">
-        <v>1618138.893240094</v>
+        <v>1618138.893240095</v>
       </c>
       <c r="CN2">
-        <v>1652952.739594726</v>
+        <v>1652952.739594727</v>
       </c>
       <c r="CO2">
-        <v>1690053.62615881</v>
+        <v>1690053.626158811</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -5708,70 +5708,70 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24524384338169</v>
+        <v>70.24524384338173</v>
       </c>
       <c r="E3">
-        <v>162.2812548281394</v>
+        <v>162.2812548281395</v>
       </c>
       <c r="F3">
-        <v>254.1226891127976</v>
+        <v>254.1226891127977</v>
       </c>
       <c r="G3">
-        <v>341.2880793519264</v>
+        <v>341.2880793519266</v>
       </c>
       <c r="H3">
-        <v>458.9811473973723</v>
+        <v>458.9811473973726</v>
       </c>
       <c r="I3">
-        <v>543.3588836737866</v>
+        <v>543.358883673787</v>
       </c>
       <c r="J3">
-        <v>697.4269595432597</v>
+        <v>697.4269595432602</v>
       </c>
       <c r="K3">
-        <v>850.3505932333991</v>
+        <v>850.3505932333996</v>
       </c>
       <c r="L3">
-        <v>986.1841918833006</v>
+        <v>986.1841918833013</v>
       </c>
       <c r="M3">
-        <v>1111.045129309585</v>
+        <v>1111.045129309586</v>
       </c>
       <c r="N3">
         <v>1380.664995296677</v>
       </c>
       <c r="O3">
-        <v>1543.328512639208</v>
+        <v>1543.328512639209</v>
       </c>
       <c r="P3">
-        <v>1871.294409702645</v>
+        <v>1871.294409702646</v>
       </c>
       <c r="Q3">
         <v>2224.511110282303</v>
       </c>
       <c r="R3">
-        <v>2603.247797506688</v>
+        <v>2603.247797506689</v>
       </c>
       <c r="S3">
         <v>3437.657068292518</v>
       </c>
       <c r="T3">
-        <v>4333.059488228227</v>
+        <v>4333.059488228228</v>
       </c>
       <c r="U3">
-        <v>5289.035080956368</v>
+        <v>5289.035080956369</v>
       </c>
       <c r="V3">
-        <v>6304.457092602913</v>
+        <v>6304.457092602914</v>
       </c>
       <c r="W3">
-        <v>7379.534729065812</v>
+        <v>7379.534729065813</v>
       </c>
       <c r="X3">
-        <v>8457.014514527757</v>
+        <v>8457.014514527758</v>
       </c>
       <c r="Y3">
-        <v>9590.607960458667</v>
+        <v>9590.607960458668</v>
       </c>
       <c r="Z3">
         <v>10781.81175952161</v>
@@ -5780,13 +5780,13 @@
         <v>12032.43155244422</v>
       </c>
       <c r="AB3">
-        <v>13343.16064714953</v>
+        <v>13343.16064714954</v>
       </c>
       <c r="AC3">
-        <v>13944.26988099149</v>
+        <v>13944.2698809915</v>
       </c>
       <c r="AD3">
-        <v>14562.79396518637</v>
+        <v>14562.79396518638</v>
       </c>
       <c r="AE3">
         <v>15197.77535896141</v>
@@ -5810,7 +5810,7 @@
         <v>18255.73073851773</v>
       </c>
       <c r="AL3">
-        <v>18713.2033841949</v>
+        <v>18713.20338419491</v>
       </c>
       <c r="AM3">
         <v>19327.5395591771</v>
@@ -5840,7 +5840,7 @@
         <v>28348.62210127918</v>
       </c>
       <c r="AV3">
-        <v>30016.0697577733</v>
+        <v>30016.06975777331</v>
       </c>
       <c r="AW3">
         <v>31778.62769538571</v>
@@ -5870,109 +5870,109 @@
         <v>44590.61490794818</v>
       </c>
       <c r="BF3">
-        <v>45897.09137315904</v>
+        <v>45897.09137315905</v>
       </c>
       <c r="BG3">
         <v>47091.80463218188</v>
       </c>
       <c r="BH3">
-        <v>48240.76988120572</v>
+        <v>48240.76988120574</v>
       </c>
       <c r="BI3">
-        <v>49395.90639451142</v>
+        <v>49395.90639451144</v>
       </c>
       <c r="BJ3">
-        <v>50576.09550907265</v>
+        <v>50576.09550907267</v>
       </c>
       <c r="BK3">
-        <v>51805.52044040454</v>
+        <v>51805.52044040456</v>
       </c>
       <c r="BL3">
-        <v>53089.09448791713</v>
+        <v>53089.09448791715</v>
       </c>
       <c r="BM3">
-        <v>54457.19610139398</v>
+        <v>54457.196101394</v>
       </c>
       <c r="BN3">
-        <v>55911.03895509473</v>
+        <v>55911.03895509475</v>
       </c>
       <c r="BO3">
-        <v>57484.02062388439</v>
+        <v>57484.02062388441</v>
       </c>
       <c r="BP3">
-        <v>59226.4105319204</v>
+        <v>59226.41053192042</v>
       </c>
       <c r="BQ3">
-        <v>61165.52737769623</v>
+        <v>61165.52737769625</v>
       </c>
       <c r="BR3">
-        <v>63283.36087830231</v>
+        <v>63283.36087830233</v>
       </c>
       <c r="BS3">
-        <v>65508.59504611171</v>
+        <v>65508.59504611173</v>
       </c>
       <c r="BT3">
-        <v>67811.57673236933</v>
+        <v>67811.57673236936</v>
       </c>
       <c r="BU3">
-        <v>70184.82943026831</v>
+        <v>70184.82943026834</v>
       </c>
       <c r="BV3">
-        <v>72608.53960932295</v>
+        <v>72608.53960932298</v>
       </c>
       <c r="BW3">
-        <v>75080.54172795465</v>
+        <v>75080.54172795468</v>
       </c>
       <c r="BX3">
-        <v>77567.95846262047</v>
+        <v>77567.9584626205</v>
       </c>
       <c r="BY3">
-        <v>80024.1530137425</v>
+        <v>80024.15301374253</v>
       </c>
       <c r="BZ3">
-        <v>82388.51446253413</v>
+        <v>82388.51446253416</v>
       </c>
       <c r="CA3">
-        <v>84606.3669145989</v>
+        <v>84606.36691459893</v>
       </c>
       <c r="CB3">
-        <v>86715.1649312221</v>
+        <v>86715.16493122213</v>
       </c>
       <c r="CC3">
-        <v>88775.89861203663</v>
+        <v>88775.89861203666</v>
       </c>
       <c r="CD3">
-        <v>90813.49334612591</v>
+        <v>90813.49334612594</v>
       </c>
       <c r="CE3">
-        <v>92814.9604450599</v>
+        <v>92814.96044505993</v>
       </c>
       <c r="CF3">
-        <v>94749.83590165796</v>
+        <v>94749.83590165799</v>
       </c>
       <c r="CG3">
-        <v>96652.20076607894</v>
+        <v>96652.20076607898</v>
       </c>
       <c r="CH3">
-        <v>98559.33807076317</v>
+        <v>98559.33807076322</v>
       </c>
       <c r="CI3">
-        <v>100498.7970748056</v>
+        <v>100498.7970748057</v>
       </c>
       <c r="CJ3">
-        <v>102489.2414201374</v>
+        <v>102489.2414201375</v>
       </c>
       <c r="CK3">
         <v>104519.9845290985</v>
       </c>
       <c r="CL3">
-        <v>106635.1964589631</v>
+        <v>106635.1964589632</v>
       </c>
       <c r="CM3">
-        <v>108855.353101721</v>
+        <v>108855.3531017211</v>
       </c>
       <c r="CN3">
-        <v>111205.5531669023</v>
+        <v>111205.5531669024</v>
       </c>
       <c r="CO3">
         <v>113712.8580643566</v>
@@ -5985,10 +5985,10 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379415.812189866</v>
+        <v>379415.8121898659</v>
       </c>
       <c r="E4">
-        <v>755071.013219204</v>
+        <v>755071.0132192038</v>
       </c>
       <c r="F4">
         <v>1217198.763111909</v>
@@ -5997,7 +5997,7 @@
         <v>1736373.584122905</v>
       </c>
       <c r="H4">
-        <v>2422694.056676108</v>
+        <v>2422694.056676107</v>
       </c>
       <c r="I4">
         <v>3067315.652083126</v>
@@ -6111,16 +6111,16 @@
         <v>133629328.8710475</v>
       </c>
       <c r="AT4">
-        <v>137633751.6929065</v>
+        <v>137633751.6929066</v>
       </c>
       <c r="AU4">
-        <v>141811880.7676706</v>
+        <v>141811880.7676707</v>
       </c>
       <c r="AV4">
         <v>146105481.3675598</v>
       </c>
       <c r="AW4">
-        <v>150584018.3332668</v>
+        <v>150584018.3332669</v>
       </c>
       <c r="AX4">
         <v>155064509.3356443</v>
@@ -6135,7 +6135,7 @@
         <v>167668277.6067401</v>
       </c>
       <c r="BB4">
-        <v>170793428.1080087</v>
+        <v>170793428.1080088</v>
       </c>
       <c r="BC4">
         <v>173443436.0284709</v>
@@ -6144,58 +6144,58 @@
         <v>175839231.3390494</v>
       </c>
       <c r="BE4">
-        <v>178004076.6343558</v>
+        <v>178004076.6343559</v>
       </c>
       <c r="BF4">
-        <v>179915854.6077806</v>
+        <v>179915854.6077807</v>
       </c>
       <c r="BG4">
-        <v>181495127.1931718</v>
+        <v>181495127.1931719</v>
       </c>
       <c r="BH4">
         <v>182921792.0060509</v>
       </c>
       <c r="BI4">
-        <v>184240727.0637641</v>
+        <v>184240727.0637642</v>
       </c>
       <c r="BJ4">
         <v>185496792.7904143</v>
       </c>
       <c r="BK4">
-        <v>186734461.2995378</v>
+        <v>186734461.2995379</v>
       </c>
       <c r="BL4">
-        <v>187899116.4833451</v>
+        <v>187899116.4833452</v>
       </c>
       <c r="BM4">
         <v>189243014.7199178</v>
       </c>
       <c r="BN4">
-        <v>190842420.6282476</v>
+        <v>190842420.6282477</v>
       </c>
       <c r="BO4">
-        <v>192770131.4513112</v>
+        <v>192770131.4513113</v>
       </c>
       <c r="BP4">
         <v>195085443.2618603</v>
       </c>
       <c r="BQ4">
-        <v>197764865.4692913</v>
+        <v>197764865.4692914</v>
       </c>
       <c r="BR4">
         <v>200798939.4187704</v>
       </c>
       <c r="BS4">
-        <v>204053564.5226075</v>
+        <v>204053564.5226076</v>
       </c>
       <c r="BT4">
-        <v>207451940.8565813</v>
+        <v>207451940.8565814</v>
       </c>
       <c r="BU4">
         <v>210954695.7763095</v>
       </c>
       <c r="BV4">
-        <v>214457869.2509907</v>
+        <v>214457869.2509908</v>
       </c>
       <c r="BW4">
         <v>217989857.9087189</v>
@@ -6204,19 +6204,19 @@
         <v>221487679.3648872</v>
       </c>
       <c r="BY4">
-        <v>224856215.0568908</v>
+        <v>224856215.0568909</v>
       </c>
       <c r="BZ4">
         <v>227978407.0032737</v>
       </c>
       <c r="CA4">
-        <v>230744887.2609625</v>
+        <v>230744887.2609626</v>
       </c>
       <c r="CB4">
-        <v>233260448.0701722</v>
+        <v>233260448.0701723</v>
       </c>
       <c r="CC4">
-        <v>235685693.3920449</v>
+        <v>235685693.392045</v>
       </c>
       <c r="CD4">
         <v>237992488.9827416</v>
@@ -6228,19 +6228,19 @@
         <v>242173220.582364</v>
       </c>
       <c r="CG4">
-        <v>244049464.5093318</v>
+        <v>244049464.5093319</v>
       </c>
       <c r="CH4">
-        <v>245821117.6955039</v>
+        <v>245821117.695504</v>
       </c>
       <c r="CI4">
-        <v>247516104.0645531</v>
+        <v>247516104.0645532</v>
       </c>
       <c r="CJ4">
-        <v>249156546.1744794</v>
+        <v>249156546.1744795</v>
       </c>
       <c r="CK4">
-        <v>250743932.6279912</v>
+        <v>250743932.6279913</v>
       </c>
       <c r="CL4">
         <v>252347906.1924641</v>
@@ -6262,34 +6262,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724032.564966474</v>
+        <v>1724032.564966476</v>
       </c>
       <c r="E5">
-        <v>2891902.781702464</v>
+        <v>2891902.781702466</v>
       </c>
       <c r="F5">
-        <v>4030485.132837115</v>
+        <v>4030485.132837117</v>
       </c>
       <c r="G5">
-        <v>5121044.960162397</v>
+        <v>5121044.960162399</v>
       </c>
       <c r="H5">
-        <v>6174938.321565686</v>
+        <v>6174938.321565688</v>
       </c>
       <c r="I5">
-        <v>7546181.810976641</v>
+        <v>7546181.810976643</v>
       </c>
       <c r="J5">
-        <v>9087220.804712258</v>
+        <v>9087220.80471226</v>
       </c>
       <c r="K5">
-        <v>10396459.48602557</v>
+        <v>10396459.48602558</v>
       </c>
       <c r="L5">
         <v>11555566.58795027</v>
       </c>
       <c r="M5">
-        <v>12873994.96789544</v>
+        <v>12873994.96789545</v>
       </c>
       <c r="N5">
         <v>14251469.70586008</v>
@@ -6298,13 +6298,13 @@
         <v>16080808.07819993</v>
       </c>
       <c r="P5">
-        <v>29818476.07966348</v>
+        <v>29818476.07966349</v>
       </c>
       <c r="Q5">
-        <v>43567183.35785582</v>
+        <v>43567183.35785583</v>
       </c>
       <c r="R5">
-        <v>57330483.12660666</v>
+        <v>57330483.12660667</v>
       </c>
       <c r="S5">
         <v>103197659.2841665</v>
@@ -6313,94 +6313,94 @@
         <v>149089118.5606258</v>
       </c>
       <c r="U5">
-        <v>195011175.7378946</v>
+        <v>195011175.7378947</v>
       </c>
       <c r="V5">
-        <v>240971359.5331696</v>
+        <v>240971359.5331697</v>
       </c>
       <c r="W5">
         <v>286978685.8439851</v>
       </c>
       <c r="X5">
-        <v>335202109.5869188</v>
+        <v>335202109.5869189</v>
       </c>
       <c r="Y5">
         <v>383497120.1111687</v>
       </c>
       <c r="Z5">
-        <v>431880708.8510013</v>
+        <v>431880708.8510014</v>
       </c>
       <c r="AA5">
-        <v>480374645.1939536</v>
+        <v>480374645.1939538</v>
       </c>
       <c r="AB5">
-        <v>529007210.9220454</v>
+        <v>529007210.9220455</v>
       </c>
       <c r="AC5">
-        <v>542329251.527644</v>
+        <v>542329251.5276442</v>
       </c>
       <c r="AD5">
-        <v>555875882.5658076</v>
+        <v>555875882.5658077</v>
       </c>
       <c r="AE5">
-        <v>569711414.9260869</v>
+        <v>569711414.926087</v>
       </c>
       <c r="AF5">
-        <v>583920002.0381814</v>
+        <v>583920002.0381815</v>
       </c>
       <c r="AG5">
-        <v>598610529.4493482</v>
+        <v>598610529.4493483</v>
       </c>
       <c r="AH5">
-        <v>603206244.3450452</v>
+        <v>603206244.3450453</v>
       </c>
       <c r="AI5">
-        <v>608106603.6971864</v>
+        <v>608106603.6971865</v>
       </c>
       <c r="AJ5">
-        <v>613410986.8274075</v>
+        <v>613410986.8274076</v>
       </c>
       <c r="AK5">
-        <v>619801994.1274052</v>
+        <v>619801994.1274053</v>
       </c>
       <c r="AL5">
-        <v>627557451.1965548</v>
+        <v>627557451.1965549</v>
       </c>
       <c r="AM5">
-        <v>641778194.4774106</v>
+        <v>641778194.4774107</v>
       </c>
       <c r="AN5">
-        <v>658161429.8332264</v>
+        <v>658161429.8332266</v>
       </c>
       <c r="AO5">
-        <v>677020657.8518486</v>
+        <v>677020657.8518487</v>
       </c>
       <c r="AP5">
-        <v>698635805.1712806</v>
+        <v>698635805.1712807</v>
       </c>
       <c r="AQ5">
-        <v>723222397.8827368</v>
+        <v>723222397.8827369</v>
       </c>
       <c r="AR5">
-        <v>757692856.6789201</v>
+        <v>757692856.6789203</v>
       </c>
       <c r="AS5">
-        <v>795241968.2268634</v>
+        <v>795241968.2268635</v>
       </c>
       <c r="AT5">
-        <v>835705460.3380411</v>
+        <v>835705460.3380412</v>
       </c>
       <c r="AU5">
-        <v>878753369.919389</v>
+        <v>878753369.9193891</v>
       </c>
       <c r="AV5">
-        <v>923894388.499404</v>
+        <v>923894388.4994041</v>
       </c>
       <c r="AW5">
-        <v>972435103.044355</v>
+        <v>972435103.0443552</v>
       </c>
       <c r="AX5">
-        <v>1021712906.113769</v>
+        <v>1021712906.11377</v>
       </c>
       <c r="AY5">
         <v>1070957892.747385</v>
@@ -6409,7 +6409,7 @@
         <v>1119416558.641395</v>
       </c>
       <c r="BA5">
-        <v>1166409199.728032</v>
+        <v>1166409199.728033</v>
       </c>
       <c r="BB5">
         <v>1210213436.463746</v>
@@ -6433,7 +6433,7 @@
         <v>1419631937.823695</v>
       </c>
       <c r="BI5">
-        <v>1447478044.053069</v>
+        <v>1447478044.05307</v>
       </c>
       <c r="BJ5">
         <v>1474821556.633587</v>
@@ -6448,7 +6448,7 @@
         <v>1559874811.209106</v>
       </c>
       <c r="BN5">
-        <v>1591096379.714054</v>
+        <v>1591096379.714055</v>
       </c>
       <c r="BO5">
         <v>1624476744.975853</v>
@@ -6475,7 +6475,7 @@
         <v>1927805042.75756</v>
       </c>
       <c r="BW5">
-        <v>1979243187.320737</v>
+        <v>1979243187.320738</v>
       </c>
       <c r="BX5">
         <v>2031725609.038108</v>
@@ -6543,37 +6543,37 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465595600423422</v>
+        <v>0.8465595600423425</v>
       </c>
       <c r="E6">
         <v>1.706079325196513</v>
       </c>
       <c r="F6">
-        <v>2.614002218681859</v>
+        <v>2.61400221868186</v>
       </c>
       <c r="G6">
-        <v>3.529088962903911</v>
+        <v>3.529088962903912</v>
       </c>
       <c r="H6">
-        <v>4.417962420456847</v>
+        <v>4.417962420456848</v>
       </c>
       <c r="I6">
-        <v>5.298828264339982</v>
+        <v>5.298828264339983</v>
       </c>
       <c r="J6">
-        <v>6.220946920441948</v>
+        <v>6.220946920441949</v>
       </c>
       <c r="K6">
-        <v>7.237964591963893</v>
+        <v>7.237964591963895</v>
       </c>
       <c r="L6">
-        <v>8.267034472732375</v>
+        <v>8.267034472732377</v>
       </c>
       <c r="M6">
-        <v>9.363051581216117</v>
+        <v>9.363051581216119</v>
       </c>
       <c r="N6">
-        <v>10.52731254717072</v>
+        <v>10.52731254717073</v>
       </c>
       <c r="O6">
         <v>11.59146526558247</v>
@@ -6585,7 +6585,7 @@
         <v>13.91594171707828</v>
       </c>
       <c r="R6">
-        <v>15.12034301927609</v>
+        <v>15.1203430192761</v>
       </c>
       <c r="S6">
         <v>16.43509241022623</v>
@@ -6823,7 +6823,7 @@
         <v>0.04257156378650376</v>
       </c>
       <c r="E7">
-        <v>0.08526091468610739</v>
+        <v>0.08526091468610736</v>
       </c>
       <c r="F7">
         <v>0.1296851605529958</v>
@@ -6838,40 +6838,40 @@
         <v>0.2626584897096136</v>
       </c>
       <c r="J7">
-        <v>0.3076725695725664</v>
+        <v>0.3076725695725663</v>
       </c>
       <c r="K7">
-        <v>0.357109259453871</v>
+        <v>0.3571092594538709</v>
       </c>
       <c r="L7">
-        <v>0.4079401778600927</v>
+        <v>0.4079401778600926</v>
       </c>
       <c r="M7">
-        <v>0.4622780586603853</v>
+        <v>0.4622780586603852</v>
       </c>
       <c r="N7">
-        <v>0.5200313579904048</v>
+        <v>0.5200313579904047</v>
       </c>
       <c r="O7">
-        <v>0.5728377129690841</v>
+        <v>0.572837712969084</v>
       </c>
       <c r="P7">
-        <v>0.6296573348905679</v>
+        <v>0.6296573348905677</v>
       </c>
       <c r="Q7">
-        <v>0.6878964459728981</v>
+        <v>0.687896445972898</v>
       </c>
       <c r="R7">
-        <v>0.7475601117268134</v>
+        <v>0.7475601117268132</v>
       </c>
       <c r="S7">
-        <v>0.8121784044567614</v>
+        <v>0.8121784044567613</v>
       </c>
       <c r="T7">
-        <v>0.8784828610994214</v>
+        <v>0.8784828610994213</v>
       </c>
       <c r="U7">
-        <v>0.9464667888713458</v>
+        <v>0.9464667888713457</v>
       </c>
       <c r="V7">
         <v>1.016132488141818</v>
@@ -6883,7 +6883,7 @@
         <v>1.160398212105858</v>
       </c>
       <c r="Y7">
-        <v>1.234932449169313</v>
+        <v>1.234932449169312</v>
       </c>
       <c r="Z7">
         <v>1.311092026682236</v>
@@ -6910,7 +6910,7 @@
         <v>1.871288201829647</v>
       </c>
       <c r="AH7">
-        <v>1.955911586423364</v>
+        <v>1.955911586423363</v>
       </c>
       <c r="AI7">
         <v>2.042217240917994</v>
@@ -6931,7 +6931,7 @@
         <v>2.500796277034439</v>
       </c>
       <c r="AO7">
-        <v>2.598406779566275</v>
+        <v>2.598406779566274</v>
       </c>
       <c r="AP7">
         <v>2.698066505123335</v>
@@ -6940,7 +6940,7 @@
         <v>2.799854397995814</v>
       </c>
       <c r="AR7">
-        <v>2.904700362563434</v>
+        <v>2.904700362563433</v>
       </c>
       <c r="AS7">
         <v>3.011728854003094</v>
@@ -6952,7 +6952,7 @@
         <v>3.231529657137032</v>
       </c>
       <c r="AV7">
-        <v>3.344178659732215</v>
+        <v>3.344178659732214</v>
       </c>
       <c r="AW7">
         <v>3.458902963308689</v>
@@ -6964,124 +6964,124 @@
         <v>3.693862995270121</v>
       </c>
       <c r="AZ7">
-        <v>3.813920050031409</v>
+        <v>3.813920050031408</v>
       </c>
       <c r="BA7">
-        <v>3.935435582678708</v>
+        <v>3.935435582678707</v>
       </c>
       <c r="BB7">
-        <v>4.058202318612838</v>
+        <v>4.058202318612837</v>
       </c>
       <c r="BC7">
-        <v>4.182480004714246</v>
+        <v>4.182480004714245</v>
       </c>
       <c r="BD7">
-        <v>4.308525748308556</v>
+        <v>4.308525748308554</v>
       </c>
       <c r="BE7">
-        <v>4.436366586846653</v>
+        <v>4.436366586846651</v>
       </c>
       <c r="BF7">
-        <v>4.565977643242817</v>
+        <v>4.565977643242815</v>
       </c>
       <c r="BG7">
-        <v>4.697405005052309</v>
+        <v>4.697405005052307</v>
       </c>
       <c r="BH7">
-        <v>4.830788980758043</v>
+        <v>4.830788980758041</v>
       </c>
       <c r="BI7">
-        <v>4.96621389413334</v>
+        <v>4.966213894133338</v>
       </c>
       <c r="BJ7">
-        <v>5.103739594315524</v>
+        <v>5.103739594315521</v>
       </c>
       <c r="BK7">
-        <v>5.243431378926382</v>
+        <v>5.243431378926379</v>
       </c>
       <c r="BL7">
-        <v>5.385431350065564</v>
+        <v>5.385431350065561</v>
       </c>
       <c r="BM7">
-        <v>5.529864230632055</v>
+        <v>5.529864230632052</v>
       </c>
       <c r="BN7">
-        <v>5.676812790529626</v>
+        <v>5.676812790529623</v>
       </c>
       <c r="BO7">
-        <v>5.82637370958718</v>
+        <v>5.826373709587178</v>
       </c>
       <c r="BP7">
-        <v>5.978646526421441</v>
+        <v>5.978646526421438</v>
       </c>
       <c r="BQ7">
-        <v>6.13383817337122</v>
+        <v>6.133838173371217</v>
       </c>
       <c r="BR7">
-        <v>6.291868629247024</v>
+        <v>6.291868629247022</v>
       </c>
       <c r="BS7">
-        <v>6.452553844415308</v>
+        <v>6.452553844415306</v>
       </c>
       <c r="BT7">
-        <v>6.615792357419551</v>
+        <v>6.615792357419548</v>
       </c>
       <c r="BU7">
-        <v>6.781542044939432</v>
+        <v>6.781542044939429</v>
       </c>
       <c r="BV7">
-        <v>6.949876523878594</v>
+        <v>6.949876523878592</v>
       </c>
       <c r="BW7">
-        <v>7.120772156914343</v>
+        <v>7.120772156914341</v>
       </c>
       <c r="BX7">
-        <v>7.294151485181914</v>
+        <v>7.294151485181912</v>
       </c>
       <c r="BY7">
-        <v>7.469905222869312</v>
+        <v>7.469905222869309</v>
       </c>
       <c r="BZ7">
-        <v>7.647901289699185</v>
+        <v>7.647901289699181</v>
       </c>
       <c r="CA7">
-        <v>7.82816452704514</v>
+        <v>7.828164527045137</v>
       </c>
       <c r="CB7">
-        <v>8.010781423824556</v>
+        <v>8.010781423824552</v>
       </c>
       <c r="CC7">
-        <v>8.195906770213528</v>
+        <v>8.195906770213524</v>
       </c>
       <c r="CD7">
-        <v>8.383567563176666</v>
+        <v>8.383567563176662</v>
       </c>
       <c r="CE7">
-        <v>8.573749953786848</v>
+        <v>8.573749953786844</v>
       </c>
       <c r="CF7">
-        <v>8.76655487982798</v>
+        <v>8.766554879827977</v>
       </c>
       <c r="CG7">
-        <v>8.962048396471118</v>
+        <v>8.962048396471115</v>
       </c>
       <c r="CH7">
-        <v>9.160275750561377</v>
+        <v>9.160275750561373</v>
       </c>
       <c r="CI7">
-        <v>9.361279162933201</v>
+        <v>9.361279162933197</v>
       </c>
       <c r="CJ7">
-        <v>9.565098788964637</v>
+        <v>9.565098788964633</v>
       </c>
       <c r="CK7">
-        <v>9.771858180810273</v>
+        <v>9.77185818081027</v>
       </c>
       <c r="CL7">
-        <v>9.981688383144292</v>
+        <v>9.981688383144288</v>
       </c>
       <c r="CM7">
-        <v>10.19469587024567</v>
+        <v>10.19469587024566</v>
       </c>
       <c r="CN7">
         <v>10.41097054052866</v>
@@ -7097,274 +7097,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804740.9677305474</v>
+        <v>804740.9677305479</v>
       </c>
       <c r="E8">
         <v>1372778.737439421</v>
       </c>
       <c r="F8">
-        <v>1735569.969596258</v>
+        <v>1735569.969596259</v>
       </c>
       <c r="G8">
-        <v>2036736.92786713</v>
+        <v>2036736.927867131</v>
       </c>
       <c r="H8">
         <v>2359811.405595371</v>
       </c>
       <c r="I8">
-        <v>2614492.132534225</v>
+        <v>2614492.132534226</v>
       </c>
       <c r="J8">
-        <v>2902028.985908719</v>
+        <v>2902028.98590872</v>
       </c>
       <c r="K8">
-        <v>3151683.900249393</v>
+        <v>3151683.900249394</v>
       </c>
       <c r="L8">
-        <v>3450225.758995658</v>
+        <v>3450225.758995659</v>
       </c>
       <c r="M8">
-        <v>3711665.982696714</v>
+        <v>3711665.982696715</v>
       </c>
       <c r="N8">
-        <v>4011349.049202449</v>
+        <v>4011349.04920245</v>
       </c>
       <c r="O8">
-        <v>4414775.103129097</v>
+        <v>4414775.103129098</v>
       </c>
       <c r="P8">
-        <v>6145352.65206587</v>
+        <v>6145352.652065871</v>
       </c>
       <c r="Q8">
-        <v>7885884.895325474</v>
+        <v>7885884.895325476</v>
       </c>
       <c r="R8">
-        <v>9642697.829295976</v>
+        <v>9642697.82929598</v>
       </c>
       <c r="S8">
-        <v>15356159.43737132</v>
+        <v>15356159.43737133</v>
       </c>
       <c r="T8">
-        <v>21097954.7127103</v>
+        <v>21097954.71271031</v>
       </c>
       <c r="U8">
-        <v>26857740.10269134</v>
+        <v>26857740.10269136</v>
       </c>
       <c r="V8">
-        <v>32635832.36132658</v>
+        <v>32635832.3613266</v>
       </c>
       <c r="W8">
-        <v>38436840.53479752</v>
+        <v>38436840.53479754</v>
       </c>
       <c r="X8">
-        <v>43942839.63870802</v>
+        <v>43942839.63870804</v>
       </c>
       <c r="Y8">
-        <v>49473264.16070777</v>
+        <v>49473264.1607078</v>
       </c>
       <c r="Z8">
-        <v>55029345.63874288</v>
+        <v>55029345.63874291</v>
       </c>
       <c r="AA8">
-        <v>60614309.33264378</v>
+        <v>60614309.33264381</v>
       </c>
       <c r="AB8">
-        <v>66226985.34361561</v>
+        <v>66226985.34361565</v>
       </c>
       <c r="AC8">
-        <v>67329393.75445223</v>
+        <v>67329393.75445227</v>
       </c>
       <c r="AD8">
-        <v>68453971.35335693</v>
+        <v>68453971.35335697</v>
       </c>
       <c r="AE8">
-        <v>69601746.6464856</v>
+        <v>69601746.64648564</v>
       </c>
       <c r="AF8">
-        <v>70775185.10666841</v>
+        <v>70775185.10666846</v>
       </c>
       <c r="AG8">
-        <v>71981266.29379171</v>
+        <v>71981266.29379176</v>
       </c>
       <c r="AH8">
-        <v>71987324.69711697</v>
+        <v>71987324.69711702</v>
       </c>
       <c r="AI8">
-        <v>71966753.05783091</v>
+        <v>71966753.05783096</v>
       </c>
       <c r="AJ8">
-        <v>71923176.2683766</v>
+        <v>71923176.26837665</v>
       </c>
       <c r="AK8">
-        <v>71940047.14138722</v>
+        <v>71940047.14138727</v>
       </c>
       <c r="AL8">
-        <v>72028515.1960052</v>
+        <v>72028515.19600524</v>
       </c>
       <c r="AM8">
-        <v>72929647.23889378</v>
+        <v>72929647.23889382</v>
       </c>
       <c r="AN8">
-        <v>73987921.12652569</v>
+        <v>73987921.12652573</v>
       </c>
       <c r="AO8">
-        <v>75240994.93095005</v>
+        <v>75240994.93095009</v>
       </c>
       <c r="AP8">
-        <v>76725510.31689754</v>
+        <v>76725510.31689759</v>
       </c>
       <c r="AQ8">
-        <v>78508021.13275479</v>
+        <v>78508021.13275483</v>
       </c>
       <c r="AR8">
-        <v>81120431.69345784</v>
+        <v>81120431.6934579</v>
       </c>
       <c r="AS8">
-        <v>84042909.17703806</v>
+        <v>84042909.17703813</v>
       </c>
       <c r="AT8">
-        <v>87146676.1741025</v>
+        <v>87146676.17410257</v>
       </c>
       <c r="AU8">
-        <v>90385200.14956158</v>
+        <v>90385200.14956166</v>
       </c>
       <c r="AV8">
-        <v>93718968.16167162</v>
+        <v>93718968.1616717</v>
       </c>
       <c r="AW8">
-        <v>97272324.83119112</v>
+        <v>97272324.83119121</v>
       </c>
       <c r="AX8">
-        <v>100833816.1864123</v>
+        <v>100833816.1864124</v>
       </c>
       <c r="AY8">
-        <v>104360616.8447163</v>
+        <v>104360616.8447164</v>
       </c>
       <c r="AZ8">
-        <v>107777391.1235261</v>
+        <v>107777391.1235262</v>
       </c>
       <c r="BA8">
-        <v>110975046.8252352</v>
+        <v>110975046.8252353</v>
       </c>
       <c r="BB8">
-        <v>113761863.0957217</v>
+        <v>113761863.0957218</v>
       </c>
       <c r="BC8">
-        <v>116263440.0321383</v>
+        <v>116263440.0321384</v>
       </c>
       <c r="BD8">
-        <v>118584106.349681</v>
+        <v>118584106.3496811</v>
       </c>
       <c r="BE8">
-        <v>120736063.8771163</v>
+        <v>120736063.8771164</v>
       </c>
       <c r="BF8">
-        <v>122715265.8125458</v>
+        <v>122715265.8125459</v>
       </c>
       <c r="BG8">
-        <v>124470641.5149367</v>
+        <v>124470641.5149368</v>
       </c>
       <c r="BH8">
-        <v>126118635.3894206</v>
+        <v>126118635.3894208</v>
       </c>
       <c r="BI8">
-        <v>127697735.5495116</v>
+        <v>127697735.5495117</v>
       </c>
       <c r="BJ8">
-        <v>129246244.562001</v>
+        <v>129246244.5620011</v>
       </c>
       <c r="BK8">
-        <v>130804077.1125769</v>
+        <v>130804077.1125771</v>
       </c>
       <c r="BL8">
-        <v>132349832.4433051</v>
+        <v>132349832.4433052</v>
       </c>
       <c r="BM8">
-        <v>134000551.5402178</v>
+        <v>134000551.540218</v>
       </c>
       <c r="BN8">
-        <v>135818422.7935009</v>
+        <v>135818422.793501</v>
       </c>
       <c r="BO8">
-        <v>137853761.6558935</v>
+        <v>137853761.6558937</v>
       </c>
       <c r="BP8">
-        <v>140158118.5753024</v>
+        <v>140158118.5753025</v>
       </c>
       <c r="BQ8">
-        <v>142713723.237535</v>
+        <v>142713723.2375352</v>
       </c>
       <c r="BR8">
-        <v>145528181.2416138</v>
+        <v>145528181.241614</v>
       </c>
       <c r="BS8">
-        <v>148522309.5688291</v>
+        <v>148522309.5688292</v>
       </c>
       <c r="BT8">
-        <v>151641957.0442918</v>
+        <v>151641957.044292</v>
       </c>
       <c r="BU8">
-        <v>154858735.604723</v>
+        <v>154858735.6047232</v>
       </c>
       <c r="BV8">
-        <v>158103644.9369027</v>
+        <v>158103644.9369029</v>
       </c>
       <c r="BW8">
-        <v>161390132.1771793</v>
+        <v>161390132.1771795</v>
       </c>
       <c r="BX8">
-        <v>164675341.1406413</v>
+        <v>164675341.1406415</v>
       </c>
       <c r="BY8">
-        <v>167903924.6580787</v>
+        <v>167903924.6580789</v>
       </c>
       <c r="BZ8">
-        <v>171012473.4973987</v>
+        <v>171012473.4973989</v>
       </c>
       <c r="CA8">
-        <v>173910901.8864532</v>
+        <v>173910901.8864533</v>
       </c>
       <c r="CB8">
-        <v>176655758.8089438</v>
+        <v>176655758.808944</v>
       </c>
       <c r="CC8">
-        <v>179348757.4451596</v>
+        <v>179348757.4451598</v>
       </c>
       <c r="CD8">
-        <v>181971880.5143525</v>
+        <v>181971880.5143527</v>
       </c>
       <c r="CE8">
-        <v>184512655.5305274</v>
+        <v>184512655.5305276</v>
       </c>
       <c r="CF8">
-        <v>186913931.1035431</v>
+        <v>186913931.1035433</v>
       </c>
       <c r="CG8">
-        <v>189232326.0791781</v>
+        <v>189232326.0791783</v>
       </c>
       <c r="CH8">
-        <v>191484268.9995684</v>
+        <v>191484268.9995686</v>
       </c>
       <c r="CI8">
-        <v>193689141.4635559</v>
+        <v>193689141.4635561</v>
       </c>
       <c r="CJ8">
-        <v>195866270.8659223</v>
+        <v>195866270.8659225</v>
       </c>
       <c r="CK8">
-        <v>197961637.3126933</v>
+        <v>197961637.3126935</v>
       </c>
       <c r="CL8">
-        <v>200058440.9446672</v>
+        <v>200058440.9446674</v>
       </c>
       <c r="CM8">
-        <v>202216769.3091187</v>
+        <v>202216769.3091188</v>
       </c>
       <c r="CN8">
-        <v>204516981.9809631</v>
+        <v>204516981.9809632</v>
       </c>
       <c r="CO8">
-        <v>206992224.4349495</v>
+        <v>206992224.4349497</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -7380,268 +7380,268 @@
         <v>268059.5381145568</v>
       </c>
       <c r="F9">
-        <v>347522.3966553548</v>
+        <v>347522.3966553547</v>
       </c>
       <c r="G9">
-        <v>426597.0751009481</v>
+        <v>426597.0751009479</v>
       </c>
       <c r="H9">
-        <v>499455.5492476571</v>
+        <v>499455.5492476568</v>
       </c>
       <c r="I9">
-        <v>569331.7307357101</v>
+        <v>569331.7307357097</v>
       </c>
       <c r="J9">
-        <v>633297.5665155611</v>
+        <v>633297.5665155605</v>
       </c>
       <c r="K9">
-        <v>700079.1638118568</v>
+        <v>700079.1638118562</v>
       </c>
       <c r="L9">
-        <v>780809.0665706141</v>
+        <v>780809.0665706134</v>
       </c>
       <c r="M9">
-        <v>861555.8146634649</v>
+        <v>861555.8146634641</v>
       </c>
       <c r="N9">
-        <v>947465.8209982832</v>
+        <v>947465.8209982824</v>
       </c>
       <c r="O9">
-        <v>1046164.773276653</v>
+        <v>1046164.773276652</v>
       </c>
       <c r="P9">
-        <v>2020506.477649423</v>
+        <v>2020506.477649421</v>
       </c>
       <c r="Q9">
-        <v>2995853.133436923</v>
+        <v>2995853.133436921</v>
       </c>
       <c r="R9">
-        <v>3972510.890866506</v>
+        <v>3972510.890866502</v>
       </c>
       <c r="S9">
-        <v>7149633.53896445</v>
+        <v>7149633.538964443</v>
       </c>
       <c r="T9">
-        <v>10328870.81338824</v>
+        <v>10328870.81338822</v>
       </c>
       <c r="U9">
-        <v>13510724.2679723</v>
+        <v>13510724.26797229</v>
       </c>
       <c r="V9">
-        <v>16695770.344491</v>
+        <v>16695770.34449098</v>
       </c>
       <c r="W9">
-        <v>19884671.04453705</v>
+        <v>19884671.04453702</v>
       </c>
       <c r="X9">
-        <v>23324232.64171247</v>
+        <v>23324232.64171244</v>
       </c>
       <c r="Y9">
-        <v>26769323.7522127</v>
+        <v>26769323.75221266</v>
       </c>
       <c r="Z9">
-        <v>30221043.08131614</v>
+        <v>30221043.08131611</v>
       </c>
       <c r="AA9">
-        <v>33680760.88837636</v>
+        <v>33680760.88837633</v>
       </c>
       <c r="AB9">
-        <v>37150233.74237458</v>
+        <v>37150233.74237454</v>
       </c>
       <c r="AC9">
-        <v>38235165.65686469</v>
+        <v>38235165.65686464</v>
       </c>
       <c r="AD9">
-        <v>39335226.62042869</v>
+        <v>39335226.62042864</v>
       </c>
       <c r="AE9">
-        <v>40454532.20683278</v>
+        <v>40454532.20683274</v>
       </c>
       <c r="AF9">
-        <v>41598588.83801346</v>
+        <v>41598588.8380134</v>
       </c>
       <c r="AG9">
-        <v>42774684.66067611</v>
+        <v>42774684.66067605</v>
       </c>
       <c r="AH9">
-        <v>43239078.10717735</v>
+        <v>43239078.10717729</v>
       </c>
       <c r="AI9">
-        <v>43734557.47715594</v>
+        <v>43734557.47715588</v>
       </c>
       <c r="AJ9">
-        <v>44271235.85457008</v>
+        <v>44271235.85457001</v>
       </c>
       <c r="AK9">
-        <v>44879878.90966058</v>
+        <v>44879878.90966051</v>
       </c>
       <c r="AL9">
-        <v>45577744.7309437</v>
+        <v>45577744.73094364</v>
       </c>
       <c r="AM9">
-        <v>46848526.00049699</v>
+        <v>46848526.00049692</v>
       </c>
       <c r="AN9">
-        <v>48270934.40189878</v>
+        <v>48270934.40189871</v>
       </c>
       <c r="AO9">
-        <v>49867639.61380795</v>
+        <v>49867639.61380788</v>
       </c>
       <c r="AP9">
-        <v>51658947.64897317</v>
+        <v>51658947.6489731</v>
       </c>
       <c r="AQ9">
-        <v>53660638.89272341</v>
+        <v>53660638.89272334</v>
       </c>
       <c r="AR9">
-        <v>56423475.31551507</v>
+        <v>56423475.315515</v>
       </c>
       <c r="AS9">
-        <v>59405663.06771641</v>
+        <v>59405663.06771635</v>
       </c>
       <c r="AT9">
-        <v>62596575.17723817</v>
+        <v>62596575.17723809</v>
       </c>
       <c r="AU9">
-        <v>65974137.13669287</v>
+        <v>65974137.13669278</v>
       </c>
       <c r="AV9">
-        <v>69505138.78273103</v>
+        <v>69505138.78273094</v>
       </c>
       <c r="AW9">
-        <v>73324926.3067801</v>
+        <v>73324926.30678001</v>
       </c>
       <c r="AX9">
-        <v>77205894.22827241</v>
+        <v>77205894.2282723</v>
       </c>
       <c r="AY9">
-        <v>81095446.18825953</v>
+        <v>81095446.18825941</v>
       </c>
       <c r="AZ9">
-        <v>84941954.6242318</v>
+        <v>84941954.62423168</v>
       </c>
       <c r="BA9">
-        <v>88698672.294735</v>
+        <v>88698672.29473488</v>
       </c>
       <c r="BB9">
-        <v>92237877.23924717</v>
+        <v>92237877.23924705</v>
       </c>
       <c r="BC9">
-        <v>95620909.40545125</v>
+        <v>95620909.40545113</v>
       </c>
       <c r="BD9">
-        <v>98832219.70480891</v>
+        <v>98832219.70480879</v>
       </c>
       <c r="BE9">
-        <v>101869312.1820393</v>
+        <v>101869312.1820392</v>
       </c>
       <c r="BF9">
-        <v>104742705.3487869</v>
+        <v>104742705.3487868</v>
       </c>
       <c r="BG9">
-        <v>107430681.5606053</v>
+        <v>107430681.5606052</v>
       </c>
       <c r="BH9">
-        <v>110010547.6778451</v>
+        <v>110010547.677845</v>
       </c>
       <c r="BI9">
-        <v>112522871.178026</v>
+        <v>112522871.1780259</v>
       </c>
       <c r="BJ9">
-        <v>115012570.3607651</v>
+        <v>115012570.360765</v>
       </c>
       <c r="BK9">
-        <v>117525541.5527598</v>
+        <v>117525541.5527596</v>
       </c>
       <c r="BL9">
-        <v>120111270.2991216</v>
+        <v>120111270.2991214</v>
       </c>
       <c r="BM9">
-        <v>122803813.5021025</v>
+        <v>122803813.5021023</v>
       </c>
       <c r="BN9">
-        <v>125637033.6479749</v>
+        <v>125637033.6479747</v>
       </c>
       <c r="BO9">
-        <v>128638042.438924</v>
+        <v>128638042.4389238</v>
       </c>
       <c r="BP9">
-        <v>131826549.8554911</v>
+        <v>131826549.8554908</v>
       </c>
       <c r="BQ9">
-        <v>135223101.9095858</v>
+        <v>135223101.9095856</v>
       </c>
       <c r="BR9">
-        <v>138822852.774612</v>
+        <v>138822852.7746117</v>
       </c>
       <c r="BS9">
-        <v>142621737.718774</v>
+        <v>142621737.7187738</v>
       </c>
       <c r="BT9">
-        <v>146608310.5959534</v>
+        <v>146608310.5959531</v>
       </c>
       <c r="BU9">
-        <v>150764581.0259445</v>
+        <v>150764581.0259443</v>
       </c>
       <c r="BV9">
-        <v>155057576.218005</v>
+        <v>155057576.2180047</v>
       </c>
       <c r="BW9">
-        <v>159469170.8269791</v>
+        <v>159469170.8269788</v>
       </c>
       <c r="BX9">
-        <v>163968962.1343233</v>
+        <v>163968962.1343231</v>
       </c>
       <c r="BY9">
-        <v>168525378.8161106</v>
+        <v>168525378.8161103</v>
       </c>
       <c r="BZ9">
-        <v>173107361.924969</v>
+        <v>173107361.9249687</v>
       </c>
       <c r="CA9">
-        <v>177658179.8194948</v>
+        <v>177658179.8194945</v>
       </c>
       <c r="CB9">
-        <v>182180527.6179024</v>
+        <v>182180527.6179021</v>
       </c>
       <c r="CC9">
-        <v>186654241.7100184</v>
+        <v>186654241.7100181</v>
       </c>
       <c r="CD9">
-        <v>191065118.7814801</v>
+        <v>191065118.7814798</v>
       </c>
       <c r="CE9">
-        <v>195405521.6908632</v>
+        <v>195405521.6908629</v>
       </c>
       <c r="CF9">
-        <v>199622131.8439638</v>
+        <v>199622131.8439635</v>
       </c>
       <c r="CG9">
-        <v>203773132.125634</v>
+        <v>203773132.1256337</v>
       </c>
       <c r="CH9">
-        <v>207870215.7559751</v>
+        <v>207870215.7559748</v>
       </c>
       <c r="CI9">
-        <v>211930089.4938227</v>
+        <v>211930089.4938224</v>
       </c>
       <c r="CJ9">
-        <v>215973251.7717642</v>
+        <v>215973251.7717639</v>
       </c>
       <c r="CK9">
-        <v>219938815.5328318</v>
+        <v>219938815.5328315</v>
       </c>
       <c r="CL9">
-        <v>223934499.9614576</v>
+        <v>223934499.9614572</v>
       </c>
       <c r="CM9">
-        <v>227983835.1418239</v>
+        <v>227983835.1418235</v>
       </c>
       <c r="CN9">
-        <v>232108697.2637275</v>
+        <v>232108697.2637271</v>
       </c>
       <c r="CO9">
-        <v>236328204.9349465</v>
+        <v>236328204.9349462</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -7670,13 +7670,13 @@
         <v>55.66908341658336</v>
       </c>
       <c r="I10">
-        <v>66.76854273178472</v>
+        <v>66.76854273178473</v>
       </c>
       <c r="J10">
-        <v>78.38781322372789</v>
+        <v>78.3878132237279</v>
       </c>
       <c r="K10">
-        <v>91.20287052931721</v>
+        <v>91.20287052931722</v>
       </c>
       <c r="L10">
         <v>104.1697931922923</v>
@@ -7790,16 +7790,16 @@
         <v>852.1557051466473</v>
       </c>
       <c r="AW10">
-        <v>881.4667954967165</v>
+        <v>881.4667954967166</v>
       </c>
       <c r="AX10">
-        <v>911.2549612499693</v>
+        <v>911.2549612499694</v>
       </c>
       <c r="AY10">
-        <v>941.5046482921564</v>
+        <v>941.5046482921565</v>
       </c>
       <c r="AZ10">
-        <v>972.1793045838531</v>
+        <v>972.1793045838532</v>
       </c>
       <c r="BA10">
         <v>1003.219742419622</v>
@@ -7811,10 +7811,10 @@
         <v>1066.286380620951</v>
       </c>
       <c r="BD10">
-        <v>1098.45081699722</v>
+        <v>1098.450816997221</v>
       </c>
       <c r="BE10">
-        <v>1131.065265662764</v>
+        <v>1131.065265662765</v>
       </c>
       <c r="BF10">
         <v>1164.12358914984</v>
@@ -7826,22 +7826,22 @@
         <v>1231.645282876198</v>
       </c>
       <c r="BI10">
-        <v>1266.173558197074</v>
+        <v>1266.173558197075</v>
       </c>
       <c r="BJ10">
-        <v>1301.239400472777</v>
+        <v>1301.239400472778</v>
       </c>
       <c r="BK10">
-        <v>1336.862224296493</v>
+        <v>1336.862224296494</v>
       </c>
       <c r="BL10">
         <v>1373.082063323356</v>
       </c>
       <c r="BM10">
-        <v>1409.93355537855</v>
+        <v>1409.933555378551</v>
       </c>
       <c r="BN10">
-        <v>1447.439966398148</v>
+        <v>1447.439966398149</v>
       </c>
       <c r="BO10">
         <v>1485.628022713806</v>
@@ -7862,7 +7862,7 @@
         <v>1687.453692102032</v>
       </c>
       <c r="BU10">
-        <v>1729.874016260335</v>
+        <v>1729.874016260336</v>
       </c>
       <c r="BV10">
         <v>1772.967657201539</v>
@@ -7871,58 +7871,58 @@
         <v>1816.727572947147</v>
       </c>
       <c r="BX10">
-        <v>1861.131849839875</v>
+        <v>1861.131849839876</v>
       </c>
       <c r="BY10">
-        <v>1906.150191018361</v>
+        <v>1906.150191018362</v>
       </c>
       <c r="BZ10">
-        <v>1951.746330933989</v>
+        <v>1951.74633093399</v>
       </c>
       <c r="CA10">
         <v>1997.924505895075</v>
       </c>
       <c r="CB10">
-        <v>2044.707297324079</v>
+        <v>2044.70729732408</v>
       </c>
       <c r="CC10">
-        <v>2092.134567271135</v>
+        <v>2092.134567271136</v>
       </c>
       <c r="CD10">
-        <v>2140.212837170751</v>
+        <v>2140.212837170752</v>
       </c>
       <c r="CE10">
-        <v>2188.93802908839</v>
+        <v>2188.938029088391</v>
       </c>
       <c r="CF10">
-        <v>2238.334882573701</v>
+        <v>2238.334882573702</v>
       </c>
       <c r="CG10">
         <v>2288.422984755946</v>
       </c>
       <c r="CH10">
-        <v>2339.214914617887</v>
+        <v>2339.214914617888</v>
       </c>
       <c r="CI10">
-        <v>2390.722654607993</v>
+        <v>2390.722654607994</v>
       </c>
       <c r="CJ10">
-        <v>2442.957812688554</v>
+        <v>2442.957812688555</v>
       </c>
       <c r="CK10">
-        <v>2495.951007996126</v>
+        <v>2495.951007996127</v>
       </c>
       <c r="CL10">
-        <v>2549.740842029173</v>
+        <v>2549.740842029174</v>
       </c>
       <c r="CM10">
-        <v>2604.356249494842</v>
+        <v>2604.356249494843</v>
       </c>
       <c r="CN10">
-        <v>2659.821989174069</v>
+        <v>2659.82198917407</v>
       </c>
       <c r="CO10">
-        <v>2716.154313351865</v>
+        <v>2716.154313351866</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -7932,7 +7932,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364282694283791</v>
+        <v>0.5364282694283792</v>
       </c>
       <c r="E11">
         <v>1.074340729983914</v>
@@ -7944,25 +7944,25 @@
         <v>2.199786112400852</v>
       </c>
       <c r="H11">
-        <v>2.759022287611248</v>
+        <v>2.759022287611247</v>
       </c>
       <c r="I11">
-        <v>3.309660875794927</v>
+        <v>3.309660875794926</v>
       </c>
       <c r="J11">
-        <v>3.876866371977562</v>
+        <v>3.876866371977561</v>
       </c>
       <c r="K11">
         <v>4.499799514210475</v>
       </c>
       <c r="L11">
-        <v>5.140300805890745</v>
+        <v>5.140300805890744</v>
       </c>
       <c r="M11">
-        <v>5.824992012168378</v>
+        <v>5.824992012168377</v>
       </c>
       <c r="N11">
-        <v>6.552719623226985</v>
+        <v>6.552719623226984</v>
       </c>
       <c r="O11">
         <v>7.21811264844195</v>
@@ -7971,10 +7971,10 @@
         <v>7.934075341514998</v>
       </c>
       <c r="Q11">
-        <v>8.667924483811381</v>
+        <v>8.66792448381138</v>
       </c>
       <c r="R11">
-        <v>9.419723903927407</v>
+        <v>9.419723903927405</v>
       </c>
       <c r="S11">
         <v>10.23395471575235</v>
@@ -7989,7 +7989,7 @@
         <v>12.80390344262318</v>
       </c>
       <c r="W11">
-        <v>13.70299374464976</v>
+        <v>13.70299374464975</v>
       </c>
       <c r="X11">
         <v>14.62174158998285</v>
@@ -7998,13 +7998,13 @@
         <v>15.56091948820676</v>
       </c>
       <c r="Z11">
-        <v>16.52057769034699</v>
+        <v>16.52057769034698</v>
       </c>
       <c r="AA11">
         <v>17.50074442735038</v>
       </c>
       <c r="AB11">
-        <v>18.50137244402525</v>
+        <v>18.50137244402524</v>
       </c>
       <c r="AC11">
         <v>19.47524505990577</v>
@@ -8070,40 +8070,40 @@
         <v>43.58433577947625</v>
       </c>
       <c r="AX11">
-        <v>45.05328933755842</v>
+        <v>45.05328933755841</v>
       </c>
       <c r="AY11">
-        <v>46.54497880311507</v>
+        <v>46.54497880311506</v>
       </c>
       <c r="AZ11">
-        <v>48.05777261170621</v>
+        <v>48.0577726117062</v>
       </c>
       <c r="BA11">
         <v>49.58894415178769</v>
       </c>
       <c r="BB11">
-        <v>51.13588163406534</v>
+        <v>51.13588163406533</v>
       </c>
       <c r="BC11">
-        <v>52.7018580313213</v>
+        <v>52.70185803132129</v>
       </c>
       <c r="BD11">
-        <v>54.29011305629983</v>
+        <v>54.29011305629982</v>
       </c>
       <c r="BE11">
-        <v>55.90098739775413</v>
+        <v>55.90098739775412</v>
       </c>
       <c r="BF11">
-        <v>57.53416758888021</v>
+        <v>57.5341675888802</v>
       </c>
       <c r="BG11">
         <v>59.19023436163413</v>
       </c>
       <c r="BH11">
-        <v>60.87095569045662</v>
+        <v>60.87095569045661</v>
       </c>
       <c r="BI11">
-        <v>62.57739410751165</v>
+        <v>62.57739410751164</v>
       </c>
       <c r="BJ11">
         <v>64.31030374927686</v>
@@ -8212,31 +8212,31 @@
         <v>250266.6060144358</v>
       </c>
       <c r="E12">
-        <v>495468.0780111739</v>
+        <v>495468.0780111741</v>
       </c>
       <c r="F12">
-        <v>825743.4353274121</v>
+        <v>825743.4353274123</v>
       </c>
       <c r="G12">
         <v>1316723.354964445</v>
       </c>
       <c r="H12">
-        <v>1728344.450134999</v>
+        <v>1728344.450135</v>
       </c>
       <c r="I12">
-        <v>2120315.188408786</v>
+        <v>2120315.188408787</v>
       </c>
       <c r="J12">
         <v>2569759.045076435</v>
       </c>
       <c r="K12">
-        <v>2999478.073278384</v>
+        <v>2999478.073278385</v>
       </c>
       <c r="L12">
         <v>3463269.693907098</v>
       </c>
       <c r="M12">
-        <v>3867149.416549035</v>
+        <v>3867149.416549036</v>
       </c>
       <c r="N12">
         <v>4292842.811322421</v>
@@ -8260,10 +8260,10 @@
         <v>38854071.13500693</v>
       </c>
       <c r="U12">
-        <v>50602586.94631</v>
+        <v>50602586.94630999</v>
       </c>
       <c r="V12">
-        <v>62364011.76047851</v>
+        <v>62364011.7604785</v>
       </c>
       <c r="W12">
         <v>74138142.62936717</v>
@@ -8404,7 +8404,7 @@
         <v>492597347.8775386</v>
       </c>
       <c r="BQ12">
-        <v>505132295.8514831</v>
+        <v>505132295.851483</v>
       </c>
       <c r="BR12">
         <v>518172549.7982599</v>
@@ -8428,55 +8428,55 @@
         <v>603898705.643098</v>
       </c>
       <c r="BY12">
-        <v>618925414.112201</v>
+        <v>618925414.1122009</v>
       </c>
       <c r="BZ12">
-        <v>633942388.731456</v>
+        <v>633942388.7314559</v>
       </c>
       <c r="CA12">
-        <v>648760028.4581929</v>
+        <v>648760028.4581928</v>
       </c>
       <c r="CB12">
-        <v>663479261.1070397</v>
+        <v>663479261.1070396</v>
       </c>
       <c r="CC12">
-        <v>678122844.1433188</v>
+        <v>678122844.1433187</v>
       </c>
       <c r="CD12">
-        <v>692687021.3832009</v>
+        <v>692687021.3832008</v>
       </c>
       <c r="CE12">
-        <v>707147200.1933141</v>
+        <v>707147200.193314</v>
       </c>
       <c r="CF12">
-        <v>721223855.9570314</v>
+        <v>721223855.9570312</v>
       </c>
       <c r="CG12">
-        <v>735204182.9715481</v>
+        <v>735204182.971548</v>
       </c>
       <c r="CH12">
-        <v>749136865.5238248</v>
+        <v>749136865.5238247</v>
       </c>
       <c r="CI12">
-        <v>763072907.0048783</v>
+        <v>763072907.0048782</v>
       </c>
       <c r="CJ12">
-        <v>777066532.9180425</v>
+        <v>777066532.9180424</v>
       </c>
       <c r="CK12">
-        <v>790730388.8431065</v>
+        <v>790730388.8431064</v>
       </c>
       <c r="CL12">
-        <v>804568165.8175726</v>
+        <v>804568165.8175725</v>
       </c>
       <c r="CM12">
-        <v>818635199.2358063</v>
+        <v>818635199.2358062</v>
       </c>
       <c r="CN12">
-        <v>832984790.839398</v>
+        <v>832984790.8393979</v>
       </c>
       <c r="CO12">
-        <v>847664175.9395291</v>
+        <v>847664175.9395288</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -8486,55 +8486,55 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147294.4457995695</v>
+        <v>147294.4457995696</v>
       </c>
       <c r="E13">
-        <v>241268.1019547058</v>
+        <v>241268.101954706</v>
       </c>
       <c r="F13">
-        <v>312795.7255425525</v>
+        <v>312795.7255425528</v>
       </c>
       <c r="G13">
-        <v>383977.5749480762</v>
+        <v>383977.5749480764</v>
       </c>
       <c r="H13">
-        <v>449563.4897518771</v>
+        <v>449563.4897518774</v>
       </c>
       <c r="I13">
-        <v>512466.3525463085</v>
+        <v>512466.3525463088</v>
       </c>
       <c r="J13">
-        <v>570049.1385469945</v>
+        <v>570049.1385469948</v>
       </c>
       <c r="K13">
-        <v>630166.0807642894</v>
+        <v>630166.0807642896</v>
       </c>
       <c r="L13">
-        <v>702837.5869700295</v>
+        <v>702837.5869700297</v>
       </c>
       <c r="M13">
-        <v>775524.2798411591</v>
+        <v>775524.2798411594</v>
       </c>
       <c r="N13">
-        <v>852857.1744977599</v>
+        <v>852857.1744977601</v>
       </c>
       <c r="O13">
-        <v>941701.0253000977</v>
+        <v>941701.0253000979</v>
       </c>
       <c r="P13">
         <v>1818788.102208778</v>
       </c>
       <c r="Q13">
-        <v>2696779.701846281</v>
+        <v>2696779.701846282</v>
       </c>
       <c r="R13">
-        <v>3575951.38171486</v>
+        <v>3575951.381714862</v>
       </c>
       <c r="S13">
-        <v>6435957.207169271</v>
+        <v>6435957.207169274</v>
       </c>
       <c r="T13">
-        <v>9297866.350275451</v>
+        <v>9297866.350275453</v>
       </c>
       <c r="U13">
         <v>12162130.25573344</v>
@@ -8612,13 +8612,13 @@
         <v>53477000.26093306</v>
       </c>
       <c r="AT13">
-        <v>56349486.0955078</v>
+        <v>56349486.09550781</v>
       </c>
       <c r="AU13">
-        <v>59389993.50141051</v>
+        <v>59389993.50141052</v>
       </c>
       <c r="AV13">
-        <v>62568627.43255492</v>
+        <v>62568627.43255493</v>
       </c>
       <c r="AW13">
         <v>66007231.60041802</v>
@@ -8770,16 +8770,16 @@
         <v>1.693119120084685</v>
       </c>
       <c r="E14">
-        <v>3.412158650393027</v>
+        <v>3.412158650393026</v>
       </c>
       <c r="F14">
-        <v>5.228004437363722</v>
+        <v>5.228004437363721</v>
       </c>
       <c r="G14">
-        <v>7.058177925807826</v>
+        <v>7.058177925807825</v>
       </c>
       <c r="H14">
-        <v>8.835924840913698</v>
+        <v>8.835924840913696</v>
       </c>
       <c r="I14">
         <v>10.59765652867997</v>
@@ -8812,7 +8812,7 @@
         <v>30.24068603855219</v>
       </c>
       <c r="S14">
-        <v>32.87018482045246</v>
+        <v>32.87018482045245</v>
       </c>
       <c r="T14">
         <v>35.56730187197137</v>
@@ -8842,55 +8842,55 @@
         <v>59.53540505692291</v>
       </c>
       <c r="AC14">
-        <v>62.65150331700336</v>
+        <v>62.65150331700335</v>
       </c>
       <c r="AD14">
-        <v>65.83417087311062</v>
+        <v>65.83417087311061</v>
       </c>
       <c r="AE14">
-        <v>69.08331879891644</v>
+        <v>69.08331879891642</v>
       </c>
       <c r="AF14">
-        <v>72.39960931990882</v>
+        <v>72.39960931990881</v>
       </c>
       <c r="AG14">
-        <v>75.78387732462434</v>
+        <v>75.78387732462433</v>
       </c>
       <c r="AH14">
-        <v>79.18922818227556</v>
+        <v>79.18922818227553</v>
       </c>
       <c r="AI14">
-        <v>82.66258085517957</v>
+        <v>82.66258085517954</v>
       </c>
       <c r="AJ14">
-        <v>86.20418878727946</v>
+        <v>86.20418878727943</v>
       </c>
       <c r="AK14">
-        <v>89.81629276500252</v>
+        <v>89.81629276500247</v>
       </c>
       <c r="AL14">
-        <v>93.50088594677052</v>
+        <v>93.50088594677048</v>
       </c>
       <c r="AM14">
-        <v>97.27978472568174</v>
+        <v>97.27978472568169</v>
       </c>
       <c r="AN14">
-        <v>101.1362360473071</v>
+        <v>101.136236047307</v>
       </c>
       <c r="AO14">
-        <v>105.0748043864377</v>
+        <v>105.0748043864376</v>
       </c>
       <c r="AP14">
-        <v>109.0981317298363</v>
+        <v>109.0981317298362</v>
       </c>
       <c r="AQ14">
-        <v>113.2096538603534</v>
+        <v>113.2096538603533</v>
       </c>
       <c r="AR14">
         <v>117.4522333622619</v>
       </c>
       <c r="AS14">
-        <v>121.7855353920036</v>
+        <v>121.7855353920035</v>
       </c>
       <c r="AT14">
         <v>126.1992408307586</v>
@@ -8902,7 +8902,7 @@
         <v>135.2561116748796</v>
       </c>
       <c r="AW14">
-        <v>139.9084352886953</v>
+        <v>139.9084352886952</v>
       </c>
       <c r="AX14">
         <v>144.6364814067676</v>
@@ -8947,7 +8947,7 @@
         <v>212.1898441931541</v>
       </c>
       <c r="BL14">
-        <v>217.9387402724457</v>
+        <v>217.9387402724456</v>
       </c>
       <c r="BM14">
         <v>223.7878937718587</v>
@@ -8965,76 +8965,76 @@
         <v>248.2712153716066</v>
       </c>
       <c r="BR14">
-        <v>254.684246659354</v>
+        <v>254.6842466593539</v>
       </c>
       <c r="BS14">
-        <v>261.2074578728831</v>
+        <v>261.207457872883</v>
       </c>
       <c r="BT14">
-        <v>267.8365275813801</v>
+        <v>267.83652758138</v>
       </c>
       <c r="BU14">
         <v>274.5695789087225</v>
       </c>
       <c r="BV14">
-        <v>281.40950062305</v>
+        <v>281.4095006230499</v>
       </c>
       <c r="BW14">
-        <v>288.355175005354</v>
+        <v>288.3551750053539</v>
       </c>
       <c r="BX14">
         <v>295.4031238695954</v>
       </c>
       <c r="BY14">
-        <v>302.54853842832</v>
+        <v>302.5485384283199</v>
       </c>
       <c r="BZ14">
-        <v>309.7856625303177</v>
+        <v>309.7856625303176</v>
       </c>
       <c r="CA14">
-        <v>317.1151685721787</v>
+        <v>317.1151685721786</v>
       </c>
       <c r="CB14">
-        <v>324.5406407291657</v>
+        <v>324.5406407291656</v>
       </c>
       <c r="CC14">
-        <v>332.068405997474</v>
+        <v>332.0684059974739</v>
       </c>
       <c r="CD14">
-        <v>339.6994994741743</v>
+        <v>339.6994994741742</v>
       </c>
       <c r="CE14">
-        <v>347.4332739001261</v>
+        <v>347.433273900126</v>
       </c>
       <c r="CF14">
-        <v>355.2736559934986</v>
+        <v>355.2736559934984</v>
       </c>
       <c r="CG14">
-        <v>363.2237546684568</v>
+        <v>363.2237546684567</v>
       </c>
       <c r="CH14">
-        <v>371.2855664900501</v>
+        <v>371.28556649005</v>
       </c>
       <c r="CI14">
-        <v>379.4609933400334</v>
+        <v>379.4609933400333</v>
       </c>
       <c r="CJ14">
-        <v>387.7518776608556</v>
+        <v>387.7518776608555</v>
       </c>
       <c r="CK14">
-        <v>396.1630793922295</v>
+        <v>396.1630793922294</v>
       </c>
       <c r="CL14">
-        <v>404.7007254526932</v>
+        <v>404.7007254526931</v>
       </c>
       <c r="CM14">
-        <v>413.3694084254539</v>
+        <v>413.3694084254538</v>
       </c>
       <c r="CN14">
-        <v>422.1730580811144</v>
+        <v>422.1730580811143</v>
       </c>
       <c r="CO14">
-        <v>431.1142540196973</v>
+        <v>431.1142540196972</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -9044,184 +9044,184 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514312757300757</v>
+        <v>0.08514312757300753</v>
       </c>
       <c r="E15">
-        <v>0.1705218293722148</v>
+        <v>0.1705218293722147</v>
       </c>
       <c r="F15">
-        <v>0.2593703211059917</v>
+        <v>0.2593703211059915</v>
       </c>
       <c r="G15">
-        <v>0.349155106611105</v>
+        <v>0.3491551066111048</v>
       </c>
       <c r="H15">
-        <v>0.4379183573997304</v>
+        <v>0.4379183573997302</v>
       </c>
       <c r="I15">
-        <v>0.5253169794192275</v>
+        <v>0.5253169794192272</v>
       </c>
       <c r="J15">
-        <v>0.615345139145133</v>
+        <v>0.6153451391451327</v>
       </c>
       <c r="K15">
-        <v>0.7142185189077424</v>
+        <v>0.7142185189077419</v>
       </c>
       <c r="L15">
-        <v>0.8158803557201858</v>
+        <v>0.8158803557201854</v>
       </c>
       <c r="M15">
-        <v>0.9245561173207709</v>
+        <v>0.9245561173207705</v>
       </c>
       <c r="N15">
-        <v>1.04006271598081</v>
+        <v>1.040062715980809</v>
       </c>
       <c r="O15">
-        <v>1.145675425938169</v>
+        <v>1.145675425938168</v>
       </c>
       <c r="P15">
-        <v>1.259314669781136</v>
+        <v>1.259314669781135</v>
       </c>
       <c r="Q15">
-        <v>1.375792891945797</v>
+        <v>1.375792891945796</v>
       </c>
       <c r="R15">
-        <v>1.495120223453627</v>
+        <v>1.495120223453626</v>
       </c>
       <c r="S15">
         <v>1.624356808913523</v>
       </c>
       <c r="T15">
-        <v>1.756965722198844</v>
+        <v>1.756965722198843</v>
       </c>
       <c r="U15">
-        <v>1.892933577742692</v>
+        <v>1.892933577742691</v>
       </c>
       <c r="V15">
-        <v>2.032264976283637</v>
+        <v>2.032264976283636</v>
       </c>
       <c r="W15">
-        <v>2.174970655025505</v>
+        <v>2.174970655025504</v>
       </c>
       <c r="X15">
-        <v>2.320796424211716</v>
+        <v>2.320796424211715</v>
       </c>
       <c r="Y15">
-        <v>2.469864898338626</v>
+        <v>2.469864898338625</v>
       </c>
       <c r="Z15">
-        <v>2.622184053364474</v>
+        <v>2.622184053364472</v>
       </c>
       <c r="AA15">
-        <v>2.777758370170015</v>
+        <v>2.777758370170013</v>
       </c>
       <c r="AB15">
-        <v>2.936580348302635</v>
+        <v>2.936580348302634</v>
       </c>
       <c r="AC15">
-        <v>3.091155647740401</v>
+        <v>3.0911556477404</v>
       </c>
       <c r="AD15">
-        <v>3.249033811074895</v>
+        <v>3.249033811074893</v>
       </c>
       <c r="AE15">
-        <v>3.41020885228789</v>
+        <v>3.410208852287888</v>
       </c>
       <c r="AF15">
-        <v>3.574710585074595</v>
+        <v>3.574710585074594</v>
       </c>
       <c r="AG15">
-        <v>3.742576403659295</v>
+        <v>3.742576403659293</v>
       </c>
       <c r="AH15">
-        <v>3.911823172846729</v>
+        <v>3.911823172846727</v>
       </c>
       <c r="AI15">
-        <v>4.084434481835989</v>
+        <v>4.084434481835987</v>
       </c>
       <c r="AJ15">
-        <v>4.260419921972435</v>
+        <v>4.260419921972433</v>
       </c>
       <c r="AK15">
-        <v>4.439870489523332</v>
+        <v>4.43987048952333</v>
       </c>
       <c r="AL15">
-        <v>4.622875559404341</v>
+        <v>4.622875559404339</v>
       </c>
       <c r="AM15">
-        <v>4.810350518213496</v>
+        <v>4.810350518213494</v>
       </c>
       <c r="AN15">
-        <v>5.00159255406888</v>
+        <v>5.001592554068878</v>
       </c>
       <c r="AO15">
-        <v>5.196813559132551</v>
+        <v>5.196813559132549</v>
       </c>
       <c r="AP15">
-        <v>5.396133010246673</v>
+        <v>5.39613301024667</v>
       </c>
       <c r="AQ15">
-        <v>5.599708795991631</v>
+        <v>5.599708795991628</v>
       </c>
       <c r="AR15">
-        <v>5.80940072512687</v>
+        <v>5.809400725126867</v>
       </c>
       <c r="AS15">
-        <v>6.023457708006191</v>
+        <v>6.023457708006188</v>
       </c>
       <c r="AT15">
-        <v>6.241390760870301</v>
+        <v>6.241390760870298</v>
       </c>
       <c r="AU15">
-        <v>6.463059314274068</v>
+        <v>6.463059314274065</v>
       </c>
       <c r="AV15">
-        <v>6.688357319464433</v>
+        <v>6.688357319464429</v>
       </c>
       <c r="AW15">
-        <v>6.917805926617382</v>
+        <v>6.917805926617379</v>
       </c>
       <c r="AX15">
-        <v>7.150961610839413</v>
+        <v>7.150961610839409</v>
       </c>
       <c r="AY15">
-        <v>7.387725990540246</v>
+        <v>7.387725990540242</v>
       </c>
       <c r="AZ15">
-        <v>7.627840100062821</v>
+        <v>7.627840100062818</v>
       </c>
       <c r="BA15">
-        <v>7.870871165357419</v>
+        <v>7.870871165357415</v>
       </c>
       <c r="BB15">
-        <v>8.116404637225681</v>
+        <v>8.116404637225676</v>
       </c>
       <c r="BC15">
-        <v>8.364960009428497</v>
+        <v>8.364960009428492</v>
       </c>
       <c r="BD15">
-        <v>8.617051496617117</v>
+        <v>8.617051496617112</v>
       </c>
       <c r="BE15">
-        <v>8.872733173693311</v>
+        <v>8.872733173693305</v>
       </c>
       <c r="BF15">
-        <v>9.131955286485638</v>
+        <v>9.131955286485633</v>
       </c>
       <c r="BG15">
-        <v>9.394810010104623</v>
+        <v>9.394810010104617</v>
       </c>
       <c r="BH15">
-        <v>9.661577961516091</v>
+        <v>9.661577961516086</v>
       </c>
       <c r="BI15">
-        <v>9.932427788266686</v>
+        <v>9.932427788266681</v>
       </c>
       <c r="BJ15">
         <v>10.20747918863105</v>
       </c>
       <c r="BK15">
-        <v>10.48686275785277</v>
+        <v>10.48686275785276</v>
       </c>
       <c r="BL15">
         <v>10.77086270013113</v>
@@ -9230,88 +9230,88 @@
         <v>11.05972846126411</v>
       </c>
       <c r="BN15">
-        <v>11.35362558105926</v>
+        <v>11.35362558105925</v>
       </c>
       <c r="BO15">
-        <v>11.65274741917437</v>
+        <v>11.65274741917436</v>
       </c>
       <c r="BP15">
-        <v>11.95729305284289</v>
+        <v>11.95729305284288</v>
       </c>
       <c r="BQ15">
-        <v>12.26767634674245</v>
+        <v>12.26767634674244</v>
       </c>
       <c r="BR15">
-        <v>12.58373725849406</v>
+        <v>12.58373725849405</v>
       </c>
       <c r="BS15">
         <v>12.90510768883062</v>
       </c>
       <c r="BT15">
-        <v>13.23158471483911</v>
+        <v>13.2315847148391</v>
       </c>
       <c r="BU15">
-        <v>13.56308408987887</v>
+        <v>13.56308408987886</v>
       </c>
       <c r="BV15">
-        <v>13.8997530477572</v>
+        <v>13.89975304775719</v>
       </c>
       <c r="BW15">
         <v>14.24154431382869</v>
       </c>
       <c r="BX15">
-        <v>14.58830297036384</v>
+        <v>14.58830297036383</v>
       </c>
       <c r="BY15">
-        <v>14.93981044573863</v>
+        <v>14.93981044573862</v>
       </c>
       <c r="BZ15">
-        <v>15.29580257939838</v>
+        <v>15.29580257939837</v>
       </c>
       <c r="CA15">
-        <v>15.65632905409029</v>
+        <v>15.65632905409028</v>
       </c>
       <c r="CB15">
-        <v>16.02156284764912</v>
+        <v>16.02156284764911</v>
       </c>
       <c r="CC15">
         <v>16.39181354042706</v>
       </c>
       <c r="CD15">
-        <v>16.76713512635334</v>
+        <v>16.76713512635333</v>
       </c>
       <c r="CE15">
         <v>17.1474999075737</v>
       </c>
       <c r="CF15">
-        <v>17.53310975965597</v>
+        <v>17.53310975965596</v>
       </c>
       <c r="CG15">
         <v>17.92409679294224</v>
       </c>
       <c r="CH15">
-        <v>18.32055150112276</v>
+        <v>18.32055150112275</v>
       </c>
       <c r="CI15">
-        <v>18.72255832586641</v>
+        <v>18.7225583258664</v>
       </c>
       <c r="CJ15">
-        <v>19.13019757792928</v>
+        <v>19.13019757792927</v>
       </c>
       <c r="CK15">
-        <v>19.54371636162056</v>
+        <v>19.54371636162055</v>
       </c>
       <c r="CL15">
-        <v>19.96337676628859</v>
+        <v>19.96337676628858</v>
       </c>
       <c r="CM15">
-        <v>20.38939174049134</v>
+        <v>20.38939174049133</v>
       </c>
       <c r="CN15">
-        <v>20.82194108105733</v>
+        <v>20.82194108105732</v>
       </c>
       <c r="CO15">
-        <v>21.26114103490543</v>
+        <v>21.26114103490542</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -9360,19 +9360,19 @@
         <v>3856214.225969899</v>
       </c>
       <c r="Q16">
-        <v>5209085.450231062</v>
+        <v>5209085.450231061</v>
       </c>
       <c r="R16">
-        <v>6565692.757027272</v>
+        <v>6565692.75702727</v>
       </c>
       <c r="S16">
-        <v>10837081.5861155</v>
+        <v>10837081.58611549</v>
       </c>
       <c r="T16">
         <v>15111893.09203467</v>
       </c>
       <c r="U16">
-        <v>19389044.73827879</v>
+        <v>19389044.73827878</v>
       </c>
       <c r="V16">
         <v>23670502.30671069</v>
@@ -9381,19 +9381,19 @@
         <v>27959423.90884199</v>
       </c>
       <c r="X16">
-        <v>31851718.84127241</v>
+        <v>31851718.8412724</v>
       </c>
       <c r="Y16">
-        <v>35757030.06108891</v>
+        <v>35757030.0610889</v>
       </c>
       <c r="Z16">
         <v>39675564.33090527</v>
       </c>
       <c r="AA16">
-        <v>43602553.28073125</v>
+        <v>43602553.28073124</v>
       </c>
       <c r="AB16">
-        <v>47532856.51499378</v>
+        <v>47532856.51499377</v>
       </c>
       <c r="AC16">
         <v>48065363.90413152</v>
@@ -9402,40 +9402,40 @@
         <v>48608533.39927737</v>
       </c>
       <c r="AE16">
-        <v>49153960.25985515</v>
+        <v>49153960.25985514</v>
       </c>
       <c r="AF16">
-        <v>49709486.80760068</v>
+        <v>49709486.80760067</v>
       </c>
       <c r="AG16">
-        <v>50295268.30305056</v>
+        <v>50295268.30305055</v>
       </c>
       <c r="AH16">
-        <v>50258643.8421655</v>
+        <v>50258643.84216549</v>
       </c>
       <c r="AI16">
-        <v>50197823.44912226</v>
+        <v>50197823.44912225</v>
       </c>
       <c r="AJ16">
         <v>50103914.96470913</v>
       </c>
       <c r="AK16">
-        <v>49966251.96087023</v>
+        <v>49966251.96087022</v>
       </c>
       <c r="AL16">
-        <v>49775346.92563883</v>
+        <v>49775346.92563882</v>
       </c>
       <c r="AM16">
         <v>50031704.49599347</v>
       </c>
       <c r="AN16">
-        <v>50380506.13181347</v>
+        <v>50380506.13181346</v>
       </c>
       <c r="AO16">
-        <v>50859814.24770535</v>
+        <v>50859814.24770534</v>
       </c>
       <c r="AP16">
-        <v>51507787.81801069</v>
+        <v>51507787.81801068</v>
       </c>
       <c r="AQ16">
         <v>52379110.6996839</v>
@@ -9444,85 +9444,85 @@
         <v>54370915.57157499</v>
       </c>
       <c r="AS16">
-        <v>56592510.76185703</v>
+        <v>56592510.76185702</v>
       </c>
       <c r="AT16">
-        <v>58922813.60366826</v>
+        <v>58922813.60366825</v>
       </c>
       <c r="AU16">
-        <v>61325903.2270123</v>
+        <v>61325903.22701229</v>
       </c>
       <c r="AV16">
-        <v>63774075.86733971</v>
+        <v>63774075.8673397</v>
       </c>
       <c r="AW16">
         <v>66357956.98021343</v>
       </c>
       <c r="AX16">
-        <v>68931809.83546948</v>
+        <v>68931809.83546947</v>
       </c>
       <c r="AY16">
-        <v>71470792.32336168</v>
+        <v>71470792.32336167</v>
       </c>
       <c r="AZ16">
-        <v>73915686.52589215</v>
+        <v>73915686.52589214</v>
       </c>
       <c r="BA16">
-        <v>76174423.52116179</v>
+        <v>76174423.52116178</v>
       </c>
       <c r="BB16">
-        <v>77982958.98175794</v>
+        <v>77982958.98175792</v>
       </c>
       <c r="BC16">
-        <v>79563075.03938136</v>
+        <v>79563075.03938134</v>
       </c>
       <c r="BD16">
-        <v>81018358.34569158</v>
+        <v>81018358.34569156</v>
       </c>
       <c r="BE16">
-        <v>82364593.95138317</v>
+        <v>82364593.95138316</v>
       </c>
       <c r="BF16">
-        <v>83602097.50895992</v>
+        <v>83602097.5089599</v>
       </c>
       <c r="BG16">
-        <v>84614895.81104264</v>
+        <v>84614895.81104262</v>
       </c>
       <c r="BH16">
-        <v>85546979.35543446</v>
+        <v>85546979.35543445</v>
       </c>
       <c r="BI16">
-        <v>86439817.89535753</v>
+        <v>86439817.89535752</v>
       </c>
       <c r="BJ16">
-        <v>87322397.84358886</v>
+        <v>87322397.84358884</v>
       </c>
       <c r="BK16">
-        <v>88224624.90318976</v>
+        <v>88224624.90318975</v>
       </c>
       <c r="BL16">
-        <v>89136212.36761312</v>
+        <v>89136212.36761311</v>
       </c>
       <c r="BM16">
-        <v>90134231.34146722</v>
+        <v>90134231.3414672</v>
       </c>
       <c r="BN16">
-        <v>91256810.48798485</v>
+        <v>91256810.48798484</v>
       </c>
       <c r="BO16">
-        <v>92554819.63851354</v>
+        <v>92554819.63851352</v>
       </c>
       <c r="BP16">
-        <v>94083511.42602769</v>
+        <v>94083511.42602767</v>
       </c>
       <c r="BQ16">
-        <v>95859655.70183811</v>
+        <v>95859655.70183809</v>
       </c>
       <c r="BR16">
-        <v>97856060.56747052</v>
+        <v>97856060.56747051</v>
       </c>
       <c r="BS16">
-        <v>99984895.13407969</v>
+        <v>99984895.13407968</v>
       </c>
       <c r="BT16">
         <v>102196330.4032415</v>
@@ -9546,7 +9546,7 @@
         <v>115686662.6520938</v>
       </c>
       <c r="CA16">
-        <v>117603802.301464</v>
+        <v>117603802.3014639</v>
       </c>
       <c r="CB16">
         <v>119375722.0836667</v>
@@ -9570,10 +9570,10 @@
         <v>128259385.4345688</v>
       </c>
       <c r="CI16">
-        <v>129545878.0349837</v>
+        <v>129545878.0349836</v>
       </c>
       <c r="CJ16">
-        <v>130829613.977298</v>
+        <v>130829613.9772979</v>
       </c>
       <c r="CK16">
         <v>132103498.5407505</v>
@@ -9582,7 +9582,7 @@
         <v>133431754.7997682</v>
       </c>
       <c r="CM16">
-        <v>134852813.5102475</v>
+        <v>134852813.5102474</v>
       </c>
       <c r="CN16">
         <v>136407282.8943097</v>
@@ -9601,271 +9601,271 @@
         <v>114553.8396509568</v>
       </c>
       <c r="E17">
-        <v>187636.8374629896</v>
+        <v>187636.8374629897</v>
       </c>
       <c r="F17">
-        <v>243257.1548078383</v>
+        <v>243257.1548078384</v>
       </c>
       <c r="G17">
         <v>298604.5501182564</v>
       </c>
       <c r="H17">
-        <v>349601.0526636977</v>
+        <v>349601.0526636976</v>
       </c>
       <c r="I17">
-        <v>398509.6132202728</v>
+        <v>398509.6132202727</v>
       </c>
       <c r="J17">
-        <v>443281.1869998944</v>
+        <v>443281.1869998942</v>
       </c>
       <c r="K17">
-        <v>490023.8035570911</v>
+        <v>490023.8035570909</v>
       </c>
       <c r="L17">
-        <v>546529.8709139343</v>
+        <v>546529.8709139341</v>
       </c>
       <c r="M17">
-        <v>603047.7213830745</v>
+        <v>603047.7213830743</v>
       </c>
       <c r="N17">
-        <v>663180.096165692</v>
+        <v>663180.0961656917</v>
       </c>
       <c r="O17">
-        <v>732264.4315099486</v>
+        <v>732264.4315099482</v>
       </c>
       <c r="P17">
-        <v>1414243.776913151</v>
+        <v>1414243.77691315</v>
       </c>
       <c r="Q17">
-        <v>2096926.566154808</v>
+        <v>2096926.566154807</v>
       </c>
       <c r="R17">
-        <v>2780527.096961522</v>
+        <v>2780527.096961521</v>
       </c>
       <c r="S17">
-        <v>5004314.469907966</v>
+        <v>5004314.469907963</v>
       </c>
       <c r="T17">
-        <v>7229582.029962994</v>
+        <v>7229582.02996299</v>
       </c>
       <c r="U17">
-        <v>9456680.849394372</v>
+        <v>9456680.849394366</v>
       </c>
       <c r="V17">
         <v>11686014.41746607</v>
       </c>
       <c r="W17">
-        <v>13918046.10886927</v>
+        <v>13918046.10886926</v>
       </c>
       <c r="X17">
-        <v>16325515.23072501</v>
+        <v>16325515.230725</v>
       </c>
       <c r="Y17">
-        <v>18736854.81401135</v>
+        <v>18736854.81401134</v>
       </c>
       <c r="Z17">
-        <v>21152833.88469167</v>
+        <v>21152833.88469166</v>
       </c>
       <c r="AA17">
         <v>23574411.5308532</v>
       </c>
       <c r="AB17">
-        <v>26002817.22279802</v>
+        <v>26002817.22279801</v>
       </c>
       <c r="AC17">
-        <v>26762189.88902802</v>
+        <v>26762189.88902801</v>
       </c>
       <c r="AD17">
-        <v>27532151.99757388</v>
+        <v>27532151.99757387</v>
       </c>
       <c r="AE17">
         <v>28315584.14499578</v>
       </c>
       <c r="AF17">
-        <v>29116340.43086424</v>
+        <v>29116340.43086423</v>
       </c>
       <c r="AG17">
-        <v>29939522.05275075</v>
+        <v>29939522.05275074</v>
       </c>
       <c r="AH17">
-        <v>30264556.95051583</v>
+        <v>30264556.95051581</v>
       </c>
       <c r="AI17">
-        <v>30611349.27984633</v>
+        <v>30611349.27984631</v>
       </c>
       <c r="AJ17">
-        <v>30986977.46668358</v>
+        <v>30986977.46668356</v>
       </c>
       <c r="AK17">
-        <v>31412976.61037976</v>
+        <v>31412976.61037975</v>
       </c>
       <c r="AL17">
-        <v>31901426.38596511</v>
+        <v>31901426.38596509</v>
       </c>
       <c r="AM17">
-        <v>32790881.01000314</v>
+        <v>32790881.01000312</v>
       </c>
       <c r="AN17">
-        <v>33786465.03253999</v>
+        <v>33786465.03253997</v>
       </c>
       <c r="AO17">
-        <v>34904045.80957979</v>
+        <v>34904045.80957977</v>
       </c>
       <c r="AP17">
-        <v>36157836.25674634</v>
+        <v>36157836.25674632</v>
       </c>
       <c r="AQ17">
-        <v>37558881.60891531</v>
+        <v>37558881.60891529</v>
       </c>
       <c r="AR17">
-        <v>39492673.02836477</v>
+        <v>39492673.02836474</v>
       </c>
       <c r="AS17">
-        <v>41579996.31407142</v>
+        <v>41579996.31407139</v>
       </c>
       <c r="AT17">
-        <v>43813413.14540155</v>
+        <v>43813413.14540152</v>
       </c>
       <c r="AU17">
-        <v>46177472.63622198</v>
+        <v>46177472.63622195</v>
       </c>
       <c r="AV17">
-        <v>48648929.6385453</v>
+        <v>48648929.63854527</v>
       </c>
       <c r="AW17">
-        <v>51322515.77330663</v>
+        <v>51322515.77330659</v>
       </c>
       <c r="AX17">
-        <v>54038923.50021579</v>
+        <v>54038923.50021575</v>
       </c>
       <c r="AY17">
-        <v>56761338.59594794</v>
+        <v>56761338.59594789</v>
       </c>
       <c r="AZ17">
-        <v>59453624.9631665</v>
+        <v>59453624.96316645</v>
       </c>
       <c r="BA17">
-        <v>62083062.45589233</v>
+        <v>62083062.45589229</v>
       </c>
       <c r="BB17">
-        <v>64560254.7641793</v>
+        <v>64560254.76417926</v>
       </c>
       <c r="BC17">
-        <v>66928135.02820842</v>
+        <v>66928135.02820837</v>
       </c>
       <c r="BD17">
-        <v>69175819.9338315</v>
+        <v>69175819.93383145</v>
       </c>
       <c r="BE17">
-        <v>71301562.5517347</v>
+        <v>71301562.55173466</v>
       </c>
       <c r="BF17">
-        <v>73312725.26283298</v>
+        <v>73312725.26283294</v>
       </c>
       <c r="BG17">
-        <v>75194107.09082006</v>
+        <v>75194107.09082001</v>
       </c>
       <c r="BH17">
-        <v>76999818.10659374</v>
+        <v>76999818.1065937</v>
       </c>
       <c r="BI17">
-        <v>78758253.0371643</v>
+        <v>78758253.03716426</v>
       </c>
       <c r="BJ17">
-        <v>80500851.89045748</v>
+        <v>80500851.89045744</v>
       </c>
       <c r="BK17">
-        <v>82259739.20975627</v>
+        <v>82259739.20975623</v>
       </c>
       <c r="BL17">
-        <v>84069550.7387218</v>
+        <v>84069550.73872174</v>
       </c>
       <c r="BM17">
-        <v>85954125.1287885</v>
+        <v>85954125.12878844</v>
       </c>
       <c r="BN17">
-        <v>87937163.92876926</v>
+        <v>87937163.9287692</v>
       </c>
       <c r="BO17">
-        <v>90037643.5477352</v>
+        <v>90037643.54773512</v>
       </c>
       <c r="BP17">
-        <v>92269359.64474656</v>
+        <v>92269359.64474648</v>
       </c>
       <c r="BQ17">
-        <v>94646692.22688182</v>
+        <v>94646692.22688174</v>
       </c>
       <c r="BR17">
-        <v>97166250.2485127</v>
+        <v>97166250.24851263</v>
       </c>
       <c r="BS17">
-        <v>99825188.57453533</v>
+        <v>99825188.57453524</v>
       </c>
       <c r="BT17">
-        <v>102615495.5617916</v>
+        <v>102615495.5617915</v>
       </c>
       <c r="BU17">
-        <v>105524579.0381972</v>
+        <v>105524579.0381971</v>
       </c>
       <c r="BV17">
-        <v>108529359.7553213</v>
+        <v>108529359.7553212</v>
       </c>
       <c r="BW17">
-        <v>111617151.4827028</v>
+        <v>111617151.4827027</v>
       </c>
       <c r="BX17">
-        <v>114766674.2640508</v>
+        <v>114766674.2640506</v>
       </c>
       <c r="BY17">
-        <v>117955830.2067644</v>
+        <v>117955830.2067643</v>
       </c>
       <c r="BZ17">
-        <v>121162880.0561577</v>
+        <v>121162880.0561576</v>
       </c>
       <c r="CA17">
-        <v>124348115.3491808</v>
+        <v>124348115.3491807</v>
       </c>
       <c r="CB17">
-        <v>127513422.4876092</v>
+        <v>127513422.4876091</v>
       </c>
       <c r="CC17">
-        <v>130644688.2571547</v>
+        <v>130644688.2571546</v>
       </c>
       <c r="CD17">
-        <v>133731971.2682815</v>
+        <v>133731971.2682814</v>
       </c>
       <c r="CE17">
-        <v>136769926.0316911</v>
+        <v>136769926.031691</v>
       </c>
       <c r="CF17">
-        <v>139721233.4920923</v>
+        <v>139721233.4920922</v>
       </c>
       <c r="CG17">
-        <v>142626617.4362398</v>
+        <v>142626617.4362397</v>
       </c>
       <c r="CH17">
-        <v>145494262.3870903</v>
+        <v>145494262.3870901</v>
       </c>
       <c r="CI17">
-        <v>148335862.0214249</v>
+        <v>148335862.0214248</v>
       </c>
       <c r="CJ17">
-        <v>151165763.9419467</v>
+        <v>151165763.9419466</v>
       </c>
       <c r="CK17">
-        <v>153941352.1182553</v>
+        <v>153941352.1182552</v>
       </c>
       <c r="CL17">
-        <v>156738022.084367</v>
+        <v>156738022.0843669</v>
       </c>
       <c r="CM17">
-        <v>159572243.3916519</v>
+        <v>159572243.3916517</v>
       </c>
       <c r="CN17">
-        <v>162459327.9657098</v>
+        <v>162459327.9657097</v>
       </c>
       <c r="CO17">
-        <v>165412657.5957997</v>
+        <v>165412657.5957996</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Baseline/Lifetime/Results_region_base_life_Max.xlsx
+++ b/Results/Baseline/Lifetime/Results_region_base_life_Max.xlsx
@@ -688,46 +688,46 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1059.139284590804</v>
+        <v>1059.139284590803</v>
       </c>
       <c r="E2">
-        <v>1384.276209611374</v>
+        <v>1384.276209611373</v>
       </c>
       <c r="F2">
-        <v>1382.787794722675</v>
+        <v>1382.787794722674</v>
       </c>
       <c r="G2">
         <v>1313.179362447009</v>
       </c>
       <c r="H2">
-        <v>1766.537561064482</v>
+        <v>1766.537561064481</v>
       </c>
       <c r="I2">
-        <v>1270.647655139913</v>
+        <v>1270.647655139912</v>
       </c>
       <c r="J2">
-        <v>2309.603474493234</v>
+        <v>2309.603474493233</v>
       </c>
       <c r="K2">
-        <v>2294.377037905998</v>
+        <v>2294.377037905997</v>
       </c>
       <c r="L2">
-        <v>2039.384192047097</v>
+        <v>2039.384192047096</v>
       </c>
       <c r="M2">
         <v>1876.933999134606</v>
       </c>
       <c r="N2">
-        <v>4033.300294713328</v>
+        <v>4033.300294713329</v>
       </c>
       <c r="O2">
         <v>2439.199525544052</v>
       </c>
       <c r="P2">
-        <v>4901.858208131991</v>
+        <v>4901.858208131989</v>
       </c>
       <c r="Q2">
-        <v>5278.222883132839</v>
+        <v>5278.222883132838</v>
       </c>
       <c r="R2">
         <v>5658.570659810671</v>
@@ -736,7 +736,7 @@
         <v>12445.17860548158</v>
       </c>
       <c r="T2">
-        <v>13353.77250883446</v>
+        <v>13353.77250883445</v>
       </c>
       <c r="U2">
         <v>14256.15277045471</v>
@@ -745,217 +745,217 @@
         <v>15141.75325973631</v>
       </c>
       <c r="W2">
-        <v>16030.44372917121</v>
+        <v>16030.4437291712</v>
       </c>
       <c r="X2">
         <v>16066.68245695719</v>
       </c>
       <c r="Y2">
-        <v>16902.54493977021</v>
+        <v>16902.5449397702</v>
       </c>
       <c r="Z2">
         <v>17760.64828669644</v>
       </c>
       <c r="AA2">
-        <v>18645.64742054414</v>
+        <v>18645.64742054413</v>
       </c>
       <c r="AB2">
         <v>19541.02351897701</v>
       </c>
       <c r="AC2">
-        <v>8973.989414252264</v>
+        <v>8973.989414252261</v>
       </c>
       <c r="AD2">
-        <v>9233.306886032116</v>
+        <v>9233.306886032115</v>
       </c>
       <c r="AE2">
-        <v>9478.112976225759</v>
+        <v>9478.112976225753</v>
       </c>
       <c r="AF2">
-        <v>9718.318300237142</v>
+        <v>9718.318300237139</v>
       </c>
       <c r="AG2">
-        <v>10037.06936138818</v>
+        <v>10037.06936138817</v>
       </c>
       <c r="AH2">
-        <v>6319.432470442775</v>
+        <v>6319.432470442773</v>
       </c>
       <c r="AI2">
-        <v>6448.970128798094</v>
+        <v>6448.970128798092</v>
       </c>
       <c r="AJ2">
-        <v>6554.738406250906</v>
+        <v>6554.738406250903</v>
       </c>
       <c r="AK2">
-        <v>6585.605447848437</v>
+        <v>6585.605447848434</v>
       </c>
       <c r="AL2">
-        <v>6832.734206177521</v>
+        <v>6832.734206177518</v>
       </c>
       <c r="AM2">
-        <v>9165.627947882422</v>
+        <v>9165.627947882418</v>
       </c>
       <c r="AN2">
-        <v>9813.128621724807</v>
+        <v>9813.128621724803</v>
       </c>
       <c r="AO2">
-        <v>10657.57020087725</v>
+        <v>10657.57020087724</v>
       </c>
       <c r="AP2">
-        <v>11965.82713243134</v>
+        <v>11965.82713243133</v>
       </c>
       <c r="AQ2">
         <v>13703.50693473008</v>
       </c>
       <c r="AR2">
-        <v>19452.32488040478</v>
+        <v>19452.32488040477</v>
       </c>
       <c r="AS2">
-        <v>21665.55192562093</v>
+        <v>21665.55192562092</v>
       </c>
       <c r="AT2">
-        <v>22912.1814106097</v>
+        <v>22912.18141060969</v>
       </c>
       <c r="AU2">
-        <v>23920.60328559382</v>
+        <v>23920.60328559381</v>
       </c>
       <c r="AV2">
-        <v>24772.82185224844</v>
+        <v>24772.82185224843</v>
       </c>
       <c r="AW2">
-        <v>26189.17783356101</v>
+        <v>26189.177833561</v>
       </c>
       <c r="AX2">
         <v>26860.40233220047</v>
       </c>
       <c r="AY2">
-        <v>27447.92155511525</v>
+        <v>27447.92155511523</v>
       </c>
       <c r="AZ2">
-        <v>27409.25014315115</v>
+        <v>27409.25014315113</v>
       </c>
       <c r="BA2">
-        <v>26044.60705018351</v>
+        <v>26044.6070501835</v>
       </c>
       <c r="BB2">
-        <v>22350.05777030309</v>
+        <v>22350.05777030308</v>
       </c>
       <c r="BC2">
-        <v>20313.69621257433</v>
+        <v>20313.69621257432</v>
       </c>
       <c r="BD2">
         <v>20107.66358120283</v>
       </c>
       <c r="BE2">
-        <v>19998.8669464585</v>
+        <v>19998.86694645849</v>
       </c>
       <c r="BF2">
         <v>19455.68535066057</v>
       </c>
       <c r="BG2">
-        <v>17797.12876923273</v>
+        <v>17797.12876923272</v>
       </c>
       <c r="BH2">
-        <v>17117.87352527366</v>
+        <v>17117.87352527365</v>
       </c>
       <c r="BI2">
         <v>17204.73403592114</v>
       </c>
       <c r="BJ2">
-        <v>17572.96400684382</v>
+        <v>17572.96400684381</v>
       </c>
       <c r="BK2">
-        <v>18295.95653887426</v>
+        <v>18295.95653887424</v>
       </c>
       <c r="BL2">
         <v>19082.36933846078</v>
       </c>
       <c r="BM2">
-        <v>20311.41568740166</v>
+        <v>20311.41568740165</v>
       </c>
       <c r="BN2">
-        <v>21552.0044831303</v>
+        <v>21552.00448313029</v>
       </c>
       <c r="BO2">
-        <v>23285.79636461265</v>
+        <v>23285.79636461264</v>
       </c>
       <c r="BP2">
-        <v>25763.93070488902</v>
+        <v>25763.93070488901</v>
       </c>
       <c r="BQ2">
-        <v>28645.65001116627</v>
+        <v>28645.65001116626</v>
       </c>
       <c r="BR2">
-        <v>31276.79948561441</v>
+        <v>31276.7994856144</v>
       </c>
       <c r="BS2">
-        <v>32875.73858927378</v>
+        <v>32875.73858927376</v>
       </c>
       <c r="BT2">
-        <v>34051.43820182711</v>
+        <v>34051.4382018271</v>
       </c>
       <c r="BU2">
-        <v>35123.54792354182</v>
+        <v>35123.5479235418</v>
       </c>
       <c r="BV2">
-        <v>35900.77023425628</v>
+        <v>35900.77023425626</v>
       </c>
       <c r="BW2">
-        <v>36643.08713344325</v>
+        <v>36643.08713344323</v>
       </c>
       <c r="BX2">
-        <v>36895.69968541878</v>
+        <v>36895.69968541876</v>
       </c>
       <c r="BY2">
-        <v>36457.36367216157</v>
+        <v>36457.36367216155</v>
       </c>
       <c r="BZ2">
-        <v>35121.09469093414</v>
+        <v>35121.09469093413</v>
       </c>
       <c r="CA2">
-        <v>32971.13046790857</v>
+        <v>32971.13046790855</v>
       </c>
       <c r="CB2">
-        <v>31370.23950474446</v>
+        <v>31370.23950474444</v>
       </c>
       <c r="CC2">
-        <v>30664.54830329424</v>
+        <v>30664.54830329422</v>
       </c>
       <c r="CD2">
-        <v>30323.21038680667</v>
+        <v>30323.21038680665</v>
       </c>
       <c r="CE2">
-        <v>29788.28684182469</v>
+        <v>29788.28684182467</v>
       </c>
       <c r="CF2">
         <v>28800.50407667994</v>
       </c>
       <c r="CG2">
-        <v>28318.16625866946</v>
+        <v>28318.16625866944</v>
       </c>
       <c r="CH2">
-        <v>28386.84270842088</v>
+        <v>28386.84270842087</v>
       </c>
       <c r="CI2">
-        <v>28861.49349569808</v>
+        <v>28861.49349569807</v>
       </c>
       <c r="CJ2">
-        <v>29608.66479445533</v>
+        <v>29608.6647944553</v>
       </c>
       <c r="CK2">
-        <v>30188.18904538011</v>
+        <v>30188.18904538008</v>
       </c>
       <c r="CL2">
-        <v>31412.5693845315</v>
+        <v>31412.56938453147</v>
       </c>
       <c r="CM2">
-        <v>32929.06868510274</v>
+        <v>32929.06868510272</v>
       </c>
       <c r="CN2">
-        <v>34813.84635463222</v>
+        <v>34813.84635463219</v>
       </c>
       <c r="CO2">
-        <v>37100.88656408407</v>
+        <v>37100.88656408404</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -965,22 +965,22 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24524384338173</v>
+        <v>70.24524384338169</v>
       </c>
       <c r="E3">
-        <v>92.03601098475779</v>
+        <v>92.03601098475775</v>
       </c>
       <c r="F3">
-        <v>91.84143428465816</v>
+        <v>91.84143428465812</v>
       </c>
       <c r="G3">
-        <v>87.16539023912891</v>
+        <v>87.16539023912887</v>
       </c>
       <c r="H3">
-        <v>117.693068045446</v>
+        <v>117.6930680454459</v>
       </c>
       <c r="I3">
-        <v>84.37773627641438</v>
+        <v>84.37773627641435</v>
       </c>
       <c r="J3">
         <v>154.0680758694731</v>
@@ -989,7 +989,7 @@
         <v>152.9236336901394</v>
       </c>
       <c r="L3">
-        <v>135.8335986499017</v>
+        <v>135.8335986499016</v>
       </c>
       <c r="M3">
         <v>124.8609374262848</v>
@@ -998,7 +998,7 @@
         <v>269.619865987091</v>
       </c>
       <c r="O3">
-        <v>162.6635173425317</v>
+        <v>162.6635173425316</v>
       </c>
       <c r="P3">
         <v>327.9658970634368</v>
@@ -1007,16 +1007,16 @@
         <v>353.2167005796579</v>
       </c>
       <c r="R3">
-        <v>378.7366872243852</v>
+        <v>378.7366872243851</v>
       </c>
       <c r="S3">
         <v>834.4092707858294</v>
       </c>
       <c r="T3">
-        <v>895.4024199357095</v>
+        <v>895.4024199357093</v>
       </c>
       <c r="U3">
-        <v>955.9755927281412</v>
+        <v>955.975592728141</v>
       </c>
       <c r="V3">
         <v>1015.422011646545</v>
@@ -1028,7 +1028,7 @@
         <v>1077.479785461946</v>
       </c>
       <c r="Y3">
-        <v>1133.593445930911</v>
+        <v>1133.59344593091</v>
       </c>
       <c r="Z3">
         <v>1191.203799062939</v>
@@ -1040,7 +1040,7 @@
         <v>1310.729094705314</v>
       </c>
       <c r="AC3">
-        <v>601.1092338419631</v>
+        <v>601.109233841963</v>
       </c>
       <c r="AD3">
         <v>618.5240841948755</v>
@@ -1049,46 +1049,46 @@
         <v>634.9813937750359</v>
       </c>
       <c r="AF3">
-        <v>651.1469151842632</v>
+        <v>651.1469151842629</v>
       </c>
       <c r="AG3">
-        <v>672.5954817141561</v>
+        <v>672.595481714156</v>
       </c>
       <c r="AH3">
-        <v>422.9607895154963</v>
+        <v>422.9607895154962</v>
       </c>
       <c r="AI3">
-        <v>431.6699642286702</v>
+        <v>431.66996422867</v>
       </c>
       <c r="AJ3">
-        <v>438.7631201354154</v>
+        <v>438.7631201354153</v>
       </c>
       <c r="AK3">
         <v>440.8191087783214</v>
       </c>
       <c r="AL3">
-        <v>457.4726456771761</v>
+        <v>457.472645677176</v>
       </c>
       <c r="AM3">
         <v>614.3361749821966</v>
       </c>
       <c r="AN3">
-        <v>658.2531669654542</v>
+        <v>658.2531669654541</v>
       </c>
       <c r="AO3">
-        <v>715.6939534714462</v>
+        <v>715.6939534714461</v>
       </c>
       <c r="AP3">
         <v>804.325089031368</v>
       </c>
       <c r="AQ3">
-        <v>921.9009156940798</v>
+        <v>921.9009156940796</v>
       </c>
       <c r="AR3">
         <v>1309.284006199682</v>
       </c>
       <c r="AS3">
-        <v>1458.862836103452</v>
+        <v>1458.862836103451</v>
       </c>
       <c r="AT3">
         <v>1542.569636339157</v>
@@ -1097,7 +1097,7 @@
         <v>1610.192938297439</v>
       </c>
       <c r="AV3">
-        <v>1667.44765649413</v>
+        <v>1667.447656494129</v>
       </c>
       <c r="AW3">
         <v>1762.557937612402</v>
@@ -1106,10 +1106,10 @@
         <v>1807.69813324213</v>
       </c>
       <c r="AY3">
-        <v>1847.332435117107</v>
+        <v>1847.332435117106</v>
       </c>
       <c r="AZ3">
-        <v>1844.674001272599</v>
+        <v>1844.674001272598</v>
       </c>
       <c r="BA3">
         <v>1752.203219190876</v>
@@ -1118,7 +1118,7 @@
         <v>1502.343683218842</v>
       </c>
       <c r="BC3">
-        <v>1364.279905476118</v>
+        <v>1364.279905476117</v>
       </c>
       <c r="BD3">
         <v>1350.356279126074</v>
@@ -1148,10 +1148,10 @@
         <v>1283.574047512591</v>
       </c>
       <c r="BM3">
-        <v>1368.10161347685</v>
+        <v>1368.101613476849</v>
       </c>
       <c r="BN3">
-        <v>1453.842853700748</v>
+        <v>1453.842853700747</v>
       </c>
       <c r="BO3">
         <v>1572.981668789663</v>
@@ -1169,31 +1169,31 @@
         <v>2225.234167809399</v>
       </c>
       <c r="BT3">
-        <v>2302.981686257625</v>
+        <v>2302.981686257624</v>
       </c>
       <c r="BU3">
-        <v>2373.25269789898</v>
+        <v>2373.252697898979</v>
       </c>
       <c r="BV3">
         <v>2423.710179054638</v>
       </c>
       <c r="BW3">
-        <v>2472.0021186317</v>
+        <v>2472.002118631699</v>
       </c>
       <c r="BX3">
         <v>2487.416734665819</v>
       </c>
       <c r="BY3">
-        <v>2456.194551122033</v>
+        <v>2456.194551122032</v>
       </c>
       <c r="BZ3">
-        <v>2364.361448791635</v>
+        <v>2364.361448791634</v>
       </c>
       <c r="CA3">
-        <v>2217.852452064763</v>
+        <v>2217.852452064762</v>
       </c>
       <c r="CB3">
-        <v>2108.798016623196</v>
+        <v>2108.798016623195</v>
       </c>
       <c r="CC3">
         <v>2060.733680814539</v>
@@ -1214,25 +1214,25 @@
         <v>1907.137304684239</v>
       </c>
       <c r="CI3">
-        <v>1939.459004042446</v>
+        <v>1939.459004042445</v>
       </c>
       <c r="CJ3">
         <v>1990.444345331788</v>
       </c>
       <c r="CK3">
-        <v>2030.743108961027</v>
+        <v>2030.743108961026</v>
       </c>
       <c r="CL3">
-        <v>2115.211929864675</v>
+        <v>2115.211929864674</v>
       </c>
       <c r="CM3">
-        <v>2220.156642757891</v>
+        <v>2220.15664275789</v>
       </c>
       <c r="CN3">
-        <v>2350.200065181321</v>
+        <v>2350.20006518132</v>
       </c>
       <c r="CO3">
-        <v>2507.304897454236</v>
+        <v>2507.304897454235</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1242,7 +1242,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379415.8121898659</v>
+        <v>379415.812189866</v>
       </c>
       <c r="E4">
         <v>375655.2010293379</v>
@@ -1251,31 +1251,31 @@
         <v>462127.7498927054</v>
       </c>
       <c r="G4">
-        <v>519174.8210109954</v>
+        <v>519174.8210109955</v>
       </c>
       <c r="H4">
-        <v>686320.4725532031</v>
+        <v>686320.4725532032</v>
       </c>
       <c r="I4">
-        <v>644621.5954070184</v>
+        <v>644621.5954070183</v>
       </c>
       <c r="J4">
-        <v>751936.7804672484</v>
+        <v>751936.7804672482</v>
       </c>
       <c r="K4">
-        <v>672383.4511423397</v>
+        <v>672383.4511423396</v>
       </c>
       <c r="L4">
         <v>563594.4294049976</v>
       </c>
       <c r="M4">
-        <v>1105745.277898107</v>
+        <v>1105745.277898108</v>
       </c>
       <c r="N4">
         <v>928421.7141606536</v>
       </c>
       <c r="O4">
-        <v>883010.1044453863</v>
+        <v>883010.1044453866</v>
       </c>
       <c r="P4">
         <v>3253641.389166298</v>
@@ -1290,28 +1290,28 @@
         <v>9524920.903365742</v>
       </c>
       <c r="T4">
-        <v>9550615.532623775</v>
+        <v>9550615.532623772</v>
       </c>
       <c r="U4">
-        <v>9575374.620219247</v>
+        <v>9575374.620219244</v>
       </c>
       <c r="V4">
-        <v>9601692.565233415</v>
+        <v>9601692.565233413</v>
       </c>
       <c r="W4">
         <v>9631106.054661579</v>
       </c>
       <c r="X4">
-        <v>9242634.599540371</v>
+        <v>9242634.59954037</v>
       </c>
       <c r="Y4">
-        <v>9279960.689823875</v>
+        <v>9279960.689823873</v>
       </c>
       <c r="Z4">
-        <v>9325100.091155773</v>
+        <v>9325100.091155769</v>
       </c>
       <c r="AA4">
-        <v>9378265.292980241</v>
+        <v>9378265.292980239</v>
       </c>
       <c r="AB4">
         <v>9432738.860950688</v>
@@ -1320,196 +1320,196 @@
         <v>1776656.45855646</v>
       </c>
       <c r="AD4">
-        <v>1809994.662542748</v>
+        <v>1809994.662542747</v>
       </c>
       <c r="AE4">
         <v>1849890.745773318</v>
       </c>
       <c r="AF4">
-        <v>1909412.148544514</v>
+        <v>1909412.148544513</v>
       </c>
       <c r="AG4">
-        <v>1977560.072473578</v>
+        <v>1977560.072473577</v>
       </c>
       <c r="AH4">
-        <v>-24946.58176957037</v>
+        <v>-24946.58176957047</v>
       </c>
       <c r="AI4">
-        <v>-74940.23239839337</v>
+        <v>-74940.23239839343</v>
       </c>
       <c r="AJ4">
-        <v>-169470.0458366634</v>
+        <v>-169470.0458366636</v>
       </c>
       <c r="AK4">
-        <v>-119842.6870025557</v>
+        <v>-119842.6870025559</v>
       </c>
       <c r="AL4">
-        <v>42750.79740389599</v>
+        <v>42750.79740389565</v>
       </c>
       <c r="AM4">
-        <v>420887.976335991</v>
+        <v>420887.9763359905</v>
       </c>
       <c r="AN4">
-        <v>644534.867144721</v>
+        <v>644534.8671447204</v>
       </c>
       <c r="AO4">
-        <v>991682.2046006097</v>
+        <v>991682.2046006096</v>
       </c>
       <c r="AP4">
-        <v>1373894.970668202</v>
+        <v>1373894.970668201</v>
       </c>
       <c r="AQ4">
-        <v>1769535.587008962</v>
+        <v>1769535.587008961</v>
       </c>
       <c r="AR4">
-        <v>3366062.832688086</v>
+        <v>3366062.832688084</v>
       </c>
       <c r="AS4">
-        <v>3769988.742905199</v>
+        <v>3769988.742905196</v>
       </c>
       <c r="AT4">
-        <v>4004422.821859087</v>
+        <v>4004422.821859085</v>
       </c>
       <c r="AU4">
-        <v>4178129.074764094</v>
+        <v>4178129.074764093</v>
       </c>
       <c r="AV4">
-        <v>4293600.599889135</v>
+        <v>4293600.599889134</v>
       </c>
       <c r="AW4">
-        <v>4478536.965707054</v>
+        <v>4478536.965707052</v>
       </c>
       <c r="AX4">
-        <v>4480491.002377438</v>
+        <v>4480491.002377436</v>
       </c>
       <c r="AY4">
-        <v>4434882.353440782</v>
+        <v>4434882.353440779</v>
       </c>
       <c r="AZ4">
-        <v>4267560.345338702</v>
+        <v>4267560.3453387</v>
       </c>
       <c r="BA4">
-        <v>3901325.572316344</v>
+        <v>3901325.572316343</v>
       </c>
       <c r="BB4">
-        <v>3125150.501268613</v>
+        <v>3125150.50126861</v>
       </c>
       <c r="BC4">
-        <v>2650007.920462157</v>
+        <v>2650007.920462155</v>
       </c>
       <c r="BD4">
-        <v>2395795.3105785</v>
+        <v>2395795.310578498</v>
       </c>
       <c r="BE4">
-        <v>2164845.29530646</v>
+        <v>2164845.295306458</v>
       </c>
       <c r="BF4">
-        <v>1911777.973424783</v>
+        <v>1911777.973424782</v>
       </c>
       <c r="BG4">
-        <v>1579272.585391206</v>
+        <v>1579272.585391205</v>
       </c>
       <c r="BH4">
-        <v>1426664.812879043</v>
+        <v>1426664.812879042</v>
       </c>
       <c r="BI4">
-        <v>1318935.057713228</v>
+        <v>1318935.057713227</v>
       </c>
       <c r="BJ4">
-        <v>1256065.726650146</v>
+        <v>1256065.726650145</v>
       </c>
       <c r="BK4">
-        <v>1237668.509123558</v>
+        <v>1237668.509123557</v>
       </c>
       <c r="BL4">
-        <v>1164655.183807272</v>
+        <v>1164655.183807271</v>
       </c>
       <c r="BM4">
         <v>1343898.236572648</v>
       </c>
       <c r="BN4">
-        <v>1599405.90832984</v>
+        <v>1599405.908329839</v>
       </c>
       <c r="BO4">
-        <v>1927710.823063604</v>
+        <v>1927710.823063603</v>
       </c>
       <c r="BP4">
         <v>2315311.810549064</v>
       </c>
       <c r="BQ4">
-        <v>2679422.207431023</v>
+        <v>2679422.207431022</v>
       </c>
       <c r="BR4">
         <v>3034073.949479068</v>
       </c>
       <c r="BS4">
-        <v>3254625.103837165</v>
+        <v>3254625.103837163</v>
       </c>
       <c r="BT4">
-        <v>3398376.333973769</v>
+        <v>3398376.333973767</v>
       </c>
       <c r="BU4">
-        <v>3502754.919728169</v>
+        <v>3502754.919728168</v>
       </c>
       <c r="BV4">
-        <v>3503173.474681265</v>
+        <v>3503173.474681264</v>
       </c>
       <c r="BW4">
-        <v>3531988.657728178</v>
+        <v>3531988.657728177</v>
       </c>
       <c r="BX4">
-        <v>3497821.456168293</v>
+        <v>3497821.456168291</v>
       </c>
       <c r="BY4">
-        <v>3368535.69200368</v>
+        <v>3368535.692003679</v>
       </c>
       <c r="BZ4">
-        <v>3122191.946382822</v>
+        <v>3122191.94638282</v>
       </c>
       <c r="CA4">
-        <v>2766480.257688883</v>
+        <v>2766480.257688881</v>
       </c>
       <c r="CB4">
-        <v>2515560.809209663</v>
+        <v>2515560.809209662</v>
       </c>
       <c r="CC4">
-        <v>2425245.321872715</v>
+        <v>2425245.321872714</v>
       </c>
       <c r="CD4">
-        <v>2306795.590696631</v>
+        <v>2306795.590696629</v>
       </c>
       <c r="CE4">
-        <v>2170612.469508877</v>
+        <v>2170612.469508876</v>
       </c>
       <c r="CF4">
-        <v>2010119.130113509</v>
+        <v>2010119.130113508</v>
       </c>
       <c r="CG4">
-        <v>1876243.926967864</v>
+        <v>1876243.926967863</v>
       </c>
       <c r="CH4">
-        <v>1771653.186172091</v>
+        <v>1771653.186172089</v>
       </c>
       <c r="CI4">
-        <v>1694986.369049205</v>
+        <v>1694986.369049204</v>
       </c>
       <c r="CJ4">
-        <v>1640442.109926273</v>
+        <v>1640442.109926271</v>
       </c>
       <c r="CK4">
-        <v>1587386.453511807</v>
+        <v>1587386.453511806</v>
       </c>
       <c r="CL4">
-        <v>1603973.564472886</v>
+        <v>1603973.564472884</v>
       </c>
       <c r="CM4">
-        <v>1770604.620502298</v>
+        <v>1770604.620502297</v>
       </c>
       <c r="CN4">
         <v>2000059.439957388</v>
       </c>
       <c r="CO4">
-        <v>2266870.43494812</v>
+        <v>2266870.434948119</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1519,13 +1519,13 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724032.564966476</v>
+        <v>1724032.564966474</v>
       </c>
       <c r="E5">
-        <v>1167870.216735991</v>
+        <v>1167870.21673599</v>
       </c>
       <c r="F5">
-        <v>1138582.351134651</v>
+        <v>1138582.35113465</v>
       </c>
       <c r="G5">
         <v>1090559.827325282</v>
@@ -1546,7 +1546,7 @@
         <v>1159107.101924699</v>
       </c>
       <c r="M5">
-        <v>1318428.379945173</v>
+        <v>1318428.379945172</v>
       </c>
       <c r="N5">
         <v>1377474.737964632</v>
@@ -1567,19 +1567,19 @@
         <v>45867176.15755987</v>
       </c>
       <c r="T5">
-        <v>45891459.27645923</v>
+        <v>45891459.27645922</v>
       </c>
       <c r="U5">
-        <v>45922057.17726885</v>
+        <v>45922057.17726884</v>
       </c>
       <c r="V5">
         <v>45960183.79527504</v>
       </c>
       <c r="W5">
-        <v>46007326.31081544</v>
+        <v>46007326.31081543</v>
       </c>
       <c r="X5">
-        <v>48223423.74293375</v>
+        <v>48223423.74293376</v>
       </c>
       <c r="Y5">
         <v>48295010.52424984</v>
@@ -1588,10 +1588,10 @@
         <v>48383588.73983262</v>
       </c>
       <c r="AA5">
-        <v>48493936.34295234</v>
+        <v>48493936.34295233</v>
       </c>
       <c r="AB5">
-        <v>48632565.7280917</v>
+        <v>48632565.72809169</v>
       </c>
       <c r="AC5">
         <v>13322040.60559872</v>
@@ -1609,22 +1609,22 @@
         <v>14690527.41116675</v>
       </c>
       <c r="AH5">
-        <v>4595714.895696983</v>
+        <v>4595714.895696984</v>
       </c>
       <c r="AI5">
-        <v>4900359.352141101</v>
+        <v>4900359.352141103</v>
       </c>
       <c r="AJ5">
-        <v>5304383.130221157</v>
+        <v>5304383.130221159</v>
       </c>
       <c r="AK5">
-        <v>6391007.299997724</v>
+        <v>6391007.299997725</v>
       </c>
       <c r="AL5">
-        <v>7755457.069149657</v>
+        <v>7755457.069149658</v>
       </c>
       <c r="AM5">
-        <v>14220743.28085576</v>
+        <v>14220743.28085577</v>
       </c>
       <c r="AN5">
         <v>16383235.35581584</v>
@@ -1657,7 +1657,7 @@
         <v>48540714.5449511</v>
       </c>
       <c r="AX5">
-        <v>49277803.06941441</v>
+        <v>49277803.0694144</v>
       </c>
       <c r="AY5">
         <v>49244986.6336152</v>
@@ -1690,10 +1690,10 @@
         <v>28985002.40552568</v>
       </c>
       <c r="BI5">
-        <v>27846106.22937471</v>
+        <v>27846106.22937472</v>
       </c>
       <c r="BJ5">
-        <v>27343512.58051785</v>
+        <v>27343512.58051786</v>
       </c>
       <c r="BK5">
         <v>27487514.43303758</v>
@@ -1705,13 +1705,13 @@
         <v>29438915.63752145</v>
       </c>
       <c r="BN5">
-        <v>31221568.5049481</v>
+        <v>31221568.50494811</v>
       </c>
       <c r="BO5">
-        <v>33380365.26179884</v>
+        <v>33380365.26179885</v>
       </c>
       <c r="BP5">
-        <v>35812981.32731599</v>
+        <v>35812981.327316</v>
       </c>
       <c r="BQ5">
         <v>38413103.76917962</v>
@@ -1729,7 +1729,7 @@
         <v>48297686.20823826</v>
       </c>
       <c r="BV5">
-        <v>49964974.75594864</v>
+        <v>49964974.75594865</v>
       </c>
       <c r="BW5">
         <v>51438144.56317781</v>
@@ -1741,22 +1741,22 @@
         <v>53080639.62173788</v>
       </c>
       <c r="BZ5">
-        <v>53239741.39695466</v>
+        <v>53239741.39695467</v>
       </c>
       <c r="CA5">
-        <v>52672031.93333852</v>
+        <v>52672031.93333853</v>
       </c>
       <c r="CB5">
         <v>52066994.39787915</v>
       </c>
       <c r="CC5">
-        <v>51176721.35110088</v>
+        <v>51176721.35110089</v>
       </c>
       <c r="CD5">
         <v>50085252.49824399</v>
       </c>
       <c r="CE5">
-        <v>48885000.83732401</v>
+        <v>48885000.83732402</v>
       </c>
       <c r="CF5">
         <v>47137164.67275425</v>
@@ -1765,22 +1765,22 @@
         <v>46002273.57417694</v>
       </c>
       <c r="CH5">
-        <v>45030119.5860288</v>
+        <v>45030119.58602881</v>
       </c>
       <c r="CI5">
-        <v>44291207.07264364</v>
+        <v>44291207.07264365</v>
       </c>
       <c r="CJ5">
-        <v>43838989.60225461</v>
+        <v>43838989.60225462</v>
       </c>
       <c r="CK5">
-        <v>42873256.45606731</v>
+        <v>42873256.45606732</v>
       </c>
       <c r="CL5">
-        <v>43077240.57027946</v>
+        <v>43077240.57027947</v>
       </c>
       <c r="CM5">
-        <v>43611387.44985103</v>
+        <v>43611387.44985104</v>
       </c>
       <c r="CN5">
         <v>44452785.40707497</v>
@@ -1800,13 +1800,13 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465595600423425</v>
+        <v>0.8465595600423422</v>
       </c>
       <c r="E6">
-        <v>0.8595197651541708</v>
+        <v>0.8595197651541706</v>
       </c>
       <c r="F6">
-        <v>0.9079228934853474</v>
+        <v>0.9079228934853469</v>
       </c>
       <c r="G6">
         <v>0.9150867442220518</v>
@@ -1851,7 +1851,7 @@
         <v>1.348558525759459</v>
       </c>
       <c r="U6">
-        <v>1.382227167008884</v>
+        <v>1.382227167008883</v>
       </c>
       <c r="V6">
         <v>1.41594547572122</v>
@@ -1860,7 +1860,7 @@
         <v>1.449777358432138</v>
       </c>
       <c r="X6">
-        <v>1.481949353417499</v>
+        <v>1.481949353417498</v>
       </c>
       <c r="Y6">
         <v>1.514524065004068</v>
@@ -1872,7 +1872,7 @@
         <v>1.579899270867789</v>
       </c>
       <c r="AB6">
-        <v>1.612543805337134</v>
+        <v>1.612543805337133</v>
       </c>
       <c r="AC6">
         <v>1.558049130040222</v>
@@ -1911,13 +1911,13 @@
         <v>1.928225660812672</v>
       </c>
       <c r="AO6">
-        <v>1.969284169565291</v>
+        <v>1.96928416956529</v>
       </c>
       <c r="AP6">
         <v>2.011663671699302</v>
       </c>
       <c r="AQ6">
-        <v>2.055761065258546</v>
+        <v>2.055761065258545</v>
       </c>
       <c r="AR6">
         <v>2.12128975095429</v>
@@ -1947,7 +1947,7 @@
         <v>2.434375966692778</v>
       </c>
       <c r="BA6">
-        <v>2.463404810291925</v>
+        <v>2.463404810291924</v>
       </c>
       <c r="BB6">
         <v>2.487596392448098</v>
@@ -1959,7 +1959,7 @@
         <v>2.552606625874561</v>
       </c>
       <c r="BE6">
-        <v>2.588320118189146</v>
+        <v>2.588320118189145</v>
       </c>
       <c r="BF6">
         <v>2.623546534012025</v>
@@ -1977,10 +1977,10 @@
         <v>2.782865531599062</v>
       </c>
       <c r="BK6">
-        <v>2.827068227188552</v>
+        <v>2.827068227188551</v>
       </c>
       <c r="BL6">
-        <v>2.874448039645784</v>
+        <v>2.874448039645782</v>
       </c>
       <c r="BM6">
         <v>2.92457674970652</v>
@@ -2001,7 +2001,7 @@
         <v>3.206515643873682</v>
       </c>
       <c r="BS6">
-        <v>3.261605606764556</v>
+        <v>3.261605606764555</v>
       </c>
       <c r="BT6">
         <v>3.314534854248498</v>
@@ -2016,10 +2016,10 @@
         <v>3.472837191152023</v>
       </c>
       <c r="BX6">
-        <v>3.523974432120716</v>
+        <v>3.523974432120715</v>
       </c>
       <c r="BY6">
-        <v>3.572707279362288</v>
+        <v>3.572707279362287</v>
       </c>
       <c r="BZ6">
         <v>3.618562050998833</v>
@@ -2034,13 +2034,13 @@
         <v>3.763882634154156</v>
       </c>
       <c r="CD6">
-        <v>3.815546738350112</v>
+        <v>3.815546738350111</v>
       </c>
       <c r="CE6">
-        <v>3.866887212975916</v>
+        <v>3.866887212975915</v>
       </c>
       <c r="CF6">
-        <v>3.920191046686214</v>
+        <v>3.920191046686215</v>
       </c>
       <c r="CG6">
         <v>3.975049337479129</v>
@@ -2058,7 +2058,7 @@
         <v>4.205600865686969</v>
       </c>
       <c r="CL6">
-        <v>4.268823030231854</v>
+        <v>4.268823030231853</v>
       </c>
       <c r="CM6">
         <v>4.334341486380333</v>
@@ -2067,7 +2067,7 @@
         <v>4.40182482783023</v>
       </c>
       <c r="CO6">
-        <v>4.470597969291462</v>
+        <v>4.47059796929146</v>
       </c>
     </row>
     <row r="7" spans="1:93">
@@ -2080,19 +2080,19 @@
         <v>0.04257156378650376</v>
       </c>
       <c r="E7">
-        <v>0.0426893508996036</v>
+        <v>0.04268935089960362</v>
       </c>
       <c r="F7">
-        <v>0.0444242458668884</v>
+        <v>0.04442424586688841</v>
       </c>
       <c r="G7">
         <v>0.04489239275255666</v>
       </c>
       <c r="H7">
-        <v>0.04438162539431266</v>
+        <v>0.04438162539431267</v>
       </c>
       <c r="I7">
-        <v>0.04369931100974851</v>
+        <v>0.04369931100974852</v>
       </c>
       <c r="J7">
         <v>0.04501407986295272</v>
@@ -2107,91 +2107,91 @@
         <v>0.05433788080029255</v>
       </c>
       <c r="N7">
-        <v>0.05775329933001946</v>
+        <v>0.05775329933001947</v>
       </c>
       <c r="O7">
-        <v>0.05280635497867931</v>
+        <v>0.05280635497867932</v>
       </c>
       <c r="P7">
-        <v>0.05681962192148369</v>
+        <v>0.0568196219214837</v>
       </c>
       <c r="Q7">
-        <v>0.05823911108233022</v>
+        <v>0.05823911108233024</v>
       </c>
       <c r="R7">
-        <v>0.05966366575391521</v>
+        <v>0.05966366575391522</v>
       </c>
       <c r="S7">
-        <v>0.06461829272994804</v>
+        <v>0.06461829272994805</v>
       </c>
       <c r="T7">
-        <v>0.06630445664266005</v>
+        <v>0.06630445664266006</v>
       </c>
       <c r="U7">
-        <v>0.06798392777192439</v>
+        <v>0.0679839277719244</v>
       </c>
       <c r="V7">
-        <v>0.06966569927047217</v>
+        <v>0.06966569927047218</v>
       </c>
       <c r="W7">
-        <v>0.07135283937093398</v>
+        <v>0.07135283937093399</v>
       </c>
       <c r="X7">
-        <v>0.07291288459310566</v>
+        <v>0.07291288459310567</v>
       </c>
       <c r="Y7">
-        <v>0.07453423706345483</v>
+        <v>0.07453423706345484</v>
       </c>
       <c r="Z7">
-        <v>0.07615957751292383</v>
+        <v>0.07615957751292385</v>
       </c>
       <c r="AA7">
-        <v>0.07778715840277045</v>
+        <v>0.07778715840277048</v>
       </c>
       <c r="AB7">
-        <v>0.07941098906631024</v>
+        <v>0.07941098906631026</v>
       </c>
       <c r="AC7">
-        <v>0.07728764971888301</v>
+        <v>0.07728764971888302</v>
       </c>
       <c r="AD7">
-        <v>0.07893908166724674</v>
+        <v>0.07893908166724677</v>
       </c>
       <c r="AE7">
-        <v>0.08058752060649735</v>
+        <v>0.08058752060649738</v>
       </c>
       <c r="AF7">
-        <v>0.0822508663933528</v>
+        <v>0.08225086639335281</v>
       </c>
       <c r="AG7">
-        <v>0.08393290929234966</v>
+        <v>0.0839329092923497</v>
       </c>
       <c r="AH7">
-        <v>0.08462338459371667</v>
+        <v>0.0846233845937167</v>
       </c>
       <c r="AI7">
-        <v>0.08630565449462992</v>
+        <v>0.08630565449462999</v>
       </c>
       <c r="AJ7">
-        <v>0.08799272006822326</v>
+        <v>0.08799272006822328</v>
       </c>
       <c r="AK7">
         <v>0.08972528377544846</v>
       </c>
       <c r="AL7">
-        <v>0.09150253494050442</v>
+        <v>0.09150253494050445</v>
       </c>
       <c r="AM7">
-        <v>0.09373747940457716</v>
+        <v>0.09373747940457719</v>
       </c>
       <c r="AN7">
-        <v>0.09562101792769234</v>
+        <v>0.09562101792769236</v>
       </c>
       <c r="AO7">
-        <v>0.09761050253183544</v>
+        <v>0.09761050253183547</v>
       </c>
       <c r="AP7">
-        <v>0.09965972555706049</v>
+        <v>0.09965972555706051</v>
       </c>
       <c r="AQ7">
         <v>0.101787892872479</v>
@@ -2224,10 +2224,10 @@
         <v>0.1200570547612874</v>
       </c>
       <c r="BA7">
-        <v>0.1215155326472989</v>
+        <v>0.121515532647299</v>
       </c>
       <c r="BB7">
-        <v>0.1227667359341305</v>
+        <v>0.1227667359341306</v>
       </c>
       <c r="BC7">
         <v>0.1242776861014075</v>
@@ -2242,7 +2242,7 @@
         <v>0.129611056396164</v>
       </c>
       <c r="BG7">
-        <v>0.1314273618094919</v>
+        <v>0.131427361809492</v>
       </c>
       <c r="BH7">
         <v>0.1333839757057342</v>
@@ -2254,13 +2254,13 @@
         <v>0.1375257001821836</v>
       </c>
       <c r="BK7">
-        <v>0.1396917846108578</v>
+        <v>0.1396917846108579</v>
       </c>
       <c r="BL7">
-        <v>0.1419999711391819</v>
+        <v>0.141999971139182</v>
       </c>
       <c r="BM7">
-        <v>0.1444328805664906</v>
+        <v>0.1444328805664907</v>
       </c>
       <c r="BN7">
         <v>0.1469485598975707</v>
@@ -2272,10 +2272,10 @@
         <v>0.152272816834261</v>
       </c>
       <c r="BQ7">
-        <v>0.1551916469497781</v>
+        <v>0.1551916469497782</v>
       </c>
       <c r="BR7">
-        <v>0.1580304558758044</v>
+        <v>0.1580304558758045</v>
       </c>
       <c r="BS7">
         <v>0.1606852151682839</v>
@@ -2302,10 +2302,10 @@
         <v>0.1779960668298724</v>
       </c>
       <c r="CA7">
-        <v>0.1802632373459554</v>
+        <v>0.1802632373459555</v>
       </c>
       <c r="CB7">
-        <v>0.1826168967794157</v>
+        <v>0.1826168967794158</v>
       </c>
       <c r="CC7">
         <v>0.1851253463889717</v>
@@ -2326,7 +2326,7 @@
         <v>0.1982273540902579</v>
       </c>
       <c r="CI7">
-        <v>0.2010034123718231</v>
+        <v>0.2010034123718232</v>
       </c>
       <c r="CJ7">
         <v>0.2038196260314357</v>
@@ -2341,7 +2341,7 @@
         <v>0.2130074871013762</v>
       </c>
       <c r="CN7">
-        <v>0.2162746702829923</v>
+        <v>0.2162746702829924</v>
       </c>
       <c r="CO7">
         <v>0.2195999769240498</v>
@@ -2354,274 +2354,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804740.9677305479</v>
+        <v>804740.9677305474</v>
       </c>
       <c r="E8">
-        <v>568037.7697088737</v>
+        <v>568037.7697088734</v>
       </c>
       <c r="F8">
-        <v>362791.2321568378</v>
+        <v>362791.2321568377</v>
       </c>
       <c r="G8">
         <v>301166.958270872</v>
       </c>
       <c r="H8">
-        <v>323074.4777282403</v>
+        <v>323074.4777282401</v>
       </c>
       <c r="I8">
-        <v>254680.7269388545</v>
+        <v>254680.7269388544</v>
       </c>
       <c r="J8">
-        <v>287536.8533744944</v>
+        <v>287536.8533744942</v>
       </c>
       <c r="K8">
-        <v>249654.9143406734</v>
+        <v>249654.9143406733</v>
       </c>
       <c r="L8">
-        <v>298541.8587462652</v>
+        <v>298541.858746265</v>
       </c>
       <c r="M8">
-        <v>261440.2237010561</v>
+        <v>261440.223701056</v>
       </c>
       <c r="N8">
-        <v>299683.0665057349</v>
+        <v>299683.0665057348</v>
       </c>
       <c r="O8">
-        <v>403426.0539266486</v>
+        <v>403426.0539266484</v>
       </c>
       <c r="P8">
-        <v>1730577.548936774</v>
+        <v>1730577.548936773</v>
       </c>
       <c r="Q8">
-        <v>1740532.243259605</v>
+        <v>1740532.243259604</v>
       </c>
       <c r="R8">
-        <v>1756812.933970503</v>
+        <v>1756812.933970502</v>
       </c>
       <c r="S8">
-        <v>5713461.608075348</v>
+        <v>5713461.608075344</v>
       </c>
       <c r="T8">
-        <v>5741795.27533898</v>
+        <v>5741795.275338978</v>
       </c>
       <c r="U8">
-        <v>5759785.389981049</v>
+        <v>5759785.389981045</v>
       </c>
       <c r="V8">
-        <v>5778092.258635242</v>
+        <v>5778092.258635239</v>
       </c>
       <c r="W8">
-        <v>5801008.173470938</v>
+        <v>5801008.173470936</v>
       </c>
       <c r="X8">
-        <v>5505999.1039105</v>
+        <v>5505999.103910497</v>
       </c>
       <c r="Y8">
-        <v>5530424.521999759</v>
+        <v>5530424.521999756</v>
       </c>
       <c r="Z8">
-        <v>5556081.478035109</v>
+        <v>5556081.478035104</v>
       </c>
       <c r="AA8">
-        <v>5584963.693900907</v>
+        <v>5584963.693900904</v>
       </c>
       <c r="AB8">
-        <v>5612676.010971833</v>
+        <v>5612676.01097183</v>
       </c>
       <c r="AC8">
-        <v>1102408.41083662</v>
+        <v>1102408.410836619</v>
       </c>
       <c r="AD8">
         <v>1124577.598904702</v>
       </c>
       <c r="AE8">
-        <v>1147775.293128664</v>
+        <v>1147775.293128663</v>
       </c>
       <c r="AF8">
-        <v>1173438.460182815</v>
+        <v>1173438.460182814</v>
       </c>
       <c r="AG8">
         <v>1206081.187123298</v>
       </c>
       <c r="AH8">
-        <v>6058.403325266721</v>
+        <v>6058.403325266582</v>
       </c>
       <c r="AI8">
-        <v>-20571.63928605934</v>
+        <v>-20571.63928605946</v>
       </c>
       <c r="AJ8">
-        <v>-43576.78945430986</v>
+        <v>-43576.78945430991</v>
       </c>
       <c r="AK8">
-        <v>16870.87301062388</v>
+        <v>16870.87301062372</v>
       </c>
       <c r="AL8">
-        <v>88468.05461797294</v>
+        <v>88468.05461797271</v>
       </c>
       <c r="AM8">
-        <v>901132.0428885786</v>
+        <v>901132.0428885778</v>
       </c>
       <c r="AN8">
-        <v>1058273.887631907</v>
+        <v>1058273.887631906</v>
       </c>
       <c r="AO8">
-        <v>1253073.804424354</v>
+        <v>1253073.804424353</v>
       </c>
       <c r="AP8">
-        <v>1484515.385947491</v>
+        <v>1484515.38594749</v>
       </c>
       <c r="AQ8">
-        <v>1782510.815857244</v>
+        <v>1782510.815857243</v>
       </c>
       <c r="AR8">
-        <v>2612410.560703064</v>
+        <v>2612410.560703062</v>
       </c>
       <c r="AS8">
-        <v>2922477.483580226</v>
+        <v>2922477.483580223</v>
       </c>
       <c r="AT8">
-        <v>3103766.997064438</v>
+        <v>3103766.997064434</v>
       </c>
       <c r="AU8">
-        <v>3238523.97545909</v>
+        <v>3238523.975459087</v>
       </c>
       <c r="AV8">
-        <v>3333768.012110041</v>
+        <v>3333768.012110037</v>
       </c>
       <c r="AW8">
-        <v>3553356.66951951</v>
+        <v>3553356.669519506</v>
       </c>
       <c r="AX8">
-        <v>3561491.355221201</v>
+        <v>3561491.355221198</v>
       </c>
       <c r="AY8">
-        <v>3526800.658303998</v>
+        <v>3526800.658303995</v>
       </c>
       <c r="AZ8">
-        <v>3416774.278809774</v>
+        <v>3416774.27880977</v>
       </c>
       <c r="BA8">
-        <v>3197655.701709103</v>
+        <v>3197655.701709101</v>
       </c>
       <c r="BB8">
-        <v>2786816.270486475</v>
+        <v>2786816.270486472</v>
       </c>
       <c r="BC8">
-        <v>2501576.936416639</v>
+        <v>2501576.936416636</v>
       </c>
       <c r="BD8">
-        <v>2320666.317542681</v>
+        <v>2320666.317542678</v>
       </c>
       <c r="BE8">
-        <v>2151957.527435287</v>
+        <v>2151957.527435285</v>
       </c>
       <c r="BF8">
-        <v>1979201.935429506</v>
+        <v>1979201.935429504</v>
       </c>
       <c r="BG8">
-        <v>1755375.702390947</v>
+        <v>1755375.702390946</v>
       </c>
       <c r="BH8">
-        <v>1647993.874483932</v>
+        <v>1647993.87448393</v>
       </c>
       <c r="BI8">
-        <v>1579100.160090918</v>
+        <v>1579100.160090916</v>
       </c>
       <c r="BJ8">
-        <v>1548509.012489441</v>
+        <v>1548509.012489439</v>
       </c>
       <c r="BK8">
-        <v>1557832.550575938</v>
+        <v>1557832.550575937</v>
       </c>
       <c r="BL8">
-        <v>1545755.330728162</v>
+        <v>1545755.33072816</v>
       </c>
       <c r="BM8">
-        <v>1650719.096912754</v>
+        <v>1650719.096912753</v>
       </c>
       <c r="BN8">
-        <v>1817871.253283038</v>
+        <v>1817871.253283036</v>
       </c>
       <c r="BO8">
-        <v>2035338.86239268</v>
+        <v>2035338.862392679</v>
       </c>
       <c r="BP8">
-        <v>2304356.919408833</v>
+        <v>2304356.919408831</v>
       </c>
       <c r="BQ8">
-        <v>2555604.662232647</v>
+        <v>2555604.662232644</v>
       </c>
       <c r="BR8">
-        <v>2814458.004078787</v>
+        <v>2814458.004078785</v>
       </c>
       <c r="BS8">
-        <v>2994128.327215282</v>
+        <v>2994128.327215279</v>
       </c>
       <c r="BT8">
-        <v>3119647.475462748</v>
+        <v>3119647.475462745</v>
       </c>
       <c r="BU8">
-        <v>3216778.560431173</v>
+        <v>3216778.560431169</v>
       </c>
       <c r="BV8">
-        <v>3244909.33217973</v>
+        <v>3244909.332179727</v>
       </c>
       <c r="BW8">
-        <v>3286487.240276634</v>
+        <v>3286487.240276631</v>
       </c>
       <c r="BX8">
-        <v>3285208.963461958</v>
+        <v>3285208.963461955</v>
       </c>
       <c r="BY8">
-        <v>3228583.517437401</v>
+        <v>3228583.517437398</v>
       </c>
       <c r="BZ8">
-        <v>3108548.839320024</v>
+        <v>3108548.839320022</v>
       </c>
       <c r="CA8">
-        <v>2898428.389054426</v>
+        <v>2898428.389054423</v>
       </c>
       <c r="CB8">
-        <v>2744856.922490622</v>
+        <v>2744856.922490619</v>
       </c>
       <c r="CC8">
-        <v>2692998.636215806</v>
+        <v>2692998.636215804</v>
       </c>
       <c r="CD8">
-        <v>2623123.069192939</v>
+        <v>2623123.069192936</v>
       </c>
       <c r="CE8">
-        <v>2540775.016174922</v>
+        <v>2540775.016174919</v>
       </c>
       <c r="CF8">
-        <v>2401275.573015666</v>
+        <v>2401275.573015664</v>
       </c>
       <c r="CG8">
-        <v>2318394.975635015</v>
+        <v>2318394.975635013</v>
       </c>
       <c r="CH8">
-        <v>2251942.920390316</v>
+        <v>2251942.920390313</v>
       </c>
       <c r="CI8">
-        <v>2204872.463987488</v>
+        <v>2204872.463987486</v>
       </c>
       <c r="CJ8">
-        <v>2177129.402366415</v>
+        <v>2177129.402366412</v>
       </c>
       <c r="CK8">
-        <v>2095366.446771009</v>
+        <v>2095366.446771007</v>
       </c>
       <c r="CL8">
-        <v>2096803.6319739</v>
+        <v>2096803.631973898</v>
       </c>
       <c r="CM8">
-        <v>2158328.364451444</v>
+        <v>2158328.364451442</v>
       </c>
       <c r="CN8">
-        <v>2300212.671844397</v>
+        <v>2300212.671844395</v>
       </c>
       <c r="CO8">
-        <v>2475242.45398648</v>
+        <v>2475242.453986479</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -2637,268 +2637,268 @@
         <v>104407.5498637445</v>
       </c>
       <c r="F9">
-        <v>79462.85854079791</v>
+        <v>79462.85854079796</v>
       </c>
       <c r="G9">
-        <v>79074.67844559321</v>
+        <v>79074.67844559331</v>
       </c>
       <c r="H9">
-        <v>72858.47414670886</v>
+        <v>72858.47414670895</v>
       </c>
       <c r="I9">
-        <v>69876.18148805291</v>
+        <v>69876.18148805301</v>
       </c>
       <c r="J9">
-        <v>63965.83577985089</v>
+        <v>63965.83577985098</v>
       </c>
       <c r="K9">
-        <v>66781.59729629563</v>
+        <v>66781.59729629572</v>
       </c>
       <c r="L9">
-        <v>80729.90275875722</v>
+        <v>80729.90275875732</v>
       </c>
       <c r="M9">
-        <v>80746.74809285071</v>
+        <v>80746.7480928508</v>
       </c>
       <c r="N9">
-        <v>85910.00633481827</v>
+        <v>85910.00633481833</v>
       </c>
       <c r="O9">
-        <v>98698.95227836959</v>
+        <v>98698.95227836966</v>
       </c>
       <c r="P9">
-        <v>974341.7043727693</v>
+        <v>974341.70437277</v>
       </c>
       <c r="Q9">
-        <v>975346.6557874992</v>
+        <v>975346.6557875004</v>
       </c>
       <c r="R9">
-        <v>976657.7574295816</v>
+        <v>976657.7574295826</v>
       </c>
       <c r="S9">
-        <v>3177122.64809794</v>
+        <v>3177122.648097944</v>
       </c>
       <c r="T9">
-        <v>3179237.274423781</v>
+        <v>3179237.274423785</v>
       </c>
       <c r="U9">
-        <v>3181853.454584063</v>
+        <v>3181853.454584067</v>
       </c>
       <c r="V9">
-        <v>3185046.076518698</v>
+        <v>3185046.076518701</v>
       </c>
       <c r="W9">
-        <v>3188900.700046039</v>
+        <v>3188900.700046042</v>
       </c>
       <c r="X9">
-        <v>3439561.597175415</v>
+        <v>3439561.59717542</v>
       </c>
       <c r="Y9">
-        <v>3445091.110500223</v>
+        <v>3445091.110500227</v>
       </c>
       <c r="Z9">
-        <v>3451719.329103443</v>
+        <v>3451719.329103447</v>
       </c>
       <c r="AA9">
-        <v>3459717.807060217</v>
+        <v>3459717.807060222</v>
       </c>
       <c r="AB9">
-        <v>3469472.853998217</v>
+        <v>3469472.853998221</v>
       </c>
       <c r="AC9">
-        <v>1084931.914490103</v>
+        <v>1084931.914490105</v>
       </c>
       <c r="AD9">
-        <v>1100060.963564001</v>
+        <v>1100060.963564002</v>
       </c>
       <c r="AE9">
-        <v>1119305.58640409</v>
+        <v>1119305.586404092</v>
       </c>
       <c r="AF9">
-        <v>1144056.631180669</v>
+        <v>1144056.631180671</v>
       </c>
       <c r="AG9">
-        <v>1176095.822662649</v>
+        <v>1176095.82266265</v>
       </c>
       <c r="AH9">
-        <v>464393.4465012364</v>
+        <v>464393.4465012374</v>
       </c>
       <c r="AI9">
-        <v>495479.3699785912</v>
+        <v>495479.3699785924</v>
       </c>
       <c r="AJ9">
-        <v>536678.3774141329</v>
+        <v>536678.3774141342</v>
       </c>
       <c r="AK9">
-        <v>608643.0550905016</v>
+        <v>608643.0550905031</v>
       </c>
       <c r="AL9">
-        <v>697865.8212831225</v>
+        <v>697865.8212831242</v>
       </c>
       <c r="AM9">
-        <v>1270781.269553287</v>
+        <v>1270781.26955329</v>
       </c>
       <c r="AN9">
-        <v>1422408.401401787</v>
+        <v>1422408.401401789</v>
       </c>
       <c r="AO9">
-        <v>1596705.211909167</v>
+        <v>1596705.21190917</v>
       </c>
       <c r="AP9">
-        <v>1791308.035165218</v>
+        <v>1791308.035165221</v>
       </c>
       <c r="AQ9">
-        <v>2001691.243750243</v>
+        <v>2001691.243750246</v>
       </c>
       <c r="AR9">
-        <v>2762836.422791659</v>
+        <v>2762836.422791663</v>
       </c>
       <c r="AS9">
-        <v>2982187.752201339</v>
+        <v>2982187.752201344</v>
       </c>
       <c r="AT9">
-        <v>3190912.109521749</v>
+        <v>3190912.109521755</v>
       </c>
       <c r="AU9">
-        <v>3377561.959454696</v>
+        <v>3377561.959454701</v>
       </c>
       <c r="AV9">
-        <v>3531001.646038157</v>
+        <v>3531001.646038163</v>
       </c>
       <c r="AW9">
-        <v>3819787.524049068</v>
+        <v>3819787.524049074</v>
       </c>
       <c r="AX9">
-        <v>3880967.921492298</v>
+        <v>3880967.921492304</v>
       </c>
       <c r="AY9">
-        <v>3889551.959987108</v>
+        <v>3889551.959987115</v>
       </c>
       <c r="AZ9">
-        <v>3846508.435972274</v>
+        <v>3846508.43597228</v>
       </c>
       <c r="BA9">
-        <v>3756717.670503196</v>
+        <v>3756717.670503202</v>
       </c>
       <c r="BB9">
-        <v>3539204.944512174</v>
+        <v>3539204.94451218</v>
       </c>
       <c r="BC9">
-        <v>3383032.166204079</v>
+        <v>3383032.166204085</v>
       </c>
       <c r="BD9">
-        <v>3211310.299357649</v>
+        <v>3211310.299357655</v>
       </c>
       <c r="BE9">
-        <v>3037092.477230378</v>
+        <v>3037092.477230384</v>
       </c>
       <c r="BF9">
-        <v>2873393.166747578</v>
+        <v>2873393.166747582</v>
       </c>
       <c r="BG9">
-        <v>2687976.211818448</v>
+        <v>2687976.211818453</v>
       </c>
       <c r="BH9">
-        <v>2579866.11723976</v>
+        <v>2579866.117239765</v>
       </c>
       <c r="BI9">
-        <v>2512323.500180938</v>
+        <v>2512323.500180942</v>
       </c>
       <c r="BJ9">
-        <v>2489699.182739056</v>
+        <v>2489699.182739061</v>
       </c>
       <c r="BK9">
-        <v>2512971.191994689</v>
+        <v>2512971.191994693</v>
       </c>
       <c r="BL9">
-        <v>2585728.746361799</v>
+        <v>2585728.746361804</v>
       </c>
       <c r="BM9">
-        <v>2692543.202980909</v>
+        <v>2692543.202980914</v>
       </c>
       <c r="BN9">
-        <v>2833220.145872347</v>
+        <v>2833220.145872351</v>
       </c>
       <c r="BO9">
-        <v>3001008.790949096</v>
+        <v>3001008.790949101</v>
       </c>
       <c r="BP9">
-        <v>3188507.416567066</v>
+        <v>3188507.416567072</v>
       </c>
       <c r="BQ9">
-        <v>3396552.054094763</v>
+        <v>3396552.054094768</v>
       </c>
       <c r="BR9">
-        <v>3599750.865026146</v>
+        <v>3599750.865026153</v>
       </c>
       <c r="BS9">
-        <v>3798884.944162026</v>
+        <v>3798884.944162033</v>
       </c>
       <c r="BT9">
-        <v>3986572.877179362</v>
+        <v>3986572.877179369</v>
       </c>
       <c r="BU9">
-        <v>4156270.429991136</v>
+        <v>4156270.429991143</v>
       </c>
       <c r="BV9">
-        <v>4292995.192060464</v>
+        <v>4292995.192060472</v>
       </c>
       <c r="BW9">
-        <v>4411594.60897409</v>
+        <v>4411594.608974096</v>
       </c>
       <c r="BX9">
-        <v>4499791.307344227</v>
+        <v>4499791.307344235</v>
       </c>
       <c r="BY9">
-        <v>4556416.681787266</v>
+        <v>4556416.681787277</v>
       </c>
       <c r="BZ9">
-        <v>4581983.108858408</v>
+        <v>4581983.108858416</v>
       </c>
       <c r="CA9">
-        <v>4550817.894525786</v>
+        <v>4550817.894525793</v>
       </c>
       <c r="CB9">
-        <v>4522347.798407606</v>
+        <v>4522347.798407615</v>
       </c>
       <c r="CC9">
-        <v>4473714.092115973</v>
+        <v>4473714.092115983</v>
       </c>
       <c r="CD9">
-        <v>4410877.07146168</v>
+        <v>4410877.071461688</v>
       </c>
       <c r="CE9">
-        <v>4340402.909383075</v>
+        <v>4340402.909383084</v>
       </c>
       <c r="CF9">
-        <v>4216610.15310067</v>
+        <v>4216610.153100678</v>
       </c>
       <c r="CG9">
-        <v>4151000.281670121</v>
+        <v>4151000.281670129</v>
       </c>
       <c r="CH9">
-        <v>4097083.630341178</v>
+        <v>4097083.630341186</v>
       </c>
       <c r="CI9">
-        <v>4059873.737847588</v>
+        <v>4059873.737847596</v>
       </c>
       <c r="CJ9">
-        <v>4043162.277941492</v>
+        <v>4043162.2779415</v>
       </c>
       <c r="CK9">
-        <v>3965563.761067598</v>
+        <v>3965563.761067606</v>
       </c>
       <c r="CL9">
-        <v>3995684.428625711</v>
+        <v>3995684.428625719</v>
       </c>
       <c r="CM9">
-        <v>4049335.18036629</v>
+        <v>4049335.180366298</v>
       </c>
       <c r="CN9">
-        <v>4124862.121903594</v>
+        <v>4124862.121903601</v>
       </c>
       <c r="CO9">
-        <v>4219507.671219076</v>
+        <v>4219507.671219083</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -2918,7 +2918,7 @@
         <v>10.83048540273047</v>
       </c>
       <c r="F10">
-        <v>11.44039502446357</v>
+        <v>11.44039502446356</v>
       </c>
       <c r="G10">
         <v>11.53066401416772</v>
@@ -2927,7 +2927,7 @@
         <v>11.20036024439167</v>
       </c>
       <c r="I10">
-        <v>11.09945931520137</v>
+        <v>11.09945931520136</v>
       </c>
       <c r="J10">
         <v>11.61927049194317</v>
@@ -2936,7 +2936,7 @@
         <v>12.81505730558932</v>
       </c>
       <c r="L10">
-        <v>12.96692266297507</v>
+        <v>12.96692266297506</v>
       </c>
       <c r="M10">
         <v>13.81049950892853</v>
@@ -2945,13 +2945,13 @@
         <v>14.67041469893191</v>
       </c>
       <c r="O10">
-        <v>13.40898830984658</v>
+        <v>13.40898830984657</v>
       </c>
       <c r="P10">
-        <v>14.46828652075572</v>
+        <v>14.46828652075571</v>
       </c>
       <c r="Q10">
-        <v>14.82156729941844</v>
+        <v>14.82156729941843</v>
       </c>
       <c r="R10">
         <v>15.17620798416812</v>
@@ -2963,7 +2963,7 @@
         <v>16.99267895875062</v>
       </c>
       <c r="U10">
-        <v>17.41692484856592</v>
+        <v>17.41692484856591</v>
       </c>
       <c r="V10">
         <v>17.84179657940764</v>
@@ -2972,10 +2972,10 @@
         <v>18.26809941350448</v>
       </c>
       <c r="X10">
-        <v>18.67348662644795</v>
+        <v>18.67348662644794</v>
       </c>
       <c r="Y10">
-        <v>19.08394831987186</v>
+        <v>19.08394831987185</v>
       </c>
       <c r="Z10">
         <v>19.49549770037632</v>
@@ -2990,10 +2990,10 @@
         <v>19.63239130005439</v>
       </c>
       <c r="AD10">
-        <v>20.05179863547451</v>
+        <v>20.0517986354745</v>
       </c>
       <c r="AE10">
-        <v>20.47064570728048</v>
+        <v>20.47064570728047</v>
       </c>
       <c r="AF10">
         <v>20.89366500628354</v>
@@ -3002,10 +3002,10 @@
         <v>21.32194436356258</v>
       </c>
       <c r="AH10">
-        <v>21.45477291517066</v>
+        <v>21.45477291517065</v>
       </c>
       <c r="AI10">
-        <v>21.88320556867838</v>
+        <v>21.88320556867837</v>
       </c>
       <c r="AJ10">
         <v>22.31323499810514</v>
@@ -3014,16 +3014,16 @@
         <v>22.75738208117708</v>
       </c>
       <c r="AL10">
-        <v>23.21408668419668</v>
+        <v>23.21408668419667</v>
       </c>
       <c r="AM10">
-        <v>23.8082413707222</v>
+        <v>23.80824137072219</v>
       </c>
       <c r="AN10">
         <v>24.29684658718243</v>
       </c>
       <c r="AO10">
-        <v>24.81420941899977</v>
+        <v>24.81420941899976</v>
       </c>
       <c r="AP10">
         <v>25.34821759175548</v>
@@ -3035,19 +3035,19 @@
         <v>26.72957459977816</v>
       </c>
       <c r="AS10">
-        <v>27.3011548316873</v>
+        <v>27.30115483168728</v>
       </c>
       <c r="AT10">
         <v>27.80772139533896</v>
       </c>
       <c r="AU10">
-        <v>28.29476024767641</v>
+        <v>28.2947602476764</v>
       </c>
       <c r="AV10">
-        <v>28.76635192702349</v>
+        <v>28.76635192702348</v>
       </c>
       <c r="AW10">
-        <v>29.31109035006927</v>
+        <v>29.31109035006926</v>
       </c>
       <c r="AX10">
         <v>29.78816575325272</v>
@@ -3056,25 +3056,25 @@
         <v>30.24968704218711</v>
       </c>
       <c r="AZ10">
-        <v>30.67465629169666</v>
+        <v>30.67465629169665</v>
       </c>
       <c r="BA10">
         <v>31.04043783576889</v>
       </c>
       <c r="BB10">
-        <v>31.34526686708782</v>
+        <v>31.3452668670878</v>
       </c>
       <c r="BC10">
-        <v>31.72137133424119</v>
+        <v>31.72137133424118</v>
       </c>
       <c r="BD10">
-        <v>32.1644363762696</v>
+        <v>32.16443637626959</v>
       </c>
       <c r="BE10">
         <v>32.61444866554402</v>
       </c>
       <c r="BF10">
-        <v>33.05832348707506</v>
+        <v>33.05832348707505</v>
       </c>
       <c r="BG10">
         <v>33.51310671796696</v>
@@ -3083,25 +3083,25 @@
         <v>34.00858700839128</v>
       </c>
       <c r="BI10">
-        <v>34.52827532087657</v>
+        <v>34.52827532087655</v>
       </c>
       <c r="BJ10">
         <v>35.06584227570298</v>
       </c>
       <c r="BK10">
-        <v>35.62282382371595</v>
+        <v>35.62282382371594</v>
       </c>
       <c r="BL10">
         <v>36.21983902686269</v>
       </c>
       <c r="BM10">
-        <v>36.85149205519431</v>
+        <v>36.8514920551943</v>
       </c>
       <c r="BN10">
         <v>37.50641101959815</v>
       </c>
       <c r="BO10">
-        <v>38.18805631565766</v>
+        <v>38.18805631565765</v>
       </c>
       <c r="BP10">
         <v>38.89696769842063</v>
@@ -3110,25 +3110,25 @@
         <v>39.66113014663831</v>
       </c>
       <c r="BR10">
-        <v>40.40409805860801</v>
+        <v>40.404098058608</v>
       </c>
       <c r="BS10">
         <v>41.09826596854496</v>
       </c>
       <c r="BT10">
-        <v>41.76520751601421</v>
+        <v>41.7652075160142</v>
       </c>
       <c r="BU10">
-        <v>42.42032415830331</v>
+        <v>42.4203241583033</v>
       </c>
       <c r="BV10">
-        <v>43.09364094120337</v>
+        <v>43.09364094120336</v>
       </c>
       <c r="BW10">
         <v>43.75991574560823</v>
       </c>
       <c r="BX10">
-        <v>44.40427689272854</v>
+        <v>44.40427689272853</v>
       </c>
       <c r="BY10">
         <v>45.01834117848546</v>
@@ -3137,7 +3137,7 @@
         <v>45.59613991562802</v>
       </c>
       <c r="CA10">
-        <v>46.17817496108538</v>
+        <v>46.17817496108535</v>
       </c>
       <c r="CB10">
         <v>46.78279142900475</v>
@@ -3149,37 +3149,37 @@
         <v>48.07826989961595</v>
       </c>
       <c r="CE10">
-        <v>48.72519191763877</v>
+        <v>48.72519191763875</v>
       </c>
       <c r="CF10">
         <v>49.39685348531129</v>
       </c>
       <c r="CG10">
-        <v>50.08810218224481</v>
+        <v>50.08810218224479</v>
       </c>
       <c r="CH10">
-        <v>50.79192986194149</v>
+        <v>50.79192986194148</v>
       </c>
       <c r="CI10">
-        <v>51.50773999010585</v>
+        <v>51.50773999010584</v>
       </c>
       <c r="CJ10">
-        <v>52.23515808056185</v>
+        <v>52.23515808056184</v>
       </c>
       <c r="CK10">
-        <v>52.99319530757199</v>
+        <v>52.99319530757197</v>
       </c>
       <c r="CL10">
-        <v>53.78983403304628</v>
+        <v>53.78983403304627</v>
       </c>
       <c r="CM10">
-        <v>54.61540746566918</v>
+        <v>54.61540746566917</v>
       </c>
       <c r="CN10">
-        <v>55.46573967922738</v>
+        <v>55.46573967922737</v>
       </c>
       <c r="CO10">
-        <v>56.33232417779585</v>
+        <v>56.33232417779584</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -3189,10 +3189,10 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364282694283792</v>
+        <v>0.5364282694283791</v>
       </c>
       <c r="E11">
-        <v>0.5379124605555353</v>
+        <v>0.5379124605555354</v>
       </c>
       <c r="F11">
         <v>0.559773219761088</v>
@@ -3201,10 +3201,10 @@
         <v>0.56567216265585</v>
       </c>
       <c r="H11">
-        <v>0.559236175210395</v>
+        <v>0.5592361752103951</v>
       </c>
       <c r="I11">
-        <v>0.5506385881836795</v>
+        <v>0.5506385881836796</v>
       </c>
       <c r="J11">
         <v>0.5672054961826349</v>
@@ -3228,7 +3228,7 @@
         <v>0.7159626930730479</v>
       </c>
       <c r="Q11">
-        <v>0.7338491422963824</v>
+        <v>0.7338491422963825</v>
       </c>
       <c r="R11">
         <v>0.7517994201160264</v>
@@ -3249,7 +3249,7 @@
         <v>0.8990903020265739</v>
       </c>
       <c r="X11">
-        <v>0.9187478453330957</v>
+        <v>0.9187478453330954</v>
       </c>
       <c r="Y11">
         <v>0.9391778982239065</v>
@@ -3258,7 +3258,7 @@
         <v>0.9596582021402273</v>
       </c>
       <c r="AA11">
-        <v>0.9801667370033963</v>
+        <v>0.980166737003396</v>
       </c>
       <c r="AB11">
         <v>1.000628016674864</v>
@@ -3303,7 +3303,7 @@
         <v>1.229953243291162</v>
       </c>
       <c r="AP11">
-        <v>1.255774732175316</v>
+        <v>1.255774732175315</v>
       </c>
       <c r="AQ11">
         <v>1.282590968379114</v>
@@ -3330,7 +3330,7 @@
         <v>1.468953558082166</v>
       </c>
       <c r="AY11">
-        <v>1.491689465556654</v>
+        <v>1.491689465556653</v>
       </c>
       <c r="AZ11">
         <v>1.512793808591135</v>
@@ -3342,7 +3342,7 @@
         <v>1.546937482277647</v>
       </c>
       <c r="BC11">
-        <v>1.565976397255955</v>
+        <v>1.565976397255956</v>
       </c>
       <c r="BD11">
         <v>1.588255024978531</v>
@@ -3387,13 +3387,13 @@
         <v>1.955511595028638</v>
       </c>
       <c r="BR11">
-        <v>1.9912823589842</v>
+        <v>1.991282358984199</v>
       </c>
       <c r="BS11">
         <v>2.024733982705504</v>
       </c>
       <c r="BT11">
-        <v>2.056907128760161</v>
+        <v>2.056907128760162</v>
       </c>
       <c r="BU11">
         <v>2.088549494692791</v>
@@ -3411,7 +3411,7 @@
         <v>2.214606769580509</v>
       </c>
       <c r="BZ11">
-        <v>2.242861516045053</v>
+        <v>2.242861516045052</v>
       </c>
       <c r="CA11">
         <v>2.271429279318693</v>
@@ -3423,7 +3423,7 @@
         <v>2.332694887338104</v>
       </c>
       <c r="CD11">
-        <v>2.364643096354552</v>
+        <v>2.364643096354551</v>
       </c>
       <c r="CE11">
         <v>2.396416800247187</v>
@@ -3450,7 +3450,7 @@
         <v>2.643991488692453</v>
       </c>
       <c r="CM11">
-        <v>2.684027259466171</v>
+        <v>2.68402725946617</v>
       </c>
       <c r="CN11">
         <v>2.725195806358391</v>
@@ -3469,7 +3469,7 @@
         <v>250266.6060144358</v>
       </c>
       <c r="E12">
-        <v>245201.4719967383</v>
+        <v>245201.4719967381</v>
       </c>
       <c r="F12">
         <v>330275.3573162382</v>
@@ -3484,10 +3484,10 @@
         <v>391970.7382737871</v>
       </c>
       <c r="J12">
-        <v>449443.856667648</v>
+        <v>449443.8566676478</v>
       </c>
       <c r="K12">
-        <v>429719.02820195</v>
+        <v>429719.0282019498</v>
       </c>
       <c r="L12">
         <v>463791.6206287135</v>
@@ -3502,13 +3502,13 @@
         <v>407077.5566994909</v>
       </c>
       <c r="P12">
-        <v>3558613.027506164</v>
+        <v>3558613.027506165</v>
       </c>
       <c r="Q12">
         <v>3562838.437003264</v>
       </c>
       <c r="R12">
-        <v>3568282.212186369</v>
+        <v>3568282.21218637</v>
       </c>
       <c r="S12">
         <v>11727134.12238092</v>
@@ -3520,7 +3520,7 @@
         <v>11748515.81130306</v>
       </c>
       <c r="V12">
-        <v>11761424.81416851</v>
+        <v>11761424.81416852</v>
       </c>
       <c r="W12">
         <v>11774130.86888866</v>
@@ -3529,61 +3529,61 @@
         <v>13781635.62555437</v>
       </c>
       <c r="Y12">
-        <v>13795093.50903868</v>
+        <v>13795093.50903869</v>
       </c>
       <c r="Z12">
-        <v>13810944.64116427</v>
+        <v>13810944.64116428</v>
       </c>
       <c r="AA12">
-        <v>13831722.09643337</v>
+        <v>13831722.09643338</v>
       </c>
       <c r="AB12">
-        <v>13856827.8732358</v>
+        <v>13856827.87323581</v>
       </c>
       <c r="AC12">
-        <v>5452387.743672122</v>
+        <v>5452387.743672124</v>
       </c>
       <c r="AD12">
-        <v>5486283.17840177</v>
+        <v>5486283.178401772</v>
       </c>
       <c r="AE12">
-        <v>5529257.382107054</v>
+        <v>5529257.382107055</v>
       </c>
       <c r="AF12">
-        <v>5584887.453929924</v>
+        <v>5584887.453929925</v>
       </c>
       <c r="AG12">
-        <v>5649587.157920713</v>
+        <v>5649587.157920714</v>
       </c>
       <c r="AH12">
-        <v>2652524.067465144</v>
+        <v>2652524.067465145</v>
       </c>
       <c r="AI12">
-        <v>2745066.262232063</v>
+        <v>2745066.262232064</v>
       </c>
       <c r="AJ12">
-        <v>2858399.474098289</v>
+        <v>2858399.47409829</v>
       </c>
       <c r="AK12">
-        <v>3001794.515433529</v>
+        <v>3001794.51543353</v>
       </c>
       <c r="AL12">
-        <v>3185784.705206641</v>
+        <v>3185784.705206643</v>
       </c>
       <c r="AM12">
-        <v>5185047.961249398</v>
+        <v>5185047.9612494</v>
       </c>
       <c r="AN12">
-        <v>5490405.929594075</v>
+        <v>5490405.929594078</v>
       </c>
       <c r="AO12">
-        <v>5867266.946671329</v>
+        <v>5867266.946671331</v>
       </c>
       <c r="AP12">
-        <v>6284025.60392838</v>
+        <v>6284025.603928383</v>
       </c>
       <c r="AQ12">
-        <v>6733109.219684937</v>
+        <v>6733109.21968494</v>
       </c>
       <c r="AR12">
         <v>9852119.870566459</v>
@@ -3595,10 +3595,10 @@
         <v>10722936.06698128</v>
       </c>
       <c r="AU12">
-        <v>11074372.53827737</v>
+        <v>11074372.53827738</v>
       </c>
       <c r="AV12">
-        <v>11377782.44676408</v>
+        <v>11377782.44676409</v>
       </c>
       <c r="AW12">
         <v>12520862.91591701</v>
@@ -3607,13 +3607,13 @@
         <v>12677659.6068816</v>
       </c>
       <c r="AY12">
-        <v>12738602.82405478</v>
+        <v>12738602.82405479</v>
       </c>
       <c r="AZ12">
         <v>12686604.37980495</v>
       </c>
       <c r="BA12">
-        <v>12497035.64759903</v>
+        <v>12497035.64759904</v>
       </c>
       <c r="BB12">
         <v>11718916.8028456</v>
@@ -3622,10 +3622,10 @@
         <v>11401801.32938991</v>
       </c>
       <c r="BD12">
-        <v>11152133.02475235</v>
+        <v>11152133.02475236</v>
       </c>
       <c r="BE12">
-        <v>10899072.2052681</v>
+        <v>10899072.20526811</v>
       </c>
       <c r="BF12">
         <v>10636194.96128728</v>
@@ -3634,19 +3634,19 @@
         <v>10206442.57235032</v>
       </c>
       <c r="BH12">
-        <v>10018845.9710193</v>
+        <v>10018845.97101931</v>
       </c>
       <c r="BI12">
-        <v>9931083.142470762</v>
+        <v>9931083.142470768</v>
       </c>
       <c r="BJ12">
-        <v>9932403.271646058</v>
+        <v>9932403.271646062</v>
       </c>
       <c r="BK12">
-        <v>10033624.60118981</v>
+        <v>10033624.60118982</v>
       </c>
       <c r="BL12">
-        <v>10345924.99676948</v>
+        <v>10345924.99676949</v>
       </c>
       <c r="BM12">
         <v>10633914.89640509</v>
@@ -3661,46 +3661,46 @@
         <v>11896221.00193009</v>
       </c>
       <c r="BQ12">
-        <v>12534947.97394449</v>
+        <v>12534947.9739445</v>
       </c>
       <c r="BR12">
-        <v>13040253.94677679</v>
+        <v>13040253.9467768</v>
       </c>
       <c r="BS12">
         <v>13464731.80559036</v>
       </c>
       <c r="BT12">
-        <v>13845263.76328986</v>
+        <v>13845263.76328987</v>
       </c>
       <c r="BU12">
-        <v>14197206.2179348</v>
+        <v>14197206.21793481</v>
       </c>
       <c r="BV12">
         <v>14511305.06669379</v>
       </c>
       <c r="BW12">
-        <v>14766650.43646446</v>
+        <v>14766650.43646447</v>
       </c>
       <c r="BX12">
-        <v>14940998.5548649</v>
+        <v>14940998.55486491</v>
       </c>
       <c r="BY12">
-        <v>15026708.46910291</v>
+        <v>15026708.46910292</v>
       </c>
       <c r="BZ12">
         <v>15016974.61925506</v>
       </c>
       <c r="CA12">
-        <v>14817639.72673694</v>
+        <v>14817639.72673695</v>
       </c>
       <c r="CB12">
-        <v>14719232.64884676</v>
+        <v>14719232.64884677</v>
       </c>
       <c r="CC12">
-        <v>14643583.03627912</v>
+        <v>14643583.03627913</v>
       </c>
       <c r="CD12">
-        <v>14564177.23988214</v>
+        <v>14564177.23988215</v>
       </c>
       <c r="CE12">
         <v>14460178.81011323</v>
@@ -3712,13 +3712,13 @@
         <v>13980327.01451672</v>
       </c>
       <c r="CH12">
-        <v>13932682.55227672</v>
+        <v>13932682.55227673</v>
       </c>
       <c r="CI12">
         <v>13936041.48105351</v>
       </c>
       <c r="CJ12">
-        <v>13993625.91316427</v>
+        <v>13993625.91316428</v>
       </c>
       <c r="CK12">
         <v>13663855.92506397</v>
@@ -3727,13 +3727,13 @@
         <v>13837776.97446607</v>
       </c>
       <c r="CM12">
-        <v>14067033.41823371</v>
+        <v>14067033.41823372</v>
       </c>
       <c r="CN12">
         <v>14349591.60359165</v>
       </c>
       <c r="CO12">
-        <v>14679385.10013097</v>
+        <v>14679385.10013098</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -3743,52 +3743,52 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147294.4457995696</v>
+        <v>147294.4457995695</v>
       </c>
       <c r="E13">
-        <v>93973.65615513637</v>
+        <v>93973.6561551363</v>
       </c>
       <c r="F13">
-        <v>71527.62358784676</v>
+        <v>71527.62358784673</v>
       </c>
       <c r="G13">
-        <v>71181.84940552361</v>
+        <v>71181.84940552359</v>
       </c>
       <c r="H13">
-        <v>65585.91480380103</v>
+        <v>65585.91480380102</v>
       </c>
       <c r="I13">
         <v>62902.86279443131</v>
       </c>
       <c r="J13">
-        <v>57582.78600068605</v>
+        <v>57582.78600068604</v>
       </c>
       <c r="K13">
-        <v>60116.94221729482</v>
+        <v>60116.94221729481</v>
       </c>
       <c r="L13">
-        <v>72671.50620574014</v>
+        <v>72671.50620574012</v>
       </c>
       <c r="M13">
         <v>72686.69287112958</v>
       </c>
       <c r="N13">
-        <v>77332.89465660084</v>
+        <v>77332.89465660082</v>
       </c>
       <c r="O13">
-        <v>88843.85080233778</v>
+        <v>88843.85080233775</v>
       </c>
       <c r="P13">
-        <v>877087.0769086801</v>
+        <v>877087.0769086799</v>
       </c>
       <c r="Q13">
-        <v>877991.5996375037</v>
+        <v>877991.5996375035</v>
       </c>
       <c r="R13">
-        <v>879171.6798685797</v>
+        <v>879171.6798685795</v>
       </c>
       <c r="S13">
-        <v>2860005.825454412</v>
+        <v>2860005.825454411</v>
       </c>
       <c r="T13">
         <v>2861909.14310618</v>
@@ -3797,16 +3797,16 @@
         <v>2864263.905457986</v>
       </c>
       <c r="V13">
-        <v>2867137.525340912</v>
+        <v>2867137.525340911</v>
       </c>
       <c r="W13">
-        <v>2870607.025928443</v>
+        <v>2870607.025928442</v>
       </c>
       <c r="X13">
-        <v>3096277.425958925</v>
+        <v>3096277.425958924</v>
       </c>
       <c r="Y13">
-        <v>3101254.581641562</v>
+        <v>3101254.581641561</v>
       </c>
       <c r="Z13">
         <v>3107220.775269264</v>
@@ -3815,7 +3815,7 @@
         <v>3114420.482695951</v>
       </c>
       <c r="AB13">
-        <v>3123201.486160108</v>
+        <v>3123201.486160107</v>
       </c>
       <c r="AC13">
         <v>976677.7447802848</v>
@@ -3845,7 +3845,7 @@
         <v>547931.7341829188</v>
       </c>
       <c r="AL13">
-        <v>628248.1370932983</v>
+        <v>628248.1370932981</v>
       </c>
       <c r="AM13">
         <v>1143979.936545729</v>
@@ -3863,25 +3863,25 @@
         <v>1801937.674743751</v>
       </c>
       <c r="AR13">
-        <v>2487135.010026529</v>
+        <v>2487135.010026528</v>
       </c>
       <c r="AS13">
         <v>2684593.399483988</v>
       </c>
       <c r="AT13">
-        <v>2872485.834574741</v>
+        <v>2872485.83457474</v>
       </c>
       <c r="AU13">
-        <v>3040507.405902715</v>
+        <v>3040507.405902714</v>
       </c>
       <c r="AV13">
         <v>3178633.931144406</v>
       </c>
       <c r="AW13">
-        <v>3438604.167863091</v>
+        <v>3438604.16786309</v>
       </c>
       <c r="AX13">
-        <v>3493680.583749291</v>
+        <v>3493680.58374929</v>
       </c>
       <c r="AY13">
         <v>3501410.59276478</v>
@@ -3932,13 +3932,13 @@
         <v>2550544.03767465</v>
       </c>
       <c r="BO13">
-        <v>2701587.515949387</v>
+        <v>2701587.515949386</v>
       </c>
       <c r="BP13">
         <v>2870373.958666989</v>
       </c>
       <c r="BQ13">
-        <v>3057658.415878398</v>
+        <v>3057658.415878399</v>
       </c>
       <c r="BR13">
         <v>3240578.530185664</v>
@@ -3953,7 +3953,7 @@
         <v>3741560.860756528</v>
       </c>
       <c r="BV13">
-        <v>3864643.424808865</v>
+        <v>3864643.424808864</v>
       </c>
       <c r="BW13">
         <v>3971408.644777637</v>
@@ -3971,7 +3971,7 @@
         <v>4096747.804508081</v>
       </c>
       <c r="CB13">
-        <v>4071121.979937308</v>
+        <v>4071121.979937307</v>
       </c>
       <c r="CC13">
         <v>4027344.967711282</v>
@@ -3983,10 +3983,10 @@
         <v>3907344.437920514</v>
       </c>
       <c r="CF13">
-        <v>3795908.078098238</v>
+        <v>3795908.078098237</v>
       </c>
       <c r="CG13">
-        <v>3736849.012567719</v>
+        <v>3736849.012567718</v>
       </c>
       <c r="CH13">
         <v>3688316.038471887</v>
@@ -4030,7 +4030,7 @@
         <v>1.719039530308342</v>
       </c>
       <c r="F14">
-        <v>1.815845786970694</v>
+        <v>1.815845786970695</v>
       </c>
       <c r="G14">
         <v>1.830173488444104</v>
@@ -4039,7 +4039,7 @@
         <v>1.777746915105872</v>
       </c>
       <c r="I14">
-        <v>1.761731687766269</v>
+        <v>1.76173168776627</v>
       </c>
       <c r="J14">
         <v>1.844237312203932</v>
@@ -4060,7 +4060,7 @@
         <v>2.128305436823489</v>
       </c>
       <c r="P14">
-        <v>2.296439683002207</v>
+        <v>2.296439683002208</v>
       </c>
       <c r="Q14">
         <v>2.352513219989409</v>
@@ -4069,7 +4069,7 @@
         <v>2.408802604395635</v>
       </c>
       <c r="S14">
-        <v>2.62949878190026</v>
+        <v>2.629498781900261</v>
       </c>
       <c r="T14">
         <v>2.697117051518919</v>
@@ -4093,10 +4093,10 @@
         <v>3.09437019337408</v>
       </c>
       <c r="AA14">
-        <v>3.159798541735578</v>
+        <v>3.159798541735579</v>
       </c>
       <c r="AB14">
-        <v>3.225087610674267</v>
+        <v>3.225087610674268</v>
       </c>
       <c r="AC14">
         <v>3.116098260080445</v>
@@ -4114,58 +4114,58 @@
         <v>3.384268004715518</v>
       </c>
       <c r="AH14">
-        <v>3.405350857651207</v>
+        <v>3.405350857651208</v>
       </c>
       <c r="AI14">
         <v>3.473352672904013</v>
       </c>
       <c r="AJ14">
-        <v>3.541607932099889</v>
+        <v>3.54160793209989</v>
       </c>
       <c r="AK14">
         <v>3.612103977723045</v>
       </c>
       <c r="AL14">
-        <v>3.684593181768005</v>
+        <v>3.684593181768006</v>
       </c>
       <c r="AM14">
         <v>3.778898778911213</v>
       </c>
       <c r="AN14">
-        <v>3.856451321625345</v>
+        <v>3.856451321625346</v>
       </c>
       <c r="AO14">
-        <v>3.938568339130581</v>
+        <v>3.938568339130582</v>
       </c>
       <c r="AP14">
         <v>4.023327343398607</v>
       </c>
       <c r="AQ14">
-        <v>4.111522130517091</v>
+        <v>4.111522130517092</v>
       </c>
       <c r="AR14">
         <v>4.242579501908581</v>
       </c>
       <c r="AS14">
-        <v>4.333302029741627</v>
+        <v>4.333302029741628</v>
       </c>
       <c r="AT14">
         <v>4.413705438755055</v>
       </c>
       <c r="AU14">
-        <v>4.491009364556294</v>
+        <v>4.491009364556295</v>
       </c>
       <c r="AV14">
         <v>4.565861479564703</v>
       </c>
       <c r="AW14">
-        <v>4.652323613815628</v>
+        <v>4.652323613815629</v>
       </c>
       <c r="AX14">
         <v>4.728046118072305</v>
       </c>
       <c r="AY14">
-        <v>4.801299837573839</v>
+        <v>4.80129983757384</v>
       </c>
       <c r="AZ14">
         <v>4.868751933385558</v>
@@ -4177,85 +4177,85 @@
         <v>4.975192784896198</v>
       </c>
       <c r="BC14">
-        <v>5.034888950166795</v>
+        <v>5.034888950166796</v>
       </c>
       <c r="BD14">
-        <v>5.105213251749122</v>
+        <v>5.105213251749123</v>
       </c>
       <c r="BE14">
-        <v>5.17664023637829</v>
+        <v>5.176640236378293</v>
       </c>
       <c r="BF14">
-        <v>5.24709306802405</v>
+        <v>5.247093068024052</v>
       </c>
       <c r="BG14">
-        <v>5.319277307469813</v>
+        <v>5.319277307469814</v>
       </c>
       <c r="BH14">
-        <v>5.397921077721636</v>
+        <v>5.397921077721639</v>
       </c>
       <c r="BI14">
         <v>5.480407200862174</v>
       </c>
       <c r="BJ14">
-        <v>5.565731063198125</v>
+        <v>5.565731063198126</v>
       </c>
       <c r="BK14">
-        <v>5.654136454377103</v>
+        <v>5.654136454377104</v>
       </c>
       <c r="BL14">
         <v>5.748896079291567</v>
       </c>
       <c r="BM14">
-        <v>5.849153499413041</v>
+        <v>5.849153499413042</v>
       </c>
       <c r="BN14">
         <v>5.953103742370293</v>
       </c>
       <c r="BO14">
-        <v>6.061296050101912</v>
+        <v>6.061296050101914</v>
       </c>
       <c r="BP14">
-        <v>6.173816093769378</v>
+        <v>6.17381609376938</v>
       </c>
       <c r="BQ14">
-        <v>6.295105713506294</v>
+        <v>6.295105713506298</v>
       </c>
       <c r="BR14">
-        <v>6.413031287747365</v>
+        <v>6.413031287747367</v>
       </c>
       <c r="BS14">
-        <v>6.523211213529111</v>
+        <v>6.523211213529112</v>
       </c>
       <c r="BT14">
-        <v>6.629069708496997</v>
+        <v>6.629069708496998</v>
       </c>
       <c r="BU14">
-        <v>6.733051327342439</v>
+        <v>6.733051327342441</v>
       </c>
       <c r="BV14">
-        <v>6.839921714327442</v>
+        <v>6.839921714327444</v>
       </c>
       <c r="BW14">
-        <v>6.945674382304047</v>
+        <v>6.945674382304049</v>
       </c>
       <c r="BX14">
         <v>7.047948864241431</v>
       </c>
       <c r="BY14">
-        <v>7.145414558724577</v>
+        <v>7.145414558724578</v>
       </c>
       <c r="BZ14">
-        <v>7.237124101997668</v>
+        <v>7.23712410199767</v>
       </c>
       <c r="CA14">
-        <v>7.329506041861021</v>
+        <v>7.329506041861024</v>
       </c>
       <c r="CB14">
-        <v>7.425472156987013</v>
+        <v>7.425472156987014</v>
       </c>
       <c r="CC14">
-        <v>7.527765268308313</v>
+        <v>7.527765268308315</v>
       </c>
       <c r="CD14">
         <v>7.631093476700225</v>
@@ -4264,34 +4264,34 @@
         <v>7.733774425951832</v>
       </c>
       <c r="CF14">
-        <v>7.840382093372431</v>
+        <v>7.840382093372432</v>
       </c>
       <c r="CG14">
-        <v>7.950098674958259</v>
+        <v>7.950098674958261</v>
       </c>
       <c r="CH14">
         <v>8.061811821593292</v>
       </c>
       <c r="CI14">
-        <v>8.175426849983372</v>
+        <v>8.175426849983374</v>
       </c>
       <c r="CJ14">
         <v>8.29088432082213</v>
       </c>
       <c r="CK14">
-        <v>8.411201731373938</v>
+        <v>8.411201731373939</v>
       </c>
       <c r="CL14">
-        <v>8.537646060463707</v>
+        <v>8.537646060463709</v>
       </c>
       <c r="CM14">
-        <v>8.668682972760665</v>
+        <v>8.668682972760669</v>
       </c>
       <c r="CN14">
         <v>8.803649655660459</v>
       </c>
       <c r="CO14">
-        <v>8.941195938582922</v>
+        <v>8.941195938582926</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -4301,40 +4301,40 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514312757300753</v>
+        <v>0.08514312757300757</v>
       </c>
       <c r="E15">
-        <v>0.0853787017992072</v>
+        <v>0.08537870179920726</v>
       </c>
       <c r="F15">
-        <v>0.08884849173377679</v>
+        <v>0.08884849173377687</v>
       </c>
       <c r="G15">
-        <v>0.08978478550511333</v>
+        <v>0.08978478550511337</v>
       </c>
       <c r="H15">
-        <v>0.08876325078862532</v>
+        <v>0.08876325078862538</v>
       </c>
       <c r="I15">
-        <v>0.08739862201949702</v>
+        <v>0.08739862201949709</v>
       </c>
       <c r="J15">
-        <v>0.09002815972590546</v>
+        <v>0.0900281597259055</v>
       </c>
       <c r="K15">
-        <v>0.09887337976260926</v>
+        <v>0.09887337976260932</v>
       </c>
       <c r="L15">
         <v>0.1016618368124435</v>
       </c>
       <c r="M15">
-        <v>0.1086757616005851</v>
+        <v>0.1086757616005852</v>
       </c>
       <c r="N15">
-        <v>0.1155065986600389</v>
+        <v>0.115506598660039</v>
       </c>
       <c r="O15">
-        <v>0.1056127099573586</v>
+        <v>0.1056127099573587</v>
       </c>
       <c r="P15">
         <v>0.1136392438429674</v>
@@ -4343,232 +4343,232 @@
         <v>0.1164782221646605</v>
       </c>
       <c r="R15">
-        <v>0.1193273315078304</v>
+        <v>0.1193273315078305</v>
       </c>
       <c r="S15">
-        <v>0.1292365854598961</v>
+        <v>0.1292365854598962</v>
       </c>
       <c r="T15">
-        <v>0.1326089132853201</v>
+        <v>0.1326089132853202</v>
       </c>
       <c r="U15">
-        <v>0.1359678555438488</v>
+        <v>0.1359678555438489</v>
       </c>
       <c r="V15">
-        <v>0.1393313985409443</v>
+        <v>0.1393313985409444</v>
       </c>
       <c r="W15">
-        <v>0.142705678741868</v>
+        <v>0.1427056787418681</v>
       </c>
       <c r="X15">
-        <v>0.1458257691862113</v>
+        <v>0.1458257691862114</v>
       </c>
       <c r="Y15">
         <v>0.1490684741269097</v>
       </c>
       <c r="Z15">
-        <v>0.1523191550258477</v>
+        <v>0.1523191550258478</v>
       </c>
       <c r="AA15">
         <v>0.155574316805541</v>
       </c>
       <c r="AB15">
-        <v>0.1588219781326205</v>
+        <v>0.1588219781326206</v>
       </c>
       <c r="AC15">
-        <v>0.154575299437766</v>
+        <v>0.1545752994377661</v>
       </c>
       <c r="AD15">
-        <v>0.1578781633344935</v>
+        <v>0.1578781633344936</v>
       </c>
       <c r="AE15">
-        <v>0.1611750412129947</v>
+        <v>0.1611750412129948</v>
       </c>
       <c r="AF15">
-        <v>0.1645017327867056</v>
+        <v>0.1645017327867057</v>
       </c>
       <c r="AG15">
-        <v>0.1678658185846994</v>
+        <v>0.1678658185846995</v>
       </c>
       <c r="AH15">
-        <v>0.1692467691874333</v>
+        <v>0.1692467691874334</v>
       </c>
       <c r="AI15">
-        <v>0.1726113089892599</v>
+        <v>0.17261130898926</v>
       </c>
       <c r="AJ15">
-        <v>0.1759854401364465</v>
+        <v>0.1759854401364466</v>
       </c>
       <c r="AK15">
-        <v>0.1794505675508969</v>
+        <v>0.179450567550897</v>
       </c>
       <c r="AL15">
-        <v>0.1830050698810089</v>
+        <v>0.183005069881009</v>
       </c>
       <c r="AM15">
-        <v>0.1874749588091544</v>
+        <v>0.1874749588091545</v>
       </c>
       <c r="AN15">
-        <v>0.1912420358553847</v>
+        <v>0.1912420358553848</v>
       </c>
       <c r="AO15">
-        <v>0.1952210050636709</v>
+        <v>0.195221005063671</v>
       </c>
       <c r="AP15">
-        <v>0.199319451114121</v>
+        <v>0.1993194511141211</v>
       </c>
       <c r="AQ15">
-        <v>0.2035757857449579</v>
+        <v>0.203575785744958</v>
       </c>
       <c r="AR15">
-        <v>0.2096919291352388</v>
+        <v>0.2096919291352389</v>
       </c>
       <c r="AS15">
-        <v>0.214056982879321</v>
+        <v>0.2140569828793211</v>
       </c>
       <c r="AT15">
-        <v>0.2179330528641098</v>
+        <v>0.2179330528641099</v>
       </c>
       <c r="AU15">
-        <v>0.2216685534037665</v>
+        <v>0.2216685534037666</v>
       </c>
       <c r="AV15">
-        <v>0.2252980051903644</v>
+        <v>0.2252980051903646</v>
       </c>
       <c r="AW15">
-        <v>0.2294486071529494</v>
+        <v>0.2294486071529495</v>
       </c>
       <c r="AX15">
-        <v>0.2331556842220305</v>
+        <v>0.2331556842220306</v>
       </c>
       <c r="AY15">
-        <v>0.2367643797008335</v>
+        <v>0.2367643797008336</v>
       </c>
       <c r="AZ15">
-        <v>0.2401141095225748</v>
+        <v>0.2401141095225749</v>
       </c>
       <c r="BA15">
-        <v>0.2430310652945979</v>
+        <v>0.243031065294598</v>
       </c>
       <c r="BB15">
-        <v>0.2455334718682611</v>
+        <v>0.2455334718682612</v>
       </c>
       <c r="BC15">
-        <v>0.248555372202815</v>
+        <v>0.2485553722028152</v>
       </c>
       <c r="BD15">
-        <v>0.2520914871886193</v>
+        <v>0.2520914871886194</v>
       </c>
       <c r="BE15">
-        <v>0.2556816770761928</v>
+        <v>0.2556816770761929</v>
       </c>
       <c r="BF15">
-        <v>0.259222112792328</v>
+        <v>0.2592221127923282</v>
       </c>
       <c r="BG15">
-        <v>0.2628547236189839</v>
+        <v>0.262854723618984</v>
       </c>
       <c r="BH15">
-        <v>0.2667679514114683</v>
+        <v>0.2667679514114685</v>
       </c>
       <c r="BI15">
-        <v>0.2708498267505944</v>
+        <v>0.2708498267505945</v>
       </c>
       <c r="BJ15">
-        <v>0.2750514003643672</v>
+        <v>0.2750514003643674</v>
       </c>
       <c r="BK15">
-        <v>0.2793835692217157</v>
+        <v>0.2793835692217159</v>
       </c>
       <c r="BL15">
-        <v>0.2839999422783639</v>
+        <v>0.2839999422783641</v>
       </c>
       <c r="BM15">
-        <v>0.2888657611329812</v>
+        <v>0.2888657611329814</v>
       </c>
       <c r="BN15">
-        <v>0.2938971197951414</v>
+        <v>0.2938971197951415</v>
       </c>
       <c r="BO15">
-        <v>0.2991218381151089</v>
+        <v>0.2991218381151091</v>
       </c>
       <c r="BP15">
-        <v>0.3045456336685219</v>
+        <v>0.3045456336685222</v>
       </c>
       <c r="BQ15">
-        <v>0.3103832938995563</v>
+        <v>0.3103832938995564</v>
       </c>
       <c r="BR15">
-        <v>0.316060911751609</v>
+        <v>0.3160609117516091</v>
       </c>
       <c r="BS15">
-        <v>0.3213704303365678</v>
+        <v>0.3213704303365679</v>
       </c>
       <c r="BT15">
-        <v>0.3264770260084844</v>
+        <v>0.3264770260084845</v>
       </c>
       <c r="BU15">
-        <v>0.3314993750397621</v>
+        <v>0.3314993750397622</v>
       </c>
       <c r="BV15">
-        <v>0.3366689578783255</v>
+        <v>0.3366689578783257</v>
       </c>
       <c r="BW15">
-        <v>0.3417912660714975</v>
+        <v>0.3417912660714977</v>
       </c>
       <c r="BX15">
-        <v>0.346758656535142</v>
+        <v>0.3467586565351422</v>
       </c>
       <c r="BY15">
-        <v>0.3515074753747945</v>
+        <v>0.3515074753747946</v>
       </c>
       <c r="BZ15">
-        <v>0.3559921336597448</v>
+        <v>0.355992133659745</v>
       </c>
       <c r="CA15">
-        <v>0.3605264746919109</v>
+        <v>0.3605264746919111</v>
       </c>
       <c r="CB15">
-        <v>0.3652337935588316</v>
+        <v>0.3652337935588318</v>
       </c>
       <c r="CC15">
-        <v>0.3702506927779434</v>
+        <v>0.3702506927779436</v>
       </c>
       <c r="CD15">
-        <v>0.3753215859262766</v>
+        <v>0.3753215859262768</v>
       </c>
       <c r="CE15">
-        <v>0.3803647812203659</v>
+        <v>0.3803647812203661</v>
       </c>
       <c r="CF15">
-        <v>0.3856098520822638</v>
+        <v>0.3856098520822639</v>
       </c>
       <c r="CG15">
-        <v>0.3909870332862763</v>
+        <v>0.3909870332862764</v>
       </c>
       <c r="CH15">
-        <v>0.3964547081805157</v>
+        <v>0.3964547081805159</v>
       </c>
       <c r="CI15">
-        <v>0.4020068247436464</v>
+        <v>0.4020068247436467</v>
       </c>
       <c r="CJ15">
-        <v>0.4076392520628715</v>
+        <v>0.4076392520628717</v>
       </c>
       <c r="CK15">
-        <v>0.4135187836912753</v>
+        <v>0.4135187836912755</v>
       </c>
       <c r="CL15">
-        <v>0.419660404668036</v>
+        <v>0.4196604046680363</v>
       </c>
       <c r="CM15">
-        <v>0.4260149742027524</v>
+        <v>0.4260149742027525</v>
       </c>
       <c r="CN15">
-        <v>0.4325493405659847</v>
+        <v>0.4325493405659849</v>
       </c>
       <c r="CO15">
-        <v>0.4391999538480997</v>
+        <v>0.4391999538480998</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -4608,7 +4608,7 @@
         <v>262411.4015625655</v>
       </c>
       <c r="N16">
-        <v>270512.1806219717</v>
+        <v>270512.1806219716</v>
       </c>
       <c r="O16">
         <v>203876.3371479548</v>
@@ -4620,151 +4620,151 @@
         <v>1352871.224261163</v>
       </c>
       <c r="R16">
-        <v>1356607.306796209</v>
+        <v>1356607.30679621</v>
       </c>
       <c r="S16">
-        <v>4271388.829088223</v>
+        <v>4271388.829088224</v>
       </c>
       <c r="T16">
-        <v>4274811.505919175</v>
+        <v>4274811.505919176</v>
       </c>
       <c r="U16">
-        <v>4277151.646244115</v>
+        <v>4277151.646244117</v>
       </c>
       <c r="V16">
-        <v>4281457.568431903</v>
+        <v>4281457.568431904</v>
       </c>
       <c r="W16">
-        <v>4288921.6021313</v>
+        <v>4288921.602131302</v>
       </c>
       <c r="X16">
-        <v>3892294.932430416</v>
+        <v>3892294.932430418</v>
       </c>
       <c r="Y16">
         <v>3905311.219816505</v>
       </c>
       <c r="Z16">
-        <v>3918534.269816363</v>
+        <v>3918534.269816365</v>
       </c>
       <c r="AA16">
-        <v>3926988.949825972</v>
+        <v>3926988.949825974</v>
       </c>
       <c r="AB16">
-        <v>3930303.234262535</v>
+        <v>3930303.234262537</v>
       </c>
       <c r="AC16">
-        <v>532507.3891377447</v>
+        <v>532507.3891377448</v>
       </c>
       <c r="AD16">
-        <v>543169.4951458502</v>
+        <v>543169.4951458503</v>
       </c>
       <c r="AE16">
-        <v>545426.8605777737</v>
+        <v>545426.8605777738</v>
       </c>
       <c r="AF16">
-        <v>555526.5477455237</v>
+        <v>555526.547745524</v>
       </c>
       <c r="AG16">
         <v>585781.4954498776</v>
       </c>
       <c r="AH16">
-        <v>-36624.46088505648</v>
+        <v>-36624.46088505651</v>
       </c>
       <c r="AI16">
-        <v>-60820.39304324203</v>
+        <v>-60820.39304324207</v>
       </c>
       <c r="AJ16">
         <v>-93908.48441312497</v>
       </c>
       <c r="AK16">
-        <v>-137663.0038389069</v>
+        <v>-137663.003838907</v>
       </c>
       <c r="AL16">
         <v>-190905.0352313943</v>
       </c>
       <c r="AM16">
-        <v>256357.5703546398</v>
+        <v>256357.57035464</v>
       </c>
       <c r="AN16">
-        <v>348801.6358199963</v>
+        <v>348801.6358199965</v>
       </c>
       <c r="AO16">
-        <v>479308.1158918836</v>
+        <v>479308.1158918838</v>
       </c>
       <c r="AP16">
-        <v>647973.5703053416</v>
+        <v>647973.5703053421</v>
       </c>
       <c r="AQ16">
-        <v>871322.8816732171</v>
+        <v>871322.8816732175</v>
       </c>
       <c r="AR16">
-        <v>1991804.871891091</v>
+        <v>1991804.871891092</v>
       </c>
       <c r="AS16">
-        <v>2221595.190282031</v>
+        <v>2221595.190282032</v>
       </c>
       <c r="AT16">
-        <v>2330302.841811231</v>
+        <v>2330302.841811232</v>
       </c>
       <c r="AU16">
-        <v>2403089.623344039</v>
+        <v>2403089.62334404</v>
       </c>
       <c r="AV16">
         <v>2448172.640327412</v>
       </c>
       <c r="AW16">
-        <v>2583881.112873728</v>
+        <v>2583881.112873729</v>
       </c>
       <c r="AX16">
         <v>2573852.855256045</v>
       </c>
       <c r="AY16">
-        <v>2538982.487892189</v>
+        <v>2538982.48789219</v>
       </c>
       <c r="AZ16">
-        <v>2444894.202530473</v>
+        <v>2444894.202530474</v>
       </c>
       <c r="BA16">
-        <v>2258736.995269639</v>
+        <v>2258736.99526964</v>
       </c>
       <c r="BB16">
-        <v>1808535.460596147</v>
+        <v>1808535.460596148</v>
       </c>
       <c r="BC16">
-        <v>1580116.057623413</v>
+        <v>1580116.057623414</v>
       </c>
       <c r="BD16">
         <v>1455283.306310224</v>
       </c>
       <c r="BE16">
-        <v>1346235.605691595</v>
+        <v>1346235.605691596</v>
       </c>
       <c r="BF16">
-        <v>1237503.557576741</v>
+        <v>1237503.557576742</v>
       </c>
       <c r="BG16">
-        <v>1012798.302082719</v>
+        <v>1012798.30208272</v>
       </c>
       <c r="BH16">
-        <v>932083.5443918229</v>
+        <v>932083.5443918232</v>
       </c>
       <c r="BI16">
-        <v>892838.5399230672</v>
+        <v>892838.5399230676</v>
       </c>
       <c r="BJ16">
-        <v>882579.9482313271</v>
+        <v>882579.9482313276</v>
       </c>
       <c r="BK16">
-        <v>902227.0596009042</v>
+        <v>902227.0596009047</v>
       </c>
       <c r="BL16">
-        <v>911587.4644233629</v>
+        <v>911587.4644233634</v>
       </c>
       <c r="BM16">
-        <v>998018.9738540936</v>
+        <v>998018.973854094</v>
       </c>
       <c r="BN16">
-        <v>1122579.146517638</v>
+        <v>1122579.146517639</v>
       </c>
       <c r="BO16">
         <v>1298009.150528686</v>
@@ -4773,49 +4773,49 @@
         <v>1528691.787514145</v>
       </c>
       <c r="BQ16">
-        <v>1776144.275810414</v>
+        <v>1776144.275810415</v>
       </c>
       <c r="BR16">
         <v>1996404.865632417</v>
       </c>
       <c r="BS16">
-        <v>2128834.566609177</v>
+        <v>2128834.566609178</v>
       </c>
       <c r="BT16">
-        <v>2211435.269161828</v>
+        <v>2211435.269161829</v>
       </c>
       <c r="BU16">
         <v>2271982.137916792</v>
       </c>
       <c r="BV16">
-        <v>2289806.334109678</v>
+        <v>2289806.334109679</v>
       </c>
       <c r="BW16">
-        <v>2308495.512738928</v>
+        <v>2308495.512738929</v>
       </c>
       <c r="BX16">
-        <v>2291843.498223456</v>
+        <v>2291843.498223457</v>
       </c>
       <c r="BY16">
-        <v>2226031.819987337</v>
+        <v>2226031.819987338</v>
       </c>
       <c r="BZ16">
-        <v>2102172.945876083</v>
+        <v>2102172.945876084</v>
       </c>
       <c r="CA16">
-        <v>1917139.649370157</v>
+        <v>1917139.649370158</v>
       </c>
       <c r="CB16">
-        <v>1771919.782202724</v>
+        <v>1771919.782202725</v>
       </c>
       <c r="CC16">
-        <v>1673708.480441691</v>
+        <v>1673708.480441692</v>
       </c>
       <c r="CD16">
-        <v>1599940.944088413</v>
+        <v>1599940.944088414</v>
       </c>
       <c r="CE16">
-        <v>1524585.935846734</v>
+        <v>1524585.935846735</v>
       </c>
       <c r="CF16">
         <v>1421113.91536378</v>
@@ -4824,28 +4824,28 @@
         <v>1354347.35957671</v>
       </c>
       <c r="CH16">
-        <v>1309966.715584801</v>
+        <v>1309966.715584802</v>
       </c>
       <c r="CI16">
         <v>1286492.600414862</v>
       </c>
       <c r="CJ16">
-        <v>1283735.942314303</v>
+        <v>1283735.942314304</v>
       </c>
       <c r="CK16">
-        <v>1273884.563452545</v>
+        <v>1273884.563452546</v>
       </c>
       <c r="CL16">
         <v>1328256.259017741</v>
       </c>
       <c r="CM16">
-        <v>1421058.710479244</v>
+        <v>1421058.710479245</v>
       </c>
       <c r="CN16">
         <v>1554469.384062222</v>
       </c>
       <c r="CO16">
-        <v>1721303.040799275</v>
+        <v>1721303.040799276</v>
       </c>
     </row>
     <row r="17" spans="1:93">
@@ -4858,271 +4858,271 @@
         <v>114553.8396509568</v>
       </c>
       <c r="E17">
-        <v>73082.99781203285</v>
+        <v>73082.99781203282</v>
       </c>
       <c r="F17">
         <v>55620.31734484869</v>
       </c>
       <c r="G17">
-        <v>55347.395310418</v>
+        <v>55347.39531041803</v>
       </c>
       <c r="H17">
-        <v>50996.50254544129</v>
+        <v>50996.50254544131</v>
       </c>
       <c r="I17">
-        <v>48908.56055657509</v>
+        <v>48908.5605565751</v>
       </c>
       <c r="J17">
-        <v>44771.57377962153</v>
+        <v>44771.57377962155</v>
       </c>
       <c r="K17">
-        <v>46742.61655719669</v>
+        <v>46742.61655719672</v>
       </c>
       <c r="L17">
-        <v>56506.0673568432</v>
+        <v>56506.06735684321</v>
       </c>
       <c r="M17">
-        <v>56517.8504691402</v>
+        <v>56517.85046914022</v>
       </c>
       <c r="N17">
         <v>60132.37478261743</v>
       </c>
       <c r="O17">
-        <v>69084.33534425653</v>
+        <v>69084.33534425654</v>
       </c>
       <c r="P17">
-        <v>681979.3454032018</v>
+        <v>681979.3454032021</v>
       </c>
       <c r="Q17">
-        <v>682682.7892416572</v>
+        <v>682682.7892416575</v>
       </c>
       <c r="R17">
-        <v>683600.5308067139</v>
+        <v>683600.5308067141</v>
       </c>
       <c r="S17">
-        <v>2223787.372946442</v>
+        <v>2223787.372946443</v>
       </c>
       <c r="T17">
-        <v>2225267.560055028</v>
+        <v>2225267.560055029</v>
       </c>
       <c r="U17">
-        <v>2227098.819431376</v>
+        <v>2227098.819431377</v>
       </c>
       <c r="V17">
-        <v>2229333.5680717</v>
+        <v>2229333.568071701</v>
       </c>
       <c r="W17">
-        <v>2232031.691403197</v>
+        <v>2232031.691403198</v>
       </c>
       <c r="X17">
-        <v>2407469.121855739</v>
+        <v>2407469.12185574</v>
       </c>
       <c r="Y17">
-        <v>2411339.583286335</v>
+        <v>2411339.583286337</v>
       </c>
       <c r="Z17">
         <v>2415979.070680324</v>
       </c>
       <c r="AA17">
-        <v>2421577.646161534</v>
+        <v>2421577.646161536</v>
       </c>
       <c r="AB17">
-        <v>2428405.691944813</v>
+        <v>2428405.691944815</v>
       </c>
       <c r="AC17">
-        <v>759372.6662299957</v>
+        <v>759372.6662299961</v>
       </c>
       <c r="AD17">
-        <v>769962.1085458612</v>
+        <v>769962.1085458619</v>
       </c>
       <c r="AE17">
-        <v>783432.1474219043</v>
+        <v>783432.1474219047</v>
       </c>
       <c r="AF17">
-        <v>800756.2858684572</v>
+        <v>800756.2858684579</v>
       </c>
       <c r="AG17">
-        <v>823181.6218865081</v>
+        <v>823181.6218865088</v>
       </c>
       <c r="AH17">
-        <v>325034.897765074</v>
+        <v>325034.8977650744</v>
       </c>
       <c r="AI17">
-        <v>346792.3293304992</v>
+        <v>346792.3293304995</v>
       </c>
       <c r="AJ17">
-        <v>375628.18683725</v>
+        <v>375628.1868372505</v>
       </c>
       <c r="AK17">
-        <v>425999.1436961858</v>
+        <v>425999.1436961862</v>
       </c>
       <c r="AL17">
-        <v>488449.7755853464</v>
+        <v>488449.7755853469</v>
       </c>
       <c r="AM17">
-        <v>889454.6240380295</v>
+        <v>889454.6240380302</v>
       </c>
       <c r="AN17">
-        <v>995584.0225368451</v>
+        <v>995584.0225368458</v>
       </c>
       <c r="AO17">
-        <v>1117580.7770398</v>
+        <v>1117580.777039801</v>
       </c>
       <c r="AP17">
-        <v>1253790.44716655</v>
+        <v>1253790.447166551</v>
       </c>
       <c r="AQ17">
-        <v>1401045.352168971</v>
+        <v>1401045.352168972</v>
       </c>
       <c r="AR17">
-        <v>1933791.419449452</v>
+        <v>1933791.419449453</v>
       </c>
       <c r="AS17">
-        <v>2087323.285706643</v>
+        <v>2087323.285706645</v>
       </c>
       <c r="AT17">
-        <v>2233416.831330135</v>
+        <v>2233416.831330137</v>
       </c>
       <c r="AU17">
-        <v>2364059.490820421</v>
+        <v>2364059.490820423</v>
       </c>
       <c r="AV17">
-        <v>2471457.002323319</v>
+        <v>2471457.00232332</v>
       </c>
       <c r="AW17">
-        <v>2673586.13476133</v>
+        <v>2673586.134761332</v>
       </c>
       <c r="AX17">
-        <v>2716407.72690916</v>
+        <v>2716407.726909161</v>
       </c>
       <c r="AY17">
-        <v>2722415.095732139</v>
+        <v>2722415.095732142</v>
       </c>
       <c r="AZ17">
-        <v>2692286.367218561</v>
+        <v>2692286.367218562</v>
       </c>
       <c r="BA17">
-        <v>2629437.492725832</v>
+        <v>2629437.492725833</v>
       </c>
       <c r="BB17">
-        <v>2477192.308286969</v>
+        <v>2477192.30828697</v>
       </c>
       <c r="BC17">
-        <v>2367880.264029114</v>
+        <v>2367880.264029116</v>
       </c>
       <c r="BD17">
-        <v>2247684.90562308</v>
+        <v>2247684.905623081</v>
       </c>
       <c r="BE17">
-        <v>2125742.617903202</v>
+        <v>2125742.617903204</v>
       </c>
       <c r="BF17">
-        <v>2011162.711098285</v>
+        <v>2011162.711098287</v>
       </c>
       <c r="BG17">
-        <v>1881381.827987072</v>
+        <v>1881381.827987073</v>
       </c>
       <c r="BH17">
-        <v>1805711.01577368</v>
+        <v>1805711.015773681</v>
       </c>
       <c r="BI17">
-        <v>1758434.93057056</v>
+        <v>1758434.930570561</v>
       </c>
       <c r="BJ17">
-        <v>1742598.853293186</v>
+        <v>1742598.853293187</v>
       </c>
       <c r="BK17">
-        <v>1758887.319298788</v>
+        <v>1758887.31929879</v>
       </c>
       <c r="BL17">
-        <v>1809811.528965525</v>
+        <v>1809811.528965527</v>
       </c>
       <c r="BM17">
-        <v>1884574.3900667</v>
+        <v>1884574.390066701</v>
       </c>
       <c r="BN17">
-        <v>1983038.799980761</v>
+        <v>1983038.799980762</v>
       </c>
       <c r="BO17">
-        <v>2100479.61896593</v>
+        <v>2100479.618965932</v>
       </c>
       <c r="BP17">
-        <v>2231716.097011363</v>
+        <v>2231716.097011365</v>
       </c>
       <c r="BQ17">
-        <v>2377332.582135253</v>
+        <v>2377332.582135255</v>
       </c>
       <c r="BR17">
-        <v>2519558.021630883</v>
+        <v>2519558.021630885</v>
       </c>
       <c r="BS17">
-        <v>2658938.326022617</v>
+        <v>2658938.326022619</v>
       </c>
       <c r="BT17">
-        <v>2790306.987256265</v>
+        <v>2790306.987256267</v>
       </c>
       <c r="BU17">
-        <v>2909083.476405574</v>
+        <v>2909083.476405576</v>
       </c>
       <c r="BV17">
-        <v>3004780.717124124</v>
+        <v>3004780.717124125</v>
       </c>
       <c r="BW17">
-        <v>3087791.727381486</v>
+        <v>3087791.727381488</v>
       </c>
       <c r="BX17">
-        <v>3149522.781347966</v>
+        <v>3149522.781347968</v>
       </c>
       <c r="BY17">
-        <v>3189155.942713611</v>
+        <v>3189155.942713613</v>
       </c>
       <c r="BZ17">
-        <v>3207049.849393366</v>
+        <v>3207049.849393368</v>
       </c>
       <c r="CA17">
-        <v>3185235.293023034</v>
+        <v>3185235.293023037</v>
       </c>
       <c r="CB17">
-        <v>3165307.138428448</v>
+        <v>3165307.13842845</v>
       </c>
       <c r="CC17">
-        <v>3131265.76954549</v>
+        <v>3131265.769545492</v>
       </c>
       <c r="CD17">
-        <v>3087283.011126827</v>
+        <v>3087283.01112683</v>
       </c>
       <c r="CE17">
-        <v>3037954.763409516</v>
+        <v>3037954.763409519</v>
       </c>
       <c r="CF17">
-        <v>2951307.460401203</v>
+        <v>2951307.460401206</v>
       </c>
       <c r="CG17">
-        <v>2905383.944147495</v>
+        <v>2905383.944147496</v>
       </c>
       <c r="CH17">
-        <v>2867644.950850496</v>
+        <v>2867644.950850498</v>
       </c>
       <c r="CI17">
-        <v>2841599.634334655</v>
+        <v>2841599.634334658</v>
       </c>
       <c r="CJ17">
-        <v>2829901.920521758</v>
+        <v>2829901.92052176</v>
       </c>
       <c r="CK17">
-        <v>2775588.176308596</v>
+        <v>2775588.176308598</v>
       </c>
       <c r="CL17">
-        <v>2796669.966111688</v>
+        <v>2796669.966111691</v>
       </c>
       <c r="CM17">
-        <v>2834221.307284901</v>
+        <v>2834221.307284903</v>
       </c>
       <c r="CN17">
-        <v>2887084.574057975</v>
+        <v>2887084.574057978</v>
       </c>
       <c r="CO17">
-        <v>2953329.630089895</v>
+        <v>2953329.630089898</v>
       </c>
     </row>
   </sheetData>
@@ -5431,37 +5431,37 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>1059.139284590804</v>
+        <v>1059.139284590803</v>
       </c>
       <c r="E2">
-        <v>2443.415494202177</v>
+        <v>2443.415494202176</v>
       </c>
       <c r="F2">
-        <v>3826.203288924852</v>
+        <v>3826.20328892485</v>
       </c>
       <c r="G2">
-        <v>5139.382651371861</v>
+        <v>5139.382651371859</v>
       </c>
       <c r="H2">
-        <v>6905.920212436344</v>
+        <v>6905.92021243634</v>
       </c>
       <c r="I2">
-        <v>8176.567867576257</v>
+        <v>8176.567867576252</v>
       </c>
       <c r="J2">
         <v>10486.17134206949</v>
       </c>
       <c r="K2">
-        <v>12780.54837997549</v>
+        <v>12780.54837997548</v>
       </c>
       <c r="L2">
         <v>14819.93257202258</v>
       </c>
       <c r="M2">
-        <v>16696.86657115719</v>
+        <v>16696.86657115718</v>
       </c>
       <c r="N2">
-        <v>20730.16686587052</v>
+        <v>20730.16686587051</v>
       </c>
       <c r="O2">
         <v>23169.36639141457</v>
@@ -5476,163 +5476,163 @@
         <v>39008.01814249007</v>
       </c>
       <c r="S2">
-        <v>51453.19674797165</v>
+        <v>51453.19674797164</v>
       </c>
       <c r="T2">
-        <v>64806.96925680611</v>
+        <v>64806.96925680609</v>
       </c>
       <c r="U2">
-        <v>79063.12202726083</v>
+        <v>79063.1220272608</v>
       </c>
       <c r="V2">
-        <v>94204.87528699715</v>
+        <v>94204.87528699711</v>
       </c>
       <c r="W2">
-        <v>110235.3190161684</v>
+        <v>110235.3190161683</v>
       </c>
       <c r="X2">
-        <v>126302.0014731256</v>
+        <v>126302.0014731255</v>
       </c>
       <c r="Y2">
-        <v>143204.5464128958</v>
+        <v>143204.5464128957</v>
       </c>
       <c r="Z2">
-        <v>160965.1946995922</v>
+        <v>160965.1946995921</v>
       </c>
       <c r="AA2">
         <v>179610.8421201363</v>
       </c>
       <c r="AB2">
-        <v>199151.8656391134</v>
+        <v>199151.8656391133</v>
       </c>
       <c r="AC2">
-        <v>208125.8550533656</v>
+        <v>208125.8550533655</v>
       </c>
       <c r="AD2">
-        <v>217359.1619393977</v>
+        <v>217359.1619393976</v>
       </c>
       <c r="AE2">
-        <v>226837.2749156235</v>
+        <v>226837.2749156234</v>
       </c>
       <c r="AF2">
-        <v>236555.5932158606</v>
+        <v>236555.5932158605</v>
       </c>
       <c r="AG2">
-        <v>246592.6625772488</v>
+        <v>246592.6625772487</v>
       </c>
       <c r="AH2">
-        <v>252912.0950476916</v>
+        <v>252912.0950476915</v>
       </c>
       <c r="AI2">
-        <v>259361.0651764897</v>
+        <v>259361.0651764896</v>
       </c>
       <c r="AJ2">
-        <v>265915.8035827406</v>
+        <v>265915.8035827405</v>
       </c>
       <c r="AK2">
-        <v>272501.409030589</v>
+        <v>272501.4090305889</v>
       </c>
       <c r="AL2">
-        <v>279334.1432367666</v>
+        <v>279334.1432367665</v>
       </c>
       <c r="AM2">
-        <v>288499.771184649</v>
+        <v>288499.7711846489</v>
       </c>
       <c r="AN2">
-        <v>298312.8998063738</v>
+        <v>298312.8998063736</v>
       </c>
       <c r="AO2">
-        <v>308970.470007251</v>
+        <v>308970.4700072509</v>
       </c>
       <c r="AP2">
-        <v>320936.2971396823</v>
+        <v>320936.2971396822</v>
       </c>
       <c r="AQ2">
-        <v>334639.8040744124</v>
+        <v>334639.8040744123</v>
       </c>
       <c r="AR2">
-        <v>354092.1289548172</v>
+        <v>354092.1289548171</v>
       </c>
       <c r="AS2">
-        <v>375757.6808804382</v>
+        <v>375757.680880438</v>
       </c>
       <c r="AT2">
-        <v>398669.8622910479</v>
+        <v>398669.8622910477</v>
       </c>
       <c r="AU2">
-        <v>422590.4655766417</v>
+        <v>422590.4655766415</v>
       </c>
       <c r="AV2">
-        <v>447363.2874288902</v>
+        <v>447363.2874288899</v>
       </c>
       <c r="AW2">
-        <v>473552.4652624512</v>
+        <v>473552.4652624509</v>
       </c>
       <c r="AX2">
-        <v>500412.8675946517</v>
+        <v>500412.8675946514</v>
       </c>
       <c r="AY2">
-        <v>527860.7891497669</v>
+        <v>527860.7891497667</v>
       </c>
       <c r="AZ2">
-        <v>555270.0392929181</v>
+        <v>555270.0392929178</v>
       </c>
       <c r="BA2">
-        <v>581314.6463431015</v>
+        <v>581314.6463431013</v>
       </c>
       <c r="BB2">
-        <v>603664.7041134046</v>
+        <v>603664.7041134044</v>
       </c>
       <c r="BC2">
-        <v>623978.400325979</v>
+        <v>623978.4003259786</v>
       </c>
       <c r="BD2">
-        <v>644086.0639071818</v>
+        <v>644086.0639071815</v>
       </c>
       <c r="BE2">
-        <v>664084.9308536403</v>
+        <v>664084.93085364</v>
       </c>
       <c r="BF2">
-        <v>683540.6162043009</v>
+        <v>683540.6162043005</v>
       </c>
       <c r="BG2">
-        <v>701337.7449735337</v>
+        <v>701337.7449735333</v>
       </c>
       <c r="BH2">
-        <v>718455.6184988073</v>
+        <v>718455.618498807</v>
       </c>
       <c r="BI2">
-        <v>735660.3525347285</v>
+        <v>735660.3525347281</v>
       </c>
       <c r="BJ2">
-        <v>753233.3165415723</v>
+        <v>753233.316541572</v>
       </c>
       <c r="BK2">
-        <v>771529.2730804466</v>
+        <v>771529.2730804462</v>
       </c>
       <c r="BL2">
-        <v>790611.6424189074</v>
+        <v>790611.6424189069</v>
       </c>
       <c r="BM2">
-        <v>810923.058106309</v>
+        <v>810923.0581063086</v>
       </c>
       <c r="BN2">
-        <v>832475.0625894393</v>
+        <v>832475.0625894389</v>
       </c>
       <c r="BO2">
-        <v>855760.858954052</v>
+        <v>855760.8589540515</v>
       </c>
       <c r="BP2">
-        <v>881524.789658941</v>
+        <v>881524.7896589405</v>
       </c>
       <c r="BQ2">
-        <v>910170.4396701072</v>
+        <v>910170.4396701067</v>
       </c>
       <c r="BR2">
-        <v>941447.2391557216</v>
+        <v>941447.2391557212</v>
       </c>
       <c r="BS2">
-        <v>974322.9777449954</v>
+        <v>974322.9777449949</v>
       </c>
       <c r="BT2">
         <v>1008374.415946822</v>
@@ -5641,16 +5641,16 @@
         <v>1043497.963870364</v>
       </c>
       <c r="BV2">
-        <v>1079398.734104621</v>
+        <v>1079398.73410462</v>
       </c>
       <c r="BW2">
-        <v>1116041.821238064</v>
+        <v>1116041.821238063</v>
       </c>
       <c r="BX2">
         <v>1152937.520923482</v>
       </c>
       <c r="BY2">
-        <v>1189394.884595644</v>
+        <v>1189394.884595643</v>
       </c>
       <c r="BZ2">
         <v>1224515.979286578</v>
@@ -5665,22 +5665,22 @@
         <v>1319521.897562525</v>
       </c>
       <c r="CD2">
-        <v>1349845.107949332</v>
+        <v>1349845.107949331</v>
       </c>
       <c r="CE2">
-        <v>1379633.394791157</v>
+        <v>1379633.394791156</v>
       </c>
       <c r="CF2">
         <v>1408433.898867836</v>
       </c>
       <c r="CG2">
-        <v>1436752.065126506</v>
+        <v>1436752.065126505</v>
       </c>
       <c r="CH2">
-        <v>1465138.907834927</v>
+        <v>1465138.907834926</v>
       </c>
       <c r="CI2">
-        <v>1494000.401330625</v>
+        <v>1494000.401330624</v>
       </c>
       <c r="CJ2">
         <v>1523609.06612508</v>
@@ -5689,16 +5689,16 @@
         <v>1553797.25517046</v>
       </c>
       <c r="CL2">
-        <v>1585209.824554992</v>
+        <v>1585209.824554991</v>
       </c>
       <c r="CM2">
-        <v>1618138.893240095</v>
+        <v>1618138.893240094</v>
       </c>
       <c r="CN2">
-        <v>1652952.739594727</v>
+        <v>1652952.739594726</v>
       </c>
       <c r="CO2">
-        <v>1690053.626158811</v>
+        <v>1690053.62615881</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -5708,70 +5708,70 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>70.24524384338173</v>
+        <v>70.24524384338169</v>
       </c>
       <c r="E3">
-        <v>162.2812548281395</v>
+        <v>162.2812548281394</v>
       </c>
       <c r="F3">
-        <v>254.1226891127977</v>
+        <v>254.1226891127976</v>
       </c>
       <c r="G3">
-        <v>341.2880793519266</v>
+        <v>341.2880793519264</v>
       </c>
       <c r="H3">
-        <v>458.9811473973726</v>
+        <v>458.9811473973723</v>
       </c>
       <c r="I3">
-        <v>543.358883673787</v>
+        <v>543.3588836737866</v>
       </c>
       <c r="J3">
-        <v>697.4269595432602</v>
+        <v>697.4269595432597</v>
       </c>
       <c r="K3">
-        <v>850.3505932333996</v>
+        <v>850.3505932333991</v>
       </c>
       <c r="L3">
-        <v>986.1841918833013</v>
+        <v>986.1841918833006</v>
       </c>
       <c r="M3">
-        <v>1111.045129309586</v>
+        <v>1111.045129309585</v>
       </c>
       <c r="N3">
         <v>1380.664995296677</v>
       </c>
       <c r="O3">
-        <v>1543.328512639209</v>
+        <v>1543.328512639208</v>
       </c>
       <c r="P3">
-        <v>1871.294409702646</v>
+        <v>1871.294409702645</v>
       </c>
       <c r="Q3">
         <v>2224.511110282303</v>
       </c>
       <c r="R3">
-        <v>2603.247797506689</v>
+        <v>2603.247797506688</v>
       </c>
       <c r="S3">
         <v>3437.657068292518</v>
       </c>
       <c r="T3">
-        <v>4333.059488228228</v>
+        <v>4333.059488228227</v>
       </c>
       <c r="U3">
-        <v>5289.035080956369</v>
+        <v>5289.035080956368</v>
       </c>
       <c r="V3">
-        <v>6304.457092602914</v>
+        <v>6304.457092602913</v>
       </c>
       <c r="W3">
-        <v>7379.534729065813</v>
+        <v>7379.534729065812</v>
       </c>
       <c r="X3">
-        <v>8457.014514527758</v>
+        <v>8457.014514527757</v>
       </c>
       <c r="Y3">
-        <v>9590.607960458668</v>
+        <v>9590.607960458667</v>
       </c>
       <c r="Z3">
         <v>10781.81175952161</v>
@@ -5780,13 +5780,13 @@
         <v>12032.43155244422</v>
       </c>
       <c r="AB3">
-        <v>13343.16064714954</v>
+        <v>13343.16064714953</v>
       </c>
       <c r="AC3">
-        <v>13944.2698809915</v>
+        <v>13944.26988099149</v>
       </c>
       <c r="AD3">
-        <v>14562.79396518638</v>
+        <v>14562.79396518637</v>
       </c>
       <c r="AE3">
         <v>15197.77535896141</v>
@@ -5810,7 +5810,7 @@
         <v>18255.73073851773</v>
       </c>
       <c r="AL3">
-        <v>18713.20338419491</v>
+        <v>18713.2033841949</v>
       </c>
       <c r="AM3">
         <v>19327.5395591771</v>
@@ -5840,7 +5840,7 @@
         <v>28348.62210127918</v>
       </c>
       <c r="AV3">
-        <v>30016.06975777331</v>
+        <v>30016.0697577733</v>
       </c>
       <c r="AW3">
         <v>31778.62769538571</v>
@@ -5870,109 +5870,109 @@
         <v>44590.61490794818</v>
       </c>
       <c r="BF3">
-        <v>45897.09137315905</v>
+        <v>45897.09137315904</v>
       </c>
       <c r="BG3">
         <v>47091.80463218188</v>
       </c>
       <c r="BH3">
-        <v>48240.76988120574</v>
+        <v>48240.76988120572</v>
       </c>
       <c r="BI3">
-        <v>49395.90639451144</v>
+        <v>49395.90639451142</v>
       </c>
       <c r="BJ3">
-        <v>50576.09550907267</v>
+        <v>50576.09550907265</v>
       </c>
       <c r="BK3">
-        <v>51805.52044040456</v>
+        <v>51805.52044040454</v>
       </c>
       <c r="BL3">
-        <v>53089.09448791715</v>
+        <v>53089.09448791713</v>
       </c>
       <c r="BM3">
-        <v>54457.196101394</v>
+        <v>54457.19610139398</v>
       </c>
       <c r="BN3">
-        <v>55911.03895509475</v>
+        <v>55911.03895509473</v>
       </c>
       <c r="BO3">
-        <v>57484.02062388441</v>
+        <v>57484.02062388439</v>
       </c>
       <c r="BP3">
-        <v>59226.41053192042</v>
+        <v>59226.4105319204</v>
       </c>
       <c r="BQ3">
-        <v>61165.52737769625</v>
+        <v>61165.52737769623</v>
       </c>
       <c r="BR3">
-        <v>63283.36087830233</v>
+        <v>63283.36087830231</v>
       </c>
       <c r="BS3">
-        <v>65508.59504611173</v>
+        <v>65508.59504611171</v>
       </c>
       <c r="BT3">
-        <v>67811.57673236936</v>
+        <v>67811.57673236933</v>
       </c>
       <c r="BU3">
-        <v>70184.82943026834</v>
+        <v>70184.82943026831</v>
       </c>
       <c r="BV3">
-        <v>72608.53960932298</v>
+        <v>72608.53960932295</v>
       </c>
       <c r="BW3">
-        <v>75080.54172795468</v>
+        <v>75080.54172795465</v>
       </c>
       <c r="BX3">
-        <v>77567.9584626205</v>
+        <v>77567.95846262047</v>
       </c>
       <c r="BY3">
-        <v>80024.15301374253</v>
+        <v>80024.1530137425</v>
       </c>
       <c r="BZ3">
-        <v>82388.51446253416</v>
+        <v>82388.51446253413</v>
       </c>
       <c r="CA3">
-        <v>84606.36691459893</v>
+        <v>84606.3669145989</v>
       </c>
       <c r="CB3">
-        <v>86715.16493122213</v>
+        <v>86715.1649312221</v>
       </c>
       <c r="CC3">
-        <v>88775.89861203666</v>
+        <v>88775.89861203663</v>
       </c>
       <c r="CD3">
-        <v>90813.49334612594</v>
+        <v>90813.49334612591</v>
       </c>
       <c r="CE3">
-        <v>92814.96044505993</v>
+        <v>92814.9604450599</v>
       </c>
       <c r="CF3">
-        <v>94749.83590165799</v>
+        <v>94749.83590165796</v>
       </c>
       <c r="CG3">
-        <v>96652.20076607898</v>
+        <v>96652.20076607894</v>
       </c>
       <c r="CH3">
-        <v>98559.33807076322</v>
+        <v>98559.33807076317</v>
       </c>
       <c r="CI3">
-        <v>100498.7970748057</v>
+        <v>100498.7970748056</v>
       </c>
       <c r="CJ3">
-        <v>102489.2414201375</v>
+        <v>102489.2414201374</v>
       </c>
       <c r="CK3">
         <v>104519.9845290985</v>
       </c>
       <c r="CL3">
-        <v>106635.1964589632</v>
+        <v>106635.1964589631</v>
       </c>
       <c r="CM3">
-        <v>108855.3531017211</v>
+        <v>108855.353101721</v>
       </c>
       <c r="CN3">
-        <v>111205.5531669024</v>
+        <v>111205.5531669023</v>
       </c>
       <c r="CO3">
         <v>113712.8580643566</v>
@@ -5985,10 +5985,10 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>379415.8121898659</v>
+        <v>379415.812189866</v>
       </c>
       <c r="E4">
-        <v>755071.0132192038</v>
+        <v>755071.013219204</v>
       </c>
       <c r="F4">
         <v>1217198.763111909</v>
@@ -5997,7 +5997,7 @@
         <v>1736373.584122905</v>
       </c>
       <c r="H4">
-        <v>2422694.056676107</v>
+        <v>2422694.056676108</v>
       </c>
       <c r="I4">
         <v>3067315.652083126</v>
@@ -6111,16 +6111,16 @@
         <v>133629328.8710475</v>
       </c>
       <c r="AT4">
-        <v>137633751.6929066</v>
+        <v>137633751.6929065</v>
       </c>
       <c r="AU4">
-        <v>141811880.7676707</v>
+        <v>141811880.7676706</v>
       </c>
       <c r="AV4">
         <v>146105481.3675598</v>
       </c>
       <c r="AW4">
-        <v>150584018.3332669</v>
+        <v>150584018.3332668</v>
       </c>
       <c r="AX4">
         <v>155064509.3356443</v>
@@ -6135,7 +6135,7 @@
         <v>167668277.6067401</v>
       </c>
       <c r="BB4">
-        <v>170793428.1080088</v>
+        <v>170793428.1080087</v>
       </c>
       <c r="BC4">
         <v>173443436.0284709</v>
@@ -6144,58 +6144,58 @@
         <v>175839231.3390494</v>
       </c>
       <c r="BE4">
-        <v>178004076.6343559</v>
+        <v>178004076.6343558</v>
       </c>
       <c r="BF4">
-        <v>179915854.6077807</v>
+        <v>179915854.6077806</v>
       </c>
       <c r="BG4">
-        <v>181495127.1931719</v>
+        <v>181495127.1931718</v>
       </c>
       <c r="BH4">
         <v>182921792.0060509</v>
       </c>
       <c r="BI4">
-        <v>184240727.0637642</v>
+        <v>184240727.0637641</v>
       </c>
       <c r="BJ4">
         <v>185496792.7904143</v>
       </c>
       <c r="BK4">
-        <v>186734461.2995379</v>
+        <v>186734461.2995378</v>
       </c>
       <c r="BL4">
-        <v>187899116.4833452</v>
+        <v>187899116.4833451</v>
       </c>
       <c r="BM4">
         <v>189243014.7199178</v>
       </c>
       <c r="BN4">
-        <v>190842420.6282477</v>
+        <v>190842420.6282476</v>
       </c>
       <c r="BO4">
-        <v>192770131.4513113</v>
+        <v>192770131.4513112</v>
       </c>
       <c r="BP4">
         <v>195085443.2618603</v>
       </c>
       <c r="BQ4">
-        <v>197764865.4692914</v>
+        <v>197764865.4692913</v>
       </c>
       <c r="BR4">
         <v>200798939.4187704</v>
       </c>
       <c r="BS4">
-        <v>204053564.5226076</v>
+        <v>204053564.5226075</v>
       </c>
       <c r="BT4">
-        <v>207451940.8565814</v>
+        <v>207451940.8565813</v>
       </c>
       <c r="BU4">
         <v>210954695.7763095</v>
       </c>
       <c r="BV4">
-        <v>214457869.2509908</v>
+        <v>214457869.2509907</v>
       </c>
       <c r="BW4">
         <v>217989857.9087189</v>
@@ -6204,19 +6204,19 @@
         <v>221487679.3648872</v>
       </c>
       <c r="BY4">
-        <v>224856215.0568909</v>
+        <v>224856215.0568908</v>
       </c>
       <c r="BZ4">
         <v>227978407.0032737</v>
       </c>
       <c r="CA4">
-        <v>230744887.2609626</v>
+        <v>230744887.2609625</v>
       </c>
       <c r="CB4">
-        <v>233260448.0701723</v>
+        <v>233260448.0701722</v>
       </c>
       <c r="CC4">
-        <v>235685693.392045</v>
+        <v>235685693.3920449</v>
       </c>
       <c r="CD4">
         <v>237992488.9827416</v>
@@ -6228,19 +6228,19 @@
         <v>242173220.582364</v>
       </c>
       <c r="CG4">
-        <v>244049464.5093319</v>
+        <v>244049464.5093318</v>
       </c>
       <c r="CH4">
-        <v>245821117.695504</v>
+        <v>245821117.6955039</v>
       </c>
       <c r="CI4">
-        <v>247516104.0645532</v>
+        <v>247516104.0645531</v>
       </c>
       <c r="CJ4">
-        <v>249156546.1744795</v>
+        <v>249156546.1744794</v>
       </c>
       <c r="CK4">
-        <v>250743932.6279913</v>
+        <v>250743932.6279912</v>
       </c>
       <c r="CL4">
         <v>252347906.1924641</v>
@@ -6262,34 +6262,34 @@
         <v>8</v>
       </c>
       <c r="D5">
-        <v>1724032.564966476</v>
+        <v>1724032.564966474</v>
       </c>
       <c r="E5">
-        <v>2891902.781702466</v>
+        <v>2891902.781702464</v>
       </c>
       <c r="F5">
-        <v>4030485.132837117</v>
+        <v>4030485.132837115</v>
       </c>
       <c r="G5">
-        <v>5121044.960162399</v>
+        <v>5121044.960162397</v>
       </c>
       <c r="H5">
-        <v>6174938.321565688</v>
+        <v>6174938.321565686</v>
       </c>
       <c r="I5">
-        <v>7546181.810976643</v>
+        <v>7546181.810976641</v>
       </c>
       <c r="J5">
-        <v>9087220.80471226</v>
+        <v>9087220.804712258</v>
       </c>
       <c r="K5">
-        <v>10396459.48602558</v>
+        <v>10396459.48602557</v>
       </c>
       <c r="L5">
         <v>11555566.58795027</v>
       </c>
       <c r="M5">
-        <v>12873994.96789545</v>
+        <v>12873994.96789544</v>
       </c>
       <c r="N5">
         <v>14251469.70586008</v>
@@ -6298,13 +6298,13 @@
         <v>16080808.07819993</v>
       </c>
       <c r="P5">
-        <v>29818476.07966349</v>
+        <v>29818476.07966348</v>
       </c>
       <c r="Q5">
-        <v>43567183.35785583</v>
+        <v>43567183.35785582</v>
       </c>
       <c r="R5">
-        <v>57330483.12660667</v>
+        <v>57330483.12660666</v>
       </c>
       <c r="S5">
         <v>103197659.2841665</v>
@@ -6313,94 +6313,94 @@
         <v>149089118.5606258</v>
       </c>
       <c r="U5">
-        <v>195011175.7378947</v>
+        <v>195011175.7378946</v>
       </c>
       <c r="V5">
-        <v>240971359.5331697</v>
+        <v>240971359.5331696</v>
       </c>
       <c r="W5">
         <v>286978685.8439851</v>
       </c>
       <c r="X5">
-        <v>335202109.5869189</v>
+        <v>335202109.5869188</v>
       </c>
       <c r="Y5">
         <v>383497120.1111687</v>
       </c>
       <c r="Z5">
-        <v>431880708.8510014</v>
+        <v>431880708.8510013</v>
       </c>
       <c r="AA5">
-        <v>480374645.1939538</v>
+        <v>480374645.1939536</v>
       </c>
       <c r="AB5">
-        <v>529007210.9220455</v>
+        <v>529007210.9220454</v>
       </c>
       <c r="AC5">
-        <v>542329251.5276442</v>
+        <v>542329251.527644</v>
       </c>
       <c r="AD5">
-        <v>555875882.5658077</v>
+        <v>555875882.5658076</v>
       </c>
       <c r="AE5">
-        <v>569711414.926087</v>
+        <v>569711414.9260869</v>
       </c>
       <c r="AF5">
-        <v>583920002.0381815</v>
+        <v>583920002.0381814</v>
       </c>
       <c r="AG5">
-        <v>598610529.4493483</v>
+        <v>598610529.4493482</v>
       </c>
       <c r="AH5">
-        <v>603206244.3450453</v>
+        <v>603206244.3450452</v>
       </c>
       <c r="AI5">
-        <v>608106603.6971865</v>
+        <v>608106603.6971864</v>
       </c>
       <c r="AJ5">
-        <v>613410986.8274076</v>
+        <v>613410986.8274075</v>
       </c>
       <c r="AK5">
-        <v>619801994.1274053</v>
+        <v>619801994.1274052</v>
       </c>
       <c r="AL5">
-        <v>627557451.1965549</v>
+        <v>627557451.1965548</v>
       </c>
       <c r="AM5">
-        <v>641778194.4774107</v>
+        <v>641778194.4774106</v>
       </c>
       <c r="AN5">
-        <v>658161429.8332266</v>
+        <v>658161429.8332264</v>
       </c>
       <c r="AO5">
-        <v>677020657.8518487</v>
+        <v>677020657.8518486</v>
       </c>
       <c r="AP5">
-        <v>698635805.1712807</v>
+        <v>698635805.1712806</v>
       </c>
       <c r="AQ5">
-        <v>723222397.8827369</v>
+        <v>723222397.8827368</v>
       </c>
       <c r="AR5">
-        <v>757692856.6789203</v>
+        <v>757692856.6789201</v>
       </c>
       <c r="AS5">
-        <v>795241968.2268635</v>
+        <v>795241968.2268634</v>
       </c>
       <c r="AT5">
-        <v>835705460.3380412</v>
+        <v>835705460.3380411</v>
       </c>
       <c r="AU5">
-        <v>878753369.9193891</v>
+        <v>878753369.919389</v>
       </c>
       <c r="AV5">
-        <v>923894388.4994041</v>
+        <v>923894388.499404</v>
       </c>
       <c r="AW5">
-        <v>972435103.0443552</v>
+        <v>972435103.044355</v>
       </c>
       <c r="AX5">
-        <v>1021712906.11377</v>
+        <v>1021712906.113769</v>
       </c>
       <c r="AY5">
         <v>1070957892.747385</v>
@@ -6409,7 +6409,7 @@
         <v>1119416558.641395</v>
       </c>
       <c r="BA5">
-        <v>1166409199.728033</v>
+        <v>1166409199.728032</v>
       </c>
       <c r="BB5">
         <v>1210213436.463746</v>
@@ -6433,7 +6433,7 @@
         <v>1419631937.823695</v>
       </c>
       <c r="BI5">
-        <v>1447478044.05307</v>
+        <v>1447478044.053069</v>
       </c>
       <c r="BJ5">
         <v>1474821556.633587</v>
@@ -6448,7 +6448,7 @@
         <v>1559874811.209106</v>
       </c>
       <c r="BN5">
-        <v>1591096379.714055</v>
+        <v>1591096379.714054</v>
       </c>
       <c r="BO5">
         <v>1624476744.975853</v>
@@ -6475,7 +6475,7 @@
         <v>1927805042.75756</v>
       </c>
       <c r="BW5">
-        <v>1979243187.320738</v>
+        <v>1979243187.320737</v>
       </c>
       <c r="BX5">
         <v>2031725609.038108</v>
@@ -6543,37 +6543,37 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.8465595600423425</v>
+        <v>0.8465595600423422</v>
       </c>
       <c r="E6">
         <v>1.706079325196513</v>
       </c>
       <c r="F6">
-        <v>2.61400221868186</v>
+        <v>2.614002218681859</v>
       </c>
       <c r="G6">
-        <v>3.529088962903912</v>
+        <v>3.529088962903911</v>
       </c>
       <c r="H6">
-        <v>4.417962420456848</v>
+        <v>4.417962420456847</v>
       </c>
       <c r="I6">
-        <v>5.298828264339983</v>
+        <v>5.298828264339982</v>
       </c>
       <c r="J6">
-        <v>6.220946920441949</v>
+        <v>6.220946920441948</v>
       </c>
       <c r="K6">
-        <v>7.237964591963895</v>
+        <v>7.237964591963893</v>
       </c>
       <c r="L6">
-        <v>8.267034472732377</v>
+        <v>8.267034472732375</v>
       </c>
       <c r="M6">
-        <v>9.363051581216119</v>
+        <v>9.363051581216117</v>
       </c>
       <c r="N6">
-        <v>10.52731254717073</v>
+        <v>10.52731254717072</v>
       </c>
       <c r="O6">
         <v>11.59146526558247</v>
@@ -6585,7 +6585,7 @@
         <v>13.91594171707828</v>
       </c>
       <c r="R6">
-        <v>15.1203430192761</v>
+        <v>15.12034301927609</v>
       </c>
       <c r="S6">
         <v>16.43509241022623</v>
@@ -6823,7 +6823,7 @@
         <v>0.04257156378650376</v>
       </c>
       <c r="E7">
-        <v>0.08526091468610736</v>
+        <v>0.08526091468610739</v>
       </c>
       <c r="F7">
         <v>0.1296851605529958</v>
@@ -6838,40 +6838,40 @@
         <v>0.2626584897096136</v>
       </c>
       <c r="J7">
-        <v>0.3076725695725663</v>
+        <v>0.3076725695725664</v>
       </c>
       <c r="K7">
-        <v>0.3571092594538709</v>
+        <v>0.357109259453871</v>
       </c>
       <c r="L7">
-        <v>0.4079401778600926</v>
+        <v>0.4079401778600927</v>
       </c>
       <c r="M7">
-        <v>0.4622780586603852</v>
+        <v>0.4622780586603853</v>
       </c>
       <c r="N7">
-        <v>0.5200313579904047</v>
+        <v>0.5200313579904048</v>
       </c>
       <c r="O7">
-        <v>0.572837712969084</v>
+        <v>0.5728377129690841</v>
       </c>
       <c r="P7">
-        <v>0.6296573348905677</v>
+        <v>0.6296573348905679</v>
       </c>
       <c r="Q7">
-        <v>0.687896445972898</v>
+        <v>0.6878964459728981</v>
       </c>
       <c r="R7">
-        <v>0.7475601117268132</v>
+        <v>0.7475601117268134</v>
       </c>
       <c r="S7">
-        <v>0.8121784044567613</v>
+        <v>0.8121784044567614</v>
       </c>
       <c r="T7">
-        <v>0.8784828610994213</v>
+        <v>0.8784828610994214</v>
       </c>
       <c r="U7">
-        <v>0.9464667888713457</v>
+        <v>0.9464667888713458</v>
       </c>
       <c r="V7">
         <v>1.016132488141818</v>
@@ -6883,7 +6883,7 @@
         <v>1.160398212105858</v>
       </c>
       <c r="Y7">
-        <v>1.234932449169312</v>
+        <v>1.234932449169313</v>
       </c>
       <c r="Z7">
         <v>1.311092026682236</v>
@@ -6910,7 +6910,7 @@
         <v>1.871288201829647</v>
       </c>
       <c r="AH7">
-        <v>1.955911586423363</v>
+        <v>1.955911586423364</v>
       </c>
       <c r="AI7">
         <v>2.042217240917994</v>
@@ -6931,7 +6931,7 @@
         <v>2.500796277034439</v>
       </c>
       <c r="AO7">
-        <v>2.598406779566274</v>
+        <v>2.598406779566275</v>
       </c>
       <c r="AP7">
         <v>2.698066505123335</v>
@@ -6940,7 +6940,7 @@
         <v>2.799854397995814</v>
       </c>
       <c r="AR7">
-        <v>2.904700362563433</v>
+        <v>2.904700362563434</v>
       </c>
       <c r="AS7">
         <v>3.011728854003094</v>
@@ -6952,7 +6952,7 @@
         <v>3.231529657137032</v>
       </c>
       <c r="AV7">
-        <v>3.344178659732214</v>
+        <v>3.344178659732215</v>
       </c>
       <c r="AW7">
         <v>3.458902963308689</v>
@@ -6964,124 +6964,124 @@
         <v>3.693862995270121</v>
       </c>
       <c r="AZ7">
-        <v>3.813920050031408</v>
+        <v>3.813920050031409</v>
       </c>
       <c r="BA7">
-        <v>3.935435582678707</v>
+        <v>3.935435582678708</v>
       </c>
       <c r="BB7">
-        <v>4.058202318612837</v>
+        <v>4.058202318612838</v>
       </c>
       <c r="BC7">
-        <v>4.182480004714245</v>
+        <v>4.182480004714246</v>
       </c>
       <c r="BD7">
-        <v>4.308525748308554</v>
+        <v>4.308525748308556</v>
       </c>
       <c r="BE7">
-        <v>4.436366586846651</v>
+        <v>4.436366586846653</v>
       </c>
       <c r="BF7">
-        <v>4.565977643242815</v>
+        <v>4.565977643242817</v>
       </c>
       <c r="BG7">
-        <v>4.697405005052307</v>
+        <v>4.697405005052309</v>
       </c>
       <c r="BH7">
-        <v>4.830788980758041</v>
+        <v>4.830788980758043</v>
       </c>
       <c r="BI7">
-        <v>4.966213894133338</v>
+        <v>4.96621389413334</v>
       </c>
       <c r="BJ7">
-        <v>5.103739594315521</v>
+        <v>5.103739594315524</v>
       </c>
       <c r="BK7">
-        <v>5.243431378926379</v>
+        <v>5.243431378926382</v>
       </c>
       <c r="BL7">
-        <v>5.385431350065561</v>
+        <v>5.385431350065564</v>
       </c>
       <c r="BM7">
-        <v>5.529864230632052</v>
+        <v>5.529864230632055</v>
       </c>
       <c r="BN7">
-        <v>5.676812790529623</v>
+        <v>5.676812790529626</v>
       </c>
       <c r="BO7">
-        <v>5.826373709587178</v>
+        <v>5.82637370958718</v>
       </c>
       <c r="BP7">
-        <v>5.978646526421438</v>
+        <v>5.978646526421441</v>
       </c>
       <c r="BQ7">
-        <v>6.133838173371217</v>
+        <v>6.13383817337122</v>
       </c>
       <c r="BR7">
-        <v>6.291868629247022</v>
+        <v>6.291868629247024</v>
       </c>
       <c r="BS7">
-        <v>6.452553844415306</v>
+        <v>6.452553844415308</v>
       </c>
       <c r="BT7">
-        <v>6.615792357419548</v>
+        <v>6.615792357419551</v>
       </c>
       <c r="BU7">
-        <v>6.781542044939429</v>
+        <v>6.781542044939432</v>
       </c>
       <c r="BV7">
-        <v>6.949876523878592</v>
+        <v>6.949876523878594</v>
       </c>
       <c r="BW7">
-        <v>7.120772156914341</v>
+        <v>7.120772156914343</v>
       </c>
       <c r="BX7">
-        <v>7.294151485181912</v>
+        <v>7.294151485181914</v>
       </c>
       <c r="BY7">
-        <v>7.469905222869309</v>
+        <v>7.469905222869312</v>
       </c>
       <c r="BZ7">
-        <v>7.647901289699181</v>
+        <v>7.647901289699185</v>
       </c>
       <c r="CA7">
-        <v>7.828164527045137</v>
+        <v>7.82816452704514</v>
       </c>
       <c r="CB7">
-        <v>8.010781423824552</v>
+        <v>8.010781423824556</v>
       </c>
       <c r="CC7">
-        <v>8.195906770213524</v>
+        <v>8.195906770213528</v>
       </c>
       <c r="CD7">
-        <v>8.383567563176662</v>
+        <v>8.383567563176666</v>
       </c>
       <c r="CE7">
-        <v>8.573749953786844</v>
+        <v>8.573749953786848</v>
       </c>
       <c r="CF7">
-        <v>8.766554879827977</v>
+        <v>8.76655487982798</v>
       </c>
       <c r="CG7">
-        <v>8.962048396471115</v>
+        <v>8.962048396471118</v>
       </c>
       <c r="CH7">
-        <v>9.160275750561373</v>
+        <v>9.160275750561377</v>
       </c>
       <c r="CI7">
-        <v>9.361279162933197</v>
+        <v>9.361279162933201</v>
       </c>
       <c r="CJ7">
-        <v>9.565098788964633</v>
+        <v>9.565098788964637</v>
       </c>
       <c r="CK7">
-        <v>9.77185818081027</v>
+        <v>9.771858180810273</v>
       </c>
       <c r="CL7">
-        <v>9.981688383144288</v>
+        <v>9.981688383144292</v>
       </c>
       <c r="CM7">
-        <v>10.19469587024566</v>
+        <v>10.19469587024567</v>
       </c>
       <c r="CN7">
         <v>10.41097054052866</v>
@@ -7097,274 +7097,274 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>804740.9677305479</v>
+        <v>804740.9677305474</v>
       </c>
       <c r="E8">
         <v>1372778.737439421</v>
       </c>
       <c r="F8">
-        <v>1735569.969596259</v>
+        <v>1735569.969596258</v>
       </c>
       <c r="G8">
-        <v>2036736.927867131</v>
+        <v>2036736.92786713</v>
       </c>
       <c r="H8">
         <v>2359811.405595371</v>
       </c>
       <c r="I8">
-        <v>2614492.132534226</v>
+        <v>2614492.132534225</v>
       </c>
       <c r="J8">
-        <v>2902028.98590872</v>
+        <v>2902028.985908719</v>
       </c>
       <c r="K8">
-        <v>3151683.900249394</v>
+        <v>3151683.900249393</v>
       </c>
       <c r="L8">
-        <v>3450225.758995659</v>
+        <v>3450225.758995658</v>
       </c>
       <c r="M8">
-        <v>3711665.982696715</v>
+        <v>3711665.982696714</v>
       </c>
       <c r="N8">
-        <v>4011349.04920245</v>
+        <v>4011349.049202449</v>
       </c>
       <c r="O8">
-        <v>4414775.103129098</v>
+        <v>4414775.103129097</v>
       </c>
       <c r="P8">
-        <v>6145352.652065871</v>
+        <v>6145352.65206587</v>
       </c>
       <c r="Q8">
-        <v>7885884.895325476</v>
+        <v>7885884.895325474</v>
       </c>
       <c r="R8">
-        <v>9642697.82929598</v>
+        <v>9642697.829295976</v>
       </c>
       <c r="S8">
-        <v>15356159.43737133</v>
+        <v>15356159.43737132</v>
       </c>
       <c r="T8">
-        <v>21097954.71271031</v>
+        <v>21097954.7127103</v>
       </c>
       <c r="U8">
-        <v>26857740.10269136</v>
+        <v>26857740.10269134</v>
       </c>
       <c r="V8">
-        <v>32635832.3613266</v>
+        <v>32635832.36132658</v>
       </c>
       <c r="W8">
-        <v>38436840.53479754</v>
+        <v>38436840.53479752</v>
       </c>
       <c r="X8">
-        <v>43942839.63870804</v>
+        <v>43942839.63870802</v>
       </c>
       <c r="Y8">
-        <v>49473264.1607078</v>
+        <v>49473264.16070777</v>
       </c>
       <c r="Z8">
-        <v>55029345.63874291</v>
+        <v>55029345.63874288</v>
       </c>
       <c r="AA8">
-        <v>60614309.33264381</v>
+        <v>60614309.33264378</v>
       </c>
       <c r="AB8">
-        <v>66226985.34361565</v>
+        <v>66226985.34361561</v>
       </c>
       <c r="AC8">
-        <v>67329393.75445227</v>
+        <v>67329393.75445223</v>
       </c>
       <c r="AD8">
-        <v>68453971.35335697</v>
+        <v>68453971.35335693</v>
       </c>
       <c r="AE8">
-        <v>69601746.64648564</v>
+        <v>69601746.6464856</v>
       </c>
       <c r="AF8">
-        <v>70775185.10666846</v>
+        <v>70775185.10666841</v>
       </c>
       <c r="AG8">
-        <v>71981266.29379176</v>
+        <v>71981266.29379171</v>
       </c>
       <c r="AH8">
-        <v>71987324.69711702</v>
+        <v>71987324.69711697</v>
       </c>
       <c r="AI8">
-        <v>71966753.05783096</v>
+        <v>71966753.05783091</v>
       </c>
       <c r="AJ8">
-        <v>71923176.26837665</v>
+        <v>71923176.2683766</v>
       </c>
       <c r="AK8">
-        <v>71940047.14138727</v>
+        <v>71940047.14138722</v>
       </c>
       <c r="AL8">
-        <v>72028515.19600524</v>
+        <v>72028515.1960052</v>
       </c>
       <c r="AM8">
-        <v>72929647.23889382</v>
+        <v>72929647.23889378</v>
       </c>
       <c r="AN8">
-        <v>73987921.12652573</v>
+        <v>73987921.12652569</v>
       </c>
       <c r="AO8">
-        <v>75240994.93095009</v>
+        <v>75240994.93095005</v>
       </c>
       <c r="AP8">
-        <v>76725510.31689759</v>
+        <v>76725510.31689754</v>
       </c>
       <c r="AQ8">
-        <v>78508021.13275483</v>
+        <v>78508021.13275479</v>
       </c>
       <c r="AR8">
-        <v>81120431.6934579</v>
+        <v>81120431.69345784</v>
       </c>
       <c r="AS8">
-        <v>84042909.17703813</v>
+        <v>84042909.17703806</v>
       </c>
       <c r="AT8">
-        <v>87146676.17410257</v>
+        <v>87146676.1741025</v>
       </c>
       <c r="AU8">
-        <v>90385200.14956166</v>
+        <v>90385200.14956158</v>
       </c>
       <c r="AV8">
-        <v>93718968.1616717</v>
+        <v>93718968.16167162</v>
       </c>
       <c r="AW8">
-        <v>97272324.83119121</v>
+        <v>97272324.83119112</v>
       </c>
       <c r="AX8">
-        <v>100833816.1864124</v>
+        <v>100833816.1864123</v>
       </c>
       <c r="AY8">
-        <v>104360616.8447164</v>
+        <v>104360616.8447163</v>
       </c>
       <c r="AZ8">
-        <v>107777391.1235262</v>
+        <v>107777391.1235261</v>
       </c>
       <c r="BA8">
-        <v>110975046.8252353</v>
+        <v>110975046.8252352</v>
       </c>
       <c r="BB8">
-        <v>113761863.0957218</v>
+        <v>113761863.0957217</v>
       </c>
       <c r="BC8">
-        <v>116263440.0321384</v>
+        <v>116263440.0321383</v>
       </c>
       <c r="BD8">
-        <v>118584106.3496811</v>
+        <v>118584106.349681</v>
       </c>
       <c r="BE8">
-        <v>120736063.8771164</v>
+        <v>120736063.8771163</v>
       </c>
       <c r="BF8">
-        <v>122715265.8125459</v>
+        <v>122715265.8125458</v>
       </c>
       <c r="BG8">
-        <v>124470641.5149368</v>
+        <v>124470641.5149367</v>
       </c>
       <c r="BH8">
-        <v>126118635.3894208</v>
+        <v>126118635.3894206</v>
       </c>
       <c r="BI8">
-        <v>127697735.5495117</v>
+        <v>127697735.5495116</v>
       </c>
       <c r="BJ8">
-        <v>129246244.5620011</v>
+        <v>129246244.562001</v>
       </c>
       <c r="BK8">
-        <v>130804077.1125771</v>
+        <v>130804077.1125769</v>
       </c>
       <c r="BL8">
-        <v>132349832.4433052</v>
+        <v>132349832.4433051</v>
       </c>
       <c r="BM8">
-        <v>134000551.540218</v>
+        <v>134000551.5402178</v>
       </c>
       <c r="BN8">
-        <v>135818422.793501</v>
+        <v>135818422.7935009</v>
       </c>
       <c r="BO8">
-        <v>137853761.6558937</v>
+        <v>137853761.6558935</v>
       </c>
       <c r="BP8">
-        <v>140158118.5753025</v>
+        <v>140158118.5753024</v>
       </c>
       <c r="BQ8">
-        <v>142713723.2375352</v>
+        <v>142713723.237535</v>
       </c>
       <c r="BR8">
-        <v>145528181.241614</v>
+        <v>145528181.2416138</v>
       </c>
       <c r="BS8">
-        <v>148522309.5688292</v>
+        <v>148522309.5688291</v>
       </c>
       <c r="BT8">
-        <v>151641957.044292</v>
+        <v>151641957.0442918</v>
       </c>
       <c r="BU8">
-        <v>154858735.6047232</v>
+        <v>154858735.604723</v>
       </c>
       <c r="BV8">
-        <v>158103644.9369029</v>
+        <v>158103644.9369027</v>
       </c>
       <c r="BW8">
-        <v>161390132.1771795</v>
+        <v>161390132.1771793</v>
       </c>
       <c r="BX8">
-        <v>164675341.1406415</v>
+        <v>164675341.1406413</v>
       </c>
       <c r="BY8">
-        <v>167903924.6580789</v>
+        <v>167903924.6580787</v>
       </c>
       <c r="BZ8">
-        <v>171012473.4973989</v>
+        <v>171012473.4973987</v>
       </c>
       <c r="CA8">
-        <v>173910901.8864533</v>
+        <v>173910901.8864532</v>
       </c>
       <c r="CB8">
-        <v>176655758.808944</v>
+        <v>176655758.8089438</v>
       </c>
       <c r="CC8">
-        <v>179348757.4451598</v>
+        <v>179348757.4451596</v>
       </c>
       <c r="CD8">
-        <v>181971880.5143527</v>
+        <v>181971880.5143525</v>
       </c>
       <c r="CE8">
-        <v>184512655.5305276</v>
+        <v>184512655.5305274</v>
       </c>
       <c r="CF8">
-        <v>186913931.1035433</v>
+        <v>186913931.1035431</v>
       </c>
       <c r="CG8">
-        <v>189232326.0791783</v>
+        <v>189232326.0791781</v>
       </c>
       <c r="CH8">
-        <v>191484268.9995686</v>
+        <v>191484268.9995684</v>
       </c>
       <c r="CI8">
-        <v>193689141.4635561</v>
+        <v>193689141.4635559</v>
       </c>
       <c r="CJ8">
-        <v>195866270.8659225</v>
+        <v>195866270.8659223</v>
       </c>
       <c r="CK8">
-        <v>197961637.3126935</v>
+        <v>197961637.3126933</v>
       </c>
       <c r="CL8">
-        <v>200058440.9446674</v>
+        <v>200058440.9446672</v>
       </c>
       <c r="CM8">
-        <v>202216769.3091188</v>
+        <v>202216769.3091187</v>
       </c>
       <c r="CN8">
-        <v>204516981.9809632</v>
+        <v>204516981.9809631</v>
       </c>
       <c r="CO8">
-        <v>206992224.4349497</v>
+        <v>206992224.4349495</v>
       </c>
     </row>
     <row r="9" spans="1:93">
@@ -7380,268 +7380,268 @@
         <v>268059.5381145568</v>
       </c>
       <c r="F9">
-        <v>347522.3966553547</v>
+        <v>347522.3966553548</v>
       </c>
       <c r="G9">
-        <v>426597.0751009479</v>
+        <v>426597.0751009481</v>
       </c>
       <c r="H9">
-        <v>499455.5492476568</v>
+        <v>499455.5492476571</v>
       </c>
       <c r="I9">
-        <v>569331.7307357097</v>
+        <v>569331.7307357101</v>
       </c>
       <c r="J9">
-        <v>633297.5665155605</v>
+        <v>633297.5665155611</v>
       </c>
       <c r="K9">
-        <v>700079.1638118562</v>
+        <v>700079.1638118568</v>
       </c>
       <c r="L9">
-        <v>780809.0665706134</v>
+        <v>780809.0665706141</v>
       </c>
       <c r="M9">
-        <v>861555.8146634641</v>
+        <v>861555.8146634649</v>
       </c>
       <c r="N9">
-        <v>947465.8209982824</v>
+        <v>947465.8209982832</v>
       </c>
       <c r="O9">
-        <v>1046164.773276652</v>
+        <v>1046164.773276653</v>
       </c>
       <c r="P9">
-        <v>2020506.477649421</v>
+        <v>2020506.477649423</v>
       </c>
       <c r="Q9">
-        <v>2995853.133436921</v>
+        <v>2995853.133436923</v>
       </c>
       <c r="R9">
-        <v>3972510.890866502</v>
+        <v>3972510.890866506</v>
       </c>
       <c r="S9">
-        <v>7149633.538964443</v>
+        <v>7149633.53896445</v>
       </c>
       <c r="T9">
-        <v>10328870.81338822</v>
+        <v>10328870.81338824</v>
       </c>
       <c r="U9">
-        <v>13510724.26797229</v>
+        <v>13510724.2679723</v>
       </c>
       <c r="V9">
-        <v>16695770.34449098</v>
+        <v>16695770.344491</v>
       </c>
       <c r="W9">
-        <v>19884671.04453702</v>
+        <v>19884671.04453705</v>
       </c>
       <c r="X9">
-        <v>23324232.64171244</v>
+        <v>23324232.64171247</v>
       </c>
       <c r="Y9">
-        <v>26769323.75221266</v>
+        <v>26769323.7522127</v>
       </c>
       <c r="Z9">
-        <v>30221043.08131611</v>
+        <v>30221043.08131614</v>
       </c>
       <c r="AA9">
-        <v>33680760.88837633</v>
+        <v>33680760.88837636</v>
       </c>
       <c r="AB9">
-        <v>37150233.74237454</v>
+        <v>37150233.74237458</v>
       </c>
       <c r="AC9">
-        <v>38235165.65686464</v>
+        <v>38235165.65686469</v>
       </c>
       <c r="AD9">
-        <v>39335226.62042864</v>
+        <v>39335226.62042869</v>
       </c>
       <c r="AE9">
-        <v>40454532.20683274</v>
+        <v>40454532.20683278</v>
       </c>
       <c r="AF9">
-        <v>41598588.8380134</v>
+        <v>41598588.83801346</v>
       </c>
       <c r="AG9">
-        <v>42774684.66067605</v>
+        <v>42774684.66067611</v>
       </c>
       <c r="AH9">
-        <v>43239078.10717729</v>
+        <v>43239078.10717735</v>
       </c>
       <c r="AI9">
-        <v>43734557.47715588</v>
+        <v>43734557.47715594</v>
       </c>
       <c r="AJ9">
-        <v>44271235.85457001</v>
+        <v>44271235.85457008</v>
       </c>
       <c r="AK9">
-        <v>44879878.90966051</v>
+        <v>44879878.90966058</v>
       </c>
       <c r="AL9">
-        <v>45577744.73094364</v>
+        <v>45577744.7309437</v>
       </c>
       <c r="AM9">
-        <v>46848526.00049692</v>
+        <v>46848526.00049699</v>
       </c>
       <c r="AN9">
-        <v>48270934.40189871</v>
+        <v>48270934.40189878</v>
       </c>
       <c r="AO9">
-        <v>49867639.61380788</v>
+        <v>49867639.61380795</v>
       </c>
       <c r="AP9">
-        <v>51658947.6489731</v>
+        <v>51658947.64897317</v>
       </c>
       <c r="AQ9">
-        <v>53660638.89272334</v>
+        <v>53660638.89272341</v>
       </c>
       <c r="AR9">
-        <v>56423475.315515</v>
+        <v>56423475.31551507</v>
       </c>
       <c r="AS9">
-        <v>59405663.06771635</v>
+        <v>59405663.06771641</v>
       </c>
       <c r="AT9">
-        <v>62596575.17723809</v>
+        <v>62596575.17723817</v>
       </c>
       <c r="AU9">
-        <v>65974137.13669278</v>
+        <v>65974137.13669287</v>
       </c>
       <c r="AV9">
-        <v>69505138.78273094</v>
+        <v>69505138.78273103</v>
       </c>
       <c r="AW9">
-        <v>73324926.30678001</v>
+        <v>73324926.3067801</v>
       </c>
       <c r="AX9">
-        <v>77205894.2282723</v>
+        <v>77205894.22827241</v>
       </c>
       <c r="AY9">
-        <v>81095446.18825941</v>
+        <v>81095446.18825953</v>
       </c>
       <c r="AZ9">
-        <v>84941954.62423168</v>
+        <v>84941954.6242318</v>
       </c>
       <c r="BA9">
-        <v>88698672.29473488</v>
+        <v>88698672.294735</v>
       </c>
       <c r="BB9">
-        <v>92237877.23924705</v>
+        <v>92237877.23924717</v>
       </c>
       <c r="BC9">
-        <v>95620909.40545113</v>
+        <v>95620909.40545125</v>
       </c>
       <c r="BD9">
-        <v>98832219.70480879</v>
+        <v>98832219.70480891</v>
       </c>
       <c r="BE9">
-        <v>101869312.1820392</v>
+        <v>101869312.1820393</v>
       </c>
       <c r="BF9">
-        <v>104742705.3487868</v>
+        <v>104742705.3487869</v>
       </c>
       <c r="BG9">
-        <v>107430681.5606052</v>
+        <v>107430681.5606053</v>
       </c>
       <c r="BH9">
-        <v>110010547.677845</v>
+        <v>110010547.6778451</v>
       </c>
       <c r="BI9">
-        <v>112522871.1780259</v>
+        <v>112522871.178026</v>
       </c>
       <c r="BJ9">
-        <v>115012570.360765</v>
+        <v>115012570.3607651</v>
       </c>
       <c r="BK9">
-        <v>117525541.5527596</v>
+        <v>117525541.5527598</v>
       </c>
       <c r="BL9">
-        <v>120111270.2991214</v>
+        <v>120111270.2991216</v>
       </c>
       <c r="BM9">
-        <v>122803813.5021023</v>
+        <v>122803813.5021025</v>
       </c>
       <c r="BN9">
-        <v>125637033.6479747</v>
+        <v>125637033.6479749</v>
       </c>
       <c r="BO9">
-        <v>128638042.4389238</v>
+        <v>128638042.438924</v>
       </c>
       <c r="BP9">
-        <v>131826549.8554908</v>
+        <v>131826549.8554911</v>
       </c>
       <c r="BQ9">
-        <v>135223101.9095856</v>
+        <v>135223101.9095858</v>
       </c>
       <c r="BR9">
-        <v>138822852.7746117</v>
+        <v>138822852.774612</v>
       </c>
       <c r="BS9">
-        <v>142621737.7187738</v>
+        <v>142621737.718774</v>
       </c>
       <c r="BT9">
-        <v>146608310.5959531</v>
+        <v>146608310.5959534</v>
       </c>
       <c r="BU9">
-        <v>150764581.0259443</v>
+        <v>150764581.0259445</v>
       </c>
       <c r="BV9">
-        <v>155057576.2180047</v>
+        <v>155057576.218005</v>
       </c>
       <c r="BW9">
-        <v>159469170.8269788</v>
+        <v>159469170.8269791</v>
       </c>
       <c r="BX9">
-        <v>163968962.1343231</v>
+        <v>163968962.1343233</v>
       </c>
       <c r="BY9">
-        <v>168525378.8161103</v>
+        <v>168525378.8161106</v>
       </c>
       <c r="BZ9">
-        <v>173107361.9249687</v>
+        <v>173107361.924969</v>
       </c>
       <c r="CA9">
-        <v>177658179.8194945</v>
+        <v>177658179.8194948</v>
       </c>
       <c r="CB9">
-        <v>182180527.6179021</v>
+        <v>182180527.6179024</v>
       </c>
       <c r="CC9">
-        <v>186654241.7100181</v>
+        <v>186654241.7100184</v>
       </c>
       <c r="CD9">
-        <v>191065118.7814798</v>
+        <v>191065118.7814801</v>
       </c>
       <c r="CE9">
-        <v>195405521.6908629</v>
+        <v>195405521.6908632</v>
       </c>
       <c r="CF9">
-        <v>199622131.8439635</v>
+        <v>199622131.8439638</v>
       </c>
       <c r="CG9">
-        <v>203773132.1256337</v>
+        <v>203773132.125634</v>
       </c>
       <c r="CH9">
-        <v>207870215.7559748</v>
+        <v>207870215.7559751</v>
       </c>
       <c r="CI9">
-        <v>211930089.4938224</v>
+        <v>211930089.4938227</v>
       </c>
       <c r="CJ9">
-        <v>215973251.7717639</v>
+        <v>215973251.7717642</v>
       </c>
       <c r="CK9">
-        <v>219938815.5328315</v>
+        <v>219938815.5328318</v>
       </c>
       <c r="CL9">
-        <v>223934499.9614572</v>
+        <v>223934499.9614576</v>
       </c>
       <c r="CM9">
-        <v>227983835.1418235</v>
+        <v>227983835.1418239</v>
       </c>
       <c r="CN9">
-        <v>232108697.2637271</v>
+        <v>232108697.2637275</v>
       </c>
       <c r="CO9">
-        <v>236328204.9349462</v>
+        <v>236328204.9349465</v>
       </c>
     </row>
     <row r="10" spans="1:93">
@@ -7670,13 +7670,13 @@
         <v>55.66908341658336</v>
       </c>
       <c r="I10">
-        <v>66.76854273178473</v>
+        <v>66.76854273178472</v>
       </c>
       <c r="J10">
-        <v>78.3878132237279</v>
+        <v>78.38781322372789</v>
       </c>
       <c r="K10">
-        <v>91.20287052931722</v>
+        <v>91.20287052931721</v>
       </c>
       <c r="L10">
         <v>104.1697931922923</v>
@@ -7790,16 +7790,16 @@
         <v>852.1557051466473</v>
       </c>
       <c r="AW10">
-        <v>881.4667954967166</v>
+        <v>881.4667954967165</v>
       </c>
       <c r="AX10">
-        <v>911.2549612499694</v>
+        <v>911.2549612499693</v>
       </c>
       <c r="AY10">
-        <v>941.5046482921565</v>
+        <v>941.5046482921564</v>
       </c>
       <c r="AZ10">
-        <v>972.1793045838532</v>
+        <v>972.1793045838531</v>
       </c>
       <c r="BA10">
         <v>1003.219742419622</v>
@@ -7811,10 +7811,10 @@
         <v>1066.286380620951</v>
       </c>
       <c r="BD10">
-        <v>1098.450816997221</v>
+        <v>1098.45081699722</v>
       </c>
       <c r="BE10">
-        <v>1131.065265662765</v>
+        <v>1131.065265662764</v>
       </c>
       <c r="BF10">
         <v>1164.12358914984</v>
@@ -7826,22 +7826,22 @@
         <v>1231.645282876198</v>
       </c>
       <c r="BI10">
-        <v>1266.173558197075</v>
+        <v>1266.173558197074</v>
       </c>
       <c r="BJ10">
-        <v>1301.239400472778</v>
+        <v>1301.239400472777</v>
       </c>
       <c r="BK10">
-        <v>1336.862224296494</v>
+        <v>1336.862224296493</v>
       </c>
       <c r="BL10">
         <v>1373.082063323356</v>
       </c>
       <c r="BM10">
-        <v>1409.933555378551</v>
+        <v>1409.93355537855</v>
       </c>
       <c r="BN10">
-        <v>1447.439966398149</v>
+        <v>1447.439966398148</v>
       </c>
       <c r="BO10">
         <v>1485.628022713806</v>
@@ -7862,7 +7862,7 @@
         <v>1687.453692102032</v>
       </c>
       <c r="BU10">
-        <v>1729.874016260336</v>
+        <v>1729.874016260335</v>
       </c>
       <c r="BV10">
         <v>1772.967657201539</v>
@@ -7871,58 +7871,58 @@
         <v>1816.727572947147</v>
       </c>
       <c r="BX10">
-        <v>1861.131849839876</v>
+        <v>1861.131849839875</v>
       </c>
       <c r="BY10">
-        <v>1906.150191018362</v>
+        <v>1906.150191018361</v>
       </c>
       <c r="BZ10">
-        <v>1951.74633093399</v>
+        <v>1951.746330933989</v>
       </c>
       <c r="CA10">
         <v>1997.924505895075</v>
       </c>
       <c r="CB10">
-        <v>2044.70729732408</v>
+        <v>2044.707297324079</v>
       </c>
       <c r="CC10">
-        <v>2092.134567271136</v>
+        <v>2092.134567271135</v>
       </c>
       <c r="CD10">
-        <v>2140.212837170752</v>
+        <v>2140.212837170751</v>
       </c>
       <c r="CE10">
-        <v>2188.938029088391</v>
+        <v>2188.93802908839</v>
       </c>
       <c r="CF10">
-        <v>2238.334882573702</v>
+        <v>2238.334882573701</v>
       </c>
       <c r="CG10">
         <v>2288.422984755946</v>
       </c>
       <c r="CH10">
-        <v>2339.214914617888</v>
+        <v>2339.214914617887</v>
       </c>
       <c r="CI10">
-        <v>2390.722654607994</v>
+        <v>2390.722654607993</v>
       </c>
       <c r="CJ10">
-        <v>2442.957812688555</v>
+        <v>2442.957812688554</v>
       </c>
       <c r="CK10">
-        <v>2495.951007996127</v>
+        <v>2495.951007996126</v>
       </c>
       <c r="CL10">
-        <v>2549.740842029174</v>
+        <v>2549.740842029173</v>
       </c>
       <c r="CM10">
-        <v>2604.356249494843</v>
+        <v>2604.356249494842</v>
       </c>
       <c r="CN10">
-        <v>2659.82198917407</v>
+        <v>2659.821989174069</v>
       </c>
       <c r="CO10">
-        <v>2716.154313351866</v>
+        <v>2716.154313351865</v>
       </c>
     </row>
     <row r="11" spans="1:93">
@@ -7932,7 +7932,7 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <v>0.5364282694283792</v>
+        <v>0.5364282694283791</v>
       </c>
       <c r="E11">
         <v>1.074340729983914</v>
@@ -7944,25 +7944,25 @@
         <v>2.199786112400852</v>
       </c>
       <c r="H11">
-        <v>2.759022287611247</v>
+        <v>2.759022287611248</v>
       </c>
       <c r="I11">
-        <v>3.309660875794926</v>
+        <v>3.309660875794927</v>
       </c>
       <c r="J11">
-        <v>3.876866371977561</v>
+        <v>3.876866371977562</v>
       </c>
       <c r="K11">
         <v>4.499799514210475</v>
       </c>
       <c r="L11">
-        <v>5.140300805890744</v>
+        <v>5.140300805890745</v>
       </c>
       <c r="M11">
-        <v>5.824992012168377</v>
+        <v>5.824992012168378</v>
       </c>
       <c r="N11">
-        <v>6.552719623226984</v>
+        <v>6.552719623226985</v>
       </c>
       <c r="O11">
         <v>7.21811264844195</v>
@@ -7971,10 +7971,10 @@
         <v>7.934075341514998</v>
       </c>
       <c r="Q11">
-        <v>8.66792448381138</v>
+        <v>8.667924483811381</v>
       </c>
       <c r="R11">
-        <v>9.419723903927405</v>
+        <v>9.419723903927407</v>
       </c>
       <c r="S11">
         <v>10.23395471575235</v>
@@ -7989,7 +7989,7 @@
         <v>12.80390344262318</v>
       </c>
       <c r="W11">
-        <v>13.70299374464975</v>
+        <v>13.70299374464976</v>
       </c>
       <c r="X11">
         <v>14.62174158998285</v>
@@ -7998,13 +7998,13 @@
         <v>15.56091948820676</v>
       </c>
       <c r="Z11">
-        <v>16.52057769034698</v>
+        <v>16.52057769034699</v>
       </c>
       <c r="AA11">
         <v>17.50074442735038</v>
       </c>
       <c r="AB11">
-        <v>18.50137244402524</v>
+        <v>18.50137244402525</v>
       </c>
       <c r="AC11">
         <v>19.47524505990577</v>
@@ -8070,40 +8070,40 @@
         <v>43.58433577947625</v>
       </c>
       <c r="AX11">
-        <v>45.05328933755841</v>
+        <v>45.05328933755842</v>
       </c>
       <c r="AY11">
-        <v>46.54497880311506</v>
+        <v>46.54497880311507</v>
       </c>
       <c r="AZ11">
-        <v>48.0577726117062</v>
+        <v>48.05777261170621</v>
       </c>
       <c r="BA11">
         <v>49.58894415178769</v>
       </c>
       <c r="BB11">
-        <v>51.13588163406533</v>
+        <v>51.13588163406534</v>
       </c>
       <c r="BC11">
-        <v>52.70185803132129</v>
+        <v>52.7018580313213</v>
       </c>
       <c r="BD11">
-        <v>54.29011305629982</v>
+        <v>54.29011305629983</v>
       </c>
       <c r="BE11">
-        <v>55.90098739775412</v>
+        <v>55.90098739775413</v>
       </c>
       <c r="BF11">
-        <v>57.5341675888802</v>
+        <v>57.53416758888021</v>
       </c>
       <c r="BG11">
         <v>59.19023436163413</v>
       </c>
       <c r="BH11">
-        <v>60.87095569045661</v>
+        <v>60.87095569045662</v>
       </c>
       <c r="BI11">
-        <v>62.57739410751164</v>
+        <v>62.57739410751165</v>
       </c>
       <c r="BJ11">
         <v>64.31030374927686</v>
@@ -8212,31 +8212,31 @@
         <v>250266.6060144358</v>
       </c>
       <c r="E12">
-        <v>495468.0780111741</v>
+        <v>495468.0780111739</v>
       </c>
       <c r="F12">
-        <v>825743.4353274123</v>
+        <v>825743.4353274121</v>
       </c>
       <c r="G12">
         <v>1316723.354964445</v>
       </c>
       <c r="H12">
-        <v>1728344.450135</v>
+        <v>1728344.450134999</v>
       </c>
       <c r="I12">
-        <v>2120315.188408787</v>
+        <v>2120315.188408786</v>
       </c>
       <c r="J12">
         <v>2569759.045076435</v>
       </c>
       <c r="K12">
-        <v>2999478.073278385</v>
+        <v>2999478.073278384</v>
       </c>
       <c r="L12">
         <v>3463269.693907098</v>
       </c>
       <c r="M12">
-        <v>3867149.416549036</v>
+        <v>3867149.416549035</v>
       </c>
       <c r="N12">
         <v>4292842.811322421</v>
@@ -8260,10 +8260,10 @@
         <v>38854071.13500693</v>
       </c>
       <c r="U12">
-        <v>50602586.94630999</v>
+        <v>50602586.94631</v>
       </c>
       <c r="V12">
-        <v>62364011.7604785</v>
+        <v>62364011.76047851</v>
       </c>
       <c r="W12">
         <v>74138142.62936717</v>
@@ -8404,7 +8404,7 @@
         <v>492597347.8775386</v>
       </c>
       <c r="BQ12">
-        <v>505132295.851483</v>
+        <v>505132295.8514831</v>
       </c>
       <c r="BR12">
         <v>518172549.7982599</v>
@@ -8428,55 +8428,55 @@
         <v>603898705.643098</v>
       </c>
       <c r="BY12">
-        <v>618925414.1122009</v>
+        <v>618925414.112201</v>
       </c>
       <c r="BZ12">
-        <v>633942388.7314559</v>
+        <v>633942388.731456</v>
       </c>
       <c r="CA12">
-        <v>648760028.4581928</v>
+        <v>648760028.4581929</v>
       </c>
       <c r="CB12">
-        <v>663479261.1070396</v>
+        <v>663479261.1070397</v>
       </c>
       <c r="CC12">
-        <v>678122844.1433187</v>
+        <v>678122844.1433188</v>
       </c>
       <c r="CD12">
-        <v>692687021.3832008</v>
+        <v>692687021.3832009</v>
       </c>
       <c r="CE12">
-        <v>707147200.193314</v>
+        <v>707147200.1933141</v>
       </c>
       <c r="CF12">
-        <v>721223855.9570312</v>
+        <v>721223855.9570314</v>
       </c>
       <c r="CG12">
-        <v>735204182.971548</v>
+        <v>735204182.9715481</v>
       </c>
       <c r="CH12">
-        <v>749136865.5238247</v>
+        <v>749136865.5238248</v>
       </c>
       <c r="CI12">
-        <v>763072907.0048782</v>
+        <v>763072907.0048783</v>
       </c>
       <c r="CJ12">
-        <v>777066532.9180424</v>
+        <v>777066532.9180425</v>
       </c>
       <c r="CK12">
-        <v>790730388.8431064</v>
+        <v>790730388.8431065</v>
       </c>
       <c r="CL12">
-        <v>804568165.8175725</v>
+        <v>804568165.8175726</v>
       </c>
       <c r="CM12">
-        <v>818635199.2358062</v>
+        <v>818635199.2358063</v>
       </c>
       <c r="CN12">
-        <v>832984790.8393979</v>
+        <v>832984790.839398</v>
       </c>
       <c r="CO12">
-        <v>847664175.9395288</v>
+        <v>847664175.9395291</v>
       </c>
     </row>
     <row r="13" spans="1:93">
@@ -8486,55 +8486,55 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>147294.4457995696</v>
+        <v>147294.4457995695</v>
       </c>
       <c r="E13">
-        <v>241268.101954706</v>
+        <v>241268.1019547058</v>
       </c>
       <c r="F13">
-        <v>312795.7255425528</v>
+        <v>312795.7255425525</v>
       </c>
       <c r="G13">
-        <v>383977.5749480764</v>
+        <v>383977.5749480762</v>
       </c>
       <c r="H13">
-        <v>449563.4897518774</v>
+        <v>449563.4897518771</v>
       </c>
       <c r="I13">
-        <v>512466.3525463088</v>
+        <v>512466.3525463085</v>
       </c>
       <c r="J13">
-        <v>570049.1385469948</v>
+        <v>570049.1385469945</v>
       </c>
       <c r="K13">
-        <v>630166.0807642896</v>
+        <v>630166.0807642894</v>
       </c>
       <c r="L13">
-        <v>702837.5869700297</v>
+        <v>702837.5869700295</v>
       </c>
       <c r="M13">
-        <v>775524.2798411594</v>
+        <v>775524.2798411591</v>
       </c>
       <c r="N13">
-        <v>852857.1744977601</v>
+        <v>852857.1744977599</v>
       </c>
       <c r="O13">
-        <v>941701.0253000979</v>
+        <v>941701.0253000977</v>
       </c>
       <c r="P13">
         <v>1818788.102208778</v>
       </c>
       <c r="Q13">
-        <v>2696779.701846282</v>
+        <v>2696779.701846281</v>
       </c>
       <c r="R13">
-        <v>3575951.381714862</v>
+        <v>3575951.38171486</v>
       </c>
       <c r="S13">
-        <v>6435957.207169274</v>
+        <v>6435957.207169271</v>
       </c>
       <c r="T13">
-        <v>9297866.350275453</v>
+        <v>9297866.350275451</v>
       </c>
       <c r="U13">
         <v>12162130.25573344</v>
@@ -8612,13 +8612,13 @@
         <v>53477000.26093306</v>
       </c>
       <c r="AT13">
-        <v>56349486.09550781</v>
+        <v>56349486.0955078</v>
       </c>
       <c r="AU13">
-        <v>59389993.50141052</v>
+        <v>59389993.50141051</v>
       </c>
       <c r="AV13">
-        <v>62568627.43255493</v>
+        <v>62568627.43255492</v>
       </c>
       <c r="AW13">
         <v>66007231.60041802</v>
@@ -8770,16 +8770,16 @@
         <v>1.693119120084685</v>
       </c>
       <c r="E14">
-        <v>3.412158650393026</v>
+        <v>3.412158650393027</v>
       </c>
       <c r="F14">
-        <v>5.228004437363721</v>
+        <v>5.228004437363722</v>
       </c>
       <c r="G14">
-        <v>7.058177925807825</v>
+        <v>7.058177925807826</v>
       </c>
       <c r="H14">
-        <v>8.835924840913696</v>
+        <v>8.835924840913698</v>
       </c>
       <c r="I14">
         <v>10.59765652867997</v>
@@ -8812,7 +8812,7 @@
         <v>30.24068603855219</v>
       </c>
       <c r="S14">
-        <v>32.87018482045245</v>
+        <v>32.87018482045246</v>
       </c>
       <c r="T14">
         <v>35.56730187197137</v>
@@ -8842,55 +8842,55 @@
         <v>59.53540505692291</v>
       </c>
       <c r="AC14">
-        <v>62.65150331700335</v>
+        <v>62.65150331700336</v>
       </c>
       <c r="AD14">
-        <v>65.83417087311061</v>
+        <v>65.83417087311062</v>
       </c>
       <c r="AE14">
-        <v>69.08331879891642</v>
+        <v>69.08331879891644</v>
       </c>
       <c r="AF14">
-        <v>72.39960931990881</v>
+        <v>72.39960931990882</v>
       </c>
       <c r="AG14">
-        <v>75.78387732462433</v>
+        <v>75.78387732462434</v>
       </c>
       <c r="AH14">
-        <v>79.18922818227553</v>
+        <v>79.18922818227556</v>
       </c>
       <c r="AI14">
-        <v>82.66258085517954</v>
+        <v>82.66258085517957</v>
       </c>
       <c r="AJ14">
-        <v>86.20418878727943</v>
+        <v>86.20418878727946</v>
       </c>
       <c r="AK14">
-        <v>89.81629276500247</v>
+        <v>89.81629276500252</v>
       </c>
       <c r="AL14">
-        <v>93.50088594677048</v>
+        <v>93.50088594677052</v>
       </c>
       <c r="AM14">
-        <v>97.27978472568169</v>
+        <v>97.27978472568174</v>
       </c>
       <c r="AN14">
-        <v>101.136236047307</v>
+        <v>101.1362360473071</v>
       </c>
       <c r="AO14">
-        <v>105.0748043864376</v>
+        <v>105.0748043864377</v>
       </c>
       <c r="AP14">
-        <v>109.0981317298362</v>
+        <v>109.0981317298363</v>
       </c>
       <c r="AQ14">
-        <v>113.2096538603533</v>
+        <v>113.2096538603534</v>
       </c>
       <c r="AR14">
         <v>117.4522333622619</v>
       </c>
       <c r="AS14">
-        <v>121.7855353920035</v>
+        <v>121.7855353920036</v>
       </c>
       <c r="AT14">
         <v>126.1992408307586</v>
@@ -8902,7 +8902,7 @@
         <v>135.2561116748796</v>
       </c>
       <c r="AW14">
-        <v>139.9084352886952</v>
+        <v>139.9084352886953</v>
       </c>
       <c r="AX14">
         <v>144.6364814067676</v>
@@ -8947,7 +8947,7 @@
         <v>212.1898441931541</v>
       </c>
       <c r="BL14">
-        <v>217.9387402724456</v>
+        <v>217.9387402724457</v>
       </c>
       <c r="BM14">
         <v>223.7878937718587</v>
@@ -8965,76 +8965,76 @@
         <v>248.2712153716066</v>
       </c>
       <c r="BR14">
-        <v>254.6842466593539</v>
+        <v>254.684246659354</v>
       </c>
       <c r="BS14">
-        <v>261.207457872883</v>
+        <v>261.2074578728831</v>
       </c>
       <c r="BT14">
-        <v>267.83652758138</v>
+        <v>267.8365275813801</v>
       </c>
       <c r="BU14">
         <v>274.5695789087225</v>
       </c>
       <c r="BV14">
-        <v>281.4095006230499</v>
+        <v>281.40950062305</v>
       </c>
       <c r="BW14">
-        <v>288.3551750053539</v>
+        <v>288.355175005354</v>
       </c>
       <c r="BX14">
         <v>295.4031238695954</v>
       </c>
       <c r="BY14">
-        <v>302.5485384283199</v>
+        <v>302.54853842832</v>
       </c>
       <c r="BZ14">
-        <v>309.7856625303176</v>
+        <v>309.7856625303177</v>
       </c>
       <c r="CA14">
-        <v>317.1151685721786</v>
+        <v>317.1151685721787</v>
       </c>
       <c r="CB14">
-        <v>324.5406407291656</v>
+        <v>324.5406407291657</v>
       </c>
       <c r="CC14">
-        <v>332.0684059974739</v>
+        <v>332.068405997474</v>
       </c>
       <c r="CD14">
-        <v>339.6994994741742</v>
+        <v>339.6994994741743</v>
       </c>
       <c r="CE14">
-        <v>347.433273900126</v>
+        <v>347.4332739001261</v>
       </c>
       <c r="CF14">
-        <v>355.2736559934984</v>
+        <v>355.2736559934986</v>
       </c>
       <c r="CG14">
-        <v>363.2237546684567</v>
+        <v>363.2237546684568</v>
       </c>
       <c r="CH14">
-        <v>371.28556649005</v>
+        <v>371.2855664900501</v>
       </c>
       <c r="CI14">
-        <v>379.4609933400333</v>
+        <v>379.4609933400334</v>
       </c>
       <c r="CJ14">
-        <v>387.7518776608555</v>
+        <v>387.7518776608556</v>
       </c>
       <c r="CK14">
-        <v>396.1630793922294</v>
+        <v>396.1630793922295</v>
       </c>
       <c r="CL14">
-        <v>404.7007254526931</v>
+        <v>404.7007254526932</v>
       </c>
       <c r="CM14">
-        <v>413.3694084254538</v>
+        <v>413.3694084254539</v>
       </c>
       <c r="CN14">
-        <v>422.1730580811143</v>
+        <v>422.1730580811144</v>
       </c>
       <c r="CO14">
-        <v>431.1142540196972</v>
+        <v>431.1142540196973</v>
       </c>
     </row>
     <row r="15" spans="1:93">
@@ -9044,184 +9044,184 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0.08514312757300753</v>
+        <v>0.08514312757300757</v>
       </c>
       <c r="E15">
-        <v>0.1705218293722147</v>
+        <v>0.1705218293722148</v>
       </c>
       <c r="F15">
-        <v>0.2593703211059915</v>
+        <v>0.2593703211059917</v>
       </c>
       <c r="G15">
-        <v>0.3491551066111048</v>
+        <v>0.349155106611105</v>
       </c>
       <c r="H15">
-        <v>0.4379183573997302</v>
+        <v>0.4379183573997304</v>
       </c>
       <c r="I15">
-        <v>0.5253169794192272</v>
+        <v>0.5253169794192275</v>
       </c>
       <c r="J15">
-        <v>0.6153451391451327</v>
+        <v>0.615345139145133</v>
       </c>
       <c r="K15">
-        <v>0.7142185189077419</v>
+        <v>0.7142185189077424</v>
       </c>
       <c r="L15">
-        <v>0.8158803557201854</v>
+        <v>0.8158803557201858</v>
       </c>
       <c r="M15">
-        <v>0.9245561173207705</v>
+        <v>0.9245561173207709</v>
       </c>
       <c r="N15">
-        <v>1.040062715980809</v>
+        <v>1.04006271598081</v>
       </c>
       <c r="O15">
-        <v>1.145675425938168</v>
+        <v>1.145675425938169</v>
       </c>
       <c r="P15">
-        <v>1.259314669781135</v>
+        <v>1.259314669781136</v>
       </c>
       <c r="Q15">
-        <v>1.375792891945796</v>
+        <v>1.375792891945797</v>
       </c>
       <c r="R15">
-        <v>1.495120223453626</v>
+        <v>1.495120223453627</v>
       </c>
       <c r="S15">
         <v>1.624356808913523</v>
       </c>
       <c r="T15">
-        <v>1.756965722198843</v>
+        <v>1.756965722198844</v>
       </c>
       <c r="U15">
-        <v>1.892933577742691</v>
+        <v>1.892933577742692</v>
       </c>
       <c r="V15">
-        <v>2.032264976283636</v>
+        <v>2.032264976283637</v>
       </c>
       <c r="W15">
-        <v>2.174970655025504</v>
+        <v>2.174970655025505</v>
       </c>
       <c r="X15">
-        <v>2.320796424211715</v>
+        <v>2.320796424211716</v>
       </c>
       <c r="Y15">
-        <v>2.469864898338625</v>
+        <v>2.469864898338626</v>
       </c>
       <c r="Z15">
-        <v>2.622184053364472</v>
+        <v>2.622184053364474</v>
       </c>
       <c r="AA15">
-        <v>2.777758370170013</v>
+        <v>2.777758370170015</v>
       </c>
       <c r="AB15">
-        <v>2.936580348302634</v>
+        <v>2.936580348302635</v>
       </c>
       <c r="AC15">
-        <v>3.0911556477404</v>
+        <v>3.091155647740401</v>
       </c>
       <c r="AD15">
-        <v>3.249033811074893</v>
+        <v>3.249033811074895</v>
       </c>
       <c r="AE15">
-        <v>3.410208852287888</v>
+        <v>3.41020885228789</v>
       </c>
       <c r="AF15">
-        <v>3.574710585074594</v>
+        <v>3.574710585074595</v>
       </c>
       <c r="AG15">
-        <v>3.742576403659293</v>
+        <v>3.742576403659295</v>
       </c>
       <c r="AH15">
-        <v>3.911823172846727</v>
+        <v>3.911823172846729</v>
       </c>
       <c r="AI15">
-        <v>4.084434481835987</v>
+        <v>4.084434481835989</v>
       </c>
       <c r="AJ15">
-        <v>4.260419921972433</v>
+        <v>4.260419921972435</v>
       </c>
       <c r="AK15">
-        <v>4.43987048952333</v>
+        <v>4.439870489523332</v>
       </c>
       <c r="AL15">
-        <v>4.622875559404339</v>
+        <v>4.622875559404341</v>
       </c>
       <c r="AM15">
-        <v>4.810350518213494</v>
+        <v>4.810350518213496</v>
       </c>
       <c r="AN15">
-        <v>5.001592554068878</v>
+        <v>5.00159255406888</v>
       </c>
       <c r="AO15">
-        <v>5.196813559132549</v>
+        <v>5.196813559132551</v>
       </c>
       <c r="AP15">
-        <v>5.39613301024667</v>
+        <v>5.396133010246673</v>
       </c>
       <c r="AQ15">
-        <v>5.599708795991628</v>
+        <v>5.599708795991631</v>
       </c>
       <c r="AR15">
-        <v>5.809400725126867</v>
+        <v>5.80940072512687</v>
       </c>
       <c r="AS15">
-        <v>6.023457708006188</v>
+        <v>6.023457708006191</v>
       </c>
       <c r="AT15">
-        <v>6.241390760870298</v>
+        <v>6.241390760870301</v>
       </c>
       <c r="AU15">
-        <v>6.463059314274065</v>
+        <v>6.463059314274068</v>
       </c>
       <c r="AV15">
-        <v>6.688357319464429</v>
+        <v>6.688357319464433</v>
       </c>
       <c r="AW15">
-        <v>6.917805926617379</v>
+        <v>6.917805926617382</v>
       </c>
       <c r="AX15">
-        <v>7.150961610839409</v>
+        <v>7.150961610839413</v>
       </c>
       <c r="AY15">
-        <v>7.387725990540242</v>
+        <v>7.387725990540246</v>
       </c>
       <c r="AZ15">
-        <v>7.627840100062818</v>
+        <v>7.627840100062821</v>
       </c>
       <c r="BA15">
-        <v>7.870871165357415</v>
+        <v>7.870871165357419</v>
       </c>
       <c r="BB15">
-        <v>8.116404637225676</v>
+        <v>8.116404637225681</v>
       </c>
       <c r="BC15">
-        <v>8.364960009428492</v>
+        <v>8.364960009428497</v>
       </c>
       <c r="BD15">
-        <v>8.617051496617112</v>
+        <v>8.617051496617117</v>
       </c>
       <c r="BE15">
-        <v>8.872733173693305</v>
+        <v>8.872733173693311</v>
       </c>
       <c r="BF15">
-        <v>9.131955286485633</v>
+        <v>9.131955286485638</v>
       </c>
       <c r="BG15">
-        <v>9.394810010104617</v>
+        <v>9.394810010104623</v>
       </c>
       <c r="BH15">
-        <v>9.661577961516086</v>
+        <v>9.661577961516091</v>
       </c>
       <c r="BI15">
-        <v>9.932427788266681</v>
+        <v>9.932427788266686</v>
       </c>
       <c r="BJ15">
         <v>10.20747918863105</v>
       </c>
       <c r="BK15">
-        <v>10.48686275785276</v>
+        <v>10.48686275785277</v>
       </c>
       <c r="BL15">
         <v>10.77086270013113</v>
@@ -9230,88 +9230,88 @@
         <v>11.05972846126411</v>
       </c>
       <c r="BN15">
-        <v>11.35362558105925</v>
+        <v>11.35362558105926</v>
       </c>
       <c r="BO15">
-        <v>11.65274741917436</v>
+        <v>11.65274741917437</v>
       </c>
       <c r="BP15">
-        <v>11.95729305284288</v>
+        <v>11.95729305284289</v>
       </c>
       <c r="BQ15">
-        <v>12.26767634674244</v>
+        <v>12.26767634674245</v>
       </c>
       <c r="BR15">
-        <v>12.58373725849405</v>
+        <v>12.58373725849406</v>
       </c>
       <c r="BS15">
         <v>12.90510768883062</v>
       </c>
       <c r="BT15">
-        <v>13.2315847148391</v>
+        <v>13.23158471483911</v>
       </c>
       <c r="BU15">
-        <v>13.56308408987886</v>
+        <v>13.56308408987887</v>
       </c>
       <c r="BV15">
-        <v>13.89975304775719</v>
+        <v>13.8997530477572</v>
       </c>
       <c r="BW15">
         <v>14.24154431382869</v>
       </c>
       <c r="BX15">
-        <v>14.58830297036383</v>
+        <v>14.58830297036384</v>
       </c>
       <c r="BY15">
-        <v>14.93981044573862</v>
+        <v>14.93981044573863</v>
       </c>
       <c r="BZ15">
-        <v>15.29580257939837</v>
+        <v>15.29580257939838</v>
       </c>
       <c r="CA15">
-        <v>15.65632905409028</v>
+        <v>15.65632905409029</v>
       </c>
       <c r="CB15">
-        <v>16.02156284764911</v>
+        <v>16.02156284764912</v>
       </c>
       <c r="CC15">
         <v>16.39181354042706</v>
       </c>
       <c r="CD15">
-        <v>16.76713512635333</v>
+        <v>16.76713512635334</v>
       </c>
       <c r="CE15">
         <v>17.1474999075737</v>
       </c>
       <c r="CF15">
-        <v>17.53310975965596</v>
+        <v>17.53310975965597</v>
       </c>
       <c r="CG15">
         <v>17.92409679294224</v>
       </c>
       <c r="CH15">
-        <v>18.32055150112275</v>
+        <v>18.32055150112276</v>
       </c>
       <c r="CI15">
-        <v>18.7225583258664</v>
+        <v>18.72255832586641</v>
       </c>
       <c r="CJ15">
-        <v>19.13019757792927</v>
+        <v>19.13019757792928</v>
       </c>
       <c r="CK15">
-        <v>19.54371636162055</v>
+        <v>19.54371636162056</v>
       </c>
       <c r="CL15">
-        <v>19.96337676628858</v>
+        <v>19.96337676628859</v>
       </c>
       <c r="CM15">
-        <v>20.38939174049133</v>
+        <v>20.38939174049134</v>
       </c>
       <c r="CN15">
-        <v>20.82194108105732</v>
+        <v>20.82194108105733</v>
       </c>
       <c r="CO15">
-        <v>21.26114103490542</v>
+        <v>21.26114103490543</v>
       </c>
     </row>
     <row r="16" spans="1:93">
@@ -9360,19 +9360,19 @@
         <v>3856214.225969899</v>
       </c>
       <c r="Q16">
-        <v>5209085.450231061</v>
+        <v>5209085.450231062</v>
       </c>
       <c r="R16">
-        <v>6565692.75702727</v>
+        <v>6565692.757027272</v>
       </c>
       <c r="S16">
-        <v>10837081.58611549</v>
+        <v>10837081.5861155</v>
       </c>
       <c r="T16">
         <v>15111893.09203467</v>
       </c>
       <c r="U16">
-        <v>19389044.73827878</v>
+        <v>19389044.73827879</v>
       </c>
       <c r="V16">
         <v>23670502.30671069</v>
@@ -9381,19 +9381,19 @@
         <v>27959423.90884199</v>
       </c>
       <c r="X16">
-        <v>31851718.8412724</v>
+        <v>31851718.84127241</v>
       </c>
       <c r="Y16">
-        <v>35757030.0610889</v>
+        <v>35757030.06108891</v>
       </c>
       <c r="Z16">
         <v>39675564.33090527</v>
       </c>
       <c r="AA16">
-        <v>43602553.28073124</v>
+        <v>43602553.28073125</v>
       </c>
       <c r="AB16">
-        <v>47532856.51499377</v>
+        <v>47532856.51499378</v>
       </c>
       <c r="AC16">
         <v>48065363.90413152</v>
@@ -9402,40 +9402,40 @@
         <v>48608533.39927737</v>
       </c>
       <c r="AE16">
-        <v>49153960.25985514</v>
+        <v>49153960.25985515</v>
       </c>
       <c r="AF16">
-        <v>49709486.80760067</v>
+        <v>49709486.80760068</v>
       </c>
       <c r="AG16">
-        <v>50295268.30305055</v>
+        <v>50295268.30305056</v>
       </c>
       <c r="AH16">
-        <v>50258643.84216549</v>
+        <v>50258643.8421655</v>
       </c>
       <c r="AI16">
-        <v>50197823.44912225</v>
+        <v>50197823.44912226</v>
       </c>
       <c r="AJ16">
         <v>50103914.96470913</v>
       </c>
       <c r="AK16">
-        <v>49966251.96087022</v>
+        <v>49966251.96087023</v>
       </c>
       <c r="AL16">
-        <v>49775346.92563882</v>
+        <v>49775346.92563883</v>
       </c>
       <c r="AM16">
         <v>50031704.49599347</v>
       </c>
       <c r="AN16">
-        <v>50380506.13181346</v>
+        <v>50380506.13181347</v>
       </c>
       <c r="AO16">
-        <v>50859814.24770534</v>
+        <v>50859814.24770535</v>
       </c>
       <c r="AP16">
-        <v>51507787.81801068</v>
+        <v>51507787.81801069</v>
       </c>
       <c r="AQ16">
         <v>52379110.6996839</v>
@@ -9444,85 +9444,85 @@
         <v>54370915.57157499</v>
       </c>
       <c r="AS16">
-        <v>56592510.76185702</v>
+        <v>56592510.76185703</v>
       </c>
       <c r="AT16">
-        <v>58922813.60366825</v>
+        <v>58922813.60366826</v>
       </c>
       <c r="AU16">
-        <v>61325903.22701229</v>
+        <v>61325903.2270123</v>
       </c>
       <c r="AV16">
-        <v>63774075.8673397</v>
+        <v>63774075.86733971</v>
       </c>
       <c r="AW16">
         <v>66357956.98021343</v>
       </c>
       <c r="AX16">
-        <v>68931809.83546947</v>
+        <v>68931809.83546948</v>
       </c>
       <c r="AY16">
-        <v>71470792.32336167</v>
+        <v>71470792.32336168</v>
       </c>
       <c r="AZ16">
-        <v>73915686.52589214</v>
+        <v>73915686.52589215</v>
       </c>
       <c r="BA16">
-        <v>76174423.52116178</v>
+        <v>76174423.52116179</v>
       </c>
       <c r="BB16">
-        <v>77982958.98175792</v>
+        <v>77982958.98175794</v>
       </c>
       <c r="BC16">
-        <v>79563075.03938134</v>
+        <v>79563075.03938136</v>
       </c>
       <c r="BD16">
-        <v>81018358.34569156</v>
+        <v>81018358.34569158</v>
       </c>
       <c r="BE16">
-        <v>82364593.95138316</v>
+        <v>82364593.95138317</v>
       </c>
       <c r="BF16">
-        <v>83602097.5089599</v>
+        <v>83602097.50895992</v>
       </c>
       <c r="BG16">
-        <v>84614895.81104262</v>
+        <v>84614895.81104264</v>
       </c>
       <c r="BH16">
-        <v>85546979.35543445</v>
+        <v>85546979.35543446</v>
       </c>
       <c r="BI16">
-        <v>86439817.89535752</v>
+        <v>86439817.89535753</v>
       </c>
       <c r="BJ16">
-        <v>87322397.84358884</v>
+        <v>87322397.84358886</v>
       </c>
       <c r="BK16">
-        <v>88224624.90318975</v>
+        <v>88224624.90318976</v>
       </c>
       <c r="BL16">
-        <v>89136212.36761311</v>
+        <v>89136212.36761312</v>
       </c>
       <c r="BM16">
-        <v>90134231.3414672</v>
+        <v>90134231.34146722</v>
       </c>
       <c r="BN16">
-        <v>91256810.48798484</v>
+        <v>91256810.48798485</v>
       </c>
       <c r="BO16">
-        <v>92554819.63851352</v>
+        <v>92554819.63851354</v>
       </c>
       <c r="BP16">
-        <v>94083511.42602767</v>
+        <v>94083511.42602769</v>
       </c>
       <c r="BQ16">
-        <v>95859655.70183809</v>
+        <v>95859655.70183811</v>
       </c>
       <c r="BR16">
-        <v>97856060.56747051</v>
+        <v>97856060.56747052</v>
       </c>
       <c r="BS16">
-        <v>99984895.13407968</v>
+        <v>99984895.13407969</v>
       </c>
       <c r="BT16">
         <v>102196330.4032415</v>
@@ -9546,7 +9546,7 @@
         <v>115686662.6520938</v>
       </c>
       <c r="CA16">
-        <v>117603802.3014639</v>
+        <v>117603802.301464</v>
       </c>
       <c r="CB16">
         <v>119375722.0836667</v>
@@ -9570,10 +9570,10 @@
         <v>128259385.4345688</v>
       </c>
       <c r="CI16">
-        <v>129545878.0349836</v>
+        <v>129545878.0349837</v>
       </c>
       <c r="CJ16">
-        <v>130829613.9772979</v>
+        <v>130829613.977298</v>
       </c>
       <c r="CK16">
         <v>132103498.5407505</v>
@@ -9582,7 +9582,7 @@
         <v>133431754.7997682</v>
       </c>
       <c r="CM16">
-        <v>134852813.5102474</v>
+        <v>134852813.5102475</v>
       </c>
       <c r="CN16">
         <v>136407282.8943097</v>
@@ -9601,271 +9601,271 @@
         <v>114553.8396509568</v>
       </c>
       <c r="E17">
-        <v>187636.8374629897</v>
+        <v>187636.8374629896</v>
       </c>
       <c r="F17">
-        <v>243257.1548078384</v>
+        <v>243257.1548078383</v>
       </c>
       <c r="G17">
         <v>298604.5501182564</v>
       </c>
       <c r="H17">
-        <v>349601.0526636976</v>
+        <v>349601.0526636977</v>
       </c>
       <c r="I17">
-        <v>398509.6132202727</v>
+        <v>398509.6132202728</v>
       </c>
       <c r="J17">
-        <v>443281.1869998942</v>
+        <v>443281.1869998944</v>
       </c>
       <c r="K17">
-        <v>490023.8035570909</v>
+        <v>490023.8035570911</v>
       </c>
       <c r="L17">
-        <v>546529.8709139341</v>
+        <v>546529.8709139343</v>
       </c>
       <c r="M17">
-        <v>603047.7213830743</v>
+        <v>603047.7213830745</v>
       </c>
       <c r="N17">
-        <v>663180.0961656917</v>
+        <v>663180.096165692</v>
       </c>
       <c r="O17">
-        <v>732264.4315099482</v>
+        <v>732264.4315099486</v>
       </c>
       <c r="P17">
-        <v>1414243.77691315</v>
+        <v>1414243.776913151</v>
       </c>
       <c r="Q17">
-        <v>2096926.566154807</v>
+        <v>2096926.566154808</v>
       </c>
       <c r="R17">
-        <v>2780527.096961521</v>
+        <v>2780527.096961522</v>
       </c>
       <c r="S17">
-        <v>5004314.469907963</v>
+        <v>5004314.469907966</v>
       </c>
       <c r="T17">
-        <v>7229582.02996299</v>
+        <v>7229582.029962994</v>
       </c>
       <c r="U17">
-        <v>9456680.849394366</v>
+        <v>9456680.849394372</v>
       </c>
       <c r="V17">
         <v>11686014.41746607</v>
       </c>
       <c r="W17">
-        <v>13918046.10886926</v>
+        <v>13918046.10886927</v>
       </c>
       <c r="X17">
-        <v>16325515.230725</v>
+        <v>16325515.23072501</v>
       </c>
       <c r="Y17">
-        <v>18736854.81401134</v>
+        <v>18736854.81401135</v>
       </c>
       <c r="Z17">
-        <v>21152833.88469166</v>
+        <v>21152833.88469167</v>
       </c>
       <c r="AA17">
         <v>23574411.5308532</v>
       </c>
       <c r="AB17">
-        <v>26002817.22279801</v>
+        <v>26002817.22279802</v>
       </c>
       <c r="AC17">
-        <v>26762189.88902801</v>
+        <v>26762189.88902802</v>
       </c>
       <c r="AD17">
-        <v>27532151.99757387</v>
+        <v>27532151.99757388</v>
       </c>
       <c r="AE17">
         <v>28315584.14499578</v>
       </c>
       <c r="AF17">
-        <v>29116340.43086423</v>
+        <v>29116340.43086424</v>
       </c>
       <c r="AG17">
-        <v>29939522.05275074</v>
+        <v>29939522.05275075</v>
       </c>
       <c r="AH17">
-        <v>30264556.95051581</v>
+        <v>30264556.95051583</v>
       </c>
       <c r="AI17">
-        <v>30611349.27984631</v>
+        <v>30611349.27984633</v>
       </c>
       <c r="AJ17">
-        <v>30986977.46668356</v>
+        <v>30986977.46668358</v>
       </c>
       <c r="AK17">
-        <v>31412976.61037975</v>
+        <v>31412976.61037976</v>
       </c>
       <c r="AL17">
-        <v>31901426.38596509</v>
+        <v>31901426.38596511</v>
       </c>
       <c r="AM17">
-        <v>32790881.01000312</v>
+        <v>32790881.01000314</v>
       </c>
       <c r="AN17">
-        <v>33786465.03253997</v>
+        <v>33786465.03253999</v>
       </c>
       <c r="AO17">
-        <v>34904045.80957977</v>
+        <v>34904045.80957979</v>
       </c>
       <c r="AP17">
-        <v>36157836.25674632</v>
+        <v>36157836.25674634</v>
       </c>
       <c r="AQ17">
-        <v>37558881.60891529</v>
+        <v>37558881.60891531</v>
       </c>
       <c r="AR17">
-        <v>39492673.02836474</v>
+        <v>39492673.02836477</v>
       </c>
       <c r="AS17">
-        <v>41579996.31407139</v>
+        <v>41579996.31407142</v>
       </c>
       <c r="AT17">
-        <v>43813413.14540152</v>
+        <v>43813413.14540155</v>
       </c>
       <c r="AU17">
-        <v>46177472.63622195</v>
+        <v>46177472.63622198</v>
       </c>
       <c r="AV17">
-        <v>48648929.63854527</v>
+        <v>48648929.6385453</v>
       </c>
       <c r="AW17">
-        <v>51322515.77330659</v>
+        <v>51322515.77330663</v>
       </c>
       <c r="AX17">
-        <v>54038923.50021575</v>
+        <v>54038923.50021579</v>
       </c>
       <c r="AY17">
-        <v>56761338.59594789</v>
+        <v>56761338.59594794</v>
       </c>
       <c r="AZ17">
-        <v>59453624.96316645</v>
+        <v>59453624.9631665</v>
       </c>
       <c r="BA17">
-        <v>62083062.45589229</v>
+        <v>62083062.45589233</v>
       </c>
       <c r="BB17">
-        <v>64560254.76417926</v>
+        <v>64560254.7641793</v>
       </c>
       <c r="BC17">
-        <v>66928135.02820837</v>
+        <v>66928135.02820842</v>
       </c>
       <c r="BD17">
-        <v>69175819.93383145</v>
+        <v>69175819.9338315</v>
       </c>
       <c r="BE17">
-        <v>71301562.55173466</v>
+        <v>71301562.5517347</v>
       </c>
       <c r="BF17">
-        <v>73312725.26283294</v>
+        <v>73312725.26283298</v>
       </c>
       <c r="BG17">
-        <v>75194107.09082001</v>
+        <v>75194107.09082006</v>
       </c>
       <c r="BH17">
-        <v>76999818.1065937</v>
+        <v>76999818.10659374</v>
       </c>
       <c r="BI17">
-        <v>78758253.03716426</v>
+        <v>78758253.0371643</v>
       </c>
       <c r="BJ17">
-        <v>80500851.89045744</v>
+        <v>80500851.89045748</v>
       </c>
       <c r="BK17">
-        <v>82259739.20975623</v>
+        <v>82259739.20975627</v>
       </c>
       <c r="BL17">
-        <v>84069550.73872174</v>
+        <v>84069550.7387218</v>
       </c>
       <c r="BM17">
-        <v>85954125.12878844</v>
+        <v>85954125.1287885</v>
       </c>
       <c r="BN17">
-        <v>87937163.9287692</v>
+        <v>87937163.92876926</v>
       </c>
       <c r="BO17">
-        <v>90037643.54773512</v>
+        <v>90037643.5477352</v>
       </c>
       <c r="BP17">
-        <v>92269359.64474648</v>
+        <v>92269359.64474656</v>
       </c>
       <c r="BQ17">
-        <v>94646692.22688174</v>
+        <v>94646692.22688182</v>
       </c>
       <c r="BR17">
-        <v>97166250.24851263</v>
+        <v>97166250.2485127</v>
       </c>
       <c r="BS17">
-        <v>99825188.57453524</v>
+        <v>99825188.57453533</v>
       </c>
       <c r="BT17">
-        <v>102615495.5617915</v>
+        <v>102615495.5617916</v>
       </c>
       <c r="BU17">
-        <v>105524579.0381971</v>
+        <v>105524579.0381972</v>
       </c>
       <c r="BV17">
-        <v>108529359.7553212</v>
+        <v>108529359.7553213</v>
       </c>
       <c r="BW17">
-        <v>111617151.4827027</v>
+        <v>111617151.4827028</v>
       </c>
       <c r="BX17">
-        <v>114766674.2640506</v>
+        <v>114766674.2640508</v>
       </c>
       <c r="BY17">
-        <v>117955830.2067643</v>
+        <v>117955830.2067644</v>
       </c>
       <c r="BZ17">
-        <v>121162880.0561576</v>
+        <v>121162880.0561577</v>
       </c>
       <c r="CA17">
-        <v>124348115.3491807</v>
+        <v>124348115.3491808</v>
       </c>
       <c r="CB17">
-        <v>127513422.4876091</v>
+        <v>127513422.4876092</v>
       </c>
       <c r="CC17">
-        <v>130644688.2571546</v>
+        <v>130644688.2571547</v>
       </c>
       <c r="CD17">
-        <v>133731971.2682814</v>
+        <v>133731971.2682815</v>
       </c>
       <c r="CE17">
-        <v>136769926.031691</v>
+        <v>136769926.0316911</v>
       </c>
       <c r="CF17">
-        <v>139721233.4920922</v>
+        <v>139721233.4920923</v>
       </c>
       <c r="CG17">
-        <v>142626617.4362397</v>
+        <v>142626617.4362398</v>
       </c>
       <c r="CH17">
-        <v>145494262.3870901</v>
+        <v>145494262.3870903</v>
       </c>
       <c r="CI17">
-        <v>148335862.0214248</v>
+        <v>148335862.0214249</v>
       </c>
       <c r="CJ17">
-        <v>151165763.9419466</v>
+        <v>151165763.9419467</v>
       </c>
       <c r="CK17">
-        <v>153941352.1182552</v>
+        <v>153941352.1182553</v>
       </c>
       <c r="CL17">
-        <v>156738022.0843669</v>
+        <v>156738022.084367</v>
       </c>
       <c r="CM17">
-        <v>159572243.3916517</v>
+        <v>159572243.3916519</v>
       </c>
       <c r="CN17">
-        <v>162459327.9657097</v>
+        <v>162459327.9657098</v>
       </c>
       <c r="CO17">
-        <v>165412657.5957996</v>
+        <v>165412657.5957997</v>
       </c>
     </row>
   </sheetData>
